--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3D641F-522B-48A7-A8CD-3CD6991350F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB257F9-18F6-424B-B795-7272645DF5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20057" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="3600" yWindow="737" windowWidth="24686" windowHeight="17229" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="503">
   <si>
     <t>Address Offset</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>0x2a</t>
-  </si>
-  <si>
-    <t>SPI Control Register</t>
   </si>
   <si>
     <t>0 = SPI bus ready</t>
@@ -1535,13 +1532,34 @@
   </si>
   <si>
     <t>FPGA ID</t>
+  </si>
+  <si>
+    <t>TOSLINK Control</t>
+  </si>
+  <si>
+    <t>0x70</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>00 = 48 kHz output</t>
+  </si>
+  <si>
+    <t>01 = 96kHz output</t>
+  </si>
+  <si>
+    <t>10 = 192kHz output</t>
+  </si>
+  <si>
+    <t>SPI Status Register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1570,6 +1588,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -2224,7 +2248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2419,7 +2443,6 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2463,8 +2486,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2534,13 +2555,9 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2593,6 +2610,10 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2623,6 +2644,35 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2940,10 +2990,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N142" sqref="N142"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2968,13 +3018,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64"/>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
     </row>
@@ -3000,10 +3050,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="64"/>
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="125" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="48" t="s">
@@ -3012,55 +3062,55 @@
       <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="105" t="s">
-        <v>282</v>
+      <c r="F4" s="104" t="s">
+        <v>281</v>
       </c>
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="64"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="128"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="125"/>
       <c r="D5" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="105" t="s">
-        <v>283</v>
+      <c r="F5" s="104" t="s">
+        <v>282</v>
       </c>
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="64"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="128"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="105" t="s">
-        <v>284</v>
+      <c r="F6" s="104" t="s">
+        <v>283</v>
       </c>
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="64"/>
-      <c r="B7" s="159"/>
-      <c r="C7" s="98"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="38">
         <v>3</v>
       </c>
-      <c r="F7" s="106" t="s">
+      <c r="F7" s="105" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="64"/>
@@ -3068,79 +3118,79 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="64"/>
-      <c r="B8" s="159"/>
-      <c r="C8" s="128"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="125"/>
       <c r="D8" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="105" t="s">
-        <v>279</v>
+      <c r="F8" s="104" t="s">
+        <v>278</v>
       </c>
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="64"/>
-      <c r="B9" s="159"/>
-      <c r="C9" s="128"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="38">
         <v>5</v>
       </c>
-      <c r="F9" s="105" t="s">
-        <v>280</v>
+      <c r="F9" s="104" t="s">
+        <v>279</v>
       </c>
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="64"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="128"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="125"/>
       <c r="D10" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="38">
         <v>6</v>
       </c>
-      <c r="F10" s="105" t="s">
-        <v>281</v>
+      <c r="F10" s="104" t="s">
+        <v>280</v>
       </c>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="64"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="128"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="125"/>
       <c r="D11" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F11" s="105" t="s">
-        <v>365</v>
+        <v>246</v>
+      </c>
+      <c r="F11" s="104" t="s">
+        <v>364</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="64"/>
-      <c r="B12" s="159"/>
-      <c r="C12" s="128"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="125"/>
       <c r="D12" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="38">
         <v>15</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="64"/>
@@ -3148,11 +3198,11 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="64"/>
-      <c r="B13" s="159"/>
-      <c r="C13" s="128"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="59"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="107" t="s">
+      <c r="F13" s="106" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="64"/>
@@ -3160,10 +3210,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="64"/>
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="157" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="98" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="46" t="s">
@@ -3172,55 +3222,55 @@
       <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F14" s="108" t="s">
-        <v>263</v>
+      <c r="F14" s="107" t="s">
+        <v>262</v>
       </c>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="64"/>
-      <c r="B15" s="159"/>
-      <c r="C15" s="128"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="105" t="s">
-        <v>264</v>
+      <c r="F15" s="104" t="s">
+        <v>263</v>
       </c>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="64"/>
-      <c r="B16" s="159"/>
-      <c r="C16" s="128"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="38">
         <v>2</v>
       </c>
-      <c r="F16" s="105" t="s">
-        <v>265</v>
+      <c r="F16" s="104" t="s">
+        <v>264</v>
       </c>
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="64"/>
-      <c r="B17" s="159"/>
-      <c r="C17" s="128"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="38">
         <v>3</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="104" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="64"/>
@@ -3228,79 +3278,79 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="64"/>
-      <c r="B18" s="159"/>
-      <c r="C18" s="128"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="38">
         <v>4</v>
       </c>
-      <c r="F18" s="105" t="s">
-        <v>323</v>
+      <c r="F18" s="104" t="s">
+        <v>322</v>
       </c>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="64"/>
-      <c r="B19" s="159"/>
-      <c r="C19" s="128"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="105" t="s">
-        <v>324</v>
+      <c r="F19" s="104" t="s">
+        <v>323</v>
       </c>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="64"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="128"/>
+      <c r="B20" s="156"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="38">
         <v>6</v>
       </c>
-      <c r="F20" s="105" t="s">
-        <v>325</v>
+      <c r="F20" s="104" t="s">
+        <v>324</v>
       </c>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
-      <c r="B21" s="159"/>
-      <c r="C21" s="128"/>
+      <c r="B21" s="156"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="F21" s="105" t="s">
-        <v>367</v>
+        <v>246</v>
+      </c>
+      <c r="F21" s="104" t="s">
+        <v>366</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="64"/>
-      <c r="B22" s="159"/>
-      <c r="C22" s="128"/>
+      <c r="B22" s="156"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="38">
         <v>15</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="104" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="64"/>
@@ -3308,11 +3358,11 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="64"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="100"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="99"/>
       <c r="D23" s="59"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="107" t="s">
+      <c r="F23" s="106" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="64"/>
@@ -3320,307 +3370,307 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="64"/>
-      <c r="B24" s="160" t="s">
+      <c r="B24" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="99" t="s">
-        <v>266</v>
+      <c r="C24" s="98" t="s">
+        <v>265</v>
       </c>
       <c r="D24" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="F24" s="107" t="s">
         <v>421</v>
-      </c>
-      <c r="F24" s="108" t="s">
-        <v>422</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="64"/>
-      <c r="B25" s="159"/>
-      <c r="C25" s="128"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="48"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="105" t="s">
-        <v>423</v>
+      <c r="F25" s="104" t="s">
+        <v>422</v>
       </c>
       <c r="G25" s="64"/>
       <c r="H25" s="64"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="64"/>
-      <c r="B26" s="159"/>
-      <c r="C26" s="128"/>
+      <c r="B26" s="156"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="48"/>
       <c r="E26" s="38"/>
-      <c r="F26" s="105" t="s">
-        <v>424</v>
+      <c r="F26" s="104" t="s">
+        <v>423</v>
       </c>
       <c r="G26" s="64"/>
       <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
-      <c r="B27" s="159"/>
-      <c r="C27" s="128"/>
+      <c r="B27" s="156"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="48"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="105" t="s">
-        <v>425</v>
+      <c r="F27" s="104" t="s">
+        <v>424</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
-      <c r="B28" s="159"/>
-      <c r="C28" s="128"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="48"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="105" t="s">
-        <v>426</v>
+      <c r="F28" s="104" t="s">
+        <v>425</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="64"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="128"/>
+      <c r="B29" s="156"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="48"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="105" t="s">
-        <v>427</v>
+      <c r="F29" s="104" t="s">
+        <v>426</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="64"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="98"/>
+      <c r="B30" s="156"/>
+      <c r="C30" s="97"/>
       <c r="D30" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>338</v>
+        <v>224</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>337</v>
       </c>
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="64"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="128"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="115" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="F31" s="114" t="s">
+        <v>303</v>
       </c>
       <c r="H31" s="64"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="64"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="128"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="48"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="115" t="s">
-        <v>305</v>
+      <c r="F32" s="114" t="s">
+        <v>304</v>
       </c>
       <c r="H32" s="64"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="64"/>
-      <c r="B33" s="159"/>
-      <c r="C33" s="128"/>
+      <c r="B33" s="156"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="F33" s="115" t="s">
-        <v>302</v>
+        <v>243</v>
+      </c>
+      <c r="F33" s="114" t="s">
+        <v>301</v>
       </c>
       <c r="H33" s="64"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="64"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="128"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="59"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="109" t="s">
-        <v>303</v>
+      <c r="F34" s="108" t="s">
+        <v>302</v>
       </c>
       <c r="H34" s="64"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="64"/>
-      <c r="B35" s="160" t="s">
+      <c r="B35" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="99" t="s">
-        <v>267</v>
+      <c r="C35" s="98" t="s">
+        <v>266</v>
       </c>
       <c r="D35" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="107" t="s">
         <v>81</v>
-      </c>
-      <c r="F35" s="108" t="s">
-        <v>82</v>
       </c>
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="64"/>
-      <c r="B36" s="159"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="48"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="105" t="s">
-        <v>83</v>
+      <c r="F36" s="104" t="s">
+        <v>82</v>
       </c>
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="64"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="128"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="125"/>
       <c r="D37" s="48"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="105" t="s">
-        <v>84</v>
+      <c r="F37" s="104" t="s">
+        <v>83</v>
       </c>
       <c r="G37" s="64"/>
       <c r="H37" s="64"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="64"/>
-      <c r="B38" s="159"/>
-      <c r="C38" s="128"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="125"/>
       <c r="D38" s="48"/>
       <c r="E38" s="38"/>
-      <c r="F38" s="105" t="s">
-        <v>85</v>
+      <c r="F38" s="104" t="s">
+        <v>84</v>
       </c>
       <c r="G38" s="64"/>
       <c r="H38" s="64"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="64"/>
-      <c r="B39" s="159"/>
-      <c r="C39" s="128"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="125"/>
       <c r="D39" s="48"/>
       <c r="E39" s="38"/>
-      <c r="F39" s="105" t="s">
-        <v>86</v>
+      <c r="F39" s="104" t="s">
+        <v>85</v>
       </c>
       <c r="G39" s="64"/>
       <c r="H39" s="64"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="64"/>
-      <c r="B40" s="159"/>
-      <c r="C40" s="128"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="125"/>
       <c r="D40" s="48"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="105" t="s">
-        <v>87</v>
+      <c r="F40" s="104" t="s">
+        <v>86</v>
       </c>
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="64"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="128"/>
+      <c r="B41" s="156"/>
+      <c r="C41" s="125"/>
       <c r="D41" s="48"/>
       <c r="E41" s="38"/>
-      <c r="F41" s="105" t="s">
-        <v>88</v>
+      <c r="F41" s="104" t="s">
+        <v>87</v>
       </c>
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="64"/>
-      <c r="B42" s="159"/>
-      <c r="C42" s="128"/>
+      <c r="B42" s="156"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="48"/>
       <c r="E42" s="38"/>
-      <c r="F42" s="105" t="s">
-        <v>89</v>
+      <c r="F42" s="104" t="s">
+        <v>88</v>
       </c>
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="64"/>
-      <c r="B43" s="159"/>
-      <c r="C43" s="128"/>
+      <c r="B43" s="156"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="48"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="105" t="s">
-        <v>90</v>
+      <c r="F43" s="104" t="s">
+        <v>89</v>
       </c>
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="64"/>
-      <c r="B44" s="159"/>
-      <c r="C44" s="128"/>
+      <c r="B44" s="156"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="38">
         <v>14</v>
       </c>
-      <c r="F44" s="105" t="s">
-        <v>91</v>
+      <c r="F44" s="104" t="s">
+        <v>90</v>
       </c>
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="64"/>
-      <c r="B45" s="159"/>
-      <c r="C45" s="128"/>
+      <c r="B45" s="156"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="48"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="105" t="s">
-        <v>92</v>
+      <c r="F45" s="104" t="s">
+        <v>91</v>
       </c>
       <c r="G45" s="64"/>
       <c r="H45" s="64"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="64"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="128"/>
+      <c r="B46" s="156"/>
+      <c r="C46" s="125"/>
       <c r="D46" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="38">
         <v>15</v>
       </c>
-      <c r="F46" s="109" t="s">
+      <c r="F46" s="108" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="64"/>
@@ -3628,11 +3678,11 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="64"/>
-      <c r="B47" s="161"/>
-      <c r="C47" s="100"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="59"/>
       <c r="E47" s="39"/>
-      <c r="F47" s="110" t="s">
+      <c r="F47" s="109" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="64"/>
@@ -3640,11 +3690,11 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="64"/>
-      <c r="B48" s="162" t="s">
+      <c r="B48" s="159" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="101" t="s">
-        <v>268</v>
+      <c r="C48" s="100" t="s">
+        <v>267</v>
       </c>
       <c r="D48" s="51" t="s">
         <v>34</v>
@@ -3652,19 +3702,19 @@
       <c r="E48" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="111" t="s">
-        <v>272</v>
+      <c r="F48" s="110" t="s">
+        <v>271</v>
       </c>
       <c r="G48" s="64"/>
       <c r="H48" s="64"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="64"/>
-      <c r="B49" s="162" t="s">
+      <c r="B49" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="101" t="s">
-        <v>269</v>
+      <c r="C49" s="100" t="s">
+        <v>268</v>
       </c>
       <c r="D49" s="51" t="s">
         <v>33</v>
@@ -3672,19 +3722,19 @@
       <c r="E49" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="111" t="s">
-        <v>273</v>
+      <c r="F49" s="110" t="s">
+        <v>272</v>
       </c>
       <c r="G49" s="64"/>
       <c r="H49" s="64"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="64"/>
-      <c r="B50" s="162" t="s">
+      <c r="B50" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="101" t="s">
-        <v>270</v>
+      <c r="C50" s="100" t="s">
+        <v>269</v>
       </c>
       <c r="D50" s="51" t="s">
         <v>34</v>
@@ -3692,19 +3742,19 @@
       <c r="E50" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="111" t="s">
-        <v>274</v>
+      <c r="F50" s="110" t="s">
+        <v>273</v>
       </c>
       <c r="G50" s="64"/>
       <c r="H50" s="64"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="64"/>
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="101" t="s">
-        <v>271</v>
+      <c r="C51" s="100" t="s">
+        <v>270</v>
       </c>
       <c r="D51" s="51" t="s">
         <v>33</v>
@@ -3712,19 +3762,19 @@
       <c r="E51" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="111" t="s">
-        <v>275</v>
+      <c r="F51" s="110" t="s">
+        <v>274</v>
       </c>
       <c r="G51" s="64"/>
       <c r="H51" s="64"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="64"/>
-      <c r="B52" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="C52" s="111" t="s">
-        <v>492</v>
+      <c r="B52" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="C52" s="110" t="s">
+        <v>491</v>
       </c>
       <c r="D52" s="51" t="s">
         <v>32</v>
@@ -3732,19 +3782,19 @@
       <c r="E52" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="111" t="s">
-        <v>492</v>
+      <c r="F52" s="110" t="s">
+        <v>491</v>
       </c>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="64"/>
-      <c r="B53" s="162" t="s">
-        <v>189</v>
-      </c>
-      <c r="C53" s="111" t="s">
-        <v>493</v>
+      <c r="B53" s="159" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="110" t="s">
+        <v>492</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>32</v>
@@ -3752,8 +3802,8 @@
       <c r="E53" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="111" t="s">
-        <v>493</v>
+      <c r="F53" s="110" t="s">
+        <v>492</v>
       </c>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
@@ -3763,7 +3813,7 @@
       <c r="B54" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="101" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="51" t="s">
@@ -3772,7 +3822,7 @@
       <c r="E54" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="112" t="s">
+      <c r="F54" s="111" t="s">
         <v>49</v>
       </c>
       <c r="G54" s="64"/>
@@ -3783,7 +3833,7 @@
       <c r="B55" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="101" t="s">
         <v>42</v>
       </c>
       <c r="D55" s="51" t="s">
@@ -3792,7 +3842,7 @@
       <c r="E55" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="112" t="s">
+      <c r="F55" s="111" t="s">
         <v>42</v>
       </c>
       <c r="G55" s="64"/>
@@ -3803,7 +3853,7 @@
       <c r="B56" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="101" t="s">
         <v>44</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -3812,7 +3862,7 @@
       <c r="E56" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="112" t="s">
+      <c r="F56" s="111" t="s">
         <v>47</v>
       </c>
       <c r="G56" s="64"/>
@@ -3823,7 +3873,7 @@
       <c r="B57" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="101" t="s">
         <v>45</v>
       </c>
       <c r="D57" s="51" t="s">
@@ -3832,7 +3882,7 @@
       <c r="E57" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="112" t="s">
+      <c r="F57" s="111" t="s">
         <v>48</v>
       </c>
       <c r="G57" s="64"/>
@@ -3843,7 +3893,7 @@
       <c r="B58" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="101" t="s">
         <v>46</v>
       </c>
       <c r="D58" s="51" t="s">
@@ -3852,7 +3902,7 @@
       <c r="E58" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="112" t="s">
+      <c r="F58" s="111" t="s">
         <v>46</v>
       </c>
       <c r="G58" s="64"/>
@@ -3863,8 +3913,8 @@
       <c r="B59" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="103" t="s">
-        <v>78</v>
+      <c r="C59" s="102" t="s">
+        <v>502</v>
       </c>
       <c r="D59" s="46" t="s">
         <v>33</v>
@@ -3872,8 +3922,8 @@
       <c r="E59" s="40">
         <v>15</v>
       </c>
-      <c r="F59" s="113" t="s">
-        <v>79</v>
+      <c r="F59" s="112" t="s">
+        <v>78</v>
       </c>
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
@@ -3881,22 +3931,22 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="64"/>
       <c r="B60" s="90"/>
-      <c r="C60" s="104"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="59"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="114" t="s">
-        <v>80</v>
+      <c r="F60" s="113" t="s">
+        <v>79</v>
       </c>
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="64"/>
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="102" t="s">
-        <v>93</v>
+      <c r="C61" s="101" t="s">
+        <v>92</v>
       </c>
       <c r="D61" s="51" t="s">
         <v>32</v>
@@ -3904,19 +3954,19 @@
       <c r="E61" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="112" t="s">
-        <v>463</v>
+      <c r="F61" s="111" t="s">
+        <v>462</v>
       </c>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="64"/>
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="102" t="s">
-        <v>94</v>
+      <c r="C62" s="101" t="s">
+        <v>93</v>
       </c>
       <c r="D62" s="51" t="s">
         <v>32</v>
@@ -3924,19 +3974,19 @@
       <c r="E62" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="112" t="s">
-        <v>464</v>
+      <c r="F62" s="111" t="s">
+        <v>463</v>
       </c>
       <c r="G62" s="64"/>
       <c r="H62" s="64"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="64"/>
-      <c r="B63" s="162" t="s">
+      <c r="B63" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="102" t="s">
-        <v>441</v>
+      <c r="C63" s="101" t="s">
+        <v>440</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>32</v>
@@ -3944,19 +3994,19 @@
       <c r="E63" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="112" t="s">
-        <v>465</v>
+      <c r="F63" s="111" t="s">
+        <v>464</v>
       </c>
       <c r="G63" s="64"/>
       <c r="H63" s="64"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="64"/>
-      <c r="B64" s="162" t="s">
+      <c r="B64" s="159" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="102" t="s">
-        <v>442</v>
+      <c r="C64" s="101" t="s">
+        <v>441</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>32</v>
@@ -3964,19 +4014,19 @@
       <c r="E64" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="112" t="s">
-        <v>466</v>
+      <c r="F64" s="111" t="s">
+        <v>465</v>
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="64"/>
-      <c r="B65" s="162" t="s">
+      <c r="B65" s="159" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="102" t="s">
-        <v>443</v>
+      <c r="C65" s="101" t="s">
+        <v>442</v>
       </c>
       <c r="D65" s="51" t="s">
         <v>32</v>
@@ -3984,19 +4034,19 @@
       <c r="E65" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="112" t="s">
-        <v>468</v>
+      <c r="F65" s="111" t="s">
+        <v>467</v>
       </c>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="64"/>
-      <c r="B66" s="162" t="s">
+      <c r="B66" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="102" t="s">
-        <v>444</v>
+      <c r="C66" s="101" t="s">
+        <v>443</v>
       </c>
       <c r="D66" s="51" t="s">
         <v>32</v>
@@ -4004,19 +4054,19 @@
       <c r="E66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="112" t="s">
-        <v>467</v>
+      <c r="F66" s="111" t="s">
+        <v>466</v>
       </c>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="64"/>
-      <c r="B67" s="162" t="s">
+      <c r="B67" s="159" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="102" t="s">
-        <v>445</v>
+      <c r="C67" s="101" t="s">
+        <v>444</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>32</v>
@@ -4024,19 +4074,19 @@
       <c r="E67" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="112" t="s">
-        <v>469</v>
+      <c r="F67" s="111" t="s">
+        <v>468</v>
       </c>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="64"/>
-      <c r="B68" s="162" t="s">
+      <c r="B68" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="102" t="s">
-        <v>446</v>
+      <c r="C68" s="101" t="s">
+        <v>445</v>
       </c>
       <c r="D68" s="51" t="s">
         <v>32</v>
@@ -4044,19 +4094,19 @@
       <c r="E68" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="112" t="s">
-        <v>470</v>
+      <c r="F68" s="111" t="s">
+        <v>469</v>
       </c>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="64"/>
-      <c r="B69" s="162" t="s">
+      <c r="B69" s="159" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="102" t="s">
-        <v>440</v>
+      <c r="C69" s="101" t="s">
+        <v>439</v>
       </c>
       <c r="D69" s="51" t="s">
         <v>32</v>
@@ -4064,19 +4114,19 @@
       <c r="E69" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="112" t="s">
-        <v>471</v>
+      <c r="F69" s="111" t="s">
+        <v>470</v>
       </c>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="64"/>
-      <c r="B70" s="162" t="s">
+      <c r="B70" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="102" t="s">
-        <v>447</v>
+      <c r="C70" s="101" t="s">
+        <v>446</v>
       </c>
       <c r="D70" s="51" t="s">
         <v>32</v>
@@ -4084,19 +4134,19 @@
       <c r="E70" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="112" t="s">
-        <v>472</v>
+      <c r="F70" s="111" t="s">
+        <v>471</v>
       </c>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="64"/>
-      <c r="B71" s="162" t="s">
+      <c r="B71" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="102" t="s">
-        <v>449</v>
+      <c r="C71" s="101" t="s">
+        <v>448</v>
       </c>
       <c r="D71" s="51" t="s">
         <v>32</v>
@@ -4104,19 +4154,19 @@
       <c r="E71" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="112" t="s">
-        <v>473</v>
+      <c r="F71" s="111" t="s">
+        <v>472</v>
       </c>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="64"/>
-      <c r="B72" s="162" t="s">
+      <c r="B72" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="102" t="s">
-        <v>448</v>
+      <c r="C72" s="101" t="s">
+        <v>447</v>
       </c>
       <c r="D72" s="51" t="s">
         <v>32</v>
@@ -4124,77 +4174,77 @@
       <c r="E72" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="112" t="s">
-        <v>474</v>
+      <c r="F72" s="111" t="s">
+        <v>473</v>
       </c>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="64"/>
-      <c r="B73" s="160" t="s">
+      <c r="B73" s="157" t="s">
+        <v>449</v>
+      </c>
+      <c r="C73" s="102" t="s">
         <v>450</v>
       </c>
-      <c r="C73" s="103" t="s">
-        <v>451</v>
-      </c>
       <c r="D73" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="116" t="s">
-        <v>458</v>
+        <v>186</v>
+      </c>
+      <c r="F73" s="115" t="s">
+        <v>457</v>
       </c>
       <c r="G73" s="64"/>
       <c r="H73" s="64"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="64"/>
-      <c r="B74" s="159"/>
-      <c r="C74" s="98"/>
+      <c r="B74" s="156"/>
+      <c r="C74" s="97"/>
       <c r="D74" s="48"/>
       <c r="E74" s="38"/>
-      <c r="F74" s="115" t="s">
-        <v>475</v>
+      <c r="F74" s="114" t="s">
+        <v>474</v>
       </c>
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="64"/>
-      <c r="B75" s="159"/>
-      <c r="C75" s="98"/>
+      <c r="B75" s="156"/>
+      <c r="C75" s="97"/>
       <c r="D75" s="48"/>
       <c r="E75" s="38" t="s">
-        <v>431</v>
-      </c>
-      <c r="F75" s="115" t="s">
-        <v>459</v>
+        <v>430</v>
+      </c>
+      <c r="F75" s="114" t="s">
+        <v>458</v>
       </c>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="64"/>
-      <c r="B76" s="163"/>
-      <c r="C76" s="98"/>
+      <c r="B76" s="160"/>
+      <c r="C76" s="97"/>
       <c r="D76" s="48"/>
       <c r="E76" s="39"/>
-      <c r="F76" s="109" t="s">
-        <v>460</v>
+      <c r="F76" s="108" t="s">
+        <v>459</v>
       </c>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="64"/>
-      <c r="B77" s="164" t="s">
-        <v>452</v>
-      </c>
-      <c r="C77" s="103" t="s">
-        <v>456</v>
+      <c r="B77" s="161" t="s">
+        <v>451</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>455</v>
       </c>
       <c r="D77" s="48" t="s">
         <v>34</v>
@@ -4202,19 +4252,19 @@
       <c r="E77" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="116" t="s">
-        <v>461</v>
+      <c r="F77" s="115" t="s">
+        <v>460</v>
       </c>
       <c r="G77" s="64"/>
       <c r="H77" s="64"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="64"/>
-      <c r="B78" s="164" t="s">
-        <v>454</v>
-      </c>
-      <c r="C78" s="103" t="s">
+      <c r="B78" s="161" t="s">
         <v>453</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>452</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>33</v>
@@ -4222,19 +4272,19 @@
       <c r="E78" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="116" t="s">
-        <v>476</v>
+      <c r="F78" s="115" t="s">
+        <v>475</v>
       </c>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="64"/>
-      <c r="B79" s="164" t="s">
-        <v>457</v>
-      </c>
-      <c r="C79" s="103" t="s">
-        <v>455</v>
+      <c r="B79" s="161" t="s">
+        <v>456</v>
+      </c>
+      <c r="C79" s="102" t="s">
+        <v>454</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>33</v>
@@ -4242,8 +4292,8 @@
       <c r="E79" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="116" t="s">
-        <v>462</v>
+      <c r="F79" s="115" t="s">
+        <v>461</v>
       </c>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
@@ -4251,10 +4301,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="64"/>
       <c r="B80" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" s="102" t="s">
         <v>395</v>
-      </c>
-      <c r="C80" s="103" t="s">
-        <v>396</v>
       </c>
       <c r="D80" s="48" t="s">
         <v>34</v>
@@ -4262,17 +4312,17 @@
       <c r="E80" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="116"/>
+      <c r="F80" s="115"/>
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="64"/>
       <c r="B81" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="C81" s="103" t="s">
-        <v>406</v>
+        <v>400</v>
+      </c>
+      <c r="C81" s="102" t="s">
+        <v>405</v>
       </c>
       <c r="D81" s="46" t="s">
         <v>34</v>
@@ -4280,17 +4330,17 @@
       <c r="E81" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="112"/>
+      <c r="F81" s="111"/>
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="64"/>
       <c r="B82" s="92" t="s">
-        <v>402</v>
-      </c>
-      <c r="C82" s="103" t="s">
-        <v>397</v>
+        <v>401</v>
+      </c>
+      <c r="C82" s="102" t="s">
+        <v>396</v>
       </c>
       <c r="D82" s="46" t="s">
         <v>34</v>
@@ -4298,17 +4348,17 @@
       <c r="E82" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="116"/>
+      <c r="F82" s="115"/>
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="64"/>
       <c r="B83" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="C83" s="103" t="s">
-        <v>398</v>
+        <v>402</v>
+      </c>
+      <c r="C83" s="102" t="s">
+        <v>397</v>
       </c>
       <c r="D83" s="46" t="s">
         <v>34</v>
@@ -4316,17 +4366,17 @@
       <c r="E83" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="116"/>
+      <c r="F83" s="115"/>
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="64"/>
       <c r="B84" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="C84" s="103" t="s">
-        <v>399</v>
+        <v>409</v>
+      </c>
+      <c r="C84" s="102" t="s">
+        <v>398</v>
       </c>
       <c r="D84" s="46" t="s">
         <v>33</v>
@@ -4334,35 +4384,35 @@
       <c r="E84" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="116"/>
+      <c r="F84" s="115"/>
       <c r="G84" s="64"/>
       <c r="H84" s="64"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="64"/>
       <c r="B85" s="92" t="s">
-        <v>411</v>
-      </c>
-      <c r="C85" s="103" t="s">
-        <v>400</v>
+        <v>410</v>
+      </c>
+      <c r="C85" s="102" t="s">
+        <v>399</v>
       </c>
       <c r="D85" s="46" t="s">
         <v>33</v>
       </c>
       <c r="E85" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="F85" s="116"/>
+        <v>197</v>
+      </c>
+      <c r="F85" s="115"/>
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="64"/>
       <c r="B86" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="C86" s="103" t="s">
-        <v>404</v>
+        <v>411</v>
+      </c>
+      <c r="C86" s="102" t="s">
+        <v>403</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>34</v>
@@ -4370,17 +4420,17 @@
       <c r="E86" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="116"/>
+      <c r="F86" s="115"/>
       <c r="G86" s="64"/>
       <c r="H86" s="64"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="64"/>
       <c r="B87" s="92" t="s">
-        <v>413</v>
-      </c>
-      <c r="C87" s="103" t="s">
-        <v>405</v>
+        <v>412</v>
+      </c>
+      <c r="C87" s="102" t="s">
+        <v>404</v>
       </c>
       <c r="D87" s="48" t="s">
         <v>34</v>
@@ -4388,17 +4438,17 @@
       <c r="E87" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="116"/>
+      <c r="F87" s="115"/>
       <c r="G87" s="64"/>
       <c r="H87" s="64"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="64"/>
       <c r="B88" s="92" t="s">
-        <v>414</v>
-      </c>
-      <c r="C88" s="103" t="s">
-        <v>407</v>
+        <v>413</v>
+      </c>
+      <c r="C88" s="102" t="s">
+        <v>406</v>
       </c>
       <c r="D88" s="51" t="s">
         <v>34</v>
@@ -4406,17 +4456,17 @@
       <c r="E88" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="116"/>
+      <c r="F88" s="115"/>
       <c r="G88" s="64"/>
       <c r="H88" s="64"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="64"/>
       <c r="B89" s="92" t="s">
-        <v>415</v>
-      </c>
-      <c r="C89" s="103" t="s">
-        <v>408</v>
+        <v>414</v>
+      </c>
+      <c r="C89" s="102" t="s">
+        <v>407</v>
       </c>
       <c r="D89" s="51" t="s">
         <v>34</v>
@@ -4424,17 +4474,17 @@
       <c r="E89" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="116"/>
+      <c r="F89" s="115"/>
       <c r="G89" s="64"/>
       <c r="H89" s="64"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="91" t="s">
-        <v>416</v>
-      </c>
-      <c r="C90" s="102" t="s">
-        <v>409</v>
+        <v>415</v>
+      </c>
+      <c r="C90" s="101" t="s">
+        <v>408</v>
       </c>
       <c r="D90" s="51" t="s">
         <v>33</v>
@@ -4442,26 +4492,26 @@
       <c r="E90" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="112"/>
+      <c r="F90" s="111"/>
       <c r="G90" s="64"/>
       <c r="H90" s="64"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="64"/>
       <c r="B91" s="93" t="s">
+        <v>416</v>
+      </c>
+      <c r="C91" s="102" t="s">
         <v>417</v>
-      </c>
-      <c r="C91" s="103" t="s">
-        <v>418</v>
       </c>
       <c r="D91" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="143" t="s">
-        <v>198</v>
-      </c>
-      <c r="F91" s="113" t="s">
-        <v>419</v>
+      <c r="E91" s="140" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" s="112" t="s">
+        <v>418</v>
       </c>
       <c r="G91" s="64"/>
       <c r="H91" s="64"/>
@@ -4469,150 +4519,154 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="64"/>
       <c r="B92" s="90"/>
-      <c r="C92" s="98"/>
+      <c r="C92" s="103"/>
       <c r="D92" s="48"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="114" t="s">
-        <v>420</v>
+      <c r="E92" s="39"/>
+      <c r="F92" s="113" t="s">
+        <v>419</v>
       </c>
       <c r="G92" s="64"/>
       <c r="H92" s="64"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="64"/>
-      <c r="B93" s="164" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" s="103" t="s">
-        <v>277</v>
+      <c r="B93" s="160" t="s">
+        <v>497</v>
+      </c>
+      <c r="C93" s="97" t="s">
+        <v>496</v>
       </c>
       <c r="D93" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E93" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F93" s="113" t="s">
-        <v>294</v>
+      <c r="E93" s="96" t="s">
+        <v>498</v>
+      </c>
+      <c r="F93" s="114" t="s">
+        <v>499</v>
       </c>
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="64"/>
-      <c r="B94" s="159"/>
-      <c r="C94" s="98"/>
+      <c r="B94" s="160"/>
+      <c r="C94" s="97"/>
       <c r="D94" s="48"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="109" t="s">
-        <v>295</v>
+      <c r="E94" s="96"/>
+      <c r="F94" s="114" t="s">
+        <v>500</v>
       </c>
       <c r="G94" s="64"/>
       <c r="H94" s="64"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="64"/>
-      <c r="B95" s="159"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" s="38" t="s">
-        <v>296</v>
-      </c>
-      <c r="F95" s="115" t="s">
-        <v>297</v>
+      <c r="B95" s="160"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="114" t="s">
+        <v>501</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="64"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
-      <c r="B96" s="159"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="48"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="115" t="s">
-        <v>298</v>
+      <c r="B96" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C96" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D96" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" s="112" t="s">
+        <v>293</v>
       </c>
       <c r="G96" s="64"/>
       <c r="H96" s="64"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="64"/>
-      <c r="B97" s="163"/>
-      <c r="C97" s="98"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="48"/>
       <c r="E97" s="38"/>
-      <c r="F97" s="115" t="s">
-        <v>299</v>
+      <c r="F97" s="108" t="s">
+        <v>294</v>
       </c>
       <c r="G97" s="64"/>
       <c r="H97" s="64"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
-      <c r="B98" s="159"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="48"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="109" t="s">
-        <v>300</v>
+      <c r="B98" s="87"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F98" s="114" t="s">
+        <v>296</v>
       </c>
       <c r="G98" s="64"/>
       <c r="H98" s="64"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="64"/>
-      <c r="B99" s="159"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="38" t="s">
-        <v>225</v>
-      </c>
-      <c r="F99" s="115" t="s">
-        <v>304</v>
+      <c r="B99" s="87"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="48"/>
+      <c r="E99" s="38"/>
+      <c r="F99" s="114" t="s">
+        <v>297</v>
       </c>
       <c r="G99" s="64"/>
       <c r="H99" s="64"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="64"/>
-      <c r="B100" s="159"/>
-      <c r="C100" s="98"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="97"/>
       <c r="D100" s="48"/>
       <c r="E100" s="38"/>
-      <c r="F100" s="115" t="s">
-        <v>305</v>
+      <c r="F100" s="114" t="s">
+        <v>298</v>
       </c>
       <c r="G100" s="64"/>
       <c r="H100" s="64"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="64"/>
-      <c r="B101" s="159"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>301</v>
-      </c>
-      <c r="F101" s="115" t="s">
-        <v>302</v>
+      <c r="B101" s="87"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="48"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="108" t="s">
+        <v>299</v>
       </c>
       <c r="G101" s="64"/>
       <c r="H101" s="64"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="64"/>
-      <c r="B102" s="163"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="59"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="109" t="s">
+      <c r="B102" s="87"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E102" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F102" s="114" t="s">
         <v>303</v>
       </c>
       <c r="G102" s="64"/>
@@ -4620,395 +4674,387 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="64"/>
-      <c r="B103" s="160" t="s">
-        <v>285</v>
-      </c>
-      <c r="C103" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="D103" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="F103" s="108" t="s">
-        <v>82</v>
+      <c r="B103" s="87"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="48"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="114" t="s">
+        <v>304</v>
       </c>
       <c r="G103" s="64"/>
       <c r="H103" s="64"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="64"/>
-      <c r="B104" s="159"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="105" t="s">
-        <v>83</v>
+      <c r="B104" s="87"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F104" s="114" t="s">
+        <v>301</v>
       </c>
       <c r="G104" s="64"/>
       <c r="H104" s="64"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="64"/>
-      <c r="B105" s="163"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="48"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="38"/>
-      <c r="F105" s="105" t="s">
-        <v>84</v>
+      <c r="F105" s="108" t="s">
+        <v>302</v>
       </c>
       <c r="G105" s="64"/>
       <c r="H105" s="64"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="64"/>
-      <c r="B106" s="159"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="48"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="105" t="s">
-        <v>85</v>
+      <c r="B106" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="C106" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D106" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F106" s="107" t="s">
+        <v>81</v>
       </c>
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="64"/>
-      <c r="B107" s="159"/>
-      <c r="C107" s="98"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="97"/>
       <c r="D107" s="48"/>
       <c r="E107" s="38"/>
-      <c r="F107" s="105" t="s">
-        <v>86</v>
+      <c r="F107" s="104" t="s">
+        <v>82</v>
       </c>
       <c r="G107" s="64"/>
       <c r="H107" s="64"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="64"/>
-      <c r="B108" s="163"/>
-      <c r="C108" s="98"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="97"/>
       <c r="D108" s="48"/>
       <c r="E108" s="38"/>
-      <c r="F108" s="105" t="s">
-        <v>87</v>
+      <c r="F108" s="104" t="s">
+        <v>83</v>
       </c>
       <c r="G108" s="64"/>
       <c r="H108" s="64"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="64"/>
-      <c r="B109" s="159"/>
-      <c r="C109" s="98"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="97"/>
       <c r="D109" s="48"/>
       <c r="E109" s="38"/>
-      <c r="F109" s="105" t="s">
-        <v>88</v>
+      <c r="F109" s="104" t="s">
+        <v>84</v>
       </c>
       <c r="G109" s="64"/>
       <c r="H109" s="64"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="64"/>
-      <c r="B110" s="159"/>
-      <c r="C110" s="98"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="97"/>
       <c r="D110" s="48"/>
       <c r="E110" s="38"/>
-      <c r="F110" s="105" t="s">
-        <v>89</v>
+      <c r="F110" s="104" t="s">
+        <v>85</v>
       </c>
       <c r="G110" s="64"/>
       <c r="H110" s="64"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="64"/>
-      <c r="B111" s="159"/>
-      <c r="C111" s="98"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="97"/>
       <c r="D111" s="48"/>
       <c r="E111" s="38"/>
-      <c r="F111" s="105" t="s">
-        <v>90</v>
+      <c r="F111" s="104" t="s">
+        <v>86</v>
       </c>
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="64"/>
-      <c r="B112" s="159"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="38" t="s">
-        <v>288</v>
-      </c>
-      <c r="F112" s="105" t="s">
-        <v>289</v>
+      <c r="B112" s="87"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="38"/>
+      <c r="F112" s="104" t="s">
+        <v>87</v>
       </c>
       <c r="G112" s="64"/>
       <c r="H112" s="64"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="64"/>
-      <c r="B113" s="159"/>
-      <c r="C113" s="98"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="97"/>
       <c r="D113" s="48"/>
       <c r="E113" s="38"/>
-      <c r="F113" s="105" t="s">
-        <v>290</v>
+      <c r="F113" s="104" t="s">
+        <v>88</v>
       </c>
       <c r="G113" s="64"/>
       <c r="H113" s="64"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="64"/>
-      <c r="B114" s="159"/>
-      <c r="C114" s="98"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="97"/>
       <c r="D114" s="48"/>
       <c r="E114" s="38"/>
-      <c r="F114" s="105" t="s">
-        <v>291</v>
+      <c r="F114" s="104" t="s">
+        <v>89</v>
       </c>
       <c r="G114" s="64"/>
       <c r="H114" s="64"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="64"/>
-      <c r="B115" s="159"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="105" t="s">
-        <v>292</v>
+      <c r="B115" s="87"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="F115" s="104" t="s">
+        <v>288</v>
       </c>
       <c r="G115" s="64"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="64"/>
-      <c r="B116" s="159"/>
-      <c r="C116" s="98"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="97"/>
       <c r="D116" s="48"/>
       <c r="E116" s="38"/>
-      <c r="F116" s="105" t="s">
-        <v>293</v>
+      <c r="F116" s="104" t="s">
+        <v>289</v>
       </c>
       <c r="G116" s="64"/>
       <c r="H116" s="64"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="64"/>
-      <c r="B117" s="159"/>
-      <c r="C117" s="98"/>
-      <c r="D117" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" s="38">
-        <v>15</v>
-      </c>
-      <c r="F117" s="109" t="s">
-        <v>286</v>
+      <c r="B117" s="87"/>
+      <c r="C117" s="97"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="104" t="s">
+        <v>290</v>
       </c>
       <c r="G117" s="64"/>
       <c r="H117" s="64"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="64"/>
-      <c r="B118" s="163"/>
-      <c r="C118" s="98"/>
-      <c r="D118" s="59"/>
-      <c r="E118" s="39"/>
-      <c r="F118" s="110" t="s">
-        <v>287</v>
+      <c r="B118" s="87"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="38"/>
+      <c r="F118" s="104" t="s">
+        <v>291</v>
       </c>
       <c r="G118" s="64"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="64"/>
-      <c r="B119" s="160" t="s">
-        <v>317</v>
-      </c>
-      <c r="C119" s="99" t="s">
-        <v>313</v>
-      </c>
-      <c r="D119" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F119" s="110" t="s">
-        <v>315</v>
+      <c r="B119" s="87"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="104" t="s">
+        <v>292</v>
       </c>
       <c r="G119" s="64"/>
       <c r="H119" s="64"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="64"/>
-      <c r="B120" s="162" t="s">
-        <v>318</v>
-      </c>
-      <c r="C120" s="99" t="s">
-        <v>314</v>
-      </c>
+      <c r="B120" s="87"/>
+      <c r="C120" s="97"/>
       <c r="D120" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F120" s="110" t="s">
-        <v>316</v>
+      <c r="E120" s="38">
+        <v>15</v>
+      </c>
+      <c r="F120" s="108" t="s">
+        <v>285</v>
       </c>
       <c r="G120" s="64"/>
       <c r="H120" s="64"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="64"/>
-      <c r="B121" s="162" t="s">
-        <v>319</v>
-      </c>
-      <c r="C121" s="101" t="s">
-        <v>306</v>
-      </c>
-      <c r="D121" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E121" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F121" s="111" t="s">
-        <v>310</v>
+      <c r="B121" s="93"/>
+      <c r="C121" s="97"/>
+      <c r="D121" s="59"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="109" t="s">
+        <v>286</v>
       </c>
       <c r="G121" s="64"/>
       <c r="H121" s="64"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="64"/>
-      <c r="B122" s="162" t="s">
-        <v>320</v>
-      </c>
-      <c r="C122" s="101" t="s">
-        <v>307</v>
-      </c>
-      <c r="D122" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E122" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F122" s="111" t="s">
-        <v>311</v>
+      <c r="B122" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C122" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="D122" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F122" s="109" t="s">
+        <v>314</v>
       </c>
       <c r="G122" s="64"/>
       <c r="H122" s="64"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="64"/>
-      <c r="B123" s="162" t="s">
-        <v>321</v>
-      </c>
-      <c r="C123" s="101" t="s">
-        <v>309</v>
-      </c>
-      <c r="D123" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E123" s="42" t="s">
+      <c r="B123" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="D123" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="111" t="s">
-        <v>326</v>
+      <c r="F123" s="109" t="s">
+        <v>315</v>
       </c>
       <c r="G123" s="64"/>
       <c r="H123" s="64"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="64"/>
-      <c r="B124" s="162" t="s">
-        <v>322</v>
-      </c>
-      <c r="C124" s="101" t="s">
-        <v>308</v>
+      <c r="B124" s="91" t="s">
+        <v>318</v>
+      </c>
+      <c r="C124" s="100" t="s">
+        <v>305</v>
       </c>
       <c r="D124" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F124" s="111" t="s">
-        <v>312</v>
+        <v>22</v>
+      </c>
+      <c r="F124" s="110" t="s">
+        <v>309</v>
       </c>
       <c r="G124" s="64"/>
       <c r="H124" s="64"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="64"/>
-      <c r="B125" s="89" t="s">
-        <v>344</v>
-      </c>
-      <c r="C125" s="126" t="s">
-        <v>345</v>
-      </c>
-      <c r="D125" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E125" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="F125" s="113" t="s">
-        <v>347</v>
+      <c r="B125" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C125" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D125" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="110" t="s">
+        <v>310</v>
       </c>
       <c r="G125" s="64"/>
       <c r="H125" s="64"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="64"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="128"/>
-      <c r="D126" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="38" t="s">
-        <v>348</v>
-      </c>
-      <c r="F126" s="115" t="s">
-        <v>349</v>
+      <c r="B126" s="91" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="D126" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="110" t="s">
+        <v>325</v>
       </c>
       <c r="G126" s="64"/>
       <c r="H126" s="64"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="64"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="127"/>
-      <c r="D127" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" s="38" t="s">
-        <v>350</v>
-      </c>
-      <c r="F127" s="115" t="s">
-        <v>351</v>
+      <c r="B127" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C127" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D127" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="110" t="s">
+        <v>311</v>
       </c>
       <c r="G127" s="64"/>
       <c r="H127" s="64"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="64"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="F128" s="109" t="s">
+      <c r="B128" s="204" t="s">
+        <v>343</v>
+      </c>
+      <c r="C128" s="205" t="s">
+        <v>344</v>
+      </c>
+      <c r="D128" s="206" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="207" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" s="208" t="s">
         <v>346</v>
       </c>
       <c r="G128" s="64"/>
@@ -5016,119 +5062,107 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="64"/>
-      <c r="B129" s="162" t="s">
-        <v>371</v>
-      </c>
-      <c r="C129" s="102" t="s">
-        <v>372</v>
-      </c>
-      <c r="D129" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>198</v>
-      </c>
-      <c r="F129" s="112" t="s">
-        <v>387</v>
+      <c r="B129" s="209"/>
+      <c r="C129" s="210"/>
+      <c r="D129" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="212" t="s">
+        <v>347</v>
+      </c>
+      <c r="F129" s="213" t="s">
+        <v>348</v>
       </c>
       <c r="G129" s="64"/>
       <c r="H129" s="64"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="64"/>
-      <c r="B130" s="162" t="s">
-        <v>380</v>
-      </c>
-      <c r="C130" s="102" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130" s="112" t="s">
-        <v>388</v>
+      <c r="B130" s="209"/>
+      <c r="C130" s="214"/>
+      <c r="D130" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="212" t="s">
+        <v>349</v>
+      </c>
+      <c r="F130" s="213" t="s">
+        <v>350</v>
       </c>
       <c r="G130" s="64"/>
       <c r="H130" s="64"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="64"/>
-      <c r="B131" s="162" t="s">
-        <v>381</v>
-      </c>
-      <c r="C131" s="102" t="s">
-        <v>376</v>
-      </c>
-      <c r="D131" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F131" s="112" t="s">
-        <v>391</v>
+      <c r="B131" s="209"/>
+      <c r="C131" s="214"/>
+      <c r="D131" s="211" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="212" t="s">
+        <v>197</v>
+      </c>
+      <c r="F131" s="215" t="s">
+        <v>345</v>
       </c>
       <c r="G131" s="64"/>
       <c r="H131" s="64"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="64"/>
-      <c r="B132" s="162" t="s">
-        <v>382</v>
-      </c>
-      <c r="C132" s="102" t="s">
-        <v>377</v>
-      </c>
-      <c r="D132" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="F132" s="112" t="s">
-        <v>392</v>
+      <c r="B132" s="199" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="200" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="202" t="s">
+        <v>197</v>
+      </c>
+      <c r="F132" s="203" t="s">
+        <v>386</v>
       </c>
       <c r="G132" s="64"/>
       <c r="H132" s="64"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="64"/>
-      <c r="B133" s="162" t="s">
-        <v>383</v>
-      </c>
-      <c r="C133" s="102" t="s">
-        <v>374</v>
-      </c>
-      <c r="D133" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="42" t="s">
+      <c r="B133" s="199" t="s">
+        <v>379</v>
+      </c>
+      <c r="C133" s="200" t="s">
+        <v>372</v>
+      </c>
+      <c r="D133" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="F133" s="112" t="s">
-        <v>389</v>
+      <c r="F133" s="203" t="s">
+        <v>387</v>
       </c>
       <c r="G133" s="64"/>
       <c r="H133" s="64"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="64"/>
-      <c r="B134" s="162" t="s">
-        <v>384</v>
-      </c>
-      <c r="C134" s="102" t="s">
+      <c r="B134" s="199" t="s">
+        <v>380</v>
+      </c>
+      <c r="C134" s="200" t="s">
         <v>375</v>
       </c>
-      <c r="D134" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F134" s="112" t="s">
+      <c r="D134" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="F134" s="203" t="s">
         <v>390</v>
       </c>
       <c r="G134" s="64"/>
@@ -5136,271 +5170,301 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="64"/>
-      <c r="B135" s="162" t="s">
-        <v>385</v>
-      </c>
-      <c r="C135" s="102" t="s">
-        <v>378</v>
-      </c>
-      <c r="D135" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" s="112" t="s">
-        <v>393</v>
+      <c r="B135" s="199" t="s">
+        <v>381</v>
+      </c>
+      <c r="C135" s="200" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="202" t="s">
+        <v>185</v>
+      </c>
+      <c r="F135" s="203" t="s">
+        <v>391</v>
       </c>
       <c r="G135" s="64"/>
       <c r="H135" s="64"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="64"/>
-      <c r="B136" s="162" t="s">
-        <v>386</v>
-      </c>
-      <c r="C136" s="102" t="s">
-        <v>379</v>
-      </c>
-      <c r="D136" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="42" t="s">
+      <c r="B136" s="199" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" s="200" t="s">
+        <v>373</v>
+      </c>
+      <c r="D136" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="112" t="s">
-        <v>394</v>
+      <c r="F136" s="203" t="s">
+        <v>388</v>
       </c>
       <c r="G136" s="64"/>
       <c r="H136" s="64"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="64"/>
-      <c r="B137" s="92" t="s">
-        <v>68</v>
-      </c>
-      <c r="C137" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="40">
-        <v>0</v>
-      </c>
-      <c r="F137" s="116" t="s">
-        <v>70</v>
+      <c r="B137" s="199" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" s="200" t="s">
+        <v>374</v>
+      </c>
+      <c r="D137" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="202" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="203" t="s">
+        <v>389</v>
       </c>
       <c r="G137" s="64"/>
       <c r="H137" s="64"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="64"/>
-      <c r="B138" s="93"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="48"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="109" t="s">
-        <v>71</v>
+      <c r="B138" s="199" t="s">
+        <v>384</v>
+      </c>
+      <c r="C138" s="200" t="s">
+        <v>377</v>
+      </c>
+      <c r="D138" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="202" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="203" t="s">
+        <v>392</v>
       </c>
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="64"/>
-      <c r="B139" s="93"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E139" s="38">
-        <v>1</v>
-      </c>
-      <c r="F139" s="109" t="s">
-        <v>72</v>
+      <c r="B139" s="199" t="s">
+        <v>385</v>
+      </c>
+      <c r="C139" s="200" t="s">
+        <v>378</v>
+      </c>
+      <c r="D139" s="201" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="202" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="203" t="s">
+        <v>393</v>
       </c>
       <c r="G139" s="64"/>
       <c r="H139" s="64"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="64"/>
-      <c r="B140" s="94"/>
-      <c r="C140" s="104"/>
-      <c r="D140" s="59"/>
-      <c r="E140" s="39"/>
-      <c r="F140" s="110" t="s">
-        <v>73</v>
+      <c r="B140" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D140" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="40">
+        <v>0</v>
+      </c>
+      <c r="F140" s="115" t="s">
+        <v>70</v>
       </c>
       <c r="G140" s="64"/>
       <c r="H140" s="64"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="64"/>
-      <c r="B141" s="92" t="s">
-        <v>74</v>
-      </c>
-      <c r="C141" s="102" t="s">
-        <v>75</v>
-      </c>
-      <c r="D141" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E141" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" s="112" t="s">
-        <v>76</v>
+      <c r="B141" s="160"/>
+      <c r="C141" s="97"/>
+      <c r="D141" s="48"/>
+      <c r="E141" s="38"/>
+      <c r="F141" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="G141" s="64"/>
       <c r="H141" s="64"/>
     </row>
-    <row r="142" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="64"/>
-      <c r="B142" s="169" t="s">
-        <v>477</v>
-      </c>
-      <c r="C142" s="170" t="s">
-        <v>496</v>
-      </c>
-      <c r="D142" s="171" t="s">
-        <v>33</v>
-      </c>
-      <c r="E142" s="172" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" s="173" t="s">
-        <v>478</v>
+      <c r="B142" s="160"/>
+      <c r="C142" s="97"/>
+      <c r="D142" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="38">
+        <v>1</v>
+      </c>
+      <c r="F142" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="G142" s="64"/>
       <c r="H142" s="64"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="64"/>
-      <c r="B143" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="C143" s="128" t="s">
-        <v>353</v>
-      </c>
-      <c r="D143" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="129" t="s">
-        <v>187</v>
-      </c>
+      <c r="B143" s="187"/>
+      <c r="C143" s="103"/>
+      <c r="D143" s="59"/>
+      <c r="E143" s="39"/>
       <c r="F143" s="109" t="s">
-        <v>494</v>
+        <v>73</v>
       </c>
       <c r="G143" s="64"/>
       <c r="H143" s="64"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="64"/>
-      <c r="B144" s="163"/>
-      <c r="C144" s="134"/>
-      <c r="D144" s="141"/>
-      <c r="E144" s="129"/>
-      <c r="F144" s="130" t="s">
-        <v>495</v>
+      <c r="B144" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C144" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D144" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="G144" s="64"/>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="64"/>
-      <c r="B145" s="163"/>
-      <c r="C145" s="56"/>
-      <c r="D145" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="F145" s="130" t="s">
-        <v>356</v>
+      <c r="B145" s="188" t="s">
+        <v>476</v>
+      </c>
+      <c r="C145" s="165" t="s">
+        <v>495</v>
+      </c>
+      <c r="D145" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E145" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145" s="168" t="s">
+        <v>477</v>
       </c>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="64"/>
-      <c r="B146" s="163"/>
-      <c r="C146" s="136"/>
-      <c r="D146" s="142"/>
-      <c r="E146" s="138"/>
-      <c r="F146" s="131" t="s">
-        <v>357</v>
+      <c r="B146" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="C146" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="D146" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E146" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F146" s="108" t="s">
+        <v>493</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="64"/>
-      <c r="B147" s="164" t="s">
-        <v>358</v>
-      </c>
-      <c r="C147" s="135" t="s">
-        <v>360</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="F147" s="132" t="s">
-        <v>361</v>
+      <c r="B147" s="93"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="138"/>
+      <c r="E147" s="126"/>
+      <c r="F147" s="127" t="s">
+        <v>494</v>
       </c>
       <c r="G147" s="64"/>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="64"/>
-      <c r="B148" s="165" t="s">
-        <v>362</v>
-      </c>
-      <c r="C148" s="137" t="s">
-        <v>363</v>
-      </c>
-      <c r="D148" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="140" t="s">
-        <v>359</v>
-      </c>
-      <c r="F148" s="133" t="s">
-        <v>364</v>
+      <c r="B148" s="93"/>
+      <c r="C148" s="56"/>
+      <c r="D148" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E148" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F148" s="127" t="s">
+        <v>355</v>
       </c>
       <c r="G148" s="64"/>
       <c r="H148" s="64"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="64"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="88"/>
-      <c r="D149" s="88"/>
-      <c r="E149" s="88"/>
-      <c r="F149" s="88"/>
+      <c r="B149" s="93"/>
+      <c r="C149" s="133"/>
+      <c r="D149" s="139"/>
+      <c r="E149" s="135"/>
+      <c r="F149" s="128" t="s">
+        <v>356</v>
+      </c>
       <c r="G149" s="64"/>
       <c r="H149" s="64"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="64"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="88"/>
-      <c r="D150" s="88"/>
-      <c r="E150" s="88"/>
-      <c r="F150" s="88"/>
+      <c r="B150" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C150" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="D150" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E150" s="136" t="s">
+        <v>358</v>
+      </c>
+      <c r="F150" s="129" t="s">
+        <v>360</v>
+      </c>
       <c r="G150" s="64"/>
       <c r="H150" s="64"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A151" s="64"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="88"/>
-      <c r="D151" s="88"/>
-      <c r="E151" s="88"/>
-      <c r="F151" s="88"/>
+      <c r="B151" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C151" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="D151" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="F151" s="130" t="s">
+        <v>363</v>
+      </c>
       <c r="G151" s="64"/>
       <c r="H151" s="64"/>
     </row>
@@ -5425,18 +5489,48 @@
       <c r="H153" s="64"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-      <c r="F154" s="1"/>
+      <c r="A154" s="64"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="88"/>
+      <c r="D154" s="88"/>
+      <c r="E154" s="88"/>
+      <c r="F154" s="88"/>
+      <c r="G154" s="64"/>
+      <c r="H154" s="64"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-      <c r="F155" s="1"/>
+      <c r="A155" s="64"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="88"/>
+      <c r="D155" s="88"/>
+      <c r="E155" s="88"/>
+      <c r="F155" s="88"/>
+      <c r="G155" s="64"/>
+      <c r="H155" s="64"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A156" s="64"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="88"/>
+      <c r="D156" s="88"/>
+      <c r="E156" s="88"/>
+      <c r="F156" s="88"/>
+      <c r="G156" s="64"/>
+      <c r="H156" s="64"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5453,7 +5547,7 @@
   <dimension ref="B1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5468,13 +5562,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="195" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
+      <c r="B2" s="192" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -5559,7 +5653,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -5650,7 +5744,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.4">
@@ -5677,10 +5771,10 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>32</v>
@@ -5689,7 +5783,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
@@ -5698,7 +5792,7 @@
       <c r="D19" s="32"/>
       <c r="E19" s="31"/>
       <c r="F19" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -5737,7 +5831,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>54</v>
@@ -5754,7 +5848,7 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>55</v>
@@ -5770,7 +5864,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="166" t="s">
+      <c r="B24" s="162" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -5787,7 +5881,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="166" t="s">
+      <c r="B25" s="162" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -5804,7 +5898,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="166" t="s">
+      <c r="B26" s="162" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5821,7 +5915,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="166" t="s">
+      <c r="B27" s="162" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5838,7 +5932,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="166" t="s">
+      <c r="B28" s="162" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5855,11 +5949,11 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="163" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>78</v>
+        <v>502</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>33</v>
@@ -5868,16 +5962,16 @@
         <v>15</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="168"/>
+      <c r="B30" s="164"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
       <c r="F30" s="29" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -5892,7 +5986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD7B95-A2AF-46FE-AB85-2A0D672A14B1}">
   <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B125" sqref="B125:C127"/>
     </sheetView>
   </sheetViews>
@@ -5908,13 +6002,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="195" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
+      <c r="B2" s="192" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -5938,16 +6032,16 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
@@ -5960,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.4">
@@ -5973,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.4">
@@ -5986,7 +6080,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.4">
@@ -5999,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.4">
@@ -6012,7 +6106,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.4">
@@ -6025,7 +6119,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.4">
@@ -6038,7 +6132,7 @@
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.4">
@@ -6051,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.4">
@@ -6061,10 +6155,10 @@
         <v>32</v>
       </c>
       <c r="E13" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.4">
@@ -6094,7 +6188,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>32</v>
@@ -6103,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
@@ -6116,7 +6210,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
@@ -6129,7 +6223,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
@@ -6142,7 +6236,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
@@ -6155,7 +6249,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
@@ -6168,7 +6262,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
@@ -6181,7 +6275,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
@@ -6194,7 +6288,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
@@ -6224,7 +6318,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>32</v>
@@ -6233,7 +6327,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
@@ -6246,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
@@ -6259,7 +6353,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
@@ -6272,7 +6366,7 @@
         <v>3</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
@@ -6285,7 +6379,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
@@ -6298,7 +6392,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
@@ -6311,7 +6405,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
@@ -6324,7 +6418,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
@@ -6354,7 +6448,7 @@
         <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>32</v>
@@ -6363,7 +6457,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
@@ -6376,7 +6470,7 @@
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
@@ -6389,7 +6483,7 @@
         <v>2</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
@@ -6402,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
@@ -6415,7 +6509,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
@@ -6428,7 +6522,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
@@ -6441,7 +6535,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
@@ -6454,7 +6548,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
@@ -6484,7 +6578,7 @@
         <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>32</v>
@@ -6493,7 +6587,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
@@ -6506,7 +6600,7 @@
         <v>1</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
@@ -6519,7 +6613,7 @@
         <v>2</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
@@ -6532,7 +6626,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
@@ -6545,7 +6639,7 @@
         <v>4</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
@@ -6558,7 +6652,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
@@ -6571,7 +6665,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
@@ -6584,7 +6678,7 @@
         <v>7</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
@@ -6597,7 +6691,7 @@
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
@@ -6607,10 +6701,10 @@
         <v>32</v>
       </c>
       <c r="E55" s="38" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
@@ -6640,7 +6734,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>32</v>
@@ -6649,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
@@ -6662,7 +6756,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
@@ -6675,7 +6769,7 @@
         <v>2</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
@@ -6688,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
@@ -6701,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
@@ -6714,7 +6808,7 @@
         <v>5</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
@@ -6727,7 +6821,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
@@ -6740,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
@@ -6767,10 +6861,10 @@
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>32</v>
@@ -6779,7 +6873,7 @@
         <v>0</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
@@ -6792,7 +6886,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
@@ -6805,7 +6899,7 @@
         <v>2</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
@@ -6818,7 +6912,7 @@
         <v>3</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
@@ -6831,7 +6925,7 @@
         <v>4</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
@@ -6844,7 +6938,7 @@
         <v>5</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
@@ -6857,7 +6951,7 @@
         <v>6</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
@@ -6870,7 +6964,7 @@
         <v>7</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
@@ -6897,10 +6991,10 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>32</v>
@@ -6909,7 +7003,7 @@
         <v>0</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
@@ -6922,7 +7016,7 @@
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
@@ -6935,7 +7029,7 @@
         <v>2</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
@@ -6948,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
@@ -6961,7 +7055,7 @@
         <v>4</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
@@ -6974,7 +7068,7 @@
         <v>5</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
@@ -6987,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
@@ -7000,7 +7094,7 @@
         <v>7</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
@@ -7030,7 +7124,7 @@
         <v>31</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D88" s="7" t="s">
         <v>34</v>
@@ -7039,15 +7133,15 @@
         <v>27</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D89" s="9" t="s">
         <v>34</v>
@@ -7056,49 +7150,49 @@
         <v>27</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E90" s="42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>192</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>34</v>
@@ -7107,32 +7201,32 @@
         <v>22</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F93" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="117" t="s">
-        <v>197</v>
+      <c r="C94" s="116" t="s">
+        <v>196</v>
       </c>
       <c r="D94" s="46" t="s">
         <v>32</v>
@@ -7141,20 +7235,20 @@
         <v>0</v>
       </c>
       <c r="F94" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="118"/>
+      <c r="B95" s="117"/>
       <c r="C95" s="64"/>
       <c r="D95" s="48"/>
       <c r="E95" s="44"/>
       <c r="F95" s="49" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="118"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="64"/>
       <c r="D96" s="48" t="s">
         <v>32</v>
@@ -7163,20 +7257,20 @@
         <v>1</v>
       </c>
       <c r="F96" s="49" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="118"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="64"/>
       <c r="D97" s="48"/>
       <c r="E97" s="44"/>
       <c r="F97" s="49" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="118"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="64"/>
       <c r="D98" s="48" t="s">
         <v>32</v>
@@ -7185,98 +7279,98 @@
         <v>2</v>
       </c>
       <c r="F98" s="49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="118"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="64"/>
       <c r="D99" s="48"/>
       <c r="E99" s="44"/>
       <c r="F99" s="49" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="118"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="64"/>
       <c r="D100" s="48"/>
       <c r="E100" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="F100" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="F100" s="49" t="s">
-        <v>226</v>
-      </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="118"/>
+      <c r="B101" s="117"/>
       <c r="C101" s="64"/>
       <c r="D101" s="48"/>
       <c r="E101" s="44"/>
       <c r="F101" s="49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="118"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="64"/>
       <c r="D102" s="48"/>
       <c r="E102" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F102" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="F102" s="49" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="118"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="64"/>
       <c r="D103" s="48"/>
       <c r="E103" s="44"/>
       <c r="F103" s="49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="118"/>
+      <c r="B104" s="117"/>
       <c r="C104" s="64"/>
       <c r="D104" s="48"/>
       <c r="E104" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="F104" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F104" s="49" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="118"/>
+      <c r="B105" s="117"/>
       <c r="C105" s="64"/>
       <c r="D105" s="48"/>
       <c r="E105" s="44"/>
       <c r="F105" s="49" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="118"/>
+      <c r="B106" s="117"/>
       <c r="C106" s="64"/>
       <c r="D106" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E106" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F106" s="49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="119"/>
+      <c r="B107" s="118"/>
       <c r="C107" s="64"/>
       <c r="D107" s="48"/>
       <c r="E107" s="44"/>
       <c r="F107" s="49" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.4">
@@ -7284,16 +7378,16 @@
         <v>40</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D108" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E108" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F108" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.4">
@@ -7301,16 +7395,16 @@
         <v>43</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D109" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E109" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F109" s="53" t="s">
         <v>218</v>
-      </c>
-      <c r="F109" s="53" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.4">
@@ -7318,16 +7412,16 @@
         <v>51</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D110" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E110" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F110" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.4">
@@ -7335,16 +7429,16 @@
         <v>50</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D111" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E111" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F111" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.4">
@@ -7352,50 +7446,50 @@
         <v>77</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D112" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E112" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F112" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B113" s="52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D113" s="51" t="s">
         <v>32</v>
       </c>
       <c r="E113" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F113" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B114" s="52" t="s">
+        <v>220</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="D114" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="C114" s="50" t="s">
-        <v>213</v>
-      </c>
-      <c r="D114" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E114" s="54" t="s">
+      <c r="F114" s="53" t="s">
         <v>222</v>
-      </c>
-      <c r="F114" s="53" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -7403,7 +7497,7 @@
         <v>56</v>
       </c>
       <c r="C115" s="50" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D115" s="51" t="s">
         <v>32</v>
@@ -7412,7 +7506,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -7420,7 +7514,7 @@
         <v>57</v>
       </c>
       <c r="C116" s="50" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D116" s="51" t="s">
         <v>32</v>
@@ -7429,7 +7523,7 @@
         <v>27</v>
       </c>
       <c r="F116" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -7437,7 +7531,7 @@
         <v>58</v>
       </c>
       <c r="C117" s="50" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D117" s="51" t="s">
         <v>32</v>
@@ -7446,7 +7540,7 @@
         <v>27</v>
       </c>
       <c r="F117" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -7454,7 +7548,7 @@
         <v>59</v>
       </c>
       <c r="C118" s="56" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D118" s="48" t="s">
         <v>32</v>
@@ -7463,7 +7557,7 @@
         <v>25</v>
       </c>
       <c r="F118" s="57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
@@ -7473,10 +7567,10 @@
         <v>32</v>
       </c>
       <c r="E119" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="F119" s="61" t="s">
         <v>251</v>
-      </c>
-      <c r="F119" s="61" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
@@ -7484,7 +7578,7 @@
         <v>60</v>
       </c>
       <c r="C120" s="62" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D120" s="48" t="s">
         <v>32</v>
@@ -7493,7 +7587,7 @@
         <v>25</v>
       </c>
       <c r="F120" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -7503,10 +7597,10 @@
         <v>32</v>
       </c>
       <c r="E121" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F121" s="61" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
@@ -7514,7 +7608,7 @@
         <v>65</v>
       </c>
       <c r="C122" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D122" s="51" t="s">
         <v>32</v>
@@ -7523,7 +7617,7 @@
         <v>27</v>
       </c>
       <c r="F122" s="53" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
@@ -7531,7 +7625,7 @@
         <v>66</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D123" s="48" t="s">
         <v>32</v>
@@ -7540,48 +7634,48 @@
         <v>25</v>
       </c>
       <c r="F123" s="57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B124" s="185"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="F124" s="57" t="s">
         <v>260</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="190"/>
-      <c r="C124" s="191"/>
-      <c r="D124" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="F124" s="57" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="64"/>
       <c r="B125" s="89" t="s">
+        <v>351</v>
+      </c>
+      <c r="C125" s="102" t="s">
         <v>352</v>
       </c>
-      <c r="C125" s="103" t="s">
+      <c r="D125" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="140" t="s">
+        <v>186</v>
+      </c>
+      <c r="F125" s="115" t="s">
         <v>353</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E125" s="143" t="s">
-        <v>187</v>
-      </c>
-      <c r="F125" s="116" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="64"/>
       <c r="B126" s="93"/>
-      <c r="C126" s="134"/>
-      <c r="D126" s="141"/>
-      <c r="E126" s="129"/>
-      <c r="F126" s="130" t="s">
-        <v>355</v>
+      <c r="C126" s="131"/>
+      <c r="D126" s="138"/>
+      <c r="E126" s="126"/>
+      <c r="F126" s="127" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
@@ -7591,57 +7685,57 @@
       <c r="D127" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E127" s="129" t="s">
-        <v>198</v>
-      </c>
-      <c r="F127" s="130" t="s">
-        <v>356</v>
+      <c r="E127" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F127" s="127" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="64"/>
       <c r="B128" s="93"/>
-      <c r="C128" s="136"/>
-      <c r="D128" s="142"/>
-      <c r="E128" s="138"/>
-      <c r="F128" s="131" t="s">
-        <v>357</v>
+      <c r="C128" s="133"/>
+      <c r="D128" s="139"/>
+      <c r="E128" s="135"/>
+      <c r="F128" s="128" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="64"/>
       <c r="B129" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="136" t="s">
         <v>358</v>
       </c>
-      <c r="C129" s="135" t="s">
+      <c r="F129" s="129" t="s">
         <v>360</v>
-      </c>
-      <c r="D129" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="139" t="s">
-        <v>359</v>
-      </c>
-      <c r="F129" s="132" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A130" s="64"/>
-      <c r="B130" s="95" t="s">
+      <c r="B130" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="134" t="s">
         <v>362</v>
       </c>
-      <c r="C130" s="137" t="s">
+      <c r="D130" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="F130" s="130" t="s">
         <v>363</v>
-      </c>
-      <c r="D130" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="140" t="s">
-        <v>359</v>
-      </c>
-      <c r="F130" s="133" t="s">
-        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7671,68 +7765,68 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="177" t="s">
+      <c r="B2" s="172" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="173" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="174" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="175" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="171" t="s">
         <v>479</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="D3" s="179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="176" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="170" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="177" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="170" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="179" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="180" t="s">
-        <v>488</v>
-      </c>
-      <c r="C3" s="176" t="s">
-        <v>480</v>
-      </c>
-      <c r="D3" s="184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="181" t="s">
+      <c r="D5" s="180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="178" t="s">
         <v>489</v>
       </c>
-      <c r="C4" s="175" t="s">
-        <v>482</v>
-      </c>
-      <c r="D4" s="185">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="182" t="s">
-        <v>491</v>
-      </c>
-      <c r="C5" s="175" t="s">
+      <c r="C6" s="169" t="s">
         <v>484</v>
       </c>
-      <c r="D5" s="185">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="183" t="s">
-        <v>490</v>
-      </c>
-      <c r="C6" s="174" t="s">
+      <c r="D6" s="181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="182" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="183" t="s">
         <v>485</v>
       </c>
-      <c r="D6" s="186">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="187" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="188" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="189"/>
+      <c r="D7" s="184"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7744,7 +7838,7 @@
   <dimension ref="B1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -7760,16 +7854,16 @@
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E2" s="70" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="G2" s="71" t="s">
         <v>231</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="H2" s="72" t="s">
         <v>232</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
@@ -7795,19 +7889,19 @@
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C5" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="71" t="s">
+      <c r="F5" s="72" t="s">
         <v>229</v>
-      </c>
-      <c r="F5" s="72" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
@@ -8244,7 +8338,7 @@
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C30" s="74">
         <v>24</v>
@@ -8462,7 +8556,7 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="80" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C42" s="81">
         <v>36</v>
@@ -8680,7 +8774,7 @@
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C54" s="81">
         <v>48</v>
@@ -8898,7 +8992,7 @@
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C66" s="81">
         <v>60</v>
@@ -9116,7 +9210,7 @@
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C78" s="81">
         <v>72</v>
@@ -9334,7 +9428,7 @@
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C90" s="81">
         <v>84</v>
@@ -9552,7 +9646,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="80" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C102" s="81">
         <v>96</v>
@@ -9770,7 +9864,7 @@
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="78" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C114" s="74">
         <v>108</v>
@@ -10167,35 +10261,35 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64"/>
-      <c r="B2" s="151" t="s">
-        <v>435</v>
-      </c>
-      <c r="C2" s="158">
+      <c r="B2" s="148" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="155">
         <v>0</v>
       </c>
-      <c r="D2" s="152">
+      <c r="D2" s="149">
         <v>1</v>
       </c>
-      <c r="E2" s="152">
+      <c r="E2" s="149">
         <v>2</v>
       </c>
-      <c r="F2" s="158">
+      <c r="F2" s="155">
         <v>3</v>
       </c>
-      <c r="G2" s="152">
+      <c r="G2" s="149">
         <v>4</v>
       </c>
-      <c r="H2" s="152">
+      <c r="H2" s="149">
         <v>5</v>
       </c>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="155" t="s">
+        <v>436</v>
+      </c>
+      <c r="J2" s="149" t="s">
         <v>437</v>
       </c>
-      <c r="J2" s="152" t="s">
+      <c r="K2" s="150" t="s">
         <v>438</v>
-      </c>
-      <c r="K2" s="153" t="s">
-        <v>439</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
@@ -10204,35 +10298,35 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="64"/>
-      <c r="B3" s="148" t="s">
-        <v>432</v>
-      </c>
-      <c r="C3" s="149" t="s">
-        <v>430</v>
-      </c>
-      <c r="D3" s="149" t="s">
+      <c r="B3" s="145" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="146" t="s">
         <v>429</v>
       </c>
-      <c r="E3" s="149" t="s">
+      <c r="D3" s="146" t="s">
         <v>428</v>
       </c>
-      <c r="F3" s="150" t="s">
-        <v>430</v>
-      </c>
-      <c r="G3" s="150" t="s">
+      <c r="E3" s="146" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="147" t="s">
         <v>429</v>
       </c>
-      <c r="H3" s="150" t="s">
+      <c r="G3" s="147" t="s">
         <v>428</v>
       </c>
-      <c r="I3" s="154" t="s">
-        <v>430</v>
-      </c>
-      <c r="J3" s="154" t="s">
+      <c r="H3" s="147" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="151" t="s">
         <v>429</v>
       </c>
-      <c r="K3" s="155" t="s">
+      <c r="J3" s="151" t="s">
         <v>428</v>
+      </c>
+      <c r="K3" s="152" t="s">
+        <v>427</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
@@ -10241,35 +10335,35 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="64"/>
-      <c r="B4" s="146" t="s">
-        <v>433</v>
-      </c>
-      <c r="C4" s="144" t="s">
+      <c r="B4" s="143" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="141" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="141" t="s">
         <v>428</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="E4" s="141" t="s">
         <v>429</v>
       </c>
-      <c r="E4" s="144" t="s">
-        <v>430</v>
-      </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="142" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="142" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="H4" s="142" t="s">
         <v>429</v>
       </c>
-      <c r="H4" s="145" t="s">
-        <v>430</v>
-      </c>
-      <c r="I4" s="156" t="s">
+      <c r="I4" s="153" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="153" t="s">
         <v>428</v>
       </c>
-      <c r="J4" s="156" t="s">
+      <c r="K4" s="154" t="s">
         <v>429</v>
-      </c>
-      <c r="K4" s="157" t="s">
-        <v>430</v>
       </c>
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
@@ -10278,24 +10372,24 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
-      <c r="B5" s="147" t="s">
-        <v>434</v>
-      </c>
-      <c r="C5" s="198" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="199" t="s">
-        <v>431</v>
-      </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200" t="s">
-        <v>436</v>
-      </c>
-      <c r="J5" s="200"/>
-      <c r="K5" s="201"/>
+      <c r="B5" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="195" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="196" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197" t="s">
+        <v>435</v>
+      </c>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
@@ -10735,160 +10829,160 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="124" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="120" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C4" s="120" t="s">
         <v>332</v>
       </c>
-      <c r="C3" s="121" t="s">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" s="119" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C4" s="121" t="s">
+      <c r="C5" s="120" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C5" s="121" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" s="119" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="120" t="s">
+      <c r="C6" s="120" t="s">
         <v>335</v>
       </c>
-      <c r="C6" s="121" t="s">
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C7" s="120" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C7" s="121" t="s">
-        <v>337</v>
-      </c>
-    </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>366</v>
+      <c r="B8" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" s="120" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="120" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="121" t="s">
+      <c r="B9" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="120" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10" s="119" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="120" t="s">
+      <c r="C10" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="121" t="s">
-        <v>370</v>
-      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="120"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="120"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="120"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="120"/>
-      <c r="C14" s="121"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="120"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="120"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="120"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="120"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="120"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="120"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="120"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="120"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="120"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="120"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="120"/>
-      <c r="C23" s="121"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="120"/>
-      <c r="C24" s="121"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="120"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="120"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="120"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="120"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="120"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="120"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="122"/>
-      <c r="C31" s="123"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB257F9-18F6-424B-B795-7272645DF5BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC602B0C-2CB0-46C1-B34B-2E2B9FAD7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="737" windowWidth="24686" windowHeight="17229" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="508">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1553,6 +1553,21 @@
   </si>
   <si>
     <t>SPI Status Register</t>
+  </si>
+  <si>
+    <t>0 = Set copy protection</t>
+  </si>
+  <si>
+    <t>1 = No copy protection</t>
+  </si>
+  <si>
+    <t>0x72</t>
+  </si>
+  <si>
+    <t>TOSLINK Category Code</t>
+  </si>
+  <si>
+    <t>Category code sent to receiver</t>
   </si>
 </sst>
 </file>
@@ -2614,6 +2629,35 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2644,35 +2688,6 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2990,10 +3005,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3018,13 +3033,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
     </row>
@@ -4562,10 +4577,10 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="64"/>
-      <c r="B95" s="160"/>
+      <c r="B95" s="158"/>
       <c r="C95" s="97"/>
       <c r="D95" s="48"/>
-      <c r="E95" s="96"/>
+      <c r="E95" s="39"/>
       <c r="F95" s="114" t="s">
         <v>501</v>
       </c>
@@ -4574,72 +4589,78 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
-      <c r="B96" s="92" t="s">
-        <v>275</v>
+      <c r="B96" s="160" t="s">
+        <v>505</v>
       </c>
       <c r="C96" s="102" t="s">
-        <v>276</v>
+        <v>506</v>
       </c>
       <c r="D96" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="40" t="s">
-        <v>186</v>
+      <c r="E96" s="96" t="s">
+        <v>41</v>
       </c>
       <c r="F96" s="112" t="s">
-        <v>293</v>
+        <v>507</v>
       </c>
       <c r="G96" s="64"/>
       <c r="H96" s="64"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="64"/>
-      <c r="B97" s="87"/>
+      <c r="B97" s="160"/>
       <c r="C97" s="97"/>
       <c r="D97" s="48"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="108" t="s">
-        <v>294</v>
+      <c r="E97" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="F97" s="114" t="s">
+        <v>503</v>
       </c>
       <c r="G97" s="64"/>
       <c r="H97" s="64"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
-      <c r="B98" s="87"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F98" s="114" t="s">
-        <v>296</v>
+      <c r="B98" s="158"/>
+      <c r="C98" s="103"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="113" t="s">
+        <v>504</v>
       </c>
       <c r="G98" s="64"/>
       <c r="H98" s="64"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="64"/>
-      <c r="B99" s="87"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="114" t="s">
-        <v>297</v>
+      <c r="B99" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C99" s="102" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" s="112" t="s">
+        <v>293</v>
       </c>
       <c r="G99" s="64"/>
       <c r="H99" s="64"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="64"/>
-      <c r="B100" s="93"/>
+      <c r="B100" s="87"/>
       <c r="C100" s="97"/>
       <c r="D100" s="48"/>
       <c r="E100" s="38"/>
-      <c r="F100" s="114" t="s">
-        <v>298</v>
+      <c r="F100" s="108" t="s">
+        <v>294</v>
       </c>
       <c r="G100" s="64"/>
       <c r="H100" s="64"/>
@@ -4648,10 +4669,14 @@
       <c r="A101" s="64"/>
       <c r="B101" s="87"/>
       <c r="C101" s="97"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="96"/>
-      <c r="F101" s="108" t="s">
-        <v>299</v>
+      <c r="D101" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="38" t="s">
+        <v>295</v>
+      </c>
+      <c r="F101" s="114" t="s">
+        <v>296</v>
       </c>
       <c r="G101" s="64"/>
       <c r="H101" s="64"/>
@@ -4660,26 +4685,22 @@
       <c r="A102" s="64"/>
       <c r="B102" s="87"/>
       <c r="C102" s="97"/>
-      <c r="D102" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E102" s="38" t="s">
-        <v>224</v>
-      </c>
+      <c r="D102" s="48"/>
+      <c r="E102" s="38"/>
       <c r="F102" s="114" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G102" s="64"/>
       <c r="H102" s="64"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="64"/>
-      <c r="B103" s="87"/>
+      <c r="B103" s="93"/>
       <c r="C103" s="97"/>
       <c r="D103" s="48"/>
       <c r="E103" s="38"/>
       <c r="F103" s="114" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G103" s="64"/>
       <c r="H103" s="64"/>
@@ -4688,46 +4709,38 @@
       <c r="A104" s="64"/>
       <c r="B104" s="87"/>
       <c r="C104" s="97"/>
-      <c r="D104" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E104" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="F104" s="114" t="s">
-        <v>301</v>
+      <c r="D104" s="48"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="108" t="s">
+        <v>299</v>
       </c>
       <c r="G104" s="64"/>
       <c r="H104" s="64"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="64"/>
-      <c r="B105" s="93"/>
+      <c r="B105" s="87"/>
       <c r="C105" s="97"/>
-      <c r="D105" s="59"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="108" t="s">
-        <v>302</v>
+      <c r="D105" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="F105" s="114" t="s">
+        <v>303</v>
       </c>
       <c r="G105" s="64"/>
       <c r="H105" s="64"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="64"/>
-      <c r="B106" s="89" t="s">
-        <v>284</v>
-      </c>
-      <c r="C106" s="102" t="s">
-        <v>277</v>
-      </c>
-      <c r="D106" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F106" s="107" t="s">
-        <v>81</v>
+      <c r="B106" s="87"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="38"/>
+      <c r="F106" s="114" t="s">
+        <v>304</v>
       </c>
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
@@ -4736,10 +4749,14 @@
       <c r="A107" s="64"/>
       <c r="B107" s="87"/>
       <c r="C107" s="97"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="104" t="s">
-        <v>82</v>
+      <c r="D107" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F107" s="114" t="s">
+        <v>301</v>
       </c>
       <c r="G107" s="64"/>
       <c r="H107" s="64"/>
@@ -4748,22 +4765,30 @@
       <c r="A108" s="64"/>
       <c r="B108" s="93"/>
       <c r="C108" s="97"/>
-      <c r="D108" s="48"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="38"/>
-      <c r="F108" s="104" t="s">
-        <v>83</v>
+      <c r="F108" s="108" t="s">
+        <v>302</v>
       </c>
       <c r="G108" s="64"/>
       <c r="H108" s="64"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="64"/>
-      <c r="B109" s="87"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="104" t="s">
-        <v>84</v>
+      <c r="B109" s="89" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="107" t="s">
+        <v>81</v>
       </c>
       <c r="G109" s="64"/>
       <c r="H109" s="64"/>
@@ -4775,7 +4800,7 @@
       <c r="D110" s="48"/>
       <c r="E110" s="38"/>
       <c r="F110" s="104" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G110" s="64"/>
       <c r="H110" s="64"/>
@@ -4787,7 +4812,7 @@
       <c r="D111" s="48"/>
       <c r="E111" s="38"/>
       <c r="F111" s="104" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
@@ -4799,7 +4824,7 @@
       <c r="D112" s="48"/>
       <c r="E112" s="38"/>
       <c r="F112" s="104" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G112" s="64"/>
       <c r="H112" s="64"/>
@@ -4811,19 +4836,19 @@
       <c r="D113" s="48"/>
       <c r="E113" s="38"/>
       <c r="F113" s="104" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G113" s="64"/>
       <c r="H113" s="64"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="64"/>
-      <c r="B114" s="87"/>
+      <c r="B114" s="93"/>
       <c r="C114" s="97"/>
       <c r="D114" s="48"/>
       <c r="E114" s="38"/>
       <c r="F114" s="104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G114" s="64"/>
       <c r="H114" s="64"/>
@@ -4832,14 +4857,10 @@
       <c r="A115" s="64"/>
       <c r="B115" s="87"/>
       <c r="C115" s="97"/>
-      <c r="D115" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="38" t="s">
-        <v>287</v>
-      </c>
+      <c r="D115" s="48"/>
+      <c r="E115" s="38"/>
       <c r="F115" s="104" t="s">
-        <v>288</v>
+        <v>87</v>
       </c>
       <c r="G115" s="64"/>
       <c r="H115" s="64"/>
@@ -4851,7 +4872,7 @@
       <c r="D116" s="48"/>
       <c r="E116" s="38"/>
       <c r="F116" s="104" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="G116" s="64"/>
       <c r="H116" s="64"/>
@@ -4863,7 +4884,7 @@
       <c r="D117" s="48"/>
       <c r="E117" s="38"/>
       <c r="F117" s="104" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="G117" s="64"/>
       <c r="H117" s="64"/>
@@ -4872,22 +4893,26 @@
       <c r="A118" s="64"/>
       <c r="B118" s="87"/>
       <c r="C118" s="97"/>
-      <c r="D118" s="48"/>
-      <c r="E118" s="38"/>
+      <c r="D118" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="38" t="s">
+        <v>287</v>
+      </c>
       <c r="F118" s="104" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G118" s="64"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="64"/>
       <c r="B119" s="87"/>
       <c r="C119" s="97"/>
       <c r="D119" s="48"/>
       <c r="E119" s="38"/>
       <c r="F119" s="104" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G119" s="64"/>
       <c r="H119" s="64"/>
@@ -4896,106 +4921,82 @@
       <c r="A120" s="64"/>
       <c r="B120" s="87"/>
       <c r="C120" s="97"/>
-      <c r="D120" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" s="38">
-        <v>15</v>
-      </c>
-      <c r="F120" s="108" t="s">
-        <v>285</v>
+      <c r="D120" s="48"/>
+      <c r="E120" s="38"/>
+      <c r="F120" s="104" t="s">
+        <v>290</v>
       </c>
       <c r="G120" s="64"/>
       <c r="H120" s="64"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="64"/>
-      <c r="B121" s="93"/>
+      <c r="B121" s="87"/>
       <c r="C121" s="97"/>
-      <c r="D121" s="59"/>
-      <c r="E121" s="39"/>
-      <c r="F121" s="109" t="s">
-        <v>286</v>
+      <c r="D121" s="48"/>
+      <c r="E121" s="38"/>
+      <c r="F121" s="104" t="s">
+        <v>291</v>
       </c>
       <c r="G121" s="64"/>
       <c r="H121" s="64"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="64"/>
-      <c r="B122" s="89" t="s">
-        <v>316</v>
-      </c>
-      <c r="C122" s="98" t="s">
-        <v>312</v>
-      </c>
-      <c r="D122" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F122" s="109" t="s">
-        <v>314</v>
+      <c r="B122" s="87"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="38"/>
+      <c r="F122" s="104" t="s">
+        <v>292</v>
       </c>
       <c r="G122" s="64"/>
       <c r="H122" s="64"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="64"/>
-      <c r="B123" s="91" t="s">
-        <v>317</v>
-      </c>
-      <c r="C123" s="98" t="s">
-        <v>313</v>
-      </c>
+      <c r="B123" s="87"/>
+      <c r="C123" s="97"/>
       <c r="D123" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F123" s="109" t="s">
-        <v>315</v>
+      <c r="E123" s="38">
+        <v>15</v>
+      </c>
+      <c r="F123" s="108" t="s">
+        <v>285</v>
       </c>
       <c r="G123" s="64"/>
       <c r="H123" s="64"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="64"/>
-      <c r="B124" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="C124" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="D124" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E124" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F124" s="110" t="s">
-        <v>309</v>
+      <c r="B124" s="93"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="109" t="s">
+        <v>286</v>
       </c>
       <c r="G124" s="64"/>
       <c r="H124" s="64"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="64"/>
-      <c r="B125" s="91" t="s">
-        <v>319</v>
-      </c>
-      <c r="C125" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="D125" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E125" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="110" t="s">
-        <v>310</v>
+      <c r="B125" s="89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="98" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="109" t="s">
+        <v>314</v>
       </c>
       <c r="G125" s="64"/>
       <c r="H125" s="64"/>
@@ -5003,19 +5004,19 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="64"/>
       <c r="B126" s="91" t="s">
-        <v>320</v>
-      </c>
-      <c r="C126" s="100" t="s">
-        <v>308</v>
-      </c>
-      <c r="D126" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="E126" s="42" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="D126" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F126" s="110" t="s">
-        <v>325</v>
+      <c r="F126" s="109" t="s">
+        <v>315</v>
       </c>
       <c r="G126" s="64"/>
       <c r="H126" s="64"/>
@@ -5023,478 +5024,508 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="64"/>
       <c r="B127" s="91" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C127" s="100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D127" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E127" s="42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F127" s="110" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G127" s="64"/>
       <c r="H127" s="64"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="64"/>
-      <c r="B128" s="204" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="205" t="s">
-        <v>344</v>
-      </c>
-      <c r="D128" s="206" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="207" t="s">
-        <v>38</v>
-      </c>
-      <c r="F128" s="208" t="s">
-        <v>346</v>
+      <c r="B128" s="91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" s="100" t="s">
+        <v>306</v>
+      </c>
+      <c r="D128" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" s="110" t="s">
+        <v>310</v>
       </c>
       <c r="G128" s="64"/>
       <c r="H128" s="64"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="64"/>
-      <c r="B129" s="209"/>
-      <c r="C129" s="210"/>
-      <c r="D129" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="212" t="s">
-        <v>347</v>
-      </c>
-      <c r="F129" s="213" t="s">
-        <v>348</v>
+      <c r="B129" s="91" t="s">
+        <v>320</v>
+      </c>
+      <c r="C129" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E129" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="110" t="s">
+        <v>325</v>
       </c>
       <c r="G129" s="64"/>
       <c r="H129" s="64"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="64"/>
-      <c r="B130" s="209"/>
-      <c r="C130" s="214"/>
-      <c r="D130" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="212" t="s">
-        <v>349</v>
-      </c>
-      <c r="F130" s="213" t="s">
-        <v>350</v>
+      <c r="B130" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C130" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D130" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E130" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" s="110" t="s">
+        <v>311</v>
       </c>
       <c r="G130" s="64"/>
       <c r="H130" s="64"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="64"/>
-      <c r="B131" s="209"/>
-      <c r="C131" s="214"/>
-      <c r="D131" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="212" t="s">
-        <v>197</v>
-      </c>
-      <c r="F131" s="215" t="s">
-        <v>345</v>
+      <c r="B131" s="194" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="195" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="196" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="198" t="s">
+        <v>346</v>
       </c>
       <c r="G131" s="64"/>
       <c r="H131" s="64"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="64"/>
-      <c r="B132" s="199" t="s">
-        <v>370</v>
-      </c>
-      <c r="C132" s="200" t="s">
-        <v>371</v>
-      </c>
+      <c r="B132" s="199"/>
+      <c r="C132" s="200"/>
       <c r="D132" s="201" t="s">
         <v>32</v>
       </c>
       <c r="E132" s="202" t="s">
-        <v>197</v>
+        <v>347</v>
       </c>
       <c r="F132" s="203" t="s">
-        <v>386</v>
+        <v>348</v>
       </c>
       <c r="G132" s="64"/>
       <c r="H132" s="64"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="64"/>
-      <c r="B133" s="199" t="s">
-        <v>379</v>
-      </c>
-      <c r="C133" s="200" t="s">
-        <v>372</v>
-      </c>
+      <c r="B133" s="199"/>
+      <c r="C133" s="204"/>
       <c r="D133" s="201" t="s">
         <v>32</v>
       </c>
       <c r="E133" s="202" t="s">
-        <v>27</v>
+        <v>349</v>
       </c>
       <c r="F133" s="203" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="G133" s="64"/>
       <c r="H133" s="64"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="64"/>
-      <c r="B134" s="199" t="s">
-        <v>380</v>
-      </c>
-      <c r="C134" s="200" t="s">
-        <v>375</v>
-      </c>
+      <c r="B134" s="199"/>
+      <c r="C134" s="204"/>
       <c r="D134" s="201" t="s">
         <v>32</v>
       </c>
       <c r="E134" s="202" t="s">
-        <v>185</v>
-      </c>
-      <c r="F134" s="203" t="s">
-        <v>390</v>
+        <v>197</v>
+      </c>
+      <c r="F134" s="205" t="s">
+        <v>345</v>
       </c>
       <c r="G134" s="64"/>
       <c r="H134" s="64"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="64"/>
-      <c r="B135" s="199" t="s">
-        <v>381</v>
-      </c>
-      <c r="C135" s="200" t="s">
-        <v>376</v>
-      </c>
-      <c r="D135" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="202" t="s">
-        <v>185</v>
-      </c>
-      <c r="F135" s="203" t="s">
-        <v>391</v>
+      <c r="B135" s="189" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="190" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="192" t="s">
+        <v>197</v>
+      </c>
+      <c r="F135" s="193" t="s">
+        <v>386</v>
       </c>
       <c r="G135" s="64"/>
       <c r="H135" s="64"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="64"/>
-      <c r="B136" s="199" t="s">
-        <v>382</v>
-      </c>
-      <c r="C136" s="200" t="s">
-        <v>373</v>
-      </c>
-      <c r="D136" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="202" t="s">
+      <c r="B136" s="189" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" s="190" t="s">
+        <v>372</v>
+      </c>
+      <c r="D136" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="203" t="s">
-        <v>388</v>
+      <c r="F136" s="193" t="s">
+        <v>387</v>
       </c>
       <c r="G136" s="64"/>
       <c r="H136" s="64"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="64"/>
-      <c r="B137" s="199" t="s">
-        <v>383</v>
-      </c>
-      <c r="C137" s="200" t="s">
-        <v>374</v>
-      </c>
-      <c r="D137" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="202" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="203" t="s">
-        <v>389</v>
+      <c r="B137" s="189" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="190" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="192" t="s">
+        <v>185</v>
+      </c>
+      <c r="F137" s="193" t="s">
+        <v>390</v>
       </c>
       <c r="G137" s="64"/>
       <c r="H137" s="64"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="64"/>
-      <c r="B138" s="199" t="s">
-        <v>384</v>
-      </c>
-      <c r="C138" s="200" t="s">
-        <v>377</v>
-      </c>
-      <c r="D138" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="202" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="203" t="s">
-        <v>392</v>
+      <c r="B138" s="189" t="s">
+        <v>381</v>
+      </c>
+      <c r="C138" s="190" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="192" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138" s="193" t="s">
+        <v>391</v>
       </c>
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="64"/>
-      <c r="B139" s="199" t="s">
-        <v>385</v>
-      </c>
-      <c r="C139" s="200" t="s">
-        <v>378</v>
-      </c>
-      <c r="D139" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E139" s="202" t="s">
+      <c r="B139" s="189" t="s">
+        <v>382</v>
+      </c>
+      <c r="C139" s="190" t="s">
+        <v>373</v>
+      </c>
+      <c r="D139" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="F139" s="203" t="s">
-        <v>393</v>
+      <c r="F139" s="193" t="s">
+        <v>388</v>
       </c>
       <c r="G139" s="64"/>
       <c r="H139" s="64"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="64"/>
-      <c r="B140" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="C140" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="40">
-        <v>0</v>
-      </c>
-      <c r="F140" s="115" t="s">
-        <v>70</v>
+      <c r="B140" s="189" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" s="190" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="193" t="s">
+        <v>389</v>
       </c>
       <c r="G140" s="64"/>
       <c r="H140" s="64"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="64"/>
-      <c r="B141" s="160"/>
-      <c r="C141" s="97"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="108" t="s">
-        <v>71</v>
+      <c r="B141" s="189" t="s">
+        <v>384</v>
+      </c>
+      <c r="C141" s="190" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" s="193" t="s">
+        <v>392</v>
       </c>
       <c r="G141" s="64"/>
       <c r="H141" s="64"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="64"/>
-      <c r="B142" s="160"/>
-      <c r="C142" s="97"/>
-      <c r="D142" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="38">
-        <v>1</v>
-      </c>
-      <c r="F142" s="108" t="s">
-        <v>72</v>
+      <c r="B142" s="189" t="s">
+        <v>385</v>
+      </c>
+      <c r="C142" s="190" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="191" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="193" t="s">
+        <v>393</v>
       </c>
       <c r="G142" s="64"/>
       <c r="H142" s="64"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="64"/>
-      <c r="B143" s="187"/>
-      <c r="C143" s="103"/>
-      <c r="D143" s="59"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="109" t="s">
-        <v>73</v>
+      <c r="B143" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="40">
+        <v>0</v>
+      </c>
+      <c r="F143" s="115" t="s">
+        <v>70</v>
       </c>
       <c r="G143" s="64"/>
       <c r="H143" s="64"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="64"/>
-      <c r="B144" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D144" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F144" s="111" t="s">
-        <v>76</v>
+      <c r="B144" s="160"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="G144" s="64"/>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="64"/>
-      <c r="B145" s="188" t="s">
-        <v>476</v>
-      </c>
-      <c r="C145" s="165" t="s">
-        <v>495</v>
-      </c>
-      <c r="D145" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="E145" s="167" t="s">
-        <v>27</v>
-      </c>
-      <c r="F145" s="168" t="s">
-        <v>477</v>
+      <c r="B145" s="160"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="38">
+        <v>1</v>
+      </c>
+      <c r="F145" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="64"/>
-      <c r="B146" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="C146" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="D146" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E146" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="F146" s="108" t="s">
-        <v>493</v>
+      <c r="B146" s="187"/>
+      <c r="C146" s="103"/>
+      <c r="D146" s="59"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="109" t="s">
+        <v>73</v>
       </c>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="64"/>
-      <c r="B147" s="93"/>
-      <c r="C147" s="131"/>
-      <c r="D147" s="138"/>
-      <c r="E147" s="126"/>
-      <c r="F147" s="127" t="s">
-        <v>494</v>
+      <c r="B147" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D147" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="G147" s="64"/>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="64"/>
-      <c r="B148" s="93"/>
-      <c r="C148" s="56"/>
-      <c r="D148" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E148" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="F148" s="127" t="s">
-        <v>355</v>
+      <c r="B148" s="188" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" s="165" t="s">
+        <v>495</v>
+      </c>
+      <c r="D148" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="168" t="s">
+        <v>477</v>
       </c>
       <c r="G148" s="64"/>
       <c r="H148" s="64"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="64"/>
-      <c r="B149" s="93"/>
-      <c r="C149" s="133"/>
-      <c r="D149" s="139"/>
-      <c r="E149" s="135"/>
-      <c r="F149" s="128" t="s">
-        <v>356</v>
+      <c r="B149" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="125" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="108" t="s">
+        <v>493</v>
       </c>
       <c r="G149" s="64"/>
       <c r="H149" s="64"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="64"/>
-      <c r="B150" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="C150" s="132" t="s">
-        <v>359</v>
-      </c>
-      <c r="D150" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E150" s="136" t="s">
-        <v>358</v>
-      </c>
-      <c r="F150" s="129" t="s">
-        <v>360</v>
+      <c r="B150" s="93"/>
+      <c r="C150" s="131"/>
+      <c r="D150" s="138"/>
+      <c r="E150" s="126"/>
+      <c r="F150" s="127" t="s">
+        <v>494</v>
       </c>
       <c r="G150" s="64"/>
       <c r="H150" s="64"/>
     </row>
-    <row r="151" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="64"/>
-      <c r="B151" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="C151" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="D151" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="F151" s="130" t="s">
-        <v>363</v>
+      <c r="B151" s="93"/>
+      <c r="C151" s="56"/>
+      <c r="D151" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F151" s="127" t="s">
+        <v>355</v>
       </c>
       <c r="G151" s="64"/>
       <c r="H151" s="64"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="64"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="88"/>
-      <c r="D152" s="88"/>
-      <c r="E152" s="88"/>
-      <c r="F152" s="88"/>
+      <c r="B152" s="93"/>
+      <c r="C152" s="133"/>
+      <c r="D152" s="139"/>
+      <c r="E152" s="135"/>
+      <c r="F152" s="128" t="s">
+        <v>356</v>
+      </c>
       <c r="G152" s="64"/>
       <c r="H152" s="64"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="64"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="88"/>
-      <c r="E153" s="88"/>
-      <c r="F153" s="88"/>
+      <c r="B153" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" s="132" t="s">
+        <v>359</v>
+      </c>
+      <c r="D153" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E153" s="136" t="s">
+        <v>358</v>
+      </c>
+      <c r="F153" s="129" t="s">
+        <v>360</v>
+      </c>
       <c r="G153" s="64"/>
       <c r="H153" s="64"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A154" s="64"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="88"/>
-      <c r="D154" s="88"/>
-      <c r="E154" s="88"/>
-      <c r="F154" s="88"/>
+      <c r="B154" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="134" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E154" s="137" t="s">
+        <v>358</v>
+      </c>
+      <c r="F154" s="130" t="s">
+        <v>363</v>
+      </c>
       <c r="G154" s="64"/>
       <c r="H154" s="64"/>
     </row>
@@ -5519,18 +5550,48 @@
       <c r="H156" s="64"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-      <c r="F157" s="1"/>
+      <c r="A157" s="64"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="88"/>
+      <c r="D157" s="88"/>
+      <c r="E157" s="88"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="64"/>
+      <c r="H157" s="64"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-      <c r="F158" s="1"/>
+      <c r="A158" s="64"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="88"/>
+      <c r="D158" s="88"/>
+      <c r="E158" s="88"/>
+      <c r="F158" s="88"/>
+      <c r="G158" s="64"/>
+      <c r="H158" s="64"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A159" s="64"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="88"/>
+      <c r="D159" s="88"/>
+      <c r="E159" s="88"/>
+      <c r="F159" s="88"/>
+      <c r="G159" s="64"/>
+      <c r="H159" s="64"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5562,13 +5623,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="209" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -6002,13 +6063,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="209" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
+      <c r="C2" s="210"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="211"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -10375,21 +10436,21 @@
       <c r="B5" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="C5" s="195" t="s">
+      <c r="C5" s="212" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="196" t="s">
+      <c r="D5" s="212"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="213" t="s">
         <v>430</v>
       </c>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="197" t="s">
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="214" t="s">
         <v>435</v>
       </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="198"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="215"/>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS\Documentation\AmiGUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS-pub\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC602B0C-2CB0-46C1-B34B-2E2B9FAD7461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03E7CF-F749-4C37-B78D-5F84935B1D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="737" windowWidth="24686" windowHeight="17229" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15320" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="478">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1071,30 +1071,6 @@
     <t>Voice N End Pointer (Bits 15-1)</t>
   </si>
   <si>
-    <t>0xa0</t>
-  </si>
-  <si>
-    <t>Headphone Enhance CTRL</t>
-  </si>
-  <si>
-    <t>1 = Enable Headphone Enhance</t>
-  </si>
-  <si>
-    <t>Delay value</t>
-  </si>
-  <si>
-    <t>9-7</t>
-  </si>
-  <si>
-    <t>Echo volume shift</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>1 = Invert echo phase</t>
-  </si>
-  <si>
     <t>0xf0</t>
   </si>
   <si>
@@ -1150,78 +1126,6 @@
   </si>
   <si>
     <t>Change ADC clk to 48MHz, look at TDM mode</t>
-  </si>
-  <si>
-    <t>0xa8</t>
-  </si>
-  <si>
-    <t>Chorus Effect CTRL</t>
-  </si>
-  <si>
-    <t>Chorus Effect LFO Rate</t>
-  </si>
-  <si>
-    <t>Chorus Effect LFO Scale Left</t>
-  </si>
-  <si>
-    <t>Chorus Effect LFO Scale Right</t>
-  </si>
-  <si>
-    <t>Chorus Effect Offset Left</t>
-  </si>
-  <si>
-    <t>Chorus Effect Offset Right</t>
-  </si>
-  <si>
-    <t>Chorus Effect Mix Chorus</t>
-  </si>
-  <si>
-    <t>Chorus Effect Mix Original</t>
-  </si>
-  <si>
-    <t>0xaa</t>
-  </si>
-  <si>
-    <t>0xac</t>
-  </si>
-  <si>
-    <t>0xae</t>
-  </si>
-  <si>
-    <t>0xb0</t>
-  </si>
-  <si>
-    <t>0xb2</t>
-  </si>
-  <si>
-    <t>0xb4</t>
-  </si>
-  <si>
-    <t>0xb6</t>
-  </si>
-  <si>
-    <t>1 = Enable Chorus Effect</t>
-  </si>
-  <si>
-    <t>Chorus LFO Speed</t>
-  </si>
-  <si>
-    <t>Chorus LFO Scale Left</t>
-  </si>
-  <si>
-    <t>Chorus LFO Scale Right</t>
-  </si>
-  <si>
-    <t>Chorus Delay Offset Left</t>
-  </si>
-  <si>
-    <t>Chorus Delay Offset Right</t>
-  </si>
-  <si>
-    <t>Chorus Mix Volume</t>
-  </si>
-  <si>
-    <t>Original Mix Volume</t>
   </si>
   <si>
     <t>0x50</t>
@@ -1568,13 +1472,19 @@
   </si>
   <si>
     <t>Category code sent to receiver</t>
+  </si>
+  <si>
+    <t>1001 = 96000 Hz</t>
+  </si>
+  <si>
+    <t>1000 = 64000 Hz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1603,12 +1513,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Bahnschrift"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -2263,7 +2167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2629,35 +2533,6 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3005,23 +2880,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.23046875" customWidth="1"/>
-    <col min="3" max="3" width="31.69140625" customWidth="1"/>
-    <col min="4" max="4" width="4.07421875" customWidth="1"/>
-    <col min="5" max="5" width="5.23046875" customWidth="1"/>
-    <col min="6" max="6" width="29.53515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="4.08984375" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -3031,19 +2906,19 @@
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="64"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="189" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="190"/>
+      <c r="E2" s="190"/>
+      <c r="F2" s="191"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="64"/>
       <c r="B3" s="83" t="s">
         <v>0</v>
@@ -3063,7 +2938,7 @@
       <c r="G3" s="64"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="64"/>
       <c r="B4" s="156" t="s">
         <v>4</v>
@@ -3083,7 +2958,7 @@
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="64"/>
       <c r="B5" s="156"/>
       <c r="C5" s="125"/>
@@ -3099,7 +2974,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="64"/>
       <c r="B6" s="156"/>
       <c r="C6" s="125"/>
@@ -3115,7 +2990,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="64"/>
       <c r="B7" s="156"/>
       <c r="C7" s="97"/>
@@ -3131,7 +3006,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="64"/>
       <c r="B8" s="156"/>
       <c r="C8" s="125"/>
@@ -3147,7 +3022,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="64"/>
       <c r="B9" s="156"/>
       <c r="C9" s="125"/>
@@ -3163,7 +3038,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="64"/>
       <c r="B10" s="156"/>
       <c r="C10" s="125"/>
@@ -3179,7 +3054,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="156"/>
       <c r="C11" s="125"/>
@@ -3190,12 +3065,12 @@
         <v>246</v>
       </c>
       <c r="F11" s="104" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="64"/>
       <c r="B12" s="156"/>
       <c r="C12" s="125"/>
@@ -3211,7 +3086,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
       <c r="B13" s="156"/>
       <c r="C13" s="125"/>
@@ -3223,7 +3098,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="157" t="s">
         <v>16</v>
@@ -3243,7 +3118,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="64"/>
       <c r="B15" s="156"/>
       <c r="C15" s="125"/>
@@ -3259,7 +3134,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="64"/>
       <c r="B16" s="156"/>
       <c r="C16" s="125"/>
@@ -3275,7 +3150,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="64"/>
       <c r="B17" s="156"/>
       <c r="C17" s="125"/>
@@ -3291,7 +3166,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="64"/>
       <c r="B18" s="156"/>
       <c r="C18" s="125"/>
@@ -3307,7 +3182,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="64"/>
       <c r="B19" s="156"/>
       <c r="C19" s="125"/>
@@ -3323,7 +3198,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="64"/>
       <c r="B20" s="156"/>
       <c r="C20" s="125"/>
@@ -3339,7 +3214,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="64"/>
       <c r="B21" s="156"/>
       <c r="C21" s="125"/>
@@ -3350,12 +3225,12 @@
         <v>246</v>
       </c>
       <c r="F21" s="104" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="64"/>
       <c r="B22" s="156"/>
       <c r="C22" s="125"/>
@@ -3371,7 +3246,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="64"/>
       <c r="B23" s="158"/>
       <c r="C23" s="99"/>
@@ -3383,7 +3258,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="64"/>
       <c r="B24" s="157" t="s">
         <v>17</v>
@@ -3395,75 +3270,75 @@
         <v>32</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>420</v>
+        <v>388</v>
       </c>
       <c r="F24" s="107" t="s">
-        <v>421</v>
+        <v>389</v>
       </c>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="64"/>
       <c r="B25" s="156"/>
       <c r="C25" s="125"/>
       <c r="D25" s="48"/>
       <c r="E25" s="38"/>
       <c r="F25" s="104" t="s">
-        <v>422</v>
+        <v>390</v>
       </c>
       <c r="G25" s="64"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="64"/>
       <c r="B26" s="156"/>
       <c r="C26" s="125"/>
       <c r="D26" s="48"/>
       <c r="E26" s="38"/>
       <c r="F26" s="104" t="s">
-        <v>423</v>
+        <v>391</v>
       </c>
       <c r="G26" s="64"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="64"/>
       <c r="B27" s="156"/>
       <c r="C27" s="125"/>
       <c r="D27" s="48"/>
       <c r="E27" s="38"/>
       <c r="F27" s="104" t="s">
-        <v>424</v>
+        <v>392</v>
       </c>
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="64"/>
       <c r="B28" s="156"/>
       <c r="C28" s="125"/>
       <c r="D28" s="48"/>
       <c r="E28" s="38"/>
       <c r="F28" s="104" t="s">
-        <v>425</v>
+        <v>393</v>
       </c>
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="64"/>
       <c r="B29" s="156"/>
       <c r="C29" s="125"/>
       <c r="D29" s="48"/>
       <c r="E29" s="38"/>
       <c r="F29" s="104" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="64"/>
       <c r="B30" s="156"/>
       <c r="C30" s="97"/>
@@ -3479,7 +3354,7 @@
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="64"/>
       <c r="B31" s="156"/>
       <c r="C31" s="125"/>
@@ -3494,7 +3369,7 @@
       </c>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="64"/>
       <c r="B32" s="156"/>
       <c r="C32" s="125"/>
@@ -3505,7 +3380,7 @@
       </c>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="64"/>
       <c r="B33" s="156"/>
       <c r="C33" s="125"/>
@@ -3520,7 +3395,7 @@
       </c>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="64"/>
       <c r="B34" s="156"/>
       <c r="C34" s="125"/>
@@ -3531,7 +3406,7 @@
       </c>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="64"/>
       <c r="B35" s="157" t="s">
         <v>18</v>
@@ -3551,7 +3426,7 @@
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="64"/>
       <c r="B36" s="156"/>
       <c r="C36" s="125"/>
@@ -3563,7 +3438,7 @@
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="64"/>
       <c r="B37" s="156"/>
       <c r="C37" s="125"/>
@@ -3575,7 +3450,7 @@
       <c r="G37" s="64"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="64"/>
       <c r="B38" s="156"/>
       <c r="C38" s="125"/>
@@ -3587,7 +3462,7 @@
       <c r="G38" s="64"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="64"/>
       <c r="B39" s="156"/>
       <c r="C39" s="125"/>
@@ -3599,7 +3474,7 @@
       <c r="G39" s="64"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="64"/>
       <c r="B40" s="156"/>
       <c r="C40" s="125"/>
@@ -3611,7 +3486,7 @@
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="64"/>
       <c r="B41" s="156"/>
       <c r="C41" s="125"/>
@@ -3623,7 +3498,7 @@
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="64"/>
       <c r="B42" s="156"/>
       <c r="C42" s="125"/>
@@ -3635,7 +3510,7 @@
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="64"/>
       <c r="B43" s="156"/>
       <c r="C43" s="125"/>
@@ -3647,7 +3522,7 @@
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="64"/>
       <c r="B44" s="156"/>
       <c r="C44" s="125"/>
@@ -3663,7 +3538,7 @@
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="64"/>
       <c r="B45" s="156"/>
       <c r="C45" s="125"/>
@@ -3675,7 +3550,7 @@
       <c r="G45" s="64"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="64"/>
       <c r="B46" s="156"/>
       <c r="C46" s="125"/>
@@ -3691,7 +3566,7 @@
       <c r="G46" s="64"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="64"/>
       <c r="B47" s="158"/>
       <c r="C47" s="99"/>
@@ -3703,7 +3578,7 @@
       <c r="G47" s="64"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="64"/>
       <c r="B48" s="159" t="s">
         <v>21</v>
@@ -3723,7 +3598,7 @@
       <c r="G48" s="64"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="64"/>
       <c r="B49" s="159" t="s">
         <v>24</v>
@@ -3743,7 +3618,7 @@
       <c r="G49" s="64"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="64"/>
       <c r="B50" s="159" t="s">
         <v>30</v>
@@ -3763,7 +3638,7 @@
       <c r="G50" s="64"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="64"/>
       <c r="B51" s="159" t="s">
         <v>31</v>
@@ -3783,13 +3658,13 @@
       <c r="G51" s="64"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="64"/>
       <c r="B52" s="159" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="110" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D52" s="51" t="s">
         <v>32</v>
@@ -3798,18 +3673,18 @@
         <v>27</v>
       </c>
       <c r="F52" s="110" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="64"/>
       <c r="B53" s="159" t="s">
         <v>188</v>
       </c>
       <c r="C53" s="110" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D53" s="51" t="s">
         <v>32</v>
@@ -3818,12 +3693,12 @@
         <v>27</v>
       </c>
       <c r="F53" s="110" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="64"/>
       <c r="B54" s="91" t="s">
         <v>37</v>
@@ -3843,7 +3718,7 @@
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="64"/>
       <c r="B55" s="91" t="s">
         <v>40</v>
@@ -3863,7 +3738,7 @@
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="64"/>
       <c r="B56" s="91" t="s">
         <v>43</v>
@@ -3883,7 +3758,7 @@
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="64"/>
       <c r="B57" s="91" t="s">
         <v>51</v>
@@ -3903,7 +3778,7 @@
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="64"/>
       <c r="B58" s="91" t="s">
         <v>50</v>
@@ -3923,13 +3798,13 @@
       <c r="G58" s="64"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="64"/>
       <c r="B59" s="89" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="102" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="D59" s="46" t="s">
         <v>33</v>
@@ -3943,7 +3818,7 @@
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="64"/>
       <c r="B60" s="90"/>
       <c r="C60" s="103"/>
@@ -3955,7 +3830,7 @@
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="64"/>
       <c r="B61" s="159" t="s">
         <v>56</v>
@@ -3970,12 +3845,12 @@
         <v>27</v>
       </c>
       <c r="F61" s="111" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="64"/>
       <c r="B62" s="159" t="s">
         <v>57</v>
@@ -3990,18 +3865,18 @@
         <v>27</v>
       </c>
       <c r="F62" s="111" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="G62" s="64"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="64"/>
       <c r="B63" s="159" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="101" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>32</v>
@@ -4010,18 +3885,18 @@
         <v>27</v>
       </c>
       <c r="F63" s="111" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="G63" s="64"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="64"/>
       <c r="B64" s="159" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="101" t="s">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="D64" s="51" t="s">
         <v>32</v>
@@ -4030,18 +3905,18 @@
         <v>27</v>
       </c>
       <c r="F64" s="111" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="64"/>
       <c r="B65" s="159" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="101" t="s">
-        <v>442</v>
+        <v>410</v>
       </c>
       <c r="D65" s="51" t="s">
         <v>32</v>
@@ -4050,18 +3925,18 @@
         <v>27</v>
       </c>
       <c r="F65" s="111" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="64"/>
       <c r="B66" s="159" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="101" t="s">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="D66" s="51" t="s">
         <v>32</v>
@@ -4070,18 +3945,18 @@
         <v>27</v>
       </c>
       <c r="F66" s="111" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="64"/>
       <c r="B67" s="159" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="101" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>32</v>
@@ -4090,18 +3965,18 @@
         <v>27</v>
       </c>
       <c r="F67" s="111" t="s">
-        <v>468</v>
+        <v>436</v>
       </c>
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="64"/>
       <c r="B68" s="159" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="101" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D68" s="51" t="s">
         <v>32</v>
@@ -4110,18 +3985,18 @@
         <v>27</v>
       </c>
       <c r="F68" s="111" t="s">
-        <v>469</v>
+        <v>437</v>
       </c>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="64"/>
       <c r="B69" s="159" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="101" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="D69" s="51" t="s">
         <v>32</v>
@@ -4130,18 +4005,18 @@
         <v>27</v>
       </c>
       <c r="F69" s="111" t="s">
-        <v>470</v>
+        <v>438</v>
       </c>
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="64"/>
       <c r="B70" s="159" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="101" t="s">
-        <v>446</v>
+        <v>414</v>
       </c>
       <c r="D70" s="51" t="s">
         <v>32</v>
@@ -4150,18 +4025,18 @@
         <v>27</v>
       </c>
       <c r="F70" s="111" t="s">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="64"/>
       <c r="B71" s="159" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="101" t="s">
-        <v>448</v>
+        <v>416</v>
       </c>
       <c r="D71" s="51" t="s">
         <v>32</v>
@@ -4170,18 +4045,18 @@
         <v>27</v>
       </c>
       <c r="F71" s="111" t="s">
-        <v>472</v>
+        <v>440</v>
       </c>
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="64"/>
       <c r="B72" s="159" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="101" t="s">
-        <v>447</v>
+        <v>415</v>
       </c>
       <c r="D72" s="51" t="s">
         <v>32</v>
@@ -4190,18 +4065,18 @@
         <v>27</v>
       </c>
       <c r="F72" s="111" t="s">
-        <v>473</v>
+        <v>441</v>
       </c>
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="64"/>
       <c r="B73" s="157" t="s">
-        <v>449</v>
+        <v>417</v>
       </c>
       <c r="C73" s="102" t="s">
-        <v>450</v>
+        <v>418</v>
       </c>
       <c r="D73" s="48" t="s">
         <v>32</v>
@@ -4210,56 +4085,56 @@
         <v>186</v>
       </c>
       <c r="F73" s="115" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="G73" s="64"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="64"/>
       <c r="B74" s="156"/>
       <c r="C74" s="97"/>
       <c r="D74" s="48"/>
       <c r="E74" s="38"/>
       <c r="F74" s="114" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="64"/>
       <c r="B75" s="156"/>
       <c r="C75" s="97"/>
       <c r="D75" s="48"/>
       <c r="E75" s="38" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F75" s="114" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="64"/>
       <c r="B76" s="160"/>
       <c r="C76" s="97"/>
       <c r="D76" s="48"/>
       <c r="E76" s="39"/>
       <c r="F76" s="108" t="s">
-        <v>459</v>
+        <v>427</v>
       </c>
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="64"/>
       <c r="B77" s="161" t="s">
-        <v>451</v>
+        <v>419</v>
       </c>
       <c r="C77" s="102" t="s">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="D77" s="48" t="s">
         <v>34</v>
@@ -4268,18 +4143,18 @@
         <v>22</v>
       </c>
       <c r="F77" s="115" t="s">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="G77" s="64"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="64"/>
       <c r="B78" s="161" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="C78" s="102" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="D78" s="48" t="s">
         <v>33</v>
@@ -4288,18 +4163,18 @@
         <v>27</v>
       </c>
       <c r="F78" s="115" t="s">
-        <v>475</v>
+        <v>443</v>
       </c>
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="64"/>
       <c r="B79" s="161" t="s">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="C79" s="102" t="s">
-        <v>454</v>
+        <v>422</v>
       </c>
       <c r="D79" s="48" t="s">
         <v>33</v>
@@ -4308,18 +4183,18 @@
         <v>27</v>
       </c>
       <c r="F79" s="115" t="s">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="64"/>
       <c r="B80" s="92" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="C80" s="102" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="D80" s="48" t="s">
         <v>34</v>
@@ -4331,13 +4206,13 @@
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="64"/>
       <c r="B81" s="92" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="C81" s="102" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="D81" s="46" t="s">
         <v>34</v>
@@ -4349,13 +4224,13 @@
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="64"/>
       <c r="B82" s="92" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="C82" s="102" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="D82" s="46" t="s">
         <v>34</v>
@@ -4367,13 +4242,13 @@
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="64"/>
       <c r="B83" s="92" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="C83" s="102" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="D83" s="46" t="s">
         <v>34</v>
@@ -4385,13 +4260,13 @@
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="64"/>
       <c r="B84" s="92" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="C84" s="102" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="D84" s="46" t="s">
         <v>33</v>
@@ -4403,13 +4278,13 @@
       <c r="G84" s="64"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="64"/>
       <c r="B85" s="92" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="C85" s="102" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="D85" s="46" t="s">
         <v>33</v>
@@ -4421,13 +4296,13 @@
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="64"/>
       <c r="B86" s="92" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="C86" s="102" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="D86" s="51" t="s">
         <v>34</v>
@@ -4439,13 +4314,13 @@
       <c r="G86" s="64"/>
       <c r="H86" s="64"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="64"/>
       <c r="B87" s="92" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="C87" s="102" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="D87" s="48" t="s">
         <v>34</v>
@@ -4457,13 +4332,13 @@
       <c r="G87" s="64"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="64"/>
       <c r="B88" s="92" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="C88" s="102" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="D88" s="51" t="s">
         <v>34</v>
@@ -4475,13 +4350,13 @@
       <c r="G88" s="64"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="64"/>
       <c r="B89" s="92" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="C89" s="102" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="D89" s="51" t="s">
         <v>34</v>
@@ -4493,13 +4368,13 @@
       <c r="G89" s="64"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="64"/>
       <c r="B90" s="91" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="C90" s="101" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="D90" s="51" t="s">
         <v>33</v>
@@ -4511,13 +4386,13 @@
       <c r="G90" s="64"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="64"/>
       <c r="B91" s="93" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="C91" s="102" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="D91" s="48" t="s">
         <v>33</v>
@@ -4526,74 +4401,74 @@
         <v>197</v>
       </c>
       <c r="F91" s="112" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="G91" s="64"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="64"/>
       <c r="B92" s="90"/>
       <c r="C92" s="103"/>
       <c r="D92" s="48"/>
       <c r="E92" s="39"/>
       <c r="F92" s="113" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="G92" s="64"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="64"/>
       <c r="B93" s="160" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="C93" s="97" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D93" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E93" s="96" t="s">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="F93" s="114" t="s">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="64"/>
       <c r="B94" s="160"/>
       <c r="C94" s="97"/>
       <c r="D94" s="48"/>
       <c r="E94" s="96"/>
       <c r="F94" s="114" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="G94" s="64"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="64"/>
       <c r="B95" s="158"/>
       <c r="C95" s="97"/>
       <c r="D95" s="48"/>
       <c r="E95" s="39"/>
       <c r="F95" s="114" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="64"/>
       <c r="B96" s="160" t="s">
-        <v>505</v>
+        <v>473</v>
       </c>
       <c r="C96" s="102" t="s">
-        <v>506</v>
+        <v>474</v>
       </c>
       <c r="D96" s="46" t="s">
         <v>32</v>
@@ -4602,38 +4477,38 @@
         <v>41</v>
       </c>
       <c r="F96" s="112" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
       <c r="G96" s="64"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="64"/>
       <c r="B97" s="160"/>
       <c r="C97" s="97"/>
       <c r="D97" s="48"/>
       <c r="E97" s="96" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="F97" s="114" t="s">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="G97" s="64"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="64"/>
       <c r="B98" s="158"/>
       <c r="C98" s="103"/>
       <c r="D98" s="48"/>
       <c r="E98" s="39"/>
       <c r="F98" s="113" t="s">
-        <v>504</v>
+        <v>472</v>
       </c>
       <c r="G98" s="64"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="64"/>
       <c r="B99" s="92" t="s">
         <v>275</v>
@@ -4653,7 +4528,7 @@
       <c r="G99" s="64"/>
       <c r="H99" s="64"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="64"/>
       <c r="B100" s="87"/>
       <c r="C100" s="97"/>
@@ -4665,7 +4540,7 @@
       <c r="G100" s="64"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="64"/>
       <c r="B101" s="87"/>
       <c r="C101" s="97"/>
@@ -4681,7 +4556,7 @@
       <c r="G101" s="64"/>
       <c r="H101" s="64"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="64"/>
       <c r="B102" s="87"/>
       <c r="C102" s="97"/>
@@ -4693,7 +4568,7 @@
       <c r="G102" s="64"/>
       <c r="H102" s="64"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="64"/>
       <c r="B103" s="93"/>
       <c r="C103" s="97"/>
@@ -4705,7 +4580,7 @@
       <c r="G103" s="64"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="64"/>
       <c r="B104" s="87"/>
       <c r="C104" s="97"/>
@@ -4717,7 +4592,7 @@
       <c r="G104" s="64"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="64"/>
       <c r="B105" s="87"/>
       <c r="C105" s="97"/>
@@ -4733,7 +4608,7 @@
       <c r="G105" s="64"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="64"/>
       <c r="B106" s="87"/>
       <c r="C106" s="97"/>
@@ -4745,7 +4620,7 @@
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="64"/>
       <c r="B107" s="87"/>
       <c r="C107" s="97"/>
@@ -4761,7 +4636,7 @@
       <c r="G107" s="64"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="64"/>
       <c r="B108" s="93"/>
       <c r="C108" s="97"/>
@@ -4773,7 +4648,7 @@
       <c r="G108" s="64"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="64"/>
       <c r="B109" s="89" t="s">
         <v>284</v>
@@ -4793,7 +4668,7 @@
       <c r="G109" s="64"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="64"/>
       <c r="B110" s="87"/>
       <c r="C110" s="97"/>
@@ -4805,7 +4680,7 @@
       <c r="G110" s="64"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="64"/>
       <c r="B111" s="93"/>
       <c r="C111" s="97"/>
@@ -4817,7 +4692,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="64"/>
       <c r="B112" s="87"/>
       <c r="C112" s="97"/>
@@ -4829,7 +4704,7 @@
       <c r="G112" s="64"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="64"/>
       <c r="B113" s="87"/>
       <c r="C113" s="97"/>
@@ -4841,7 +4716,7 @@
       <c r="G113" s="64"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="64"/>
       <c r="B114" s="93"/>
       <c r="C114" s="97"/>
@@ -4853,7 +4728,7 @@
       <c r="G114" s="64"/>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="64"/>
       <c r="B115" s="87"/>
       <c r="C115" s="97"/>
@@ -4865,7 +4740,7 @@
       <c r="G115" s="64"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="64"/>
       <c r="B116" s="87"/>
       <c r="C116" s="97"/>
@@ -4877,137 +4752,129 @@
       <c r="G116" s="64"/>
       <c r="H116" s="64"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="64"/>
       <c r="B117" s="87"/>
       <c r="C117" s="97"/>
       <c r="D117" s="48"/>
       <c r="E117" s="38"/>
       <c r="F117" s="104" t="s">
-        <v>89</v>
+        <v>477</v>
       </c>
       <c r="G117" s="64"/>
       <c r="H117" s="64"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="64"/>
       <c r="B118" s="87"/>
       <c r="C118" s="97"/>
-      <c r="D118" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="38" t="s">
-        <v>287</v>
-      </c>
+      <c r="D118" s="48"/>
+      <c r="E118" s="38"/>
       <c r="F118" s="104" t="s">
-        <v>288</v>
+        <v>476</v>
       </c>
       <c r="G118" s="64"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="64"/>
       <c r="B119" s="87"/>
       <c r="C119" s="97"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="38"/>
+      <c r="D119" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="38" t="s">
+        <v>287</v>
+      </c>
       <c r="F119" s="104" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G119" s="64"/>
       <c r="H119" s="64"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="64"/>
       <c r="B120" s="87"/>
       <c r="C120" s="97"/>
       <c r="D120" s="48"/>
       <c r="E120" s="38"/>
       <c r="F120" s="104" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G120" s="64"/>
       <c r="H120" s="64"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="64"/>
       <c r="B121" s="87"/>
       <c r="C121" s="97"/>
       <c r="D121" s="48"/>
       <c r="E121" s="38"/>
       <c r="F121" s="104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G121" s="64"/>
       <c r="H121" s="64"/>
     </row>
-    <row r="122" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="64"/>
       <c r="B122" s="87"/>
       <c r="C122" s="97"/>
       <c r="D122" s="48"/>
       <c r="E122" s="38"/>
       <c r="F122" s="104" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G122" s="64"/>
       <c r="H122" s="64"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="64"/>
       <c r="B123" s="87"/>
       <c r="C123" s="97"/>
-      <c r="D123" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E123" s="38">
-        <v>15</v>
-      </c>
-      <c r="F123" s="108" t="s">
-        <v>285</v>
+      <c r="D123" s="48"/>
+      <c r="E123" s="38"/>
+      <c r="F123" s="104" t="s">
+        <v>292</v>
       </c>
       <c r="G123" s="64"/>
       <c r="H123" s="64"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="64"/>
-      <c r="B124" s="93"/>
+      <c r="B124" s="87"/>
       <c r="C124" s="97"/>
-      <c r="D124" s="59"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="109" t="s">
-        <v>286</v>
+      <c r="D124" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="38">
+        <v>15</v>
+      </c>
+      <c r="F124" s="108" t="s">
+        <v>285</v>
       </c>
       <c r="G124" s="64"/>
       <c r="H124" s="64"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="64"/>
-      <c r="B125" s="89" t="s">
-        <v>316</v>
-      </c>
-      <c r="C125" s="98" t="s">
-        <v>312</v>
-      </c>
-      <c r="D125" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E125" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="B125" s="93"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="59"/>
+      <c r="E125" s="39"/>
       <c r="F125" s="109" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="G125" s="64"/>
       <c r="H125" s="64"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="64"/>
-      <c r="B126" s="91" t="s">
-        <v>317</v>
+      <c r="B126" s="89" t="s">
+        <v>316</v>
       </c>
       <c r="C126" s="98" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D126" s="48" t="s">
         <v>32</v>
@@ -5016,78 +4883,78 @@
         <v>27</v>
       </c>
       <c r="F126" s="109" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G126" s="64"/>
       <c r="H126" s="64"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="64"/>
       <c r="B127" s="91" t="s">
-        <v>318</v>
-      </c>
-      <c r="C127" s="100" t="s">
-        <v>305</v>
-      </c>
-      <c r="D127" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E127" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="110" t="s">
-        <v>309</v>
+        <v>317</v>
+      </c>
+      <c r="C127" s="98" t="s">
+        <v>313</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="109" t="s">
+        <v>315</v>
       </c>
       <c r="G127" s="64"/>
       <c r="H127" s="64"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="64"/>
       <c r="B128" s="91" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C128" s="100" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D128" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E128" s="42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F128" s="110" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G128" s="64"/>
       <c r="H128" s="64"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="64"/>
       <c r="B129" s="91" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C129" s="100" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D129" s="51" t="s">
         <v>33</v>
       </c>
       <c r="E129" s="42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F129" s="110" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G129" s="64"/>
       <c r="H129" s="64"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="64"/>
       <c r="B130" s="91" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C130" s="100" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D130" s="51" t="s">
         <v>33</v>
@@ -5096,502 +4963,295 @@
         <v>27</v>
       </c>
       <c r="F130" s="110" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="G130" s="64"/>
       <c r="H130" s="64"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="64"/>
-      <c r="B131" s="194" t="s">
-        <v>343</v>
-      </c>
-      <c r="C131" s="195" t="s">
-        <v>344</v>
-      </c>
-      <c r="D131" s="196" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="197" t="s">
-        <v>38</v>
-      </c>
-      <c r="F131" s="198" t="s">
-        <v>346</v>
+      <c r="B131" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="C131" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="D131" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131" s="110" t="s">
+        <v>311</v>
       </c>
       <c r="G131" s="64"/>
       <c r="H131" s="64"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="64"/>
-      <c r="B132" s="199"/>
-      <c r="C132" s="200"/>
-      <c r="D132" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="202" t="s">
-        <v>347</v>
-      </c>
-      <c r="F132" s="203" t="s">
-        <v>348</v>
+      <c r="B132" s="161" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" s="102" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="40">
+        <v>0</v>
+      </c>
+      <c r="F132" s="115" t="s">
+        <v>70</v>
       </c>
       <c r="G132" s="64"/>
       <c r="H132" s="64"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="64"/>
-      <c r="B133" s="199"/>
-      <c r="C133" s="204"/>
-      <c r="D133" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="F133" s="203" t="s">
-        <v>350</v>
+      <c r="B133" s="160"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="48"/>
+      <c r="E133" s="38"/>
+      <c r="F133" s="108" t="s">
+        <v>71</v>
       </c>
       <c r="G133" s="64"/>
       <c r="H133" s="64"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="64"/>
-      <c r="B134" s="199"/>
-      <c r="C134" s="204"/>
-      <c r="D134" s="201" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="202" t="s">
-        <v>197</v>
-      </c>
-      <c r="F134" s="205" t="s">
-        <v>345</v>
+      <c r="B134" s="160"/>
+      <c r="C134" s="97"/>
+      <c r="D134" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="38">
+        <v>1</v>
+      </c>
+      <c r="F134" s="108" t="s">
+        <v>72</v>
       </c>
       <c r="G134" s="64"/>
       <c r="H134" s="64"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="64"/>
-      <c r="B135" s="189" t="s">
-        <v>370</v>
-      </c>
-      <c r="C135" s="190" t="s">
-        <v>371</v>
-      </c>
-      <c r="D135" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E135" s="192" t="s">
-        <v>197</v>
-      </c>
-      <c r="F135" s="193" t="s">
-        <v>386</v>
+      <c r="B135" s="187"/>
+      <c r="C135" s="103"/>
+      <c r="D135" s="59"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="109" t="s">
+        <v>73</v>
       </c>
       <c r="G135" s="64"/>
       <c r="H135" s="64"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="64"/>
-      <c r="B136" s="189" t="s">
-        <v>379</v>
-      </c>
-      <c r="C136" s="190" t="s">
-        <v>372</v>
-      </c>
-      <c r="D136" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="192" t="s">
+      <c r="B136" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="C136" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D136" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="193" t="s">
-        <v>387</v>
+      <c r="F136" s="111" t="s">
+        <v>76</v>
       </c>
       <c r="G136" s="64"/>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="64"/>
-      <c r="B137" s="189" t="s">
-        <v>380</v>
-      </c>
-      <c r="C137" s="190" t="s">
-        <v>375</v>
-      </c>
-      <c r="D137" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E137" s="192" t="s">
-        <v>185</v>
-      </c>
-      <c r="F137" s="193" t="s">
-        <v>390</v>
+      <c r="B137" s="188" t="s">
+        <v>444</v>
+      </c>
+      <c r="C137" s="165" t="s">
+        <v>463</v>
+      </c>
+      <c r="D137" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="E137" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137" s="168" t="s">
+        <v>445</v>
       </c>
       <c r="G137" s="64"/>
       <c r="H137" s="64"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="64"/>
-      <c r="B138" s="189" t="s">
-        <v>381</v>
-      </c>
-      <c r="C138" s="190" t="s">
-        <v>376</v>
-      </c>
-      <c r="D138" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="192" t="s">
-        <v>185</v>
-      </c>
-      <c r="F138" s="193" t="s">
-        <v>391</v>
+      <c r="B138" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="125" t="s">
+        <v>344</v>
+      </c>
+      <c r="D138" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="126" t="s">
+        <v>186</v>
+      </c>
+      <c r="F138" s="108" t="s">
+        <v>461</v>
       </c>
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="64"/>
-      <c r="B139" s="189" t="s">
-        <v>382</v>
-      </c>
-      <c r="C139" s="190" t="s">
-        <v>373</v>
-      </c>
-      <c r="D139" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E139" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="F139" s="193" t="s">
-        <v>388</v>
+      <c r="B139" s="93"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="138"/>
+      <c r="E139" s="126"/>
+      <c r="F139" s="127" t="s">
+        <v>462</v>
       </c>
       <c r="G139" s="64"/>
       <c r="H139" s="64"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="64"/>
-      <c r="B140" s="189" t="s">
-        <v>383</v>
-      </c>
-      <c r="C140" s="190" t="s">
-        <v>374</v>
-      </c>
-      <c r="D140" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="F140" s="193" t="s">
-        <v>389</v>
+      <c r="B140" s="93"/>
+      <c r="C140" s="56"/>
+      <c r="D140" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="126" t="s">
+        <v>197</v>
+      </c>
+      <c r="F140" s="127" t="s">
+        <v>347</v>
       </c>
       <c r="G140" s="64"/>
       <c r="H140" s="64"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="64"/>
-      <c r="B141" s="189" t="s">
-        <v>384</v>
-      </c>
-      <c r="C141" s="190" t="s">
-        <v>377</v>
-      </c>
-      <c r="D141" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E141" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="F141" s="193" t="s">
-        <v>392</v>
+      <c r="B141" s="93"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="139"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="128" t="s">
+        <v>348</v>
       </c>
       <c r="G141" s="64"/>
       <c r="H141" s="64"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="64"/>
-      <c r="B142" s="189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C142" s="190" t="s">
-        <v>378</v>
-      </c>
-      <c r="D142" s="191" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="192" t="s">
-        <v>27</v>
-      </c>
-      <c r="F142" s="193" t="s">
-        <v>393</v>
+      <c r="B142" s="92" t="s">
+        <v>349</v>
+      </c>
+      <c r="C142" s="132" t="s">
+        <v>351</v>
+      </c>
+      <c r="D142" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="136" t="s">
+        <v>350</v>
+      </c>
+      <c r="F142" s="129" t="s">
+        <v>352</v>
       </c>
       <c r="G142" s="64"/>
       <c r="H142" s="64"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="64"/>
-      <c r="B143" s="161" t="s">
-        <v>68</v>
-      </c>
-      <c r="C143" s="102" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="40">
-        <v>0</v>
-      </c>
-      <c r="F143" s="115" t="s">
-        <v>70</v>
+      <c r="B143" s="94" t="s">
+        <v>353</v>
+      </c>
+      <c r="C143" s="134" t="s">
+        <v>354</v>
+      </c>
+      <c r="D143" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="137" t="s">
+        <v>350</v>
+      </c>
+      <c r="F143" s="130" t="s">
+        <v>355</v>
       </c>
       <c r="G143" s="64"/>
       <c r="H143" s="64"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="64"/>
-      <c r="B144" s="160"/>
-      <c r="C144" s="97"/>
-      <c r="D144" s="48"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="108" t="s">
-        <v>71</v>
-      </c>
+      <c r="B144" s="88"/>
+      <c r="C144" s="88"/>
+      <c r="D144" s="88"/>
+      <c r="E144" s="88"/>
+      <c r="F144" s="88"/>
       <c r="G144" s="64"/>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="64"/>
-      <c r="B145" s="160"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="38">
-        <v>1</v>
-      </c>
-      <c r="F145" s="108" t="s">
-        <v>72</v>
-      </c>
+      <c r="B145" s="88"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="88"/>
+      <c r="E145" s="88"/>
+      <c r="F145" s="88"/>
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="64"/>
-      <c r="B146" s="187"/>
-      <c r="C146" s="103"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="109" t="s">
-        <v>73</v>
-      </c>
+      <c r="B146" s="88"/>
+      <c r="C146" s="88"/>
+      <c r="D146" s="88"/>
+      <c r="E146" s="88"/>
+      <c r="F146" s="88"/>
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="64"/>
-      <c r="B147" s="161" t="s">
-        <v>74</v>
-      </c>
-      <c r="C147" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D147" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F147" s="111" t="s">
-        <v>76</v>
-      </c>
+      <c r="B147" s="88"/>
+      <c r="C147" s="88"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="88"/>
       <c r="G147" s="64"/>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="64"/>
-      <c r="B148" s="188" t="s">
-        <v>476</v>
-      </c>
-      <c r="C148" s="165" t="s">
-        <v>495</v>
-      </c>
-      <c r="D148" s="166" t="s">
-        <v>33</v>
-      </c>
-      <c r="E148" s="167" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="168" t="s">
-        <v>477</v>
-      </c>
+      <c r="B148" s="88"/>
+      <c r="C148" s="88"/>
+      <c r="D148" s="88"/>
+      <c r="E148" s="88"/>
+      <c r="F148" s="88"/>
       <c r="G148" s="64"/>
       <c r="H148" s="64"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="64"/>
-      <c r="B149" s="87" t="s">
-        <v>351</v>
-      </c>
-      <c r="C149" s="125" t="s">
-        <v>352</v>
-      </c>
-      <c r="D149" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E149" s="126" t="s">
-        <v>186</v>
-      </c>
-      <c r="F149" s="108" t="s">
-        <v>493</v>
-      </c>
-      <c r="G149" s="64"/>
-      <c r="H149" s="64"/>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A150" s="64"/>
-      <c r="B150" s="93"/>
-      <c r="C150" s="131"/>
-      <c r="D150" s="138"/>
-      <c r="E150" s="126"/>
-      <c r="F150" s="127" t="s">
-        <v>494</v>
-      </c>
-      <c r="G150" s="64"/>
-      <c r="H150" s="64"/>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A151" s="64"/>
-      <c r="B151" s="93"/>
-      <c r="C151" s="56"/>
-      <c r="D151" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E151" s="126" t="s">
-        <v>197</v>
-      </c>
-      <c r="F151" s="127" t="s">
-        <v>355</v>
-      </c>
-      <c r="G151" s="64"/>
-      <c r="H151" s="64"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A152" s="64"/>
-      <c r="B152" s="93"/>
-      <c r="C152" s="133"/>
-      <c r="D152" s="139"/>
-      <c r="E152" s="135"/>
-      <c r="F152" s="128" t="s">
-        <v>356</v>
-      </c>
-      <c r="G152" s="64"/>
-      <c r="H152" s="64"/>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A153" s="64"/>
-      <c r="B153" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="C153" s="132" t="s">
-        <v>359</v>
-      </c>
-      <c r="D153" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E153" s="136" t="s">
-        <v>358</v>
-      </c>
-      <c r="F153" s="129" t="s">
-        <v>360</v>
-      </c>
-      <c r="G153" s="64"/>
-      <c r="H153" s="64"/>
-    </row>
-    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A154" s="64"/>
-      <c r="B154" s="94" t="s">
-        <v>361</v>
-      </c>
-      <c r="C154" s="134" t="s">
-        <v>362</v>
-      </c>
-      <c r="D154" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" s="137" t="s">
-        <v>358</v>
-      </c>
-      <c r="F154" s="130" t="s">
-        <v>363</v>
-      </c>
-      <c r="G154" s="64"/>
-      <c r="H154" s="64"/>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A155" s="64"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="88"/>
-      <c r="E155" s="88"/>
-      <c r="F155" s="88"/>
-      <c r="G155" s="64"/>
-      <c r="H155" s="64"/>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A156" s="64"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="88"/>
-      <c r="D156" s="88"/>
-      <c r="E156" s="88"/>
-      <c r="F156" s="88"/>
-      <c r="G156" s="64"/>
-      <c r="H156" s="64"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A157" s="64"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="88"/>
-      <c r="E157" s="88"/>
-      <c r="F157" s="88"/>
-      <c r="G157" s="64"/>
-      <c r="H157" s="64"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A158" s="64"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="88"/>
-      <c r="D158" s="88"/>
-      <c r="E158" s="88"/>
-      <c r="F158" s="88"/>
-      <c r="G158" s="64"/>
-      <c r="H158" s="64"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A159" s="64"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="88"/>
-      <c r="E159" s="88"/>
-      <c r="F159" s="88"/>
-      <c r="G159" s="64"/>
-      <c r="H159" s="64"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5611,27 +5271,27 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.921875" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" customWidth="1"/>
-    <col min="3" max="3" width="21.84375" customWidth="1"/>
-    <col min="4" max="4" width="6.53515625" customWidth="1"/>
-    <col min="5" max="5" width="5.15234375" customWidth="1"/>
-    <col min="6" max="6" width="33.4609375" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="209" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="192" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -5648,7 +5308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
@@ -5665,7 +5325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
@@ -5678,7 +5338,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
@@ -5691,7 +5351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
@@ -5704,7 +5364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
@@ -5717,7 +5377,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
@@ -5730,7 +5390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
@@ -5739,7 +5399,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
@@ -5756,7 +5416,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
@@ -5769,7 +5429,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
@@ -5782,7 +5442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
@@ -5795,7 +5455,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
@@ -5808,7 +5468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="24"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
@@ -5821,7 +5481,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="25"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
@@ -5830,7 +5490,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>96</v>
       </c>
@@ -5847,7 +5507,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="30"/>
       <c r="C19" s="4"/>
       <c r="D19" s="32"/>
@@ -5856,7 +5516,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
@@ -5873,7 +5533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
@@ -5890,7 +5550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="22" t="s">
         <v>100</v>
       </c>
@@ -5907,7 +5567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="22" t="s">
         <v>101</v>
       </c>
@@ -5924,7 +5584,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="162" t="s">
         <v>37</v>
       </c>
@@ -5941,7 +5601,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="162" t="s">
         <v>40</v>
       </c>
@@ -5958,7 +5618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="162" t="s">
         <v>43</v>
       </c>
@@ -5975,7 +5635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="162" t="s">
         <v>51</v>
       </c>
@@ -5992,7 +5652,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="162" t="s">
         <v>50</v>
       </c>
@@ -6009,12 +5669,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="163" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>502</v>
+        <v>470</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>33</v>
@@ -6026,7 +5686,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="164"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
@@ -6051,27 +5711,27 @@
       <selection activeCell="B125" sqref="B125:C127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="13.23046875" customWidth="1"/>
-    <col min="3" max="3" width="24.07421875" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.23046875" customWidth="1"/>
-    <col min="6" max="6" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="209" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="210"/>
-      <c r="D2" s="210"/>
-      <c r="E2" s="210"/>
-      <c r="F2" s="211"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -6088,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
@@ -6105,7 +5765,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
@@ -6118,7 +5778,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
@@ -6131,7 +5791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
@@ -6144,7 +5804,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
@@ -6157,7 +5817,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
@@ -6170,7 +5830,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
@@ -6183,7 +5843,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="24"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6" t="s">
@@ -6196,7 +5856,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
@@ -6209,7 +5869,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
@@ -6219,10 +5879,10 @@
         <v>246</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
@@ -6235,7 +5895,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
@@ -6244,7 +5904,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
@@ -6261,7 +5921,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="24"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
@@ -6274,7 +5934,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="24"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
@@ -6287,7 +5947,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="24"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
@@ -6300,7 +5960,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="24"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
@@ -6313,7 +5973,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="24"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6" t="s">
@@ -6326,7 +5986,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="24"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
@@ -6339,7 +5999,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="24"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
@@ -6352,7 +6012,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="24"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
@@ -6365,7 +6025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="24"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7"/>
@@ -6374,7 +6034,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
@@ -6391,7 +6051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="24"/>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
@@ -6404,7 +6064,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="24"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
@@ -6417,7 +6077,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="24"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
@@ -6430,7 +6090,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="24"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
@@ -6443,7 +6103,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="24"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
@@ -6456,7 +6116,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="24"/>
       <c r="C32" s="3"/>
       <c r="D32" s="6" t="s">
@@ -6469,7 +6129,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="24"/>
       <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
@@ -6482,7 +6142,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="24"/>
       <c r="C34" s="3"/>
       <c r="D34" s="6" t="s">
@@ -6495,7 +6155,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="24"/>
       <c r="C35" s="3"/>
       <c r="D35" s="7"/>
@@ -6504,7 +6164,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="23" t="s">
         <v>18</v>
       </c>
@@ -6521,7 +6181,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="24"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
@@ -6534,7 +6194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="24"/>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
@@ -6547,7 +6207,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="24"/>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
@@ -6560,7 +6220,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="24"/>
       <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
@@ -6573,7 +6233,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="24"/>
       <c r="C41" s="3"/>
       <c r="D41" s="6" t="s">
@@ -6586,7 +6246,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="24"/>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
@@ -6599,7 +6259,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="24"/>
       <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
@@ -6612,7 +6272,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="24"/>
       <c r="C44" s="3"/>
       <c r="D44" s="6" t="s">
@@ -6625,7 +6285,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="36"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
@@ -6634,7 +6294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="24" t="s">
         <v>21</v>
       </c>
@@ -6651,7 +6311,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="24"/>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
@@ -6664,7 +6324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="24"/>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
@@ -6677,7 +6337,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="24"/>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
@@ -6690,7 +6350,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="24"/>
       <c r="C50" s="3"/>
       <c r="D50" s="6" t="s">
@@ -6703,7 +6363,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="24"/>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
@@ -6716,7 +6376,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="24"/>
       <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
@@ -6729,7 +6389,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="24"/>
       <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
@@ -6742,7 +6402,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="24"/>
       <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
@@ -6755,7 +6415,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="24"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
@@ -6765,10 +6425,10 @@
         <v>246</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="24"/>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
@@ -6781,7 +6441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="24"/>
       <c r="C57" s="3"/>
       <c r="D57" s="7"/>
@@ -6790,7 +6450,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="23" t="s">
         <v>24</v>
       </c>
@@ -6807,7 +6467,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="24"/>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
@@ -6820,7 +6480,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="24"/>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
@@ -6833,7 +6493,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="24"/>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
@@ -6846,7 +6506,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="24"/>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
@@ -6859,7 +6519,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="24"/>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
@@ -6872,7 +6532,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="24"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
@@ -6885,7 +6545,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="24"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
@@ -6898,7 +6558,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="24"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
@@ -6911,7 +6571,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="24"/>
       <c r="C67" s="3"/>
       <c r="D67" s="7"/>
@@ -6920,7 +6580,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="23" t="s">
         <v>177</v>
       </c>
@@ -6937,7 +6597,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="24"/>
       <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
@@ -6950,7 +6610,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="24"/>
       <c r="C70" s="3"/>
       <c r="D70" s="6" t="s">
@@ -6963,7 +6623,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="24"/>
       <c r="C71" s="3"/>
       <c r="D71" s="6" t="s">
@@ -6976,7 +6636,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="24"/>
       <c r="C72" s="3"/>
       <c r="D72" s="6" t="s">
@@ -6989,7 +6649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="24"/>
       <c r="C73" s="3"/>
       <c r="D73" s="6" t="s">
@@ -7002,7 +6662,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="24"/>
       <c r="C74" s="3"/>
       <c r="D74" s="6" t="s">
@@ -7015,7 +6675,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="24"/>
       <c r="C75" s="3"/>
       <c r="D75" s="6" t="s">
@@ -7028,7 +6688,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="24"/>
       <c r="C76" s="3"/>
       <c r="D76" s="6" t="s">
@@ -7041,7 +6701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="24"/>
       <c r="C77" s="3"/>
       <c r="D77" s="7"/>
@@ -7050,7 +6710,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="23" t="s">
         <v>101</v>
       </c>
@@ -7067,7 +6727,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="24"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6" t="s">
@@ -7080,7 +6740,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="24"/>
       <c r="C80" s="3"/>
       <c r="D80" s="6" t="s">
@@ -7093,7 +6753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="24"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6" t="s">
@@ -7106,7 +6766,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="24"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6" t="s">
@@ -7119,7 +6779,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="24"/>
       <c r="C83" s="3"/>
       <c r="D83" s="6" t="s">
@@ -7132,7 +6792,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="24"/>
       <c r="C84" s="3"/>
       <c r="D84" s="6" t="s">
@@ -7145,7 +6805,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="24"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6" t="s">
@@ -7158,7 +6818,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="24"/>
       <c r="C86" s="3"/>
       <c r="D86" s="6" t="s">
@@ -7171,7 +6831,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" s="25"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
@@ -7180,7 +6840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" s="25" t="s">
         <v>31</v>
       </c>
@@ -7197,7 +6857,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="22" t="s">
         <v>182</v>
       </c>
@@ -7214,7 +6874,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="22" t="s">
         <v>188</v>
       </c>
@@ -7231,7 +6891,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" s="22" t="s">
         <v>189</v>
       </c>
@@ -7248,7 +6908,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="22" t="s">
         <v>190</v>
       </c>
@@ -7265,7 +6925,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="22" t="s">
         <v>193</v>
       </c>
@@ -7282,7 +6942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="45" t="s">
         <v>37</v>
       </c>
@@ -7299,7 +6959,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="117"/>
       <c r="C95" s="64"/>
       <c r="D95" s="48"/>
@@ -7308,7 +6968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="117"/>
       <c r="C96" s="64"/>
       <c r="D96" s="48" t="s">
@@ -7321,7 +6981,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="117"/>
       <c r="C97" s="64"/>
       <c r="D97" s="48"/>
@@ -7330,7 +6990,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="117"/>
       <c r="C98" s="64"/>
       <c r="D98" s="48" t="s">
@@ -7343,7 +7003,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="117"/>
       <c r="C99" s="64"/>
       <c r="D99" s="48"/>
@@ -7352,7 +7012,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="117"/>
       <c r="C100" s="64"/>
       <c r="D100" s="48"/>
@@ -7363,7 +7023,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="117"/>
       <c r="C101" s="64"/>
       <c r="D101" s="48"/>
@@ -7372,7 +7032,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="117"/>
       <c r="C102" s="64"/>
       <c r="D102" s="48"/>
@@ -7383,7 +7043,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="117"/>
       <c r="C103" s="64"/>
       <c r="D103" s="48"/>
@@ -7392,7 +7052,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="117"/>
       <c r="C104" s="64"/>
       <c r="D104" s="48"/>
@@ -7403,7 +7063,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="117"/>
       <c r="C105" s="64"/>
       <c r="D105" s="48"/>
@@ -7412,7 +7072,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="117"/>
       <c r="C106" s="64"/>
       <c r="D106" s="48" t="s">
@@ -7425,7 +7085,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="118"/>
       <c r="C107" s="64"/>
       <c r="D107" s="48"/>
@@ -7434,7 +7094,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="52" t="s">
         <v>40</v>
       </c>
@@ -7451,7 +7111,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="52" t="s">
         <v>43</v>
       </c>
@@ -7468,7 +7128,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="52" t="s">
         <v>51</v>
       </c>
@@ -7485,7 +7145,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="52" t="s">
         <v>50</v>
       </c>
@@ -7502,7 +7162,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="52" t="s">
         <v>77</v>
       </c>
@@ -7519,7 +7179,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B113" s="52" t="s">
         <v>219</v>
       </c>
@@ -7536,7 +7196,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B114" s="52" t="s">
         <v>220</v>
       </c>
@@ -7553,7 +7213,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B115" s="52" t="s">
         <v>56</v>
       </c>
@@ -7570,7 +7230,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" s="52" t="s">
         <v>57</v>
       </c>
@@ -7587,7 +7247,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B117" s="52" t="s">
         <v>58</v>
       </c>
@@ -7604,7 +7264,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B118" s="65" t="s">
         <v>59</v>
       </c>
@@ -7621,7 +7281,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B119" s="66"/>
       <c r="C119" s="58"/>
       <c r="D119" s="59" t="s">
@@ -7634,7 +7294,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B120" s="65" t="s">
         <v>60</v>
       </c>
@@ -7651,7 +7311,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B121" s="66"/>
       <c r="C121" s="58"/>
       <c r="D121" s="59" t="s">
@@ -7664,7 +7324,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B122" s="52" t="s">
         <v>65</v>
       </c>
@@ -7681,7 +7341,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B123" s="65" t="s">
         <v>66</v>
       </c>
@@ -7698,7 +7358,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B124" s="185"/>
       <c r="C124" s="186"/>
       <c r="D124" s="59" t="s">
@@ -7711,13 +7371,13 @@
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="64"/>
       <c r="B125" s="89" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C125" s="102" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="D125" s="48" t="s">
         <v>32</v>
@@ -7726,20 +7386,20 @@
         <v>186</v>
       </c>
       <c r="F125" s="115" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="64"/>
       <c r="B126" s="93"/>
       <c r="C126" s="131"/>
       <c r="D126" s="138"/>
       <c r="E126" s="126"/>
       <c r="F126" s="127" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="64"/>
       <c r="B127" s="93"/>
       <c r="C127" s="56"/>
@@ -7750,53 +7410,53 @@
         <v>197</v>
       </c>
       <c r="F127" s="127" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="64"/>
       <c r="B128" s="93"/>
       <c r="C128" s="133"/>
       <c r="D128" s="139"/>
       <c r="E128" s="135"/>
       <c r="F128" s="128" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="64"/>
       <c r="B129" s="92" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C129" s="132" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D129" s="46" t="s">
         <v>32</v>
       </c>
       <c r="E129" s="136" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F129" s="129" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="64"/>
       <c r="B130" s="94" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C130" s="134" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D130" s="95" t="s">
         <v>32</v>
       </c>
       <c r="E130" s="137" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F130" s="130" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -7816,76 +7476,76 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.921875" customWidth="1"/>
-    <col min="2" max="2" width="33.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="172" t="s">
-        <v>478</v>
+        <v>446</v>
       </c>
       <c r="C2" s="173" t="s">
-        <v>482</v>
+        <v>450</v>
       </c>
       <c r="D2" s="174" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="175" t="s">
-        <v>487</v>
+        <v>455</v>
       </c>
       <c r="C3" s="171" t="s">
-        <v>479</v>
+        <v>447</v>
       </c>
       <c r="D3" s="179">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="176" t="s">
-        <v>488</v>
+        <v>456</v>
       </c>
       <c r="C4" s="170" t="s">
-        <v>481</v>
+        <v>449</v>
       </c>
       <c r="D4" s="180">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="177" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="C5" s="170" t="s">
-        <v>483</v>
+        <v>451</v>
       </c>
       <c r="D5" s="180">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:4" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="178" t="s">
-        <v>489</v>
+        <v>457</v>
       </c>
       <c r="C6" s="169" t="s">
-        <v>484</v>
+        <v>452</v>
       </c>
       <c r="D6" s="181">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="182" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
       <c r="C7" s="183" t="s">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="D7" s="184"/>
     </row>
@@ -7902,18 +7562,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.921875" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="5" max="5" width="13.61328125" customWidth="1"/>
-    <col min="6" max="6" width="13.69140625" customWidth="1"/>
-    <col min="7" max="7" width="6.921875" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="70" t="s">
         <v>241</v>
       </c>
@@ -7927,7 +7587,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="67">
         <v>22050</v>
       </c>
@@ -7942,13 +7602,13 @@
         <v>1073741824</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="70" t="s">
         <v>261</v>
       </c>
@@ -7965,7 +7625,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="75"/>
       <c r="C6" s="73">
         <v>0</v>
@@ -7983,7 +7643,7 @@
         <v>0x3ACCCC</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="75"/>
       <c r="C7" s="73">
         <v>1</v>
@@ -8001,7 +7661,7 @@
         <v>0x3E4BE2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="75"/>
       <c r="C8" s="73">
         <v>2</v>
@@ -8019,7 +7679,7 @@
         <v>0x420032</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="75"/>
       <c r="C9" s="73">
         <v>3</v>
@@ -8037,7 +7697,7 @@
         <v>0x45ECE5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="75"/>
       <c r="C10" s="73">
         <v>4</v>
@@ -8055,7 +7715,7 @@
         <v>0x4A1556</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="75"/>
       <c r="C11" s="73">
         <v>5</v>
@@ -8073,7 +7733,7 @@
         <v>0x4E7D13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="75"/>
       <c r="C12" s="73">
         <v>6</v>
@@ -8091,7 +7751,7 @@
         <v>0x5327DF</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="75"/>
       <c r="C13" s="73">
         <v>7</v>
@@ -8109,7 +7769,7 @@
         <v>0x5819B7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="75"/>
       <c r="C14" s="73">
         <v>8</v>
@@ -8127,7 +7787,7 @@
         <v>0x5D56D4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="75"/>
       <c r="C15" s="73">
         <v>9</v>
@@ -8145,7 +7805,7 @@
         <v>0x62E3B0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="75"/>
       <c r="C16" s="73">
         <v>10</v>
@@ -8163,7 +7823,7 @@
         <v>0x68C50A</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="75"/>
       <c r="C17" s="73">
         <v>11</v>
@@ -8181,7 +7841,7 @@
         <v>0x6EFFE7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="75"/>
       <c r="C18" s="73">
         <v>12</v>
@@ -8199,7 +7859,7 @@
         <v>0x759999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="75"/>
       <c r="C19" s="73">
         <v>13</v>
@@ -8217,7 +7877,7 @@
         <v>0x7C97C5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="75"/>
       <c r="C20" s="73">
         <v>14</v>
@@ -8235,7 +7895,7 @@
         <v>0x840064</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="75"/>
       <c r="C21" s="73">
         <v>15</v>
@@ -8253,7 +7913,7 @@
         <v>0x8BD9CB</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="75"/>
       <c r="C22" s="73">
         <v>16</v>
@@ -8271,7 +7931,7 @@
         <v>0x942AAD</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="75"/>
       <c r="C23" s="73">
         <v>17</v>
@@ -8289,7 +7949,7 @@
         <v>0x9CFA27</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="75"/>
       <c r="C24" s="73">
         <v>18</v>
@@ -8307,7 +7967,7 @@
         <v>0xA64FBF</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="75"/>
       <c r="C25" s="73">
         <v>19</v>
@@ -8325,7 +7985,7 @@
         <v>0xB0336E</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="75"/>
       <c r="C26" s="73">
         <v>20</v>
@@ -8343,7 +8003,7 @@
         <v>0xBAADA9</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="78"/>
       <c r="C27" s="74">
         <v>21</v>
@@ -8361,7 +8021,7 @@
         <v>0xC5C761</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="78"/>
       <c r="C28" s="74">
         <v>22</v>
@@ -8379,7 +8039,7 @@
         <v>0xD18A14</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="78"/>
       <c r="C29" s="74">
         <v>23</v>
@@ -8397,7 +8057,7 @@
         <v>0xDDFFCE</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="78" t="s">
         <v>233</v>
       </c>
@@ -8417,7 +8077,7 @@
         <v>0xEB3333</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="78"/>
       <c r="C31" s="74">
         <v>25</v>
@@ -8435,7 +8095,7 @@
         <v>0xF92F8B</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="78"/>
       <c r="C32" s="74">
         <v>26</v>
@@ -8453,7 +8113,7 @@
         <v>0x10800C9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="78"/>
       <c r="C33" s="74">
         <v>27</v>
@@ -8471,7 +8131,7 @@
         <v>0x117B396</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="78"/>
       <c r="C34" s="74">
         <v>28</v>
@@ -8489,7 +8149,7 @@
         <v>0x128555B</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="78"/>
       <c r="C35" s="74">
         <v>29</v>
@@ -8507,7 +8167,7 @@
         <v>0x139F44F</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="78"/>
       <c r="C36" s="74">
         <v>30</v>
@@ -8525,7 +8185,7 @@
         <v>0x14C9F7E</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="78"/>
       <c r="C37" s="74">
         <v>31</v>
@@ -8543,7 +8203,7 @@
         <v>0x16066DD</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="78"/>
       <c r="C38" s="74">
         <v>32</v>
@@ -8561,7 +8221,7 @@
         <v>0x1755B52</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="78"/>
       <c r="C39" s="74">
         <v>33</v>
@@ -8579,7 +8239,7 @@
         <v>0x18B8EC3</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="78"/>
       <c r="C40" s="74">
         <v>34</v>
@@ -8597,7 +8257,7 @@
         <v>0x1A31429</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="78"/>
       <c r="C41" s="74">
         <v>35</v>
@@ -8615,7 +8275,7 @@
         <v>0x1BBFF9C</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="80" t="s">
         <v>235</v>
       </c>
@@ -8635,7 +8295,7 @@
         <v>0x1D66666</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="80"/>
       <c r="C43" s="81">
         <v>37</v>
@@ -8653,7 +8313,7 @@
         <v>0x1F25F16</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="80"/>
       <c r="C44" s="81">
         <v>38</v>
@@ -8671,7 +8331,7 @@
         <v>0x2100192</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="80"/>
       <c r="C45" s="81">
         <v>39</v>
@@ -8689,7 +8349,7 @@
         <v>0x22F672C</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="80"/>
       <c r="C46" s="81">
         <v>40</v>
@@ -8707,7 +8367,7 @@
         <v>0x250AAB7</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="80"/>
       <c r="C47" s="81">
         <v>41</v>
@@ -8725,7 +8385,7 @@
         <v>0x273E89E</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="80"/>
       <c r="C48" s="81">
         <v>42</v>
@@ -8743,7 +8403,7 @@
         <v>0x2993EFD</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="80"/>
       <c r="C49" s="81">
         <v>43</v>
@@ -8761,7 +8421,7 @@
         <v>0x2C0CDBB</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="80"/>
       <c r="C50" s="81">
         <v>44</v>
@@ -8779,7 +8439,7 @@
         <v>0x2EAB6A4</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="80"/>
       <c r="C51" s="81">
         <v>45</v>
@@ -8797,7 +8457,7 @@
         <v>0x3171D87</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="80"/>
       <c r="C52" s="81">
         <v>46</v>
@@ -8815,7 +8475,7 @@
         <v>0x3462852</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="80"/>
       <c r="C53" s="81">
         <v>47</v>
@@ -8833,7 +8493,7 @@
         <v>0x377FF38</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="80" t="s">
         <v>234</v>
       </c>
@@ -8853,7 +8513,7 @@
         <v>0x3ACCCCC</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="80"/>
       <c r="C55" s="81">
         <v>49</v>
@@ -8871,7 +8531,7 @@
         <v>0x3E4BE2D</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="80"/>
       <c r="C56" s="81">
         <v>50</v>
@@ -8889,7 +8549,7 @@
         <v>0x4200325</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="80"/>
       <c r="C57" s="81">
         <v>51</v>
@@ -8907,7 +8567,7 @@
         <v>0x45ECE59</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="80"/>
       <c r="C58" s="81">
         <v>52</v>
@@ -8925,7 +8585,7 @@
         <v>0x4A1556E</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="80"/>
       <c r="C59" s="81">
         <v>53</v>
@@ -8943,7 +8603,7 @@
         <v>0x4E7D13C</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="80"/>
       <c r="C60" s="81">
         <v>54</v>
@@ -8961,7 +8621,7 @@
         <v>0x5327DFB</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="80"/>
       <c r="C61" s="81">
         <v>55</v>
@@ -8979,7 +8639,7 @@
         <v>0x5819B77</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="80"/>
       <c r="C62" s="81">
         <v>56</v>
@@ -8997,7 +8657,7 @@
         <v>0x5D56D49</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="80"/>
       <c r="C63" s="81">
         <v>57</v>
@@ -9015,7 +8675,7 @@
         <v>0x62E3B0E</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="80"/>
       <c r="C64" s="81">
         <v>58</v>
@@ -9033,7 +8693,7 @@
         <v>0x68C50A5</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="80"/>
       <c r="C65" s="81">
         <v>59</v>
@@ -9051,7 +8711,7 @@
         <v>0x6EFFE70</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="80" t="s">
         <v>236</v>
       </c>
@@ -9071,7 +8731,7 @@
         <v>0x7599999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="80"/>
       <c r="C67" s="81">
         <v>61</v>
@@ -9089,7 +8749,7 @@
         <v>0x7C97C5A</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="80"/>
       <c r="C68" s="81">
         <v>62</v>
@@ -9107,7 +8767,7 @@
         <v>0x840064B</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="80"/>
       <c r="C69" s="81">
         <v>63</v>
@@ -9125,7 +8785,7 @@
         <v>0x8BD9CB3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="80"/>
       <c r="C70" s="81">
         <v>64</v>
@@ -9143,7 +8803,7 @@
         <v>0x942AADD</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="80"/>
       <c r="C71" s="81">
         <v>65</v>
@@ -9161,7 +8821,7 @@
         <v>0x9CFA279</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="80"/>
       <c r="C72" s="81">
         <v>66</v>
@@ -9179,7 +8839,7 @@
         <v>0xA64FBF7</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="80"/>
       <c r="C73" s="81">
         <v>67</v>
@@ -9197,7 +8857,7 @@
         <v>0xB0336EF</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="80"/>
       <c r="C74" s="81">
         <v>68</v>
@@ -9215,7 +8875,7 @@
         <v>0xBAADA93</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="80"/>
       <c r="C75" s="81">
         <v>69</v>
@@ -9233,7 +8893,7 @@
         <v>0xC5C761D</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="80"/>
       <c r="C76" s="81">
         <v>70</v>
@@ -9251,7 +8911,7 @@
         <v>0xD18A14B</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="80"/>
       <c r="C77" s="81">
         <v>71</v>
@@ -9269,7 +8929,7 @@
         <v>0xDDFFCE1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="80" t="s">
         <v>237</v>
       </c>
@@ -9289,7 +8949,7 @@
         <v>0xEB33333</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="80"/>
       <c r="C79" s="81">
         <v>73</v>
@@ -9307,7 +8967,7 @@
         <v>0xF92F8B5</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="80"/>
       <c r="C80" s="81">
         <v>74</v>
@@ -9325,7 +8985,7 @@
         <v>0x10800C97</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="80"/>
       <c r="C81" s="81">
         <v>75</v>
@@ -9343,7 +9003,7 @@
         <v>0x117B3966</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="80"/>
       <c r="C82" s="81">
         <v>76</v>
@@ -9361,7 +9021,7 @@
         <v>0x128555BB</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="80"/>
       <c r="C83" s="81">
         <v>77</v>
@@ -9379,7 +9039,7 @@
         <v>0x139F44F3</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="80"/>
       <c r="C84" s="81">
         <v>78</v>
@@ -9397,7 +9057,7 @@
         <v>0x14C9F7EE</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="80"/>
       <c r="C85" s="81">
         <v>79</v>
@@ -9415,7 +9075,7 @@
         <v>0x16066DDF</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="80"/>
       <c r="C86" s="81">
         <v>80</v>
@@ -9433,7 +9093,7 @@
         <v>0x1755B527</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" s="80"/>
       <c r="C87" s="81">
         <v>81</v>
@@ -9451,7 +9111,7 @@
         <v>0x18B8EC3B</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" s="80"/>
       <c r="C88" s="81">
         <v>82</v>
@@ -9469,7 +9129,7 @@
         <v>0x1A314296</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="80"/>
       <c r="C89" s="81">
         <v>83</v>
@@ -9487,7 +9147,7 @@
         <v>0x1BBFF9C2</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="80" t="s">
         <v>239</v>
       </c>
@@ -9507,7 +9167,7 @@
         <v>0x1D666666</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" s="80"/>
       <c r="C91" s="81">
         <v>85</v>
@@ -9525,7 +9185,7 @@
         <v>0x1F25F16A</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="80"/>
       <c r="C92" s="81">
         <v>86</v>
@@ -9543,7 +9203,7 @@
         <v>0x2100192E</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="80"/>
       <c r="C93" s="81">
         <v>87</v>
@@ -9561,7 +9221,7 @@
         <v>0x22F672CC</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="80"/>
       <c r="C94" s="81">
         <v>88</v>
@@ -9579,7 +9239,7 @@
         <v>0x250AAB77</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="80"/>
       <c r="C95" s="81">
         <v>89</v>
@@ -9597,7 +9257,7 @@
         <v>0x273E89E6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="80"/>
       <c r="C96" s="81">
         <v>90</v>
@@ -9615,7 +9275,7 @@
         <v>0x2993EFDC</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="80"/>
       <c r="C97" s="81">
         <v>91</v>
@@ -9633,7 +9293,7 @@
         <v>0x2C0CDBBF</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="80"/>
       <c r="C98" s="81">
         <v>92</v>
@@ -9651,7 +9311,7 @@
         <v>0x2EAB6A4F</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="80"/>
       <c r="C99" s="81">
         <v>93</v>
@@ -9669,7 +9329,7 @@
         <v>0x3171D876</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="80"/>
       <c r="C100" s="81">
         <v>94</v>
@@ -9687,7 +9347,7 @@
         <v>0x3462852D</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="80"/>
       <c r="C101" s="81">
         <v>95</v>
@@ -9705,7 +9365,7 @@
         <v>0x377FF385</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="80" t="s">
         <v>238</v>
       </c>
@@ -9725,7 +9385,7 @@
         <v>0x3ACCCCCC</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="78"/>
       <c r="C103" s="74">
         <v>97</v>
@@ -9743,7 +9403,7 @@
         <v>0x3E4BE2D5</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="78"/>
       <c r="C104" s="74">
         <v>98</v>
@@ -9761,7 +9421,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="78"/>
       <c r="C105" s="74">
         <v>99</v>
@@ -9779,7 +9439,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="78"/>
       <c r="C106" s="74">
         <v>100</v>
@@ -9797,7 +9457,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="78"/>
       <c r="C107" s="74">
         <v>101</v>
@@ -9815,7 +9475,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="78"/>
       <c r="C108" s="74">
         <v>102</v>
@@ -9833,7 +9493,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="78"/>
       <c r="C109" s="74">
         <v>103</v>
@@ -9851,7 +9511,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="78"/>
       <c r="C110" s="74">
         <v>104</v>
@@ -9869,7 +9529,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="78"/>
       <c r="C111" s="74">
         <v>105</v>
@@ -9887,7 +9547,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="78"/>
       <c r="C112" s="74">
         <v>106</v>
@@ -9905,7 +9565,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="78"/>
       <c r="C113" s="74">
         <v>107</v>
@@ -9923,7 +9583,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="78" t="s">
         <v>240</v>
       </c>
@@ -9943,7 +9603,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="75"/>
       <c r="C115" s="73">
         <v>109</v>
@@ -9961,7 +9621,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="75"/>
       <c r="C116" s="73">
         <v>110</v>
@@ -9979,7 +9639,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="75"/>
       <c r="C117" s="73">
         <v>111</v>
@@ -9997,7 +9657,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" s="75"/>
       <c r="C118" s="73">
         <v>112</v>
@@ -10015,7 +9675,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="75"/>
       <c r="C119" s="73">
         <v>113</v>
@@ -10033,7 +9693,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" s="75"/>
       <c r="C120" s="73">
         <v>114</v>
@@ -10051,7 +9711,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="75"/>
       <c r="C121" s="73">
         <v>115</v>
@@ -10069,7 +9729,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="75"/>
       <c r="C122" s="73">
         <v>116</v>
@@ -10087,7 +9747,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="75"/>
       <c r="C123" s="73">
         <v>117</v>
@@ -10105,7 +9765,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B124" s="75"/>
       <c r="C124" s="73">
         <v>118</v>
@@ -10123,7 +9783,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B125" s="75"/>
       <c r="C125" s="73">
         <v>119</v>
@@ -10141,7 +9801,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B126" s="75"/>
       <c r="C126" s="73">
         <v>120</v>
@@ -10159,7 +9819,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B127" s="75"/>
       <c r="C127" s="73">
         <v>121</v>
@@ -10177,7 +9837,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B128" s="75"/>
       <c r="C128" s="73">
         <v>122</v>
@@ -10195,7 +9855,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B129" s="75"/>
       <c r="C129" s="73">
         <v>123</v>
@@ -10213,7 +9873,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B130" s="75"/>
       <c r="C130" s="73">
         <v>124</v>
@@ -10231,7 +9891,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B131" s="75"/>
       <c r="C131" s="73">
         <v>125</v>
@@ -10249,7 +9909,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B132" s="75"/>
       <c r="C132" s="73">
         <v>126</v>
@@ -10267,7 +9927,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B133" s="77"/>
       <c r="C133" s="68">
         <v>127</v>
@@ -10298,12 +9958,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -10320,10 +9980,10 @@
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="64"/>
       <c r="B2" s="148" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="C2" s="155">
         <v>0</v>
@@ -10344,119 +10004,119 @@
         <v>5</v>
       </c>
       <c r="I2" s="155" t="s">
-        <v>436</v>
+        <v>404</v>
       </c>
       <c r="J2" s="149" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="K2" s="150" t="s">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="L2" s="64"/>
       <c r="M2" s="64"/>
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="64"/>
       <c r="B3" s="145" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="C3" s="146" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="D3" s="146" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="F3" s="147" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="G3" s="147" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="H3" s="147" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="I3" s="151" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="J3" s="151" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="K3" s="152" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="L3" s="64"/>
       <c r="M3" s="64"/>
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="64"/>
       <c r="B4" s="143" t="s">
-        <v>432</v>
+        <v>400</v>
       </c>
       <c r="C4" s="141" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="D4" s="141" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="E4" s="141" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="F4" s="142" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="G4" s="142" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="H4" s="142" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="I4" s="153" t="s">
-        <v>427</v>
+        <v>395</v>
       </c>
       <c r="J4" s="153" t="s">
-        <v>428</v>
+        <v>396</v>
       </c>
       <c r="K4" s="154" t="s">
-        <v>429</v>
+        <v>397</v>
       </c>
       <c r="L4" s="64"/>
       <c r="M4" s="64"/>
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="64"/>
       <c r="B5" s="144" t="s">
-        <v>433</v>
-      </c>
-      <c r="C5" s="212" t="s">
+        <v>401</v>
+      </c>
+      <c r="C5" s="195" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="212"/>
-      <c r="E5" s="212"/>
-      <c r="F5" s="213" t="s">
-        <v>430</v>
-      </c>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="214" t="s">
-        <v>435</v>
-      </c>
-      <c r="J5" s="214"/>
-      <c r="K5" s="215"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="196" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197" t="s">
+        <v>403</v>
+      </c>
+      <c r="J5" s="197"/>
+      <c r="K5" s="198"/>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -10473,7 +10133,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -10490,7 +10150,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -10507,7 +10167,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -10524,7 +10184,7 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -10541,7 +10201,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -10558,7 +10218,7 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -10575,7 +10235,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -10592,7 +10252,7 @@
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -10609,7 +10269,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -10626,7 +10286,7 @@
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -10643,7 +10303,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -10660,7 +10320,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -10677,7 +10337,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -10694,7 +10354,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -10711,7 +10371,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -10728,7 +10388,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -10745,7 +10405,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -10762,7 +10422,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -10779,7 +10439,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -10796,7 +10456,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -10813,7 +10473,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -10830,7 +10490,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -10847,7 +10507,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="64"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -10882,14 +10542,14 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.53515625" customWidth="1"/>
-    <col min="3" max="3" width="65.61328125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="65.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="123" t="s">
         <v>3</v>
       </c>
@@ -10897,7 +10557,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="119" t="s">
         <v>331</v>
       </c>
@@ -10905,7 +10565,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="119" t="s">
         <v>330</v>
       </c>
@@ -10913,7 +10573,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="119" t="s">
         <v>330</v>
       </c>
@@ -10921,7 +10581,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="119" t="s">
         <v>334</v>
       </c>
@@ -10929,7 +10589,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="119" t="s">
         <v>330</v>
       </c>
@@ -10937,111 +10597,111 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" s="119" t="s">
         <v>330</v>
       </c>
       <c r="C8" s="120" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B9" s="119" t="s">
         <v>330</v>
       </c>
       <c r="C9" s="120" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="119" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C10" s="120" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11" s="119"/>
       <c r="C11" s="120"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="119"/>
       <c r="C18" s="120"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="119"/>
       <c r="C19" s="120"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="119"/>
       <c r="C20" s="120"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="119"/>
       <c r="C21" s="120"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="119"/>
       <c r="C25" s="120"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="119"/>
       <c r="C26" s="120"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="119"/>
       <c r="C27" s="120"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="119"/>
       <c r="C28" s="120"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="119"/>
       <c r="C29" s="120"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="119"/>
       <c r="C30" s="120"/>
     </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
     </row>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS-pub\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A03E7CF-F749-4C37-B78D-5F84935B1D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D9257-1D33-4493-8287-27BA29739479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15320" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="40180" yWindow="690" windowWidth="12920" windowHeight="18910" activeTab="2" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="480">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1478,6 +1478,12 @@
   </si>
   <si>
     <t>1000 = 64000 Hz</t>
+  </si>
+  <si>
+    <t>Voice N Envelope RESET</t>
+  </si>
+  <si>
+    <t>Reset envelope generator</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2528,10 +2534,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2882,21 +2893,21 @@
   </sheetPr>
   <dimension ref="A1:H150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="31.7265625" customWidth="1"/>
-    <col min="4" max="4" width="4.08984375" customWidth="1"/>
-    <col min="5" max="5" width="5.26953125" customWidth="1"/>
-    <col min="6" max="6" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.23046875" customWidth="1"/>
+    <col min="3" max="3" width="31.69140625" customWidth="1"/>
+    <col min="4" max="4" width="4.07421875" customWidth="1"/>
+    <col min="5" max="5" width="5.23046875" customWidth="1"/>
+    <col min="6" max="6" width="29.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -2906,19 +2917,19 @@
       <c r="G1" s="64"/>
       <c r="H1" s="64"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64"/>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="191"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="194"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="64"/>
       <c r="B3" s="83" t="s">
         <v>0</v>
@@ -2938,7 +2949,7 @@
       <c r="G3" s="64"/>
       <c r="H3" s="64"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="64"/>
       <c r="B4" s="156" t="s">
         <v>4</v>
@@ -2958,7 +2969,7 @@
       <c r="G4" s="64"/>
       <c r="H4" s="64"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="64"/>
       <c r="B5" s="156"/>
       <c r="C5" s="125"/>
@@ -2974,7 +2985,7 @@
       <c r="G5" s="64"/>
       <c r="H5" s="64"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="64"/>
       <c r="B6" s="156"/>
       <c r="C6" s="125"/>
@@ -2990,7 +3001,7 @@
       <c r="G6" s="64"/>
       <c r="H6" s="64"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="64"/>
       <c r="B7" s="156"/>
       <c r="C7" s="97"/>
@@ -3006,7 +3017,7 @@
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="64"/>
       <c r="B8" s="156"/>
       <c r="C8" s="125"/>
@@ -3022,7 +3033,7 @@
       <c r="G8" s="64"/>
       <c r="H8" s="64"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="64"/>
       <c r="B9" s="156"/>
       <c r="C9" s="125"/>
@@ -3038,7 +3049,7 @@
       <c r="G9" s="64"/>
       <c r="H9" s="64"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="64"/>
       <c r="B10" s="156"/>
       <c r="C10" s="125"/>
@@ -3054,7 +3065,7 @@
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="64"/>
       <c r="B11" s="156"/>
       <c r="C11" s="125"/>
@@ -3070,7 +3081,7 @@
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="64"/>
       <c r="B12" s="156"/>
       <c r="C12" s="125"/>
@@ -3086,7 +3097,7 @@
       <c r="G12" s="64"/>
       <c r="H12" s="64"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="64"/>
       <c r="B13" s="156"/>
       <c r="C13" s="125"/>
@@ -3098,7 +3109,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="64"/>
       <c r="B14" s="157" t="s">
         <v>16</v>
@@ -3118,7 +3129,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="64"/>
       <c r="B15" s="156"/>
       <c r="C15" s="125"/>
@@ -3134,7 +3145,7 @@
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="64"/>
       <c r="B16" s="156"/>
       <c r="C16" s="125"/>
@@ -3150,7 +3161,7 @@
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="64"/>
       <c r="B17" s="156"/>
       <c r="C17" s="125"/>
@@ -3166,7 +3177,7 @@
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="64"/>
       <c r="B18" s="156"/>
       <c r="C18" s="125"/>
@@ -3182,7 +3193,7 @@
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="64"/>
       <c r="B19" s="156"/>
       <c r="C19" s="125"/>
@@ -3198,7 +3209,7 @@
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="64"/>
       <c r="B20" s="156"/>
       <c r="C20" s="125"/>
@@ -3214,7 +3225,7 @@
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
       <c r="B21" s="156"/>
       <c r="C21" s="125"/>
@@ -3230,7 +3241,7 @@
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="64"/>
       <c r="B22" s="156"/>
       <c r="C22" s="125"/>
@@ -3246,7 +3257,7 @@
       <c r="G22" s="64"/>
       <c r="H22" s="64"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="64"/>
       <c r="B23" s="158"/>
       <c r="C23" s="99"/>
@@ -3258,7 +3269,7 @@
       <c r="G23" s="64"/>
       <c r="H23" s="64"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="64"/>
       <c r="B24" s="157" t="s">
         <v>17</v>
@@ -3278,7 +3289,7 @@
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="64"/>
       <c r="B25" s="156"/>
       <c r="C25" s="125"/>
@@ -3290,7 +3301,7 @@
       <c r="G25" s="64"/>
       <c r="H25" s="64"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="64"/>
       <c r="B26" s="156"/>
       <c r="C26" s="125"/>
@@ -3302,7 +3313,7 @@
       <c r="G26" s="64"/>
       <c r="H26" s="64"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
       <c r="B27" s="156"/>
       <c r="C27" s="125"/>
@@ -3314,7 +3325,7 @@
       <c r="G27" s="64"/>
       <c r="H27" s="64"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
       <c r="B28" s="156"/>
       <c r="C28" s="125"/>
@@ -3326,7 +3337,7 @@
       <c r="G28" s="64"/>
       <c r="H28" s="64"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="64"/>
       <c r="B29" s="156"/>
       <c r="C29" s="125"/>
@@ -3338,7 +3349,7 @@
       <c r="G29" s="64"/>
       <c r="H29" s="64"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="64"/>
       <c r="B30" s="156"/>
       <c r="C30" s="97"/>
@@ -3354,7 +3365,7 @@
       <c r="G30" s="64"/>
       <c r="H30" s="64"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="64"/>
       <c r="B31" s="156"/>
       <c r="C31" s="125"/>
@@ -3369,7 +3380,7 @@
       </c>
       <c r="H31" s="64"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="64"/>
       <c r="B32" s="156"/>
       <c r="C32" s="125"/>
@@ -3380,7 +3391,7 @@
       </c>
       <c r="H32" s="64"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="64"/>
       <c r="B33" s="156"/>
       <c r="C33" s="125"/>
@@ -3395,7 +3406,7 @@
       </c>
       <c r="H33" s="64"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="64"/>
       <c r="B34" s="156"/>
       <c r="C34" s="125"/>
@@ -3406,7 +3417,7 @@
       </c>
       <c r="H34" s="64"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="64"/>
       <c r="B35" s="157" t="s">
         <v>18</v>
@@ -3426,7 +3437,7 @@
       <c r="G35" s="64"/>
       <c r="H35" s="64"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="64"/>
       <c r="B36" s="156"/>
       <c r="C36" s="125"/>
@@ -3438,7 +3449,7 @@
       <c r="G36" s="64"/>
       <c r="H36" s="64"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="64"/>
       <c r="B37" s="156"/>
       <c r="C37" s="125"/>
@@ -3450,7 +3461,7 @@
       <c r="G37" s="64"/>
       <c r="H37" s="64"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="64"/>
       <c r="B38" s="156"/>
       <c r="C38" s="125"/>
@@ -3462,7 +3473,7 @@
       <c r="G38" s="64"/>
       <c r="H38" s="64"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="64"/>
       <c r="B39" s="156"/>
       <c r="C39" s="125"/>
@@ -3474,7 +3485,7 @@
       <c r="G39" s="64"/>
       <c r="H39" s="64"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="64"/>
       <c r="B40" s="156"/>
       <c r="C40" s="125"/>
@@ -3486,7 +3497,7 @@
       <c r="G40" s="64"/>
       <c r="H40" s="64"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="64"/>
       <c r="B41" s="156"/>
       <c r="C41" s="125"/>
@@ -3498,7 +3509,7 @@
       <c r="G41" s="64"/>
       <c r="H41" s="64"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="64"/>
       <c r="B42" s="156"/>
       <c r="C42" s="125"/>
@@ -3510,7 +3521,7 @@
       <c r="G42" s="64"/>
       <c r="H42" s="64"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="64"/>
       <c r="B43" s="156"/>
       <c r="C43" s="125"/>
@@ -3522,7 +3533,7 @@
       <c r="G43" s="64"/>
       <c r="H43" s="64"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="64"/>
       <c r="B44" s="156"/>
       <c r="C44" s="125"/>
@@ -3538,7 +3549,7 @@
       <c r="G44" s="64"/>
       <c r="H44" s="64"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="64"/>
       <c r="B45" s="156"/>
       <c r="C45" s="125"/>
@@ -3550,7 +3561,7 @@
       <c r="G45" s="64"/>
       <c r="H45" s="64"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="64"/>
       <c r="B46" s="156"/>
       <c r="C46" s="125"/>
@@ -3566,7 +3577,7 @@
       <c r="G46" s="64"/>
       <c r="H46" s="64"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="64"/>
       <c r="B47" s="158"/>
       <c r="C47" s="99"/>
@@ -3578,7 +3589,7 @@
       <c r="G47" s="64"/>
       <c r="H47" s="64"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="64"/>
       <c r="B48" s="159" t="s">
         <v>21</v>
@@ -3598,7 +3609,7 @@
       <c r="G48" s="64"/>
       <c r="H48" s="64"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="64"/>
       <c r="B49" s="159" t="s">
         <v>24</v>
@@ -3618,7 +3629,7 @@
       <c r="G49" s="64"/>
       <c r="H49" s="64"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="64"/>
       <c r="B50" s="159" t="s">
         <v>30</v>
@@ -3638,7 +3649,7 @@
       <c r="G50" s="64"/>
       <c r="H50" s="64"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="64"/>
       <c r="B51" s="159" t="s">
         <v>31</v>
@@ -3658,7 +3669,7 @@
       <c r="G51" s="64"/>
       <c r="H51" s="64"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="64"/>
       <c r="B52" s="159" t="s">
         <v>182</v>
@@ -3678,7 +3689,7 @@
       <c r="G52" s="64"/>
       <c r="H52" s="64"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="64"/>
       <c r="B53" s="159" t="s">
         <v>188</v>
@@ -3698,7 +3709,7 @@
       <c r="G53" s="64"/>
       <c r="H53" s="64"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="64"/>
       <c r="B54" s="91" t="s">
         <v>37</v>
@@ -3718,7 +3729,7 @@
       <c r="G54" s="64"/>
       <c r="H54" s="64"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="64"/>
       <c r="B55" s="91" t="s">
         <v>40</v>
@@ -3738,7 +3749,7 @@
       <c r="G55" s="64"/>
       <c r="H55" s="64"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="64"/>
       <c r="B56" s="91" t="s">
         <v>43</v>
@@ -3758,7 +3769,7 @@
       <c r="G56" s="64"/>
       <c r="H56" s="64"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="64"/>
       <c r="B57" s="91" t="s">
         <v>51</v>
@@ -3778,7 +3789,7 @@
       <c r="G57" s="64"/>
       <c r="H57" s="64"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="64"/>
       <c r="B58" s="91" t="s">
         <v>50</v>
@@ -3798,7 +3809,7 @@
       <c r="G58" s="64"/>
       <c r="H58" s="64"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="64"/>
       <c r="B59" s="89" t="s">
         <v>77</v>
@@ -3818,7 +3829,7 @@
       <c r="G59" s="64"/>
       <c r="H59" s="64"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="64"/>
       <c r="B60" s="90"/>
       <c r="C60" s="103"/>
@@ -3830,7 +3841,7 @@
       <c r="G60" s="64"/>
       <c r="H60" s="64"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="64"/>
       <c r="B61" s="159" t="s">
         <v>56</v>
@@ -3850,7 +3861,7 @@
       <c r="G61" s="64"/>
       <c r="H61" s="64"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="64"/>
       <c r="B62" s="159" t="s">
         <v>57</v>
@@ -3870,7 +3881,7 @@
       <c r="G62" s="64"/>
       <c r="H62" s="64"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="64"/>
       <c r="B63" s="159" t="s">
         <v>58</v>
@@ -3890,7 +3901,7 @@
       <c r="G63" s="64"/>
       <c r="H63" s="64"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="64"/>
       <c r="B64" s="159" t="s">
         <v>59</v>
@@ -3910,7 +3921,7 @@
       <c r="G64" s="64"/>
       <c r="H64" s="64"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="64"/>
       <c r="B65" s="159" t="s">
         <v>60</v>
@@ -3930,7 +3941,7 @@
       <c r="G65" s="64"/>
       <c r="H65" s="64"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="64"/>
       <c r="B66" s="159" t="s">
         <v>65</v>
@@ -3950,7 +3961,7 @@
       <c r="G66" s="64"/>
       <c r="H66" s="64"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="64"/>
       <c r="B67" s="159" t="s">
         <v>66</v>
@@ -3970,7 +3981,7 @@
       <c r="G67" s="64"/>
       <c r="H67" s="64"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="64"/>
       <c r="B68" s="159" t="s">
         <v>67</v>
@@ -3990,7 +4001,7 @@
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="64"/>
       <c r="B69" s="159" t="s">
         <v>61</v>
@@ -4010,7 +4021,7 @@
       <c r="G69" s="64"/>
       <c r="H69" s="64"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="64"/>
       <c r="B70" s="159" t="s">
         <v>62</v>
@@ -4030,7 +4041,7 @@
       <c r="G70" s="64"/>
       <c r="H70" s="64"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="64"/>
       <c r="B71" s="159" t="s">
         <v>63</v>
@@ -4050,7 +4061,7 @@
       <c r="G71" s="64"/>
       <c r="H71" s="64"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="64"/>
       <c r="B72" s="159" t="s">
         <v>64</v>
@@ -4070,7 +4081,7 @@
       <c r="G72" s="64"/>
       <c r="H72" s="64"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="64"/>
       <c r="B73" s="157" t="s">
         <v>417</v>
@@ -4090,7 +4101,7 @@
       <c r="G73" s="64"/>
       <c r="H73" s="64"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="64"/>
       <c r="B74" s="156"/>
       <c r="C74" s="97"/>
@@ -4102,7 +4113,7 @@
       <c r="G74" s="64"/>
       <c r="H74" s="64"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="64"/>
       <c r="B75" s="156"/>
       <c r="C75" s="97"/>
@@ -4116,7 +4127,7 @@
       <c r="G75" s="64"/>
       <c r="H75" s="64"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="64"/>
       <c r="B76" s="160"/>
       <c r="C76" s="97"/>
@@ -4128,7 +4139,7 @@
       <c r="G76" s="64"/>
       <c r="H76" s="64"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="64"/>
       <c r="B77" s="161" t="s">
         <v>419</v>
@@ -4148,7 +4159,7 @@
       <c r="G77" s="64"/>
       <c r="H77" s="64"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="64"/>
       <c r="B78" s="161" t="s">
         <v>421</v>
@@ -4168,7 +4179,7 @@
       <c r="G78" s="64"/>
       <c r="H78" s="64"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="64"/>
       <c r="B79" s="161" t="s">
         <v>424</v>
@@ -4188,7 +4199,7 @@
       <c r="G79" s="64"/>
       <c r="H79" s="64"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="64"/>
       <c r="B80" s="92" t="s">
         <v>362</v>
@@ -4206,7 +4217,7 @@
       <c r="G80" s="64"/>
       <c r="H80" s="64"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="64"/>
       <c r="B81" s="92" t="s">
         <v>368</v>
@@ -4224,7 +4235,7 @@
       <c r="G81" s="64"/>
       <c r="H81" s="64"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="64"/>
       <c r="B82" s="92" t="s">
         <v>369</v>
@@ -4242,7 +4253,7 @@
       <c r="G82" s="64"/>
       <c r="H82" s="64"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="64"/>
       <c r="B83" s="92" t="s">
         <v>370</v>
@@ -4260,7 +4271,7 @@
       <c r="G83" s="64"/>
       <c r="H83" s="64"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="64"/>
       <c r="B84" s="92" t="s">
         <v>377</v>
@@ -4278,7 +4289,7 @@
       <c r="G84" s="64"/>
       <c r="H84" s="64"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="64"/>
       <c r="B85" s="92" t="s">
         <v>378</v>
@@ -4296,7 +4307,7 @@
       <c r="G85" s="64"/>
       <c r="H85" s="64"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="64"/>
       <c r="B86" s="92" t="s">
         <v>379</v>
@@ -4314,7 +4325,7 @@
       <c r="G86" s="64"/>
       <c r="H86" s="64"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="64"/>
       <c r="B87" s="92" t="s">
         <v>380</v>
@@ -4332,7 +4343,7 @@
       <c r="G87" s="64"/>
       <c r="H87" s="64"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="64"/>
       <c r="B88" s="92" t="s">
         <v>381</v>
@@ -4350,7 +4361,7 @@
       <c r="G88" s="64"/>
       <c r="H88" s="64"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="64"/>
       <c r="B89" s="92" t="s">
         <v>382</v>
@@ -4368,7 +4379,7 @@
       <c r="G89" s="64"/>
       <c r="H89" s="64"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="64"/>
       <c r="B90" s="91" t="s">
         <v>383</v>
@@ -4386,7 +4397,7 @@
       <c r="G90" s="64"/>
       <c r="H90" s="64"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="64"/>
       <c r="B91" s="93" t="s">
         <v>384</v>
@@ -4406,7 +4417,7 @@
       <c r="G91" s="64"/>
       <c r="H91" s="64"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="64"/>
       <c r="B92" s="90"/>
       <c r="C92" s="103"/>
@@ -4418,7 +4429,7 @@
       <c r="G92" s="64"/>
       <c r="H92" s="64"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="64"/>
       <c r="B93" s="160" t="s">
         <v>465</v>
@@ -4438,7 +4449,7 @@
       <c r="G93" s="64"/>
       <c r="H93" s="64"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="64"/>
       <c r="B94" s="160"/>
       <c r="C94" s="97"/>
@@ -4450,7 +4461,7 @@
       <c r="G94" s="64"/>
       <c r="H94" s="64"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="64"/>
       <c r="B95" s="158"/>
       <c r="C95" s="97"/>
@@ -4462,7 +4473,7 @@
       <c r="G95" s="64"/>
       <c r="H95" s="64"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="64"/>
       <c r="B96" s="160" t="s">
         <v>473</v>
@@ -4482,7 +4493,7 @@
       <c r="G96" s="64"/>
       <c r="H96" s="64"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="64"/>
       <c r="B97" s="160"/>
       <c r="C97" s="97"/>
@@ -4496,7 +4507,7 @@
       <c r="G97" s="64"/>
       <c r="H97" s="64"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="64"/>
       <c r="B98" s="158"/>
       <c r="C98" s="103"/>
@@ -4508,7 +4519,7 @@
       <c r="G98" s="64"/>
       <c r="H98" s="64"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="64"/>
       <c r="B99" s="92" t="s">
         <v>275</v>
@@ -4528,7 +4539,7 @@
       <c r="G99" s="64"/>
       <c r="H99" s="64"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="64"/>
       <c r="B100" s="87"/>
       <c r="C100" s="97"/>
@@ -4540,7 +4551,7 @@
       <c r="G100" s="64"/>
       <c r="H100" s="64"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="64"/>
       <c r="B101" s="87"/>
       <c r="C101" s="97"/>
@@ -4556,7 +4567,7 @@
       <c r="G101" s="64"/>
       <c r="H101" s="64"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="64"/>
       <c r="B102" s="87"/>
       <c r="C102" s="97"/>
@@ -4568,7 +4579,7 @@
       <c r="G102" s="64"/>
       <c r="H102" s="64"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="64"/>
       <c r="B103" s="93"/>
       <c r="C103" s="97"/>
@@ -4580,7 +4591,7 @@
       <c r="G103" s="64"/>
       <c r="H103" s="64"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="64"/>
       <c r="B104" s="87"/>
       <c r="C104" s="97"/>
@@ -4592,7 +4603,7 @@
       <c r="G104" s="64"/>
       <c r="H104" s="64"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="64"/>
       <c r="B105" s="87"/>
       <c r="C105" s="97"/>
@@ -4608,7 +4619,7 @@
       <c r="G105" s="64"/>
       <c r="H105" s="64"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="64"/>
       <c r="B106" s="87"/>
       <c r="C106" s="97"/>
@@ -4620,7 +4631,7 @@
       <c r="G106" s="64"/>
       <c r="H106" s="64"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="64"/>
       <c r="B107" s="87"/>
       <c r="C107" s="97"/>
@@ -4636,7 +4647,7 @@
       <c r="G107" s="64"/>
       <c r="H107" s="64"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="64"/>
       <c r="B108" s="93"/>
       <c r="C108" s="97"/>
@@ -4648,7 +4659,7 @@
       <c r="G108" s="64"/>
       <c r="H108" s="64"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="64"/>
       <c r="B109" s="89" t="s">
         <v>284</v>
@@ -4668,7 +4679,7 @@
       <c r="G109" s="64"/>
       <c r="H109" s="64"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="64"/>
       <c r="B110" s="87"/>
       <c r="C110" s="97"/>
@@ -4680,7 +4691,7 @@
       <c r="G110" s="64"/>
       <c r="H110" s="64"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="64"/>
       <c r="B111" s="93"/>
       <c r="C111" s="97"/>
@@ -4692,7 +4703,7 @@
       <c r="G111" s="64"/>
       <c r="H111" s="64"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="64"/>
       <c r="B112" s="87"/>
       <c r="C112" s="97"/>
@@ -4704,7 +4715,7 @@
       <c r="G112" s="64"/>
       <c r="H112" s="64"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="64"/>
       <c r="B113" s="87"/>
       <c r="C113" s="97"/>
@@ -4716,7 +4727,7 @@
       <c r="G113" s="64"/>
       <c r="H113" s="64"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="64"/>
       <c r="B114" s="93"/>
       <c r="C114" s="97"/>
@@ -4728,7 +4739,7 @@
       <c r="G114" s="64"/>
       <c r="H114" s="64"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="64"/>
       <c r="B115" s="87"/>
       <c r="C115" s="97"/>
@@ -4740,7 +4751,7 @@
       <c r="G115" s="64"/>
       <c r="H115" s="64"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="64"/>
       <c r="B116" s="87"/>
       <c r="C116" s="97"/>
@@ -4752,7 +4763,7 @@
       <c r="G116" s="64"/>
       <c r="H116" s="64"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="64"/>
       <c r="B117" s="87"/>
       <c r="C117" s="97"/>
@@ -4764,7 +4775,7 @@
       <c r="G117" s="64"/>
       <c r="H117" s="64"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="64"/>
       <c r="B118" s="87"/>
       <c r="C118" s="97"/>
@@ -4776,7 +4787,7 @@
       <c r="G118" s="64"/>
       <c r="H118" s="64"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="64"/>
       <c r="B119" s="87"/>
       <c r="C119" s="97"/>
@@ -4792,7 +4803,7 @@
       <c r="G119" s="64"/>
       <c r="H119" s="64"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="64"/>
       <c r="B120" s="87"/>
       <c r="C120" s="97"/>
@@ -4804,7 +4815,7 @@
       <c r="G120" s="64"/>
       <c r="H120" s="64"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="64"/>
       <c r="B121" s="87"/>
       <c r="C121" s="97"/>
@@ -4816,7 +4827,7 @@
       <c r="G121" s="64"/>
       <c r="H121" s="64"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="64"/>
       <c r="B122" s="87"/>
       <c r="C122" s="97"/>
@@ -4828,7 +4839,7 @@
       <c r="G122" s="64"/>
       <c r="H122" s="64"/>
     </row>
-    <row r="123" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="64"/>
       <c r="B123" s="87"/>
       <c r="C123" s="97"/>
@@ -4840,7 +4851,7 @@
       <c r="G123" s="64"/>
       <c r="H123" s="64"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="64"/>
       <c r="B124" s="87"/>
       <c r="C124" s="97"/>
@@ -4856,7 +4867,7 @@
       <c r="G124" s="64"/>
       <c r="H124" s="64"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="64"/>
       <c r="B125" s="93"/>
       <c r="C125" s="97"/>
@@ -4868,7 +4879,7 @@
       <c r="G125" s="64"/>
       <c r="H125" s="64"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="64"/>
       <c r="B126" s="89" t="s">
         <v>316</v>
@@ -4888,7 +4899,7 @@
       <c r="G126" s="64"/>
       <c r="H126" s="64"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="64"/>
       <c r="B127" s="91" t="s">
         <v>317</v>
@@ -4908,7 +4919,7 @@
       <c r="G127" s="64"/>
       <c r="H127" s="64"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="64"/>
       <c r="B128" s="91" t="s">
         <v>318</v>
@@ -4928,7 +4939,7 @@
       <c r="G128" s="64"/>
       <c r="H128" s="64"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="64"/>
       <c r="B129" s="91" t="s">
         <v>319</v>
@@ -4948,7 +4959,7 @@
       <c r="G129" s="64"/>
       <c r="H129" s="64"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="64"/>
       <c r="B130" s="91" t="s">
         <v>320</v>
@@ -4968,7 +4979,7 @@
       <c r="G130" s="64"/>
       <c r="H130" s="64"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="64"/>
       <c r="B131" s="91" t="s">
         <v>321</v>
@@ -4988,7 +4999,7 @@
       <c r="G131" s="64"/>
       <c r="H131" s="64"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="64"/>
       <c r="B132" s="161" t="s">
         <v>68</v>
@@ -5008,7 +5019,7 @@
       <c r="G132" s="64"/>
       <c r="H132" s="64"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="64"/>
       <c r="B133" s="160"/>
       <c r="C133" s="97"/>
@@ -5020,7 +5031,7 @@
       <c r="G133" s="64"/>
       <c r="H133" s="64"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="64"/>
       <c r="B134" s="160"/>
       <c r="C134" s="97"/>
@@ -5036,9 +5047,9 @@
       <c r="G134" s="64"/>
       <c r="H134" s="64"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="64"/>
-      <c r="B135" s="187"/>
+      <c r="B135" s="186"/>
       <c r="C135" s="103"/>
       <c r="D135" s="59"/>
       <c r="E135" s="39"/>
@@ -5048,7 +5059,7 @@
       <c r="G135" s="64"/>
       <c r="H135" s="64"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="64"/>
       <c r="B136" s="161" t="s">
         <v>74</v>
@@ -5068,9 +5079,9 @@
       <c r="G136" s="64"/>
       <c r="H136" s="64"/>
     </row>
-    <row r="137" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="64"/>
-      <c r="B137" s="188" t="s">
+      <c r="B137" s="187" t="s">
         <v>444</v>
       </c>
       <c r="C137" s="165" t="s">
@@ -5088,7 +5099,7 @@
       <c r="G137" s="64"/>
       <c r="H137" s="64"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="64"/>
       <c r="B138" s="87" t="s">
         <v>343</v>
@@ -5108,7 +5119,7 @@
       <c r="G138" s="64"/>
       <c r="H138" s="64"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="64"/>
       <c r="B139" s="93"/>
       <c r="C139" s="131"/>
@@ -5120,7 +5131,7 @@
       <c r="G139" s="64"/>
       <c r="H139" s="64"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="64"/>
       <c r="B140" s="93"/>
       <c r="C140" s="56"/>
@@ -5136,7 +5147,7 @@
       <c r="G140" s="64"/>
       <c r="H140" s="64"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="64"/>
       <c r="B141" s="93"/>
       <c r="C141" s="133"/>
@@ -5148,7 +5159,7 @@
       <c r="G141" s="64"/>
       <c r="H141" s="64"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="64"/>
       <c r="B142" s="92" t="s">
         <v>349</v>
@@ -5168,7 +5179,7 @@
       <c r="G142" s="64"/>
       <c r="H142" s="64"/>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A143" s="64"/>
       <c r="B143" s="94" t="s">
         <v>353</v>
@@ -5188,7 +5199,7 @@
       <c r="G143" s="64"/>
       <c r="H143" s="64"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="64"/>
       <c r="B144" s="88"/>
       <c r="C144" s="88"/>
@@ -5198,7 +5209,7 @@
       <c r="G144" s="64"/>
       <c r="H144" s="64"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="64"/>
       <c r="B145" s="88"/>
       <c r="C145" s="88"/>
@@ -5208,7 +5219,7 @@
       <c r="G145" s="64"/>
       <c r="H145" s="64"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="64"/>
       <c r="B146" s="88"/>
       <c r="C146" s="88"/>
@@ -5218,7 +5229,7 @@
       <c r="G146" s="64"/>
       <c r="H146" s="64"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="64"/>
       <c r="B147" s="88"/>
       <c r="C147" s="88"/>
@@ -5228,7 +5239,7 @@
       <c r="G147" s="64"/>
       <c r="H147" s="64"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="64"/>
       <c r="B148" s="88"/>
       <c r="C148" s="88"/>
@@ -5238,7 +5249,7 @@
       <c r="G148" s="64"/>
       <c r="H148" s="64"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="64"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -5246,7 +5257,7 @@
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5271,27 +5282,27 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.90625" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="6.54296875" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" customWidth="1"/>
-    <col min="6" max="6" width="33.453125" customWidth="1"/>
+    <col min="1" max="1" width="3.921875" customWidth="1"/>
+    <col min="2" max="2" width="13.07421875" customWidth="1"/>
+    <col min="3" max="3" width="21.84375" customWidth="1"/>
+    <col min="4" max="4" width="6.53515625" customWidth="1"/>
+    <col min="5" max="5" width="5.15234375" customWidth="1"/>
+    <col min="6" max="6" width="33.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="192" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="195" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -5308,7 +5319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
@@ -5325,7 +5336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
@@ -5338,7 +5349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
@@ -5351,7 +5362,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
@@ -5364,7 +5375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
@@ -5377,7 +5388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
@@ -5390,7 +5401,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="7"/>
@@ -5399,7 +5410,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
@@ -5416,7 +5427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
@@ -5429,7 +5440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
@@ -5442,7 +5453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
@@ -5455,7 +5466,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
@@ -5468,7 +5479,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="24"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
@@ -5481,7 +5492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="25"/>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
@@ -5490,7 +5501,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
         <v>96</v>
       </c>
@@ -5507,7 +5518,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="30"/>
       <c r="C19" s="4"/>
       <c r="D19" s="32"/>
@@ -5516,7 +5527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="22" t="s">
         <v>18</v>
       </c>
@@ -5533,7 +5544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="22" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5561,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="22" t="s">
         <v>100</v>
       </c>
@@ -5567,7 +5578,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="22" t="s">
         <v>101</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="162" t="s">
         <v>37</v>
       </c>
@@ -5601,7 +5612,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="162" t="s">
         <v>40</v>
       </c>
@@ -5618,7 +5629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="162" t="s">
         <v>43</v>
       </c>
@@ -5635,7 +5646,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="162" t="s">
         <v>51</v>
       </c>
@@ -5652,7 +5663,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="162" t="s">
         <v>50</v>
       </c>
@@ -5669,7 +5680,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="163" t="s">
         <v>77</v>
       </c>
@@ -5686,7 +5697,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="164"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
@@ -5705,33 +5716,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD7B95-A2AF-46FE-AB85-2A0D672A14B1}">
-  <dimension ref="A1:F130"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:C127"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K125" sqref="K125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
-    <col min="3" max="3" width="24.08984375" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.26953125" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" customWidth="1"/>
+    <col min="2" max="2" width="13.23046875" customWidth="1"/>
+    <col min="3" max="3" width="24.07421875" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.23046875" customWidth="1"/>
+    <col min="6" max="6" width="29.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="192" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="197"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -5748,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="24" t="s">
         <v>4</v>
       </c>
@@ -5765,7 +5776,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="24"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
@@ -5778,7 +5789,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="24"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
@@ -5791,7 +5802,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="24"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
@@ -5804,7 +5815,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="24"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
@@ -5817,7 +5828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="24"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
@@ -5830,7 +5841,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="24"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
@@ -5843,7 +5854,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="24"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6" t="s">
@@ -5856,7 +5867,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="24"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
@@ -5869,7 +5880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="24"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
@@ -5882,7 +5893,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="24"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
@@ -5895,7 +5906,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="24"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
@@ -5904,7 +5915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="23" t="s">
         <v>16</v>
       </c>
@@ -5921,7 +5932,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="24"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
@@ -5934,7 +5945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="24"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
@@ -5947,7 +5958,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="24"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
@@ -5960,7 +5971,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
@@ -5973,7 +5984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="24"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6" t="s">
@@ -5986,7 +5997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="24"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
@@ -5999,7 +6010,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="24"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
@@ -6012,7 +6023,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="24"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
@@ -6025,7 +6036,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="24"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7"/>
@@ -6034,7 +6045,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
@@ -6051,7 +6062,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="24"/>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
@@ -6064,7 +6075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="24"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
@@ -6077,7 +6088,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="24"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
@@ -6090,7 +6101,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="24"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
@@ -6103,7 +6114,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="24"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
@@ -6116,7 +6127,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="24"/>
       <c r="C32" s="3"/>
       <c r="D32" s="6" t="s">
@@ -6129,7 +6140,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="24"/>
       <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
@@ -6142,7 +6153,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="24"/>
       <c r="C34" s="3"/>
       <c r="D34" s="6" t="s">
@@ -6155,7 +6166,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="24"/>
       <c r="C35" s="3"/>
       <c r="D35" s="7"/>
@@ -6164,7 +6175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="23" t="s">
         <v>18</v>
       </c>
@@ -6181,7 +6192,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="24"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
@@ -6194,7 +6205,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="24"/>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
@@ -6207,7 +6218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="24"/>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
@@ -6220,7 +6231,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="24"/>
       <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
@@ -6233,7 +6244,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="24"/>
       <c r="C41" s="3"/>
       <c r="D41" s="6" t="s">
@@ -6246,7 +6257,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="24"/>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
@@ -6259,7 +6270,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="24"/>
       <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
@@ -6272,7 +6283,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="24"/>
       <c r="C44" s="3"/>
       <c r="D44" s="6" t="s">
@@ -6285,7 +6296,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B45" s="36"/>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
@@ -6294,7 +6305,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="24" t="s">
         <v>21</v>
       </c>
@@ -6311,7 +6322,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="24"/>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
@@ -6324,7 +6335,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="24"/>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
@@ -6337,7 +6348,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="24"/>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
@@ -6350,7 +6361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="24"/>
       <c r="C50" s="3"/>
       <c r="D50" s="6" t="s">
@@ -6363,7 +6374,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="24"/>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
@@ -6376,7 +6387,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="24"/>
       <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
@@ -6389,7 +6400,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="24"/>
       <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
@@ -6402,7 +6413,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="24"/>
       <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
@@ -6415,7 +6426,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="24"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
@@ -6428,7 +6439,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="24"/>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
@@ -6441,7 +6452,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="24"/>
       <c r="C57" s="3"/>
       <c r="D57" s="7"/>
@@ -6450,7 +6461,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="23" t="s">
         <v>24</v>
       </c>
@@ -6467,7 +6478,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="24"/>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
@@ -6480,7 +6491,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="24"/>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
@@ -6493,7 +6504,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="24"/>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
@@ -6506,7 +6517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="24"/>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
@@ -6519,7 +6530,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="24"/>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
@@ -6532,7 +6543,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="24"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
@@ -6545,7 +6556,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="24"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
@@ -6558,7 +6569,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="24"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
@@ -6571,7 +6582,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="24"/>
       <c r="C67" s="3"/>
       <c r="D67" s="7"/>
@@ -6580,7 +6591,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="23" t="s">
         <v>177</v>
       </c>
@@ -6597,7 +6608,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="24"/>
       <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
@@ -6610,7 +6621,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="24"/>
       <c r="C70" s="3"/>
       <c r="D70" s="6" t="s">
@@ -6623,7 +6634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="24"/>
       <c r="C71" s="3"/>
       <c r="D71" s="6" t="s">
@@ -6636,7 +6647,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="24"/>
       <c r="C72" s="3"/>
       <c r="D72" s="6" t="s">
@@ -6649,7 +6660,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="24"/>
       <c r="C73" s="3"/>
       <c r="D73" s="6" t="s">
@@ -6662,7 +6673,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="24"/>
       <c r="C74" s="3"/>
       <c r="D74" s="6" t="s">
@@ -6675,7 +6686,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="24"/>
       <c r="C75" s="3"/>
       <c r="D75" s="6" t="s">
@@ -6688,7 +6699,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="24"/>
       <c r="C76" s="3"/>
       <c r="D76" s="6" t="s">
@@ -6701,7 +6712,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="24"/>
       <c r="C77" s="3"/>
       <c r="D77" s="7"/>
@@ -6710,7 +6721,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="23" t="s">
         <v>101</v>
       </c>
@@ -6727,7 +6738,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="24"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6" t="s">
@@ -6740,7 +6751,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="24"/>
       <c r="C80" s="3"/>
       <c r="D80" s="6" t="s">
@@ -6753,7 +6764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="24"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6" t="s">
@@ -6766,7 +6777,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="24"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6" t="s">
@@ -6779,7 +6790,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="24"/>
       <c r="C83" s="3"/>
       <c r="D83" s="6" t="s">
@@ -6792,7 +6803,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="24"/>
       <c r="C84" s="3"/>
       <c r="D84" s="6" t="s">
@@ -6805,7 +6816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="24"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6" t="s">
@@ -6818,7 +6829,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="24"/>
       <c r="C86" s="3"/>
       <c r="D86" s="6" t="s">
@@ -6831,7 +6842,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="25"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
@@ -6840,7 +6851,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="25" t="s">
         <v>31</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="22" t="s">
         <v>182</v>
       </c>
@@ -6874,7 +6885,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="22" t="s">
         <v>188</v>
       </c>
@@ -6891,7 +6902,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="22" t="s">
         <v>189</v>
       </c>
@@ -6908,7 +6919,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="22" t="s">
         <v>190</v>
       </c>
@@ -6925,7 +6936,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="22" t="s">
         <v>193</v>
       </c>
@@ -6942,7 +6953,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="45" t="s">
         <v>37</v>
       </c>
@@ -6959,7 +6970,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="117"/>
       <c r="C95" s="64"/>
       <c r="D95" s="48"/>
@@ -6968,7 +6979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="117"/>
       <c r="C96" s="64"/>
       <c r="D96" s="48" t="s">
@@ -6981,7 +6992,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="117"/>
       <c r="C97" s="64"/>
       <c r="D97" s="48"/>
@@ -6990,7 +7001,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="117"/>
       <c r="C98" s="64"/>
       <c r="D98" s="48" t="s">
@@ -7003,7 +7014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="117"/>
       <c r="C99" s="64"/>
       <c r="D99" s="48"/>
@@ -7012,7 +7023,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="117"/>
       <c r="C100" s="64"/>
       <c r="D100" s="48"/>
@@ -7023,7 +7034,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="117"/>
       <c r="C101" s="64"/>
       <c r="D101" s="48"/>
@@ -7032,7 +7043,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="117"/>
       <c r="C102" s="64"/>
       <c r="D102" s="48"/>
@@ -7043,7 +7054,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="117"/>
       <c r="C103" s="64"/>
       <c r="D103" s="48"/>
@@ -7052,7 +7063,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="117"/>
       <c r="C104" s="64"/>
       <c r="D104" s="48"/>
@@ -7063,7 +7074,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="117"/>
       <c r="C105" s="64"/>
       <c r="D105" s="48"/>
@@ -7072,7 +7083,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="117"/>
       <c r="C106" s="64"/>
       <c r="D106" s="48" t="s">
@@ -7085,7 +7096,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="118"/>
       <c r="C107" s="64"/>
       <c r="D107" s="48"/>
@@ -7094,7 +7105,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="52" t="s">
         <v>40</v>
       </c>
@@ -7111,7 +7122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="52" t="s">
         <v>43</v>
       </c>
@@ -7128,7 +7139,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="52" t="s">
         <v>51</v>
       </c>
@@ -7145,7 +7156,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="52" t="s">
         <v>50</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="52" t="s">
         <v>77</v>
       </c>
@@ -7179,7 +7190,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B113" s="52" t="s">
         <v>219</v>
       </c>
@@ -7196,7 +7207,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B114" s="52" t="s">
         <v>220</v>
       </c>
@@ -7213,7 +7224,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B115" s="52" t="s">
         <v>56</v>
       </c>
@@ -7230,7 +7241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B116" s="52" t="s">
         <v>57</v>
       </c>
@@ -7247,7 +7258,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B117" s="52" t="s">
         <v>58</v>
       </c>
@@ -7264,7 +7275,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B118" s="65" t="s">
         <v>59</v>
       </c>
@@ -7281,7 +7292,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B119" s="66"/>
       <c r="C119" s="58"/>
       <c r="D119" s="59" t="s">
@@ -7294,7 +7305,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B120" s="65" t="s">
         <v>60</v>
       </c>
@@ -7311,7 +7322,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B121" s="66"/>
       <c r="C121" s="58"/>
       <c r="D121" s="59" t="s">
@@ -7324,7 +7335,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B122" s="52" t="s">
         <v>65</v>
       </c>
@@ -7341,7 +7352,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B123" s="65" t="s">
         <v>66</v>
       </c>
@@ -7358,10 +7369,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B124" s="185"/>
-      <c r="C124" s="186"/>
-      <c r="D124" s="59" t="s">
+      <c r="C124" s="189"/>
+      <c r="D124" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E124" s="44" t="s">
@@ -7371,91 +7382,108 @@
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="64"/>
-      <c r="B125" s="89" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B125" s="190" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" s="188" t="s">
+        <v>478</v>
+      </c>
+      <c r="D125" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="129" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="64"/>
+      <c r="B126" s="87" t="s">
         <v>343</v>
       </c>
-      <c r="C125" s="102" t="s">
+      <c r="C126" s="97" t="s">
         <v>344</v>
       </c>
-      <c r="D125" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E125" s="140" t="s">
+      <c r="D126" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F125" s="115" t="s">
+      <c r="F126" s="108" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="64"/>
-      <c r="B126" s="93"/>
-      <c r="C126" s="131"/>
-      <c r="D126" s="138"/>
-      <c r="E126" s="126"/>
-      <c r="F126" s="127" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="64"/>
       <c r="B127" s="93"/>
-      <c r="C127" s="56"/>
-      <c r="D127" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" s="126" t="s">
-        <v>197</v>
-      </c>
+      <c r="C127" s="131"/>
+      <c r="D127" s="138"/>
+      <c r="E127" s="38"/>
       <c r="F127" s="127" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="64"/>
       <c r="B128" s="93"/>
-      <c r="C128" s="133"/>
-      <c r="D128" s="139"/>
-      <c r="E128" s="135"/>
-      <c r="F128" s="128" t="s">
+      <c r="C128" s="56"/>
+      <c r="D128" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="F128" s="127" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="64"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="133"/>
+      <c r="D129" s="139"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="128" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="64"/>
-      <c r="B129" s="92" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="64"/>
+      <c r="B130" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="C129" s="132" t="s">
+      <c r="C130" s="132" t="s">
         <v>351</v>
       </c>
-      <c r="D129" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E129" s="136" t="s">
+      <c r="D130" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="F129" s="129" t="s">
+      <c r="F130" s="129" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A130" s="64"/>
-      <c r="B130" s="94" t="s">
+    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="64"/>
+      <c r="B131" s="94" t="s">
         <v>353</v>
       </c>
-      <c r="C130" s="134" t="s">
+      <c r="C131" s="134" t="s">
         <v>354</v>
       </c>
-      <c r="D130" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="137" t="s">
+      <c r="D131" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="191" t="s">
         <v>350</v>
       </c>
-      <c r="F130" s="130" t="s">
+      <c r="F131" s="130" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7476,16 +7504,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.90625" customWidth="1"/>
-    <col min="2" max="2" width="33.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12.7265625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
+    <col min="1" max="1" width="2.921875" customWidth="1"/>
+    <col min="2" max="2" width="33.61328125" customWidth="1"/>
+    <col min="3" max="3" width="12.69140625" customWidth="1"/>
+    <col min="4" max="4" width="6.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="172" t="s">
         <v>446</v>
       </c>
@@ -7496,7 +7524,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="175" t="s">
         <v>455</v>
       </c>
@@ -7507,7 +7535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="176" t="s">
         <v>456</v>
       </c>
@@ -7518,7 +7546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="177" t="s">
         <v>458</v>
       </c>
@@ -7529,7 +7557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="178" t="s">
         <v>457</v>
       </c>
@@ -7540,7 +7568,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B7" s="182" t="s">
         <v>454</v>
       </c>
@@ -7562,18 +7590,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="5.90625" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="6.90625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" customWidth="1"/>
+    <col min="2" max="2" width="5.921875" customWidth="1"/>
+    <col min="3" max="3" width="9.23046875" customWidth="1"/>
+    <col min="5" max="5" width="13.61328125" customWidth="1"/>
+    <col min="6" max="6" width="13.69140625" customWidth="1"/>
+    <col min="7" max="7" width="6.921875" customWidth="1"/>
+    <col min="8" max="8" width="16.23046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E2" s="70" t="s">
         <v>241</v>
       </c>
@@ -7587,7 +7615,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E3" s="67">
         <v>22050</v>
       </c>
@@ -7602,13 +7630,13 @@
         <v>1073741824</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="70" t="s">
         <v>261</v>
       </c>
@@ -7625,7 +7653,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B6" s="75"/>
       <c r="C6" s="73">
         <v>0</v>
@@ -7643,7 +7671,7 @@
         <v>0x3ACCCC</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B7" s="75"/>
       <c r="C7" s="73">
         <v>1</v>
@@ -7661,7 +7689,7 @@
         <v>0x3E4BE2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B8" s="75"/>
       <c r="C8" s="73">
         <v>2</v>
@@ -7679,7 +7707,7 @@
         <v>0x420032</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B9" s="75"/>
       <c r="C9" s="73">
         <v>3</v>
@@ -7697,7 +7725,7 @@
         <v>0x45ECE5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B10" s="75"/>
       <c r="C10" s="73">
         <v>4</v>
@@ -7715,7 +7743,7 @@
         <v>0x4A1556</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B11" s="75"/>
       <c r="C11" s="73">
         <v>5</v>
@@ -7733,7 +7761,7 @@
         <v>0x4E7D13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B12" s="75"/>
       <c r="C12" s="73">
         <v>6</v>
@@ -7751,7 +7779,7 @@
         <v>0x5327DF</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B13" s="75"/>
       <c r="C13" s="73">
         <v>7</v>
@@ -7769,7 +7797,7 @@
         <v>0x5819B7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B14" s="75"/>
       <c r="C14" s="73">
         <v>8</v>
@@ -7787,7 +7815,7 @@
         <v>0x5D56D4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B15" s="75"/>
       <c r="C15" s="73">
         <v>9</v>
@@ -7805,7 +7833,7 @@
         <v>0x62E3B0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B16" s="75"/>
       <c r="C16" s="73">
         <v>10</v>
@@ -7823,7 +7851,7 @@
         <v>0x68C50A</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="75"/>
       <c r="C17" s="73">
         <v>11</v>
@@ -7841,7 +7869,7 @@
         <v>0x6EFFE7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="75"/>
       <c r="C18" s="73">
         <v>12</v>
@@ -7859,7 +7887,7 @@
         <v>0x759999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="75"/>
       <c r="C19" s="73">
         <v>13</v>
@@ -7877,7 +7905,7 @@
         <v>0x7C97C5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="75"/>
       <c r="C20" s="73">
         <v>14</v>
@@ -7895,7 +7923,7 @@
         <v>0x840064</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="75"/>
       <c r="C21" s="73">
         <v>15</v>
@@ -7913,7 +7941,7 @@
         <v>0x8BD9CB</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="75"/>
       <c r="C22" s="73">
         <v>16</v>
@@ -7931,7 +7959,7 @@
         <v>0x942AAD</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="75"/>
       <c r="C23" s="73">
         <v>17</v>
@@ -7949,7 +7977,7 @@
         <v>0x9CFA27</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="75"/>
       <c r="C24" s="73">
         <v>18</v>
@@ -7967,7 +7995,7 @@
         <v>0xA64FBF</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="75"/>
       <c r="C25" s="73">
         <v>19</v>
@@ -7985,7 +8013,7 @@
         <v>0xB0336E</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="75"/>
       <c r="C26" s="73">
         <v>20</v>
@@ -8003,7 +8031,7 @@
         <v>0xBAADA9</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B27" s="78"/>
       <c r="C27" s="74">
         <v>21</v>
@@ -8021,7 +8049,7 @@
         <v>0xC5C761</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="78"/>
       <c r="C28" s="74">
         <v>22</v>
@@ -8039,7 +8067,7 @@
         <v>0xD18A14</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="78"/>
       <c r="C29" s="74">
         <v>23</v>
@@ -8057,7 +8085,7 @@
         <v>0xDDFFCE</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B30" s="78" t="s">
         <v>233</v>
       </c>
@@ -8077,7 +8105,7 @@
         <v>0xEB3333</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="78"/>
       <c r="C31" s="74">
         <v>25</v>
@@ -8095,7 +8123,7 @@
         <v>0xF92F8B</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B32" s="78"/>
       <c r="C32" s="74">
         <v>26</v>
@@ -8113,7 +8141,7 @@
         <v>0x10800C9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B33" s="78"/>
       <c r="C33" s="74">
         <v>27</v>
@@ -8131,7 +8159,7 @@
         <v>0x117B396</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B34" s="78"/>
       <c r="C34" s="74">
         <v>28</v>
@@ -8149,7 +8177,7 @@
         <v>0x128555B</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B35" s="78"/>
       <c r="C35" s="74">
         <v>29</v>
@@ -8167,7 +8195,7 @@
         <v>0x139F44F</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="78"/>
       <c r="C36" s="74">
         <v>30</v>
@@ -8185,7 +8213,7 @@
         <v>0x14C9F7E</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B37" s="78"/>
       <c r="C37" s="74">
         <v>31</v>
@@ -8203,7 +8231,7 @@
         <v>0x16066DD</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B38" s="78"/>
       <c r="C38" s="74">
         <v>32</v>
@@ -8221,7 +8249,7 @@
         <v>0x1755B52</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B39" s="78"/>
       <c r="C39" s="74">
         <v>33</v>
@@ -8239,7 +8267,7 @@
         <v>0x18B8EC3</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="78"/>
       <c r="C40" s="74">
         <v>34</v>
@@ -8257,7 +8285,7 @@
         <v>0x1A31429</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B41" s="78"/>
       <c r="C41" s="74">
         <v>35</v>
@@ -8275,7 +8303,7 @@
         <v>0x1BBFF9C</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B42" s="80" t="s">
         <v>235</v>
       </c>
@@ -8295,7 +8323,7 @@
         <v>0x1D66666</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B43" s="80"/>
       <c r="C43" s="81">
         <v>37</v>
@@ -8313,7 +8341,7 @@
         <v>0x1F25F16</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B44" s="80"/>
       <c r="C44" s="81">
         <v>38</v>
@@ -8331,7 +8359,7 @@
         <v>0x2100192</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B45" s="80"/>
       <c r="C45" s="81">
         <v>39</v>
@@ -8349,7 +8377,7 @@
         <v>0x22F672C</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B46" s="80"/>
       <c r="C46" s="81">
         <v>40</v>
@@ -8367,7 +8395,7 @@
         <v>0x250AAB7</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B47" s="80"/>
       <c r="C47" s="81">
         <v>41</v>
@@ -8385,7 +8413,7 @@
         <v>0x273E89E</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B48" s="80"/>
       <c r="C48" s="81">
         <v>42</v>
@@ -8403,7 +8431,7 @@
         <v>0x2993EFD</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B49" s="80"/>
       <c r="C49" s="81">
         <v>43</v>
@@ -8421,7 +8449,7 @@
         <v>0x2C0CDBB</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B50" s="80"/>
       <c r="C50" s="81">
         <v>44</v>
@@ -8439,7 +8467,7 @@
         <v>0x2EAB6A4</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B51" s="80"/>
       <c r="C51" s="81">
         <v>45</v>
@@ -8457,7 +8485,7 @@
         <v>0x3171D87</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B52" s="80"/>
       <c r="C52" s="81">
         <v>46</v>
@@ -8475,7 +8503,7 @@
         <v>0x3462852</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B53" s="80"/>
       <c r="C53" s="81">
         <v>47</v>
@@ -8493,7 +8521,7 @@
         <v>0x377FF38</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B54" s="80" t="s">
         <v>234</v>
       </c>
@@ -8513,7 +8541,7 @@
         <v>0x3ACCCCC</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B55" s="80"/>
       <c r="C55" s="81">
         <v>49</v>
@@ -8531,7 +8559,7 @@
         <v>0x3E4BE2D</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B56" s="80"/>
       <c r="C56" s="81">
         <v>50</v>
@@ -8549,7 +8577,7 @@
         <v>0x4200325</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B57" s="80"/>
       <c r="C57" s="81">
         <v>51</v>
@@ -8567,7 +8595,7 @@
         <v>0x45ECE59</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B58" s="80"/>
       <c r="C58" s="81">
         <v>52</v>
@@ -8585,7 +8613,7 @@
         <v>0x4A1556E</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B59" s="80"/>
       <c r="C59" s="81">
         <v>53</v>
@@ -8603,7 +8631,7 @@
         <v>0x4E7D13C</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B60" s="80"/>
       <c r="C60" s="81">
         <v>54</v>
@@ -8621,7 +8649,7 @@
         <v>0x5327DFB</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B61" s="80"/>
       <c r="C61" s="81">
         <v>55</v>
@@ -8639,7 +8667,7 @@
         <v>0x5819B77</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B62" s="80"/>
       <c r="C62" s="81">
         <v>56</v>
@@ -8657,7 +8685,7 @@
         <v>0x5D56D49</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B63" s="80"/>
       <c r="C63" s="81">
         <v>57</v>
@@ -8675,7 +8703,7 @@
         <v>0x62E3B0E</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B64" s="80"/>
       <c r="C64" s="81">
         <v>58</v>
@@ -8693,7 +8721,7 @@
         <v>0x68C50A5</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B65" s="80"/>
       <c r="C65" s="81">
         <v>59</v>
@@ -8711,7 +8739,7 @@
         <v>0x6EFFE70</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B66" s="80" t="s">
         <v>236</v>
       </c>
@@ -8731,7 +8759,7 @@
         <v>0x7599999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B67" s="80"/>
       <c r="C67" s="81">
         <v>61</v>
@@ -8749,7 +8777,7 @@
         <v>0x7C97C5A</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B68" s="80"/>
       <c r="C68" s="81">
         <v>62</v>
@@ -8767,7 +8795,7 @@
         <v>0x840064B</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B69" s="80"/>
       <c r="C69" s="81">
         <v>63</v>
@@ -8785,7 +8813,7 @@
         <v>0x8BD9CB3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B70" s="80"/>
       <c r="C70" s="81">
         <v>64</v>
@@ -8803,7 +8831,7 @@
         <v>0x942AADD</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B71" s="80"/>
       <c r="C71" s="81">
         <v>65</v>
@@ -8821,7 +8849,7 @@
         <v>0x9CFA279</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B72" s="80"/>
       <c r="C72" s="81">
         <v>66</v>
@@ -8839,7 +8867,7 @@
         <v>0xA64FBF7</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B73" s="80"/>
       <c r="C73" s="81">
         <v>67</v>
@@ -8857,7 +8885,7 @@
         <v>0xB0336EF</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B74" s="80"/>
       <c r="C74" s="81">
         <v>68</v>
@@ -8875,7 +8903,7 @@
         <v>0xBAADA93</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B75" s="80"/>
       <c r="C75" s="81">
         <v>69</v>
@@ -8893,7 +8921,7 @@
         <v>0xC5C761D</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B76" s="80"/>
       <c r="C76" s="81">
         <v>70</v>
@@ -8911,7 +8939,7 @@
         <v>0xD18A14B</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B77" s="80"/>
       <c r="C77" s="81">
         <v>71</v>
@@ -8929,7 +8957,7 @@
         <v>0xDDFFCE1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B78" s="80" t="s">
         <v>237</v>
       </c>
@@ -8949,7 +8977,7 @@
         <v>0xEB33333</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B79" s="80"/>
       <c r="C79" s="81">
         <v>73</v>
@@ -8967,7 +8995,7 @@
         <v>0xF92F8B5</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B80" s="80"/>
       <c r="C80" s="81">
         <v>74</v>
@@ -8985,7 +9013,7 @@
         <v>0x10800C97</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B81" s="80"/>
       <c r="C81" s="81">
         <v>75</v>
@@ -9003,7 +9031,7 @@
         <v>0x117B3966</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B82" s="80"/>
       <c r="C82" s="81">
         <v>76</v>
@@ -9021,7 +9049,7 @@
         <v>0x128555BB</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B83" s="80"/>
       <c r="C83" s="81">
         <v>77</v>
@@ -9039,7 +9067,7 @@
         <v>0x139F44F3</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B84" s="80"/>
       <c r="C84" s="81">
         <v>78</v>
@@ -9057,7 +9085,7 @@
         <v>0x14C9F7EE</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B85" s="80"/>
       <c r="C85" s="81">
         <v>79</v>
@@ -9075,7 +9103,7 @@
         <v>0x16066DDF</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B86" s="80"/>
       <c r="C86" s="81">
         <v>80</v>
@@ -9093,7 +9121,7 @@
         <v>0x1755B527</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B87" s="80"/>
       <c r="C87" s="81">
         <v>81</v>
@@ -9111,7 +9139,7 @@
         <v>0x18B8EC3B</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B88" s="80"/>
       <c r="C88" s="81">
         <v>82</v>
@@ -9129,7 +9157,7 @@
         <v>0x1A314296</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B89" s="80"/>
       <c r="C89" s="81">
         <v>83</v>
@@ -9147,7 +9175,7 @@
         <v>0x1BBFF9C2</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B90" s="80" t="s">
         <v>239</v>
       </c>
@@ -9167,7 +9195,7 @@
         <v>0x1D666666</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B91" s="80"/>
       <c r="C91" s="81">
         <v>85</v>
@@ -9185,7 +9213,7 @@
         <v>0x1F25F16A</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B92" s="80"/>
       <c r="C92" s="81">
         <v>86</v>
@@ -9203,7 +9231,7 @@
         <v>0x2100192E</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B93" s="80"/>
       <c r="C93" s="81">
         <v>87</v>
@@ -9221,7 +9249,7 @@
         <v>0x22F672CC</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B94" s="80"/>
       <c r="C94" s="81">
         <v>88</v>
@@ -9239,7 +9267,7 @@
         <v>0x250AAB77</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="80"/>
       <c r="C95" s="81">
         <v>89</v>
@@ -9257,7 +9285,7 @@
         <v>0x273E89E6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="80"/>
       <c r="C96" s="81">
         <v>90</v>
@@ -9275,7 +9303,7 @@
         <v>0x2993EFDC</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="80"/>
       <c r="C97" s="81">
         <v>91</v>
@@ -9293,7 +9321,7 @@
         <v>0x2C0CDBBF</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="80"/>
       <c r="C98" s="81">
         <v>92</v>
@@ -9311,7 +9339,7 @@
         <v>0x2EAB6A4F</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="80"/>
       <c r="C99" s="81">
         <v>93</v>
@@ -9329,7 +9357,7 @@
         <v>0x3171D876</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="80"/>
       <c r="C100" s="81">
         <v>94</v>
@@ -9347,7 +9375,7 @@
         <v>0x3462852D</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="80"/>
       <c r="C101" s="81">
         <v>95</v>
@@ -9365,7 +9393,7 @@
         <v>0x377FF385</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="80" t="s">
         <v>238</v>
       </c>
@@ -9385,7 +9413,7 @@
         <v>0x3ACCCCCC</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="78"/>
       <c r="C103" s="74">
         <v>97</v>
@@ -9403,7 +9431,7 @@
         <v>0x3E4BE2D5</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="78"/>
       <c r="C104" s="74">
         <v>98</v>
@@ -9421,7 +9449,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="78"/>
       <c r="C105" s="74">
         <v>99</v>
@@ -9439,7 +9467,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="78"/>
       <c r="C106" s="74">
         <v>100</v>
@@ -9457,7 +9485,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="78"/>
       <c r="C107" s="74">
         <v>101</v>
@@ -9475,7 +9503,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B108" s="78"/>
       <c r="C108" s="74">
         <v>102</v>
@@ -9493,7 +9521,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B109" s="78"/>
       <c r="C109" s="74">
         <v>103</v>
@@ -9511,7 +9539,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B110" s="78"/>
       <c r="C110" s="74">
         <v>104</v>
@@ -9529,7 +9557,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B111" s="78"/>
       <c r="C111" s="74">
         <v>105</v>
@@ -9547,7 +9575,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B112" s="78"/>
       <c r="C112" s="74">
         <v>106</v>
@@ -9565,7 +9593,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B113" s="78"/>
       <c r="C113" s="74">
         <v>107</v>
@@ -9583,7 +9611,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B114" s="78" t="s">
         <v>240</v>
       </c>
@@ -9603,7 +9631,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B115" s="75"/>
       <c r="C115" s="73">
         <v>109</v>
@@ -9621,7 +9649,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B116" s="75"/>
       <c r="C116" s="73">
         <v>110</v>
@@ -9639,7 +9667,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B117" s="75"/>
       <c r="C117" s="73">
         <v>111</v>
@@ -9657,7 +9685,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B118" s="75"/>
       <c r="C118" s="73">
         <v>112</v>
@@ -9675,7 +9703,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B119" s="75"/>
       <c r="C119" s="73">
         <v>113</v>
@@ -9693,7 +9721,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B120" s="75"/>
       <c r="C120" s="73">
         <v>114</v>
@@ -9711,7 +9739,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B121" s="75"/>
       <c r="C121" s="73">
         <v>115</v>
@@ -9729,7 +9757,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B122" s="75"/>
       <c r="C122" s="73">
         <v>116</v>
@@ -9747,7 +9775,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B123" s="75"/>
       <c r="C123" s="73">
         <v>117</v>
@@ -9765,7 +9793,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B124" s="75"/>
       <c r="C124" s="73">
         <v>118</v>
@@ -9783,7 +9811,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B125" s="75"/>
       <c r="C125" s="73">
         <v>119</v>
@@ -9801,7 +9829,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B126" s="75"/>
       <c r="C126" s="73">
         <v>120</v>
@@ -9819,7 +9847,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B127" s="75"/>
       <c r="C127" s="73">
         <v>121</v>
@@ -9837,7 +9865,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B128" s="75"/>
       <c r="C128" s="73">
         <v>122</v>
@@ -9855,7 +9883,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B129" s="75"/>
       <c r="C129" s="73">
         <v>123</v>
@@ -9873,7 +9901,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B130" s="75"/>
       <c r="C130" s="73">
         <v>124</v>
@@ -9891,7 +9919,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B131" s="75"/>
       <c r="C131" s="73">
         <v>125</v>
@@ -9909,7 +9937,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B132" s="75"/>
       <c r="C132" s="73">
         <v>126</v>
@@ -9927,7 +9955,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B133" s="77"/>
       <c r="C133" s="68">
         <v>127</v>
@@ -9958,12 +9986,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="64"/>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -9980,7 +10008,7 @@
       <c r="N1" s="64"/>
       <c r="O1" s="64"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="64"/>
       <c r="B2" s="148" t="s">
         <v>402</v>
@@ -10017,7 +10045,7 @@
       <c r="N2" s="64"/>
       <c r="O2" s="64"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="64"/>
       <c r="B3" s="145" t="s">
         <v>399</v>
@@ -10054,7 +10082,7 @@
       <c r="N3" s="64"/>
       <c r="O3" s="64"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="64"/>
       <c r="B4" s="143" t="s">
         <v>400</v>
@@ -10091,32 +10119,32 @@
       <c r="N4" s="64"/>
       <c r="O4" s="64"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="64"/>
       <c r="B5" s="144" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="195" t="s">
+      <c r="C5" s="198" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="196" t="s">
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199" t="s">
         <v>398</v>
       </c>
-      <c r="G5" s="196"/>
-      <c r="H5" s="196"/>
-      <c r="I5" s="197" t="s">
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200" t="s">
         <v>403</v>
       </c>
-      <c r="J5" s="197"/>
-      <c r="K5" s="198"/>
+      <c r="J5" s="200"/>
+      <c r="K5" s="201"/>
       <c r="L5" s="64"/>
       <c r="M5" s="64"/>
       <c r="N5" s="64"/>
       <c r="O5" s="64"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="64"/>
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
@@ -10133,7 +10161,7 @@
       <c r="N6" s="64"/>
       <c r="O6" s="64"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="64"/>
       <c r="B7" s="64"/>
       <c r="C7" s="64"/>
@@ -10150,7 +10178,7 @@
       <c r="N7" s="64"/>
       <c r="O7" s="64"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="64"/>
       <c r="B8" s="64"/>
       <c r="C8" s="64"/>
@@ -10167,7 +10195,7 @@
       <c r="N8" s="64"/>
       <c r="O8" s="64"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="64"/>
       <c r="B9" s="64"/>
       <c r="C9" s="64"/>
@@ -10184,7 +10212,7 @@
       <c r="N9" s="64"/>
       <c r="O9" s="64"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="64"/>
       <c r="B10" s="64"/>
       <c r="C10" s="64"/>
@@ -10201,7 +10229,7 @@
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="64"/>
       <c r="B11" s="64"/>
       <c r="C11" s="64"/>
@@ -10218,7 +10246,7 @@
       <c r="N11" s="64"/>
       <c r="O11" s="64"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="64"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64"/>
@@ -10235,7 +10263,7 @@
       <c r="N12" s="64"/>
       <c r="O12" s="64"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="64"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
@@ -10252,7 +10280,7 @@
       <c r="N13" s="64"/>
       <c r="O13" s="64"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" s="64"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
@@ -10269,7 +10297,7 @@
       <c r="N14" s="64"/>
       <c r="O14" s="64"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" s="64"/>
       <c r="B15" s="64"/>
       <c r="C15" s="64"/>
@@ -10286,7 +10314,7 @@
       <c r="N15" s="64"/>
       <c r="O15" s="64"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" s="64"/>
       <c r="B16" s="64"/>
       <c r="C16" s="64"/>
@@ -10303,7 +10331,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="64"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" s="64"/>
       <c r="B17" s="64"/>
       <c r="C17" s="64"/>
@@ -10320,7 +10348,7 @@
       <c r="N17" s="64"/>
       <c r="O17" s="64"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" s="64"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64"/>
@@ -10337,7 +10365,7 @@
       <c r="N18" s="64"/>
       <c r="O18" s="64"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" s="64"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
@@ -10354,7 +10382,7 @@
       <c r="N19" s="64"/>
       <c r="O19" s="64"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" s="64"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
@@ -10371,7 +10399,7 @@
       <c r="N20" s="64"/>
       <c r="O20" s="64"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" s="64"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
@@ -10388,7 +10416,7 @@
       <c r="N21" s="64"/>
       <c r="O21" s="64"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" s="64"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
@@ -10405,7 +10433,7 @@
       <c r="N22" s="64"/>
       <c r="O22" s="64"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" s="64"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
@@ -10422,7 +10450,7 @@
       <c r="N23" s="64"/>
       <c r="O23" s="64"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" s="64"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64"/>
@@ -10439,7 +10467,7 @@
       <c r="N24" s="64"/>
       <c r="O24" s="64"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" s="64"/>
       <c r="B25" s="64"/>
       <c r="C25" s="64"/>
@@ -10456,7 +10484,7 @@
       <c r="N25" s="64"/>
       <c r="O25" s="64"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" s="64"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64"/>
@@ -10473,7 +10501,7 @@
       <c r="N26" s="64"/>
       <c r="O26" s="64"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" s="64"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
@@ -10490,7 +10518,7 @@
       <c r="N27" s="64"/>
       <c r="O27" s="64"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" s="64"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
@@ -10507,7 +10535,7 @@
       <c r="N28" s="64"/>
       <c r="O28" s="64"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" s="64"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
@@ -10542,14 +10570,14 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="15.54296875" customWidth="1"/>
-    <col min="3" max="3" width="65.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.53515625" customWidth="1"/>
+    <col min="3" max="3" width="65.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="123" t="s">
         <v>3</v>
       </c>
@@ -10557,7 +10585,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="119" t="s">
         <v>331</v>
       </c>
@@ -10565,7 +10593,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="119" t="s">
         <v>330</v>
       </c>
@@ -10573,7 +10601,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="119" t="s">
         <v>330</v>
       </c>
@@ -10581,7 +10609,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="119" t="s">
         <v>334</v>
       </c>
@@ -10589,7 +10617,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="119" t="s">
         <v>330</v>
       </c>
@@ -10597,7 +10625,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="119" t="s">
         <v>330</v>
       </c>
@@ -10605,7 +10633,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="119" t="s">
         <v>330</v>
       </c>
@@ -10613,7 +10641,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="119" t="s">
         <v>360</v>
       </c>
@@ -10621,87 +10649,87 @@
         <v>361</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="119"/>
       <c r="C11" s="120"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="119"/>
       <c r="C12" s="120"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="119"/>
       <c r="C13" s="120"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="119"/>
       <c r="C14" s="120"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="119"/>
       <c r="C15" s="120"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="119"/>
       <c r="C16" s="120"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="119"/>
       <c r="C17" s="120"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18" s="119"/>
       <c r="C18" s="120"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B19" s="119"/>
       <c r="C19" s="120"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B20" s="119"/>
       <c r="C20" s="120"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B21" s="119"/>
       <c r="C21" s="120"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B22" s="119"/>
       <c r="C22" s="120"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B24" s="119"/>
       <c r="C24" s="120"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25" s="119"/>
       <c r="C25" s="120"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26" s="119"/>
       <c r="C26" s="120"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B27" s="119"/>
       <c r="C27" s="120"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B28" s="119"/>
       <c r="C28" s="120"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B29" s="119"/>
       <c r="C29" s="120"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B30" s="119"/>
       <c r="C30" s="120"/>
     </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B31" s="121"/>
       <c r="C31" s="122"/>
     </row>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS-pub\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D9257-1D33-4493-8287-27BA29739479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E5EF3-8487-4E44-9B45-08825F390C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40180" yWindow="690" windowWidth="12920" windowHeight="18910" activeTab="2" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="484">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1484,6 +1484,18 @@
   </si>
   <si>
     <t>Reset envelope generator</t>
+  </si>
+  <si>
+    <t>Global Volume Left</t>
+  </si>
+  <si>
+    <t>Global Volume Right</t>
+  </si>
+  <si>
+    <t>Right channel global volume</t>
+  </si>
+  <si>
+    <t>Left channel global volume</t>
   </si>
 </sst>
 </file>
@@ -1597,7 +1609,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2081,11 +2093,102 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -2095,57 +2198,29 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2155,9 +2230,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2173,7 +2246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2263,18 +2336,11 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2402,7 +2468,6 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -2420,21 +2485,21 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2444,7 +2509,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2538,9 +2603,6 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2571,9 +2633,32 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2908,2349 +2993,2349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="64"/>
-      <c r="B2" s="192" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="185" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="64"/>
-      <c r="B3" s="83" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="85" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="85" t="s">
+      <c r="D3" s="82" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="86" t="s">
+      <c r="F3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="156" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="38">
         <v>0</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="101" t="s">
         <v>281</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="64"/>
-      <c r="B5" s="156"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="48" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="38">
         <v>1</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="101" t="s">
         <v>282</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="156"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="48" t="s">
+      <c r="A6" s="61"/>
+      <c r="B6" s="152"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="38">
         <v>2</v>
       </c>
-      <c r="F6" s="104" t="s">
+      <c r="F6" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="156"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="48" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="152"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="38">
         <v>3</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="156"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="48" t="s">
+      <c r="A8" s="61"/>
+      <c r="B8" s="152"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="38">
         <v>4</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="101" t="s">
         <v>278</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="156"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="48" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="152"/>
+      <c r="C9" s="121"/>
+      <c r="D9" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="38">
         <v>5</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="101" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="156"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="48" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="152"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="38">
         <v>6</v>
       </c>
-      <c r="F10" s="104" t="s">
+      <c r="F10" s="101" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A11" s="64"/>
-      <c r="B11" s="156"/>
-      <c r="C11" s="125"/>
-      <c r="D11" s="48" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="104" t="s">
+      <c r="F11" s="101" t="s">
         <v>356</v>
       </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="64"/>
-      <c r="B12" s="156"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="48" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="38">
         <v>15</v>
       </c>
-      <c r="F12" s="104" t="s">
+      <c r="F12" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="152"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="56"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="106" t="s">
+      <c r="F13" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="64"/>
-      <c r="B14" s="157" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="153" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="156"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="48" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="38">
         <v>1</v>
       </c>
-      <c r="F15" s="104" t="s">
+      <c r="F15" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A16" s="64"/>
-      <c r="B16" s="156"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="48" t="s">
+      <c r="A16" s="61"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="38">
         <v>2</v>
       </c>
-      <c r="F16" s="104" t="s">
+      <c r="F16" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="156"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="48" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="38">
         <v>3</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18" s="64"/>
-      <c r="B18" s="156"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="48" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="121"/>
+      <c r="D18" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="38">
         <v>4</v>
       </c>
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="101" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19" s="64"/>
-      <c r="B19" s="156"/>
-      <c r="C19" s="125"/>
-      <c r="D19" s="48" t="s">
+      <c r="A19" s="61"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="38">
         <v>5</v>
       </c>
-      <c r="F19" s="104" t="s">
+      <c r="F19" s="101" t="s">
         <v>323</v>
       </c>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20" s="64"/>
-      <c r="B20" s="156"/>
-      <c r="C20" s="125"/>
-      <c r="D20" s="48" t="s">
+      <c r="A20" s="61"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="38">
         <v>6</v>
       </c>
-      <c r="F20" s="104" t="s">
+      <c r="F20" s="101" t="s">
         <v>324</v>
       </c>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
-      <c r="B21" s="156"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="48" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="104" t="s">
+      <c r="F21" s="101" t="s">
         <v>358</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22" s="64"/>
-      <c r="B22" s="156"/>
-      <c r="C22" s="125"/>
-      <c r="D22" s="48" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="38">
         <v>15</v>
       </c>
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23" s="64"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="59"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="39"/>
-      <c r="F23" s="106" t="s">
+      <c r="F23" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24" s="64"/>
-      <c r="B24" s="157" t="s">
+      <c r="A24" s="61"/>
+      <c r="B24" s="153" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="46" t="s">
+      <c r="D24" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="40" t="s">
         <v>388</v>
       </c>
-      <c r="F24" s="107" t="s">
+      <c r="F24" s="104" t="s">
         <v>389</v>
       </c>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="156"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="48"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="45"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="104" t="s">
+      <c r="F25" s="101" t="s">
         <v>390</v>
       </c>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" s="64"/>
-      <c r="B26" s="156"/>
-      <c r="C26" s="125"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="38"/>
-      <c r="F26" s="104" t="s">
+      <c r="F26" s="101" t="s">
         <v>391</v>
       </c>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="156"/>
-      <c r="C27" s="125"/>
-      <c r="D27" s="48"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="45"/>
       <c r="E27" s="38"/>
-      <c r="F27" s="104" t="s">
+      <c r="F27" s="101" t="s">
         <v>392</v>
       </c>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="156"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="121"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="38"/>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="101" t="s">
         <v>393</v>
       </c>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="156"/>
-      <c r="C29" s="125"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="121"/>
+      <c r="D29" s="45"/>
       <c r="E29" s="38"/>
-      <c r="F29" s="104" t="s">
+      <c r="F29" s="101" t="s">
         <v>394</v>
       </c>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" s="64"/>
-      <c r="B30" s="156"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="48" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E30" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F30" s="105" t="s">
+      <c r="F30" s="102" t="s">
         <v>337</v>
       </c>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A31" s="64"/>
-      <c r="B31" s="156"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="48" t="s">
+      <c r="A31" s="61"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E31" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="F31" s="114" t="s">
+      <c r="F31" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="H31" s="64"/>
+      <c r="H31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" s="64"/>
-      <c r="B32" s="156"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="45"/>
       <c r="E32" s="38"/>
-      <c r="F32" s="114" t="s">
+      <c r="F32" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="H32" s="64"/>
+      <c r="H32" s="61"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" s="64"/>
-      <c r="B33" s="156"/>
-      <c r="C33" s="125"/>
-      <c r="D33" s="48" t="s">
+      <c r="A33" s="61"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="121"/>
+      <c r="D33" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E33" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="F33" s="114" t="s">
+      <c r="F33" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="H33" s="64"/>
+      <c r="H33" s="61"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" s="64"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="59"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="121"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="38"/>
-      <c r="F34" s="108" t="s">
+      <c r="F34" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="H34" s="64"/>
+      <c r="H34" s="61"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" s="64"/>
-      <c r="B35" s="157" t="s">
+      <c r="A35" s="61"/>
+      <c r="B35" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="107" t="s">
+      <c r="F35" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" s="64"/>
-      <c r="B36" s="156"/>
-      <c r="C36" s="125"/>
-      <c r="D36" s="48"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="121"/>
+      <c r="D36" s="45"/>
       <c r="E36" s="38"/>
-      <c r="F36" s="104" t="s">
+      <c r="F36" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" s="64"/>
-      <c r="B37" s="156"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="48"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="152"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="45"/>
       <c r="E37" s="38"/>
-      <c r="F37" s="104" t="s">
+      <c r="F37" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" s="64"/>
-      <c r="B38" s="156"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="48"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="45"/>
       <c r="E38" s="38"/>
-      <c r="F38" s="104" t="s">
+      <c r="F38" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="64"/>
-      <c r="B39" s="156"/>
-      <c r="C39" s="125"/>
-      <c r="D39" s="48"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="152"/>
+      <c r="C39" s="121"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="38"/>
-      <c r="F39" s="104" t="s">
+      <c r="F39" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="64"/>
-      <c r="B40" s="156"/>
-      <c r="C40" s="125"/>
-      <c r="D40" s="48"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="45"/>
       <c r="E40" s="38"/>
-      <c r="F40" s="104" t="s">
+      <c r="F40" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="64"/>
-      <c r="H40" s="64"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="64"/>
-      <c r="B41" s="156"/>
-      <c r="C41" s="125"/>
-      <c r="D41" s="48"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="121"/>
+      <c r="D41" s="45"/>
       <c r="E41" s="38"/>
-      <c r="F41" s="104" t="s">
+      <c r="F41" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G41" s="64"/>
-      <c r="H41" s="64"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="64"/>
-      <c r="B42" s="156"/>
-      <c r="C42" s="125"/>
-      <c r="D42" s="48"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="45"/>
       <c r="E42" s="38"/>
-      <c r="F42" s="104" t="s">
+      <c r="F42" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="64"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="64"/>
-      <c r="B43" s="156"/>
-      <c r="C43" s="125"/>
-      <c r="D43" s="48"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="121"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="38"/>
-      <c r="F43" s="104" t="s">
+      <c r="F43" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" s="64"/>
-      <c r="B44" s="156"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="48" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E44" s="38">
         <v>14</v>
       </c>
-      <c r="F44" s="104" t="s">
+      <c r="F44" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="G44" s="64"/>
-      <c r="H44" s="64"/>
+      <c r="G44" s="61"/>
+      <c r="H44" s="61"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="64"/>
-      <c r="B45" s="156"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="48"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="152"/>
+      <c r="C45" s="121"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="38"/>
-      <c r="F45" s="104" t="s">
+      <c r="F45" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="G45" s="64"/>
-      <c r="H45" s="64"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="64"/>
-      <c r="B46" s="156"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="48" t="s">
+      <c r="A46" s="61"/>
+      <c r="B46" s="152"/>
+      <c r="C46" s="121"/>
+      <c r="D46" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="38">
         <v>15</v>
       </c>
-      <c r="F46" s="108" t="s">
+      <c r="F46" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="64"/>
-      <c r="H46" s="64"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="64"/>
-      <c r="B47" s="158"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="59"/>
+      <c r="A47" s="61"/>
+      <c r="B47" s="154"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="56"/>
       <c r="E47" s="39"/>
-      <c r="F47" s="109" t="s">
+      <c r="F47" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="G47" s="64"/>
-      <c r="H47" s="64"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="64"/>
-      <c r="B48" s="159" t="s">
+      <c r="A48" s="61"/>
+      <c r="B48" s="155" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="100" t="s">
+      <c r="C48" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="D48" s="51" t="s">
+      <c r="D48" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="110" t="s">
+      <c r="F48" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="G48" s="64"/>
-      <c r="H48" s="64"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="64"/>
-      <c r="B49" s="159" t="s">
+      <c r="A49" s="61"/>
+      <c r="B49" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="D49" s="51" t="s">
+      <c r="D49" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E49" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="110" t="s">
+      <c r="F49" s="107" t="s">
         <v>272</v>
       </c>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="64"/>
-      <c r="B50" s="159" t="s">
+      <c r="A50" s="61"/>
+      <c r="B50" s="155" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="97" t="s">
         <v>269</v>
       </c>
-      <c r="D50" s="51" t="s">
+      <c r="D50" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="110" t="s">
+      <c r="F50" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="G50" s="64"/>
-      <c r="H50" s="64"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="64"/>
-      <c r="B51" s="159" t="s">
+      <c r="A51" s="61"/>
+      <c r="B51" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="100" t="s">
+      <c r="C51" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="D51" s="51" t="s">
+      <c r="D51" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="110" t="s">
+      <c r="F51" s="107" t="s">
         <v>274</v>
       </c>
-      <c r="G51" s="64"/>
-      <c r="H51" s="64"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="61"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" s="64"/>
-      <c r="B52" s="159" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="155" t="s">
         <v>182</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="D52" s="51" t="s">
+      <c r="D52" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F52" s="110" t="s">
+      <c r="F52" s="107" t="s">
         <v>459</v>
       </c>
-      <c r="G52" s="64"/>
-      <c r="H52" s="64"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="64"/>
-      <c r="B53" s="159" t="s">
+      <c r="A53" s="61"/>
+      <c r="B53" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="D53" s="51" t="s">
+      <c r="D53" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="110" t="s">
+      <c r="F53" s="107" t="s">
         <v>460</v>
       </c>
-      <c r="G53" s="64"/>
-      <c r="H53" s="64"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="64"/>
-      <c r="B54" s="91" t="s">
+      <c r="A54" s="61"/>
+      <c r="B54" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="C54" s="101" t="s">
+      <c r="C54" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="D54" s="51" t="s">
+      <c r="D54" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F54" s="111" t="s">
+      <c r="F54" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" s="64"/>
-      <c r="B55" s="91" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="C55" s="101" t="s">
+      <c r="C55" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="51" t="s">
+      <c r="D55" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E55" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F55" s="111" t="s">
+      <c r="F55" s="108" t="s">
         <v>42</v>
       </c>
-      <c r="G55" s="64"/>
-      <c r="H55" s="64"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" s="64"/>
-      <c r="B56" s="91" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="101" t="s">
+      <c r="C56" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="111" t="s">
+      <c r="F56" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="G56" s="64"/>
-      <c r="H56" s="64"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" s="64"/>
-      <c r="B57" s="91" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="D57" s="51" t="s">
+      <c r="D57" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="111" t="s">
+      <c r="F57" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="G57" s="64"/>
-      <c r="H57" s="64"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A58" s="64"/>
-      <c r="B58" s="91" t="s">
+      <c r="A58" s="61"/>
+      <c r="B58" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="101" t="s">
+      <c r="C58" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D58" s="51" t="s">
+      <c r="D58" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E58" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F58" s="111" t="s">
+      <c r="F58" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="G58" s="64"/>
-      <c r="H58" s="64"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="64"/>
-      <c r="B59" s="89" t="s">
+      <c r="A59" s="61"/>
+      <c r="B59" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="102" t="s">
+      <c r="C59" s="99" t="s">
         <v>470</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E59" s="40">
         <v>15</v>
       </c>
-      <c r="F59" s="112" t="s">
+      <c r="F59" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G59" s="64"/>
-      <c r="H59" s="64"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="64"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="59"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="39"/>
-      <c r="F60" s="113" t="s">
+      <c r="F60" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" s="64"/>
-      <c r="B61" s="159" t="s">
+      <c r="A61" s="61"/>
+      <c r="B61" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="C61" s="101" t="s">
+      <c r="C61" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E61" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="111" t="s">
+      <c r="F61" s="108" t="s">
         <v>430</v>
       </c>
-      <c r="G61" s="64"/>
-      <c r="H61" s="64"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" s="64"/>
-      <c r="B62" s="159" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="155" t="s">
         <v>57</v>
       </c>
-      <c r="C62" s="101" t="s">
+      <c r="C62" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="51" t="s">
+      <c r="D62" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="111" t="s">
+      <c r="F62" s="108" t="s">
         <v>431</v>
       </c>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" s="64"/>
-      <c r="B63" s="159" t="s">
+      <c r="A63" s="61"/>
+      <c r="B63" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="101" t="s">
+      <c r="C63" s="98" t="s">
         <v>408</v>
       </c>
-      <c r="D63" s="51" t="s">
+      <c r="D63" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E63" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F63" s="111" t="s">
+      <c r="F63" s="108" t="s">
         <v>432</v>
       </c>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A64" s="64"/>
-      <c r="B64" s="159" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="101" t="s">
+      <c r="C64" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E64" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F64" s="111" t="s">
+      <c r="F64" s="108" t="s">
         <v>433</v>
       </c>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" s="64"/>
-      <c r="B65" s="159" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="C65" s="101" t="s">
+      <c r="C65" s="98" t="s">
         <v>410</v>
       </c>
-      <c r="D65" s="51" t="s">
+      <c r="D65" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E65" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="111" t="s">
+      <c r="F65" s="108" t="s">
         <v>435</v>
       </c>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A66" s="64"/>
-      <c r="B66" s="159" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="155" t="s">
         <v>65</v>
       </c>
-      <c r="C66" s="101" t="s">
+      <c r="C66" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="D66" s="51" t="s">
+      <c r="D66" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E66" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="111" t="s">
+      <c r="F66" s="108" t="s">
         <v>434</v>
       </c>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A67" s="64"/>
-      <c r="B67" s="159" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="101" t="s">
+      <c r="C67" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="D67" s="51" t="s">
+      <c r="D67" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E67" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="111" t="s">
+      <c r="F67" s="108" t="s">
         <v>436</v>
       </c>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A68" s="64"/>
-      <c r="B68" s="159" t="s">
+      <c r="A68" s="61"/>
+      <c r="B68" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="98" t="s">
         <v>413</v>
       </c>
-      <c r="D68" s="51" t="s">
+      <c r="D68" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E68" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="111" t="s">
+      <c r="F68" s="108" t="s">
         <v>437</v>
       </c>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A69" s="64"/>
-      <c r="B69" s="159" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C69" s="101" t="s">
+      <c r="C69" s="98" t="s">
         <v>407</v>
       </c>
-      <c r="D69" s="51" t="s">
+      <c r="D69" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E69" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="111" t="s">
+      <c r="F69" s="108" t="s">
         <v>438</v>
       </c>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A70" s="64"/>
-      <c r="B70" s="159" t="s">
+      <c r="A70" s="61"/>
+      <c r="B70" s="155" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="101" t="s">
+      <c r="C70" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="D70" s="51" t="s">
+      <c r="D70" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E70" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="111" t="s">
+      <c r="F70" s="108" t="s">
         <v>439</v>
       </c>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" s="64"/>
-      <c r="B71" s="159" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="C71" s="101" t="s">
+      <c r="C71" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="D71" s="51" t="s">
+      <c r="D71" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E71" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F71" s="111" t="s">
+      <c r="F71" s="108" t="s">
         <v>440</v>
       </c>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" s="64"/>
-      <c r="B72" s="159" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="101" t="s">
+      <c r="C72" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="D72" s="51" t="s">
+      <c r="D72" s="48" t="s">
         <v>32</v>
       </c>
       <c r="E72" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F72" s="111" t="s">
+      <c r="F72" s="108" t="s">
         <v>441</v>
       </c>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A73" s="64"/>
-      <c r="B73" s="157" t="s">
+      <c r="A73" s="61"/>
+      <c r="B73" s="153" t="s">
         <v>417</v>
       </c>
-      <c r="C73" s="102" t="s">
+      <c r="C73" s="99" t="s">
         <v>418</v>
       </c>
-      <c r="D73" s="48" t="s">
+      <c r="D73" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F73" s="115" t="s">
+      <c r="F73" s="112" t="s">
         <v>425</v>
       </c>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A74" s="64"/>
-      <c r="B74" s="156"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="48"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="45"/>
       <c r="E74" s="38"/>
-      <c r="F74" s="114" t="s">
+      <c r="F74" s="111" t="s">
         <v>442</v>
       </c>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A75" s="64"/>
-      <c r="B75" s="156"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="48"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="45"/>
       <c r="E75" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="F75" s="114" t="s">
+      <c r="F75" s="111" t="s">
         <v>426</v>
       </c>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A76" s="64"/>
-      <c r="B76" s="160"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="48"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="156"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="45"/>
       <c r="E76" s="39"/>
-      <c r="F76" s="108" t="s">
+      <c r="F76" s="105" t="s">
         <v>427</v>
       </c>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" s="64"/>
-      <c r="B77" s="161" t="s">
+      <c r="A77" s="61"/>
+      <c r="B77" s="157" t="s">
         <v>419</v>
       </c>
-      <c r="C77" s="102" t="s">
+      <c r="C77" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="D77" s="48" t="s">
+      <c r="D77" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F77" s="115" t="s">
+      <c r="F77" s="112" t="s">
         <v>428</v>
       </c>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
+      <c r="G77" s="61"/>
+      <c r="H77" s="61"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="64"/>
-      <c r="B78" s="161" t="s">
+      <c r="A78" s="61"/>
+      <c r="B78" s="157" t="s">
         <v>421</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="D78" s="48" t="s">
+      <c r="D78" s="45" t="s">
         <v>33</v>
       </c>
       <c r="E78" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F78" s="115" t="s">
+      <c r="F78" s="112" t="s">
         <v>443</v>
       </c>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
+      <c r="G78" s="61"/>
+      <c r="H78" s="61"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" s="64"/>
-      <c r="B79" s="161" t="s">
+      <c r="A79" s="61"/>
+      <c r="B79" s="157" t="s">
         <v>424</v>
       </c>
-      <c r="C79" s="102" t="s">
+      <c r="C79" s="99" t="s">
         <v>422</v>
       </c>
-      <c r="D79" s="48" t="s">
+      <c r="D79" s="45" t="s">
         <v>33</v>
       </c>
       <c r="E79" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F79" s="115" t="s">
+      <c r="F79" s="112" t="s">
         <v>429</v>
       </c>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
+      <c r="G79" s="61"/>
+      <c r="H79" s="61"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="64"/>
-      <c r="B80" s="92" t="s">
+      <c r="A80" s="61"/>
+      <c r="B80" s="89" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="102" t="s">
+      <c r="C80" s="99" t="s">
         <v>363</v>
       </c>
-      <c r="D80" s="48" t="s">
+      <c r="D80" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F80" s="115"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
+      <c r="F80" s="112"/>
+      <c r="G80" s="61"/>
+      <c r="H80" s="61"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A81" s="64"/>
-      <c r="B81" s="92" t="s">
+      <c r="A81" s="61"/>
+      <c r="B81" s="89" t="s">
         <v>368</v>
       </c>
-      <c r="C81" s="102" t="s">
+      <c r="C81" s="99" t="s">
         <v>373</v>
       </c>
-      <c r="D81" s="46" t="s">
+      <c r="D81" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E81" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F81" s="111"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A82" s="64"/>
-      <c r="B82" s="92" t="s">
+      <c r="A82" s="61"/>
+      <c r="B82" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="C82" s="102" t="s">
+      <c r="C82" s="99" t="s">
         <v>364</v>
       </c>
-      <c r="D82" s="46" t="s">
+      <c r="D82" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E82" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="115"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
+      <c r="F82" s="112"/>
+      <c r="G82" s="61"/>
+      <c r="H82" s="61"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A83" s="64"/>
-      <c r="B83" s="92" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="C83" s="102" t="s">
+      <c r="C83" s="99" t="s">
         <v>365</v>
       </c>
-      <c r="D83" s="46" t="s">
+      <c r="D83" s="44" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F83" s="115"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A84" s="64"/>
-      <c r="B84" s="92" t="s">
+      <c r="A84" s="61"/>
+      <c r="B84" s="89" t="s">
         <v>377</v>
       </c>
-      <c r="C84" s="102" t="s">
+      <c r="C84" s="99" t="s">
         <v>366</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D84" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E84" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F84" s="115"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
+      <c r="F84" s="112"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A85" s="64"/>
-      <c r="B85" s="92" t="s">
+      <c r="A85" s="61"/>
+      <c r="B85" s="89" t="s">
         <v>378</v>
       </c>
-      <c r="C85" s="102" t="s">
+      <c r="C85" s="99" t="s">
         <v>367</v>
       </c>
-      <c r="D85" s="46" t="s">
+      <c r="D85" s="44" t="s">
         <v>33</v>
       </c>
       <c r="E85" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="F85" s="115"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
+      <c r="F85" s="112"/>
+      <c r="G85" s="61"/>
+      <c r="H85" s="61"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A86" s="64"/>
-      <c r="B86" s="92" t="s">
+      <c r="A86" s="61"/>
+      <c r="B86" s="89" t="s">
         <v>379</v>
       </c>
-      <c r="C86" s="102" t="s">
+      <c r="C86" s="99" t="s">
         <v>371</v>
       </c>
-      <c r="D86" s="51" t="s">
+      <c r="D86" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E86" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F86" s="115"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
+      <c r="F86" s="112"/>
+      <c r="G86" s="61"/>
+      <c r="H86" s="61"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A87" s="64"/>
-      <c r="B87" s="92" t="s">
+      <c r="A87" s="61"/>
+      <c r="B87" s="89" t="s">
         <v>380</v>
       </c>
-      <c r="C87" s="102" t="s">
+      <c r="C87" s="99" t="s">
         <v>372</v>
       </c>
-      <c r="D87" s="48" t="s">
+      <c r="D87" s="45" t="s">
         <v>34</v>
       </c>
       <c r="E87" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F87" s="115"/>
-      <c r="G87" s="64"/>
-      <c r="H87" s="64"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="61"/>
+      <c r="H87" s="61"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A88" s="64"/>
-      <c r="B88" s="92" t="s">
+      <c r="A88" s="61"/>
+      <c r="B88" s="89" t="s">
         <v>381</v>
       </c>
-      <c r="C88" s="102" t="s">
+      <c r="C88" s="99" t="s">
         <v>374</v>
       </c>
-      <c r="D88" s="51" t="s">
+      <c r="D88" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E88" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F88" s="115"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="64"/>
+      <c r="F88" s="112"/>
+      <c r="G88" s="61"/>
+      <c r="H88" s="61"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A89" s="64"/>
-      <c r="B89" s="92" t="s">
+      <c r="A89" s="61"/>
+      <c r="B89" s="89" t="s">
         <v>382</v>
       </c>
-      <c r="C89" s="102" t="s">
+      <c r="C89" s="99" t="s">
         <v>375</v>
       </c>
-      <c r="D89" s="51" t="s">
+      <c r="D89" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E89" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F89" s="115"/>
-      <c r="G89" s="64"/>
-      <c r="H89" s="64"/>
+      <c r="F89" s="112"/>
+      <c r="G89" s="61"/>
+      <c r="H89" s="61"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A90" s="64"/>
-      <c r="B90" s="91" t="s">
+      <c r="A90" s="61"/>
+      <c r="B90" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="C90" s="101" t="s">
+      <c r="C90" s="98" t="s">
         <v>376</v>
       </c>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E90" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F90" s="111"/>
-      <c r="G90" s="64"/>
-      <c r="H90" s="64"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="61"/>
+      <c r="H90" s="61"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A91" s="64"/>
-      <c r="B91" s="93" t="s">
+      <c r="A91" s="61"/>
+      <c r="B91" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="99" t="s">
         <v>385</v>
       </c>
-      <c r="D91" s="48" t="s">
+      <c r="D91" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="140" t="s">
+      <c r="E91" s="136" t="s">
         <v>197</v>
       </c>
-      <c r="F91" s="112" t="s">
+      <c r="F91" s="109" t="s">
         <v>386</v>
       </c>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A92" s="64"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="48"/>
+      <c r="A92" s="61"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="100"/>
+      <c r="D92" s="45"/>
       <c r="E92" s="39"/>
-      <c r="F92" s="113" t="s">
+      <c r="F92" s="110" t="s">
         <v>387</v>
       </c>
-      <c r="G92" s="64"/>
-      <c r="H92" s="64"/>
+      <c r="G92" s="61"/>
+      <c r="H92" s="61"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A93" s="64"/>
-      <c r="B93" s="160" t="s">
+      <c r="A93" s="61"/>
+      <c r="B93" s="156" t="s">
         <v>465</v>
       </c>
-      <c r="C93" s="97" t="s">
+      <c r="C93" s="94" t="s">
         <v>464</v>
       </c>
-      <c r="D93" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E93" s="96" t="s">
+      <c r="D93" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E93" s="93" t="s">
         <v>466</v>
       </c>
-      <c r="F93" s="114" t="s">
+      <c r="F93" s="111" t="s">
         <v>467</v>
       </c>
-      <c r="G93" s="64"/>
-      <c r="H93" s="64"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A94" s="64"/>
-      <c r="B94" s="160"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="48"/>
-      <c r="E94" s="96"/>
-      <c r="F94" s="114" t="s">
+      <c r="A94" s="61"/>
+      <c r="B94" s="156"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="93"/>
+      <c r="F94" s="111" t="s">
         <v>468</v>
       </c>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
+      <c r="G94" s="61"/>
+      <c r="H94" s="61"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A95" s="64"/>
-      <c r="B95" s="158"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="48"/>
+      <c r="A95" s="61"/>
+      <c r="B95" s="154"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="45"/>
       <c r="E95" s="39"/>
-      <c r="F95" s="114" t="s">
+      <c r="F95" s="111" t="s">
         <v>469</v>
       </c>
-      <c r="G95" s="64"/>
-      <c r="H95" s="64"/>
+      <c r="G95" s="61"/>
+      <c r="H95" s="61"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" s="64"/>
-      <c r="B96" s="160" t="s">
+      <c r="A96" s="61"/>
+      <c r="B96" s="156" t="s">
         <v>473</v>
       </c>
-      <c r="C96" s="102" t="s">
+      <c r="C96" s="99" t="s">
         <v>474</v>
       </c>
-      <c r="D96" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" s="96" t="s">
+      <c r="D96" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="F96" s="112" t="s">
+      <c r="F96" s="109" t="s">
         <v>475</v>
       </c>
-      <c r="G96" s="64"/>
-      <c r="H96" s="64"/>
+      <c r="G96" s="61"/>
+      <c r="H96" s="61"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A97" s="64"/>
-      <c r="B97" s="160"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="96" t="s">
+      <c r="A97" s="61"/>
+      <c r="B97" s="156"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="93" t="s">
         <v>406</v>
       </c>
-      <c r="F97" s="114" t="s">
+      <c r="F97" s="111" t="s">
         <v>471</v>
       </c>
-      <c r="G97" s="64"/>
-      <c r="H97" s="64"/>
+      <c r="G97" s="61"/>
+      <c r="H97" s="61"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" s="64"/>
-      <c r="B98" s="158"/>
-      <c r="C98" s="103"/>
-      <c r="D98" s="48"/>
+      <c r="A98" s="61"/>
+      <c r="B98" s="154"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="45"/>
       <c r="E98" s="39"/>
-      <c r="F98" s="113" t="s">
+      <c r="F98" s="110" t="s">
         <v>472</v>
       </c>
-      <c r="G98" s="64"/>
-      <c r="H98" s="64"/>
+      <c r="G98" s="61"/>
+      <c r="H98" s="61"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A99" s="64"/>
-      <c r="B99" s="92" t="s">
+      <c r="A99" s="61"/>
+      <c r="B99" s="89" t="s">
         <v>275</v>
       </c>
-      <c r="C99" s="102" t="s">
+      <c r="C99" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="D99" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E99" s="40" t="s">
         <v>186</v>
       </c>
-      <c r="F99" s="112" t="s">
+      <c r="F99" s="109" t="s">
         <v>293</v>
       </c>
-      <c r="G99" s="64"/>
-      <c r="H99" s="64"/>
+      <c r="G99" s="61"/>
+      <c r="H99" s="61"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="64"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="97"/>
-      <c r="D100" s="48"/>
+      <c r="A100" s="61"/>
+      <c r="B100" s="84"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="45"/>
       <c r="E100" s="38"/>
-      <c r="F100" s="108" t="s">
+      <c r="F100" s="105" t="s">
         <v>294</v>
       </c>
-      <c r="G100" s="64"/>
-      <c r="H100" s="64"/>
+      <c r="G100" s="61"/>
+      <c r="H100" s="61"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" s="64"/>
-      <c r="B101" s="87"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="48" t="s">
+      <c r="A101" s="61"/>
+      <c r="B101" s="84"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E101" s="38" t="s">
         <v>295</v>
       </c>
-      <c r="F101" s="114" t="s">
+      <c r="F101" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="G101" s="64"/>
-      <c r="H101" s="64"/>
+      <c r="G101" s="61"/>
+      <c r="H101" s="61"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A102" s="64"/>
-      <c r="B102" s="87"/>
-      <c r="C102" s="97"/>
-      <c r="D102" s="48"/>
+      <c r="A102" s="61"/>
+      <c r="B102" s="84"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="45"/>
       <c r="E102" s="38"/>
-      <c r="F102" s="114" t="s">
+      <c r="F102" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="G102" s="64"/>
-      <c r="H102" s="64"/>
+      <c r="G102" s="61"/>
+      <c r="H102" s="61"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A103" s="64"/>
-      <c r="B103" s="93"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="48"/>
+      <c r="A103" s="61"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="45"/>
       <c r="E103" s="38"/>
-      <c r="F103" s="114" t="s">
+      <c r="F103" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="G103" s="64"/>
-      <c r="H103" s="64"/>
+      <c r="G103" s="61"/>
+      <c r="H103" s="61"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A104" s="64"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="96"/>
-      <c r="F104" s="108" t="s">
+      <c r="A104" s="61"/>
+      <c r="B104" s="84"/>
+      <c r="C104" s="94"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="105" t="s">
         <v>299</v>
       </c>
-      <c r="G104" s="64"/>
-      <c r="H104" s="64"/>
+      <c r="G104" s="61"/>
+      <c r="H104" s="61"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A105" s="64"/>
-      <c r="B105" s="87"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="48" t="s">
+      <c r="A105" s="61"/>
+      <c r="B105" s="84"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E105" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F105" s="114" t="s">
+      <c r="F105" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="G105" s="64"/>
-      <c r="H105" s="64"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A106" s="64"/>
-      <c r="B106" s="87"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="48"/>
+      <c r="A106" s="61"/>
+      <c r="B106" s="84"/>
+      <c r="C106" s="94"/>
+      <c r="D106" s="45"/>
       <c r="E106" s="38"/>
-      <c r="F106" s="114" t="s">
+      <c r="F106" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="G106" s="64"/>
-      <c r="H106" s="64"/>
+      <c r="G106" s="61"/>
+      <c r="H106" s="61"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A107" s="64"/>
-      <c r="B107" s="87"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="48" t="s">
+      <c r="A107" s="61"/>
+      <c r="B107" s="84"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E107" s="38" t="s">
         <v>300</v>
       </c>
-      <c r="F107" s="114" t="s">
+      <c r="F107" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
+      <c r="G107" s="61"/>
+      <c r="H107" s="61"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A108" s="64"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="59"/>
+      <c r="A108" s="61"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="56"/>
       <c r="E108" s="38"/>
-      <c r="F108" s="108" t="s">
+      <c r="F108" s="105" t="s">
         <v>302</v>
       </c>
-      <c r="G108" s="64"/>
-      <c r="H108" s="64"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A109" s="64"/>
-      <c r="B109" s="89" t="s">
+      <c r="A109" s="61"/>
+      <c r="B109" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="C109" s="102" t="s">
+      <c r="C109" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="D109" s="46" t="s">
+      <c r="D109" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E109" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="F109" s="107" t="s">
+      <c r="F109" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="G109" s="64"/>
-      <c r="H109" s="64"/>
+      <c r="G109" s="61"/>
+      <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" s="64"/>
-      <c r="B110" s="87"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="48"/>
+      <c r="A110" s="61"/>
+      <c r="B110" s="84"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="45"/>
       <c r="E110" s="38"/>
-      <c r="F110" s="104" t="s">
+      <c r="F110" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="G110" s="64"/>
-      <c r="H110" s="64"/>
+      <c r="G110" s="61"/>
+      <c r="H110" s="61"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" s="64"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="97"/>
-      <c r="D111" s="48"/>
+      <c r="A111" s="61"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="45"/>
       <c r="E111" s="38"/>
-      <c r="F111" s="104" t="s">
+      <c r="F111" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="G111" s="64"/>
-      <c r="H111" s="64"/>
+      <c r="G111" s="61"/>
+      <c r="H111" s="61"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" s="64"/>
-      <c r="B112" s="87"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="48"/>
+      <c r="A112" s="61"/>
+      <c r="B112" s="84"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="45"/>
       <c r="E112" s="38"/>
-      <c r="F112" s="104" t="s">
+      <c r="F112" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="G112" s="64"/>
-      <c r="H112" s="64"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A113" s="64"/>
-      <c r="B113" s="87"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="48"/>
+      <c r="A113" s="61"/>
+      <c r="B113" s="84"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="45"/>
       <c r="E113" s="38"/>
-      <c r="F113" s="104" t="s">
+      <c r="F113" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="G113" s="64"/>
-      <c r="H113" s="64"/>
+      <c r="G113" s="61"/>
+      <c r="H113" s="61"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A114" s="64"/>
-      <c r="B114" s="93"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="48"/>
+      <c r="A114" s="61"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="45"/>
       <c r="E114" s="38"/>
-      <c r="F114" s="104" t="s">
+      <c r="F114" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="G114" s="64"/>
-      <c r="H114" s="64"/>
+      <c r="G114" s="61"/>
+      <c r="H114" s="61"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A115" s="64"/>
-      <c r="B115" s="87"/>
-      <c r="C115" s="97"/>
-      <c r="D115" s="48"/>
+      <c r="A115" s="61"/>
+      <c r="B115" s="84"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="45"/>
       <c r="E115" s="38"/>
-      <c r="F115" s="104" t="s">
+      <c r="F115" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="G115" s="64"/>
-      <c r="H115" s="64"/>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A116" s="64"/>
-      <c r="B116" s="87"/>
-      <c r="C116" s="97"/>
-      <c r="D116" s="48"/>
+      <c r="A116" s="61"/>
+      <c r="B116" s="84"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="45"/>
       <c r="E116" s="38"/>
-      <c r="F116" s="104" t="s">
+      <c r="F116" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="G116" s="64"/>
-      <c r="H116" s="64"/>
+      <c r="G116" s="61"/>
+      <c r="H116" s="61"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A117" s="64"/>
-      <c r="B117" s="87"/>
-      <c r="C117" s="97"/>
-      <c r="D117" s="48"/>
+      <c r="A117" s="61"/>
+      <c r="B117" s="84"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="45"/>
       <c r="E117" s="38"/>
-      <c r="F117" s="104" t="s">
+      <c r="F117" s="101" t="s">
         <v>477</v>
       </c>
-      <c r="G117" s="64"/>
-      <c r="H117" s="64"/>
+      <c r="G117" s="61"/>
+      <c r="H117" s="61"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A118" s="64"/>
-      <c r="B118" s="87"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="48"/>
+      <c r="A118" s="61"/>
+      <c r="B118" s="84"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="45"/>
       <c r="E118" s="38"/>
-      <c r="F118" s="104" t="s">
+      <c r="F118" s="101" t="s">
         <v>476</v>
       </c>
-      <c r="G118" s="64"/>
-      <c r="H118" s="64"/>
+      <c r="G118" s="61"/>
+      <c r="H118" s="61"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A119" s="64"/>
-      <c r="B119" s="87"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="48" t="s">
+      <c r="A119" s="61"/>
+      <c r="B119" s="84"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E119" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="F119" s="104" t="s">
+      <c r="F119" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="G119" s="64"/>
-      <c r="H119" s="64"/>
+      <c r="G119" s="61"/>
+      <c r="H119" s="61"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A120" s="64"/>
-      <c r="B120" s="87"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="48"/>
+      <c r="A120" s="61"/>
+      <c r="B120" s="84"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="45"/>
       <c r="E120" s="38"/>
-      <c r="F120" s="104" t="s">
+      <c r="F120" s="101" t="s">
         <v>289</v>
       </c>
-      <c r="G120" s="64"/>
-      <c r="H120" s="64"/>
+      <c r="G120" s="61"/>
+      <c r="H120" s="61"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A121" s="64"/>
-      <c r="B121" s="87"/>
-      <c r="C121" s="97"/>
-      <c r="D121" s="48"/>
+      <c r="A121" s="61"/>
+      <c r="B121" s="84"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="45"/>
       <c r="E121" s="38"/>
-      <c r="F121" s="104" t="s">
+      <c r="F121" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="G121" s="64"/>
-      <c r="H121" s="64"/>
+      <c r="G121" s="61"/>
+      <c r="H121" s="61"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A122" s="64"/>
-      <c r="B122" s="87"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="48"/>
+      <c r="A122" s="61"/>
+      <c r="B122" s="84"/>
+      <c r="C122" s="94"/>
+      <c r="D122" s="45"/>
       <c r="E122" s="38"/>
-      <c r="F122" s="104" t="s">
+      <c r="F122" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="G122" s="64"/>
-      <c r="H122" s="64"/>
+      <c r="G122" s="61"/>
+      <c r="H122" s="61"/>
     </row>
     <row r="123" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="64"/>
-      <c r="B123" s="87"/>
-      <c r="C123" s="97"/>
-      <c r="D123" s="48"/>
+      <c r="A123" s="61"/>
+      <c r="B123" s="84"/>
+      <c r="C123" s="94"/>
+      <c r="D123" s="45"/>
       <c r="E123" s="38"/>
-      <c r="F123" s="104" t="s">
+      <c r="F123" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="G123" s="64"/>
-      <c r="H123" s="64"/>
+      <c r="G123" s="61"/>
+      <c r="H123" s="61"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A124" s="64"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="48" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="84"/>
+      <c r="C124" s="94"/>
+      <c r="D124" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E124" s="38">
         <v>15</v>
       </c>
-      <c r="F124" s="108" t="s">
+      <c r="F124" s="105" t="s">
         <v>285</v>
       </c>
-      <c r="G124" s="64"/>
-      <c r="H124" s="64"/>
+      <c r="G124" s="61"/>
+      <c r="H124" s="61"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A125" s="64"/>
-      <c r="B125" s="93"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="59"/>
+      <c r="A125" s="61"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="56"/>
       <c r="E125" s="39"/>
-      <c r="F125" s="109" t="s">
+      <c r="F125" s="106" t="s">
         <v>286</v>
       </c>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A126" s="64"/>
-      <c r="B126" s="89" t="s">
+      <c r="A126" s="61"/>
+      <c r="B126" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="C126" s="98" t="s">
+      <c r="C126" s="95" t="s">
         <v>312</v>
       </c>
-      <c r="D126" s="48" t="s">
+      <c r="D126" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E126" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F126" s="109" t="s">
+      <c r="F126" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
+      <c r="G126" s="61"/>
+      <c r="H126" s="61"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A127" s="64"/>
-      <c r="B127" s="91" t="s">
+      <c r="A127" s="61"/>
+      <c r="B127" s="88" t="s">
         <v>317</v>
       </c>
-      <c r="C127" s="98" t="s">
+      <c r="C127" s="95" t="s">
         <v>313</v>
       </c>
-      <c r="D127" s="48" t="s">
+      <c r="D127" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E127" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F127" s="109" t="s">
+      <c r="F127" s="106" t="s">
         <v>315</v>
       </c>
-      <c r="G127" s="64"/>
-      <c r="H127" s="64"/>
+      <c r="G127" s="61"/>
+      <c r="H127" s="61"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A128" s="64"/>
-      <c r="B128" s="91" t="s">
+      <c r="A128" s="61"/>
+      <c r="B128" s="88" t="s">
         <v>318</v>
       </c>
-      <c r="C128" s="100" t="s">
+      <c r="C128" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="D128" s="51" t="s">
+      <c r="D128" s="48" t="s">
         <v>34</v>
       </c>
       <c r="E128" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F128" s="110" t="s">
+      <c r="F128" s="107" t="s">
         <v>309</v>
       </c>
-      <c r="G128" s="64"/>
-      <c r="H128" s="64"/>
+      <c r="G128" s="61"/>
+      <c r="H128" s="61"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A129" s="64"/>
-      <c r="B129" s="91" t="s">
+      <c r="A129" s="61"/>
+      <c r="B129" s="88" t="s">
         <v>319</v>
       </c>
-      <c r="C129" s="100" t="s">
+      <c r="C129" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="D129" s="51" t="s">
+      <c r="D129" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E129" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="F129" s="110" t="s">
+      <c r="F129" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="G129" s="64"/>
-      <c r="H129" s="64"/>
+      <c r="G129" s="61"/>
+      <c r="H129" s="61"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A130" s="64"/>
-      <c r="B130" s="91" t="s">
+      <c r="A130" s="61"/>
+      <c r="B130" s="88" t="s">
         <v>320</v>
       </c>
-      <c r="C130" s="100" t="s">
+      <c r="C130" s="97" t="s">
         <v>308</v>
       </c>
-      <c r="D130" s="51" t="s">
+      <c r="D130" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E130" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F130" s="110" t="s">
+      <c r="F130" s="107" t="s">
         <v>325</v>
       </c>
-      <c r="G130" s="64"/>
-      <c r="H130" s="64"/>
+      <c r="G130" s="61"/>
+      <c r="H130" s="61"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A131" s="64"/>
-      <c r="B131" s="91" t="s">
+      <c r="A131" s="61"/>
+      <c r="B131" s="88" t="s">
         <v>321</v>
       </c>
-      <c r="C131" s="100" t="s">
+      <c r="C131" s="97" t="s">
         <v>307</v>
       </c>
-      <c r="D131" s="51" t="s">
+      <c r="D131" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E131" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F131" s="110" t="s">
+      <c r="F131" s="107" t="s">
         <v>311</v>
       </c>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A132" s="64"/>
-      <c r="B132" s="161" t="s">
+      <c r="A132" s="61"/>
+      <c r="B132" s="157" t="s">
         <v>68</v>
       </c>
-      <c r="C132" s="102" t="s">
+      <c r="C132" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="D132" s="46" t="s">
+      <c r="D132" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E132" s="40">
         <v>0</v>
       </c>
-      <c r="F132" s="115" t="s">
+      <c r="F132" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A133" s="64"/>
-      <c r="B133" s="160"/>
-      <c r="C133" s="97"/>
-      <c r="D133" s="48"/>
+      <c r="A133" s="61"/>
+      <c r="B133" s="156"/>
+      <c r="C133" s="94"/>
+      <c r="D133" s="45"/>
       <c r="E133" s="38"/>
-      <c r="F133" s="108" t="s">
+      <c r="F133" s="105" t="s">
         <v>71</v>
       </c>
-      <c r="G133" s="64"/>
-      <c r="H133" s="64"/>
+      <c r="G133" s="61"/>
+      <c r="H133" s="61"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A134" s="64"/>
-      <c r="B134" s="160"/>
-      <c r="C134" s="97"/>
-      <c r="D134" s="48" t="s">
+      <c r="A134" s="61"/>
+      <c r="B134" s="156"/>
+      <c r="C134" s="94"/>
+      <c r="D134" s="45" t="s">
         <v>32</v>
       </c>
       <c r="E134" s="38">
         <v>1</v>
       </c>
-      <c r="F134" s="108" t="s">
+      <c r="F134" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="G134" s="64"/>
-      <c r="H134" s="64"/>
+      <c r="G134" s="61"/>
+      <c r="H134" s="61"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A135" s="64"/>
-      <c r="B135" s="186"/>
-      <c r="C135" s="103"/>
-      <c r="D135" s="59"/>
+      <c r="A135" s="61"/>
+      <c r="B135" s="182"/>
+      <c r="C135" s="100"/>
+      <c r="D135" s="56"/>
       <c r="E135" s="39"/>
-      <c r="F135" s="109" t="s">
+      <c r="F135" s="106" t="s">
         <v>73</v>
       </c>
-      <c r="G135" s="64"/>
-      <c r="H135" s="64"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="61"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A136" s="64"/>
-      <c r="B136" s="161" t="s">
+      <c r="A136" s="61"/>
+      <c r="B136" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="C136" s="101" t="s">
+      <c r="C136" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="D136" s="46" t="s">
+      <c r="D136" s="44" t="s">
         <v>32</v>
       </c>
       <c r="E136" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F136" s="111" t="s">
+      <c r="F136" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="G136" s="64"/>
-      <c r="H136" s="64"/>
+      <c r="G136" s="61"/>
+      <c r="H136" s="61"/>
     </row>
     <row r="137" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A137" s="64"/>
-      <c r="B137" s="187" t="s">
+      <c r="A137" s="61"/>
+      <c r="B137" s="183" t="s">
         <v>444</v>
       </c>
-      <c r="C137" s="165" t="s">
+      <c r="C137" s="161" t="s">
         <v>463</v>
       </c>
-      <c r="D137" s="166" t="s">
+      <c r="D137" s="162" t="s">
         <v>33</v>
       </c>
-      <c r="E137" s="167" t="s">
+      <c r="E137" s="163" t="s">
         <v>27</v>
       </c>
-      <c r="F137" s="168" t="s">
+      <c r="F137" s="164" t="s">
         <v>445</v>
       </c>
-      <c r="G137" s="64"/>
-      <c r="H137" s="64"/>
+      <c r="G137" s="61"/>
+      <c r="H137" s="61"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A138" s="64"/>
-      <c r="B138" s="87" t="s">
+      <c r="A138" s="61"/>
+      <c r="B138" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="C138" s="125" t="s">
+      <c r="C138" s="121" t="s">
         <v>344</v>
       </c>
-      <c r="D138" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="126" t="s">
+      <c r="D138" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="122" t="s">
         <v>186</v>
       </c>
-      <c r="F138" s="108" t="s">
+      <c r="F138" s="105" t="s">
         <v>461</v>
       </c>
-      <c r="G138" s="64"/>
-      <c r="H138" s="64"/>
+      <c r="G138" s="61"/>
+      <c r="H138" s="61"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A139" s="64"/>
-      <c r="B139" s="93"/>
-      <c r="C139" s="131"/>
-      <c r="D139" s="138"/>
-      <c r="E139" s="126"/>
-      <c r="F139" s="127" t="s">
+      <c r="A139" s="61"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="127"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="122"/>
+      <c r="F139" s="123" t="s">
         <v>462</v>
       </c>
-      <c r="G139" s="64"/>
-      <c r="H139" s="64"/>
+      <c r="G139" s="61"/>
+      <c r="H139" s="61"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A140" s="64"/>
-      <c r="B140" s="93"/>
-      <c r="C140" s="56"/>
-      <c r="D140" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="126" t="s">
+      <c r="A140" s="61"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="53"/>
+      <c r="D140" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="122" t="s">
         <v>197</v>
       </c>
-      <c r="F140" s="127" t="s">
+      <c r="F140" s="123" t="s">
         <v>347</v>
       </c>
-      <c r="G140" s="64"/>
-      <c r="H140" s="64"/>
+      <c r="G140" s="61"/>
+      <c r="H140" s="61"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A141" s="64"/>
-      <c r="B141" s="93"/>
-      <c r="C141" s="133"/>
-      <c r="D141" s="139"/>
-      <c r="E141" s="135"/>
-      <c r="F141" s="128" t="s">
+      <c r="A141" s="61"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="129"/>
+      <c r="D141" s="135"/>
+      <c r="E141" s="131"/>
+      <c r="F141" s="124" t="s">
         <v>348</v>
       </c>
-      <c r="G141" s="64"/>
-      <c r="H141" s="64"/>
+      <c r="G141" s="61"/>
+      <c r="H141" s="61"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A142" s="64"/>
-      <c r="B142" s="92" t="s">
+      <c r="A142" s="61"/>
+      <c r="B142" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C142" s="132" t="s">
+      <c r="C142" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="D142" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="136" t="s">
+      <c r="D142" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="132" t="s">
         <v>350</v>
       </c>
-      <c r="F142" s="129" t="s">
+      <c r="F142" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="G142" s="64"/>
-      <c r="H142" s="64"/>
+      <c r="G142" s="61"/>
+      <c r="H142" s="61"/>
     </row>
     <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A143" s="64"/>
-      <c r="B143" s="94" t="s">
+      <c r="A143" s="61"/>
+      <c r="B143" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="C143" s="134" t="s">
+      <c r="C143" s="130" t="s">
         <v>354</v>
       </c>
-      <c r="D143" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="137" t="s">
+      <c r="D143" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="133" t="s">
         <v>350</v>
       </c>
-      <c r="F143" s="130" t="s">
+      <c r="F143" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="G143" s="64"/>
-      <c r="H143" s="64"/>
+      <c r="G143" s="61"/>
+      <c r="H143" s="61"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A144" s="64"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="88"/>
-      <c r="D144" s="88"/>
-      <c r="E144" s="88"/>
-      <c r="F144" s="88"/>
-      <c r="G144" s="64"/>
-      <c r="H144" s="64"/>
+      <c r="A144" s="61"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="61"/>
+      <c r="H144" s="61"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A145" s="64"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="88"/>
-      <c r="E145" s="88"/>
-      <c r="F145" s="88"/>
-      <c r="G145" s="64"/>
-      <c r="H145" s="64"/>
+      <c r="A145" s="61"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="61"/>
+      <c r="H145" s="61"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A146" s="64"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="88"/>
-      <c r="D146" s="88"/>
-      <c r="E146" s="88"/>
-      <c r="F146" s="88"/>
-      <c r="G146" s="64"/>
-      <c r="H146" s="64"/>
+      <c r="A146" s="61"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="61"/>
+      <c r="H146" s="61"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A147" s="64"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="88"/>
-      <c r="E147" s="88"/>
-      <c r="F147" s="88"/>
-      <c r="G147" s="64"/>
-      <c r="H147" s="64"/>
+      <c r="A147" s="61"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="61"/>
+      <c r="H147" s="61"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A148" s="64"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="88"/>
-      <c r="D148" s="88"/>
-      <c r="E148" s="88"/>
-      <c r="F148" s="88"/>
-      <c r="G148" s="64"/>
-      <c r="H148" s="64"/>
+      <c r="A148" s="61"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="61"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A149" s="64"/>
+      <c r="A149" s="61"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5294,13 +5379,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="188" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -5596,7 +5681,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="162" t="s">
+      <c r="B24" s="158" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -5613,7 +5698,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="162" t="s">
+      <c r="B25" s="158" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -5630,7 +5715,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="158" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5647,7 +5732,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="162" t="s">
+      <c r="B27" s="158" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5664,7 +5749,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="162" t="s">
+      <c r="B28" s="158" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5681,7 +5766,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="163" t="s">
+      <c r="B29" s="159" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5698,7 +5783,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="164"/>
+      <c r="B30" s="160"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
@@ -5716,10 +5801,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD7B95-A2AF-46FE-AB85-2A0D672A14B1}">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5734,13 +5819,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="188" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="197"/>
+      <c r="C2" s="189"/>
+      <c r="D2" s="189"/>
+      <c r="E2" s="189"/>
+      <c r="F2" s="190"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -6936,554 +7021,588 @@
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="22" t="s">
+    <row r="93" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B93" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D93" s="9" t="s">
+      <c r="D93" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E93" s="42" t="s">
+      <c r="E93" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="19" t="s">
+      <c r="F93" s="199" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="45" t="s">
+      <c r="B94" s="201" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="116" t="s">
+      <c r="C94" s="202" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="43">
+      <c r="D94" s="203" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="204">
         <v>0</v>
       </c>
-      <c r="F94" s="47" t="s">
+      <c r="F94" s="205" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="117"/>
-      <c r="C95" s="64"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="44"/>
-      <c r="F95" s="49" t="s">
+      <c r="B95" s="113"/>
+      <c r="C95" s="195"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="46" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="117"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E96" s="44">
+      <c r="B96" s="113"/>
+      <c r="C96" s="195"/>
+      <c r="D96" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" s="43">
         <v>1</v>
       </c>
-      <c r="F96" s="49" t="s">
+      <c r="F96" s="46" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="117"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="49" t="s">
+      <c r="B97" s="113"/>
+      <c r="C97" s="195"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="43"/>
+      <c r="F97" s="46" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="117"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="44">
+      <c r="B98" s="113"/>
+      <c r="C98" s="195"/>
+      <c r="D98" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E98" s="43">
         <v>2</v>
       </c>
-      <c r="F98" s="49" t="s">
+      <c r="F98" s="46" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="117"/>
-      <c r="C99" s="64"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="44"/>
-      <c r="F99" s="49" t="s">
+      <c r="B99" s="113"/>
+      <c r="C99" s="195"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="43"/>
+      <c r="F99" s="46" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="117"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="48"/>
-      <c r="E100" s="44" t="s">
+      <c r="B100" s="113"/>
+      <c r="C100" s="195"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="F100" s="49" t="s">
+      <c r="F100" s="46" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="117"/>
-      <c r="C101" s="64"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="44"/>
-      <c r="F101" s="49" t="s">
+      <c r="B101" s="113"/>
+      <c r="C101" s="195"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="43"/>
+      <c r="F101" s="46" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="117"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="48"/>
-      <c r="E102" s="44" t="s">
+      <c r="B102" s="113"/>
+      <c r="C102" s="195"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="F102" s="49" t="s">
+      <c r="F102" s="46" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="117"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="49" t="s">
+      <c r="B103" s="113"/>
+      <c r="C103" s="195"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="43"/>
+      <c r="F103" s="46" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="117"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="48"/>
-      <c r="E104" s="44" t="s">
+      <c r="B104" s="113"/>
+      <c r="C104" s="195"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="43" t="s">
         <v>246</v>
       </c>
-      <c r="F104" s="49" t="s">
+      <c r="F104" s="46" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="117"/>
-      <c r="C105" s="64"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="44"/>
-      <c r="F105" s="49" t="s">
+      <c r="B105" s="113"/>
+      <c r="C105" s="195"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="43"/>
+      <c r="F105" s="46" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="117"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E106" s="44" t="s">
+      <c r="B106" s="113"/>
+      <c r="C106" s="195"/>
+      <c r="D106" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E106" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="F106" s="49" t="s">
+      <c r="F106" s="46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="118"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="44"/>
-      <c r="F107" s="49" t="s">
+      <c r="B107" s="114"/>
+      <c r="C107" s="195"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="43"/>
+      <c r="F107" s="46" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D108" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E108" s="54" t="s">
+      <c r="D108" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E108" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="F108" s="53" t="s">
+      <c r="F108" s="50" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B109" s="52" t="s">
+      <c r="B109" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D109" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="54" t="s">
+      <c r="D109" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F109" s="53" t="s">
+      <c r="F109" s="50" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B110" s="52" t="s">
+      <c r="B110" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D110" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E110" s="54" t="s">
+      <c r="D110" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E110" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="F110" s="53" t="s">
+      <c r="F110" s="50" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B111" s="52" t="s">
+      <c r="B111" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="D111" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="54" t="s">
+      <c r="D111" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F111" s="53" t="s">
+      <c r="F111" s="50" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="C112" s="50" t="s">
+      <c r="C112" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D112" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E112" s="54" t="s">
+      <c r="D112" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E112" s="51" t="s">
         <v>185</v>
       </c>
-      <c r="F112" s="53" t="s">
+      <c r="F112" s="50" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C113" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D113" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E113" s="54" t="s">
+      <c r="D113" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E113" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="F113" s="53" t="s">
+      <c r="F113" s="50" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B114" s="52" t="s">
+      <c r="B114" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C114" s="50" t="s">
+      <c r="C114" s="47" t="s">
         <v>212</v>
       </c>
-      <c r="D114" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E114" s="54" t="s">
+      <c r="D114" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="51" t="s">
         <v>221</v>
       </c>
-      <c r="F114" s="53" t="s">
+      <c r="F114" s="50" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="47" t="s">
         <v>213</v>
       </c>
-      <c r="D115" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="54" t="s">
+      <c r="D115" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E115" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F115" s="53" t="s">
+      <c r="F115" s="50" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C116" s="50" t="s">
+      <c r="C116" s="47" t="s">
         <v>214</v>
       </c>
-      <c r="D116" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E116" s="54" t="s">
+      <c r="D116" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E116" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F116" s="53" t="s">
+      <c r="F116" s="50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C117" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="D117" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E117" s="54" t="s">
+      <c r="D117" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E117" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F117" s="53" t="s">
+      <c r="F117" s="50" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B118" s="65" t="s">
+      <c r="B118" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C118" s="56" t="s">
+      <c r="C118" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="D118" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E118" s="44" t="s">
+      <c r="D118" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="57" t="s">
+      <c r="F118" s="54" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B119" s="66"/>
-      <c r="C119" s="58"/>
-      <c r="D119" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="60" t="s">
+      <c r="B119" s="63"/>
+      <c r="C119" s="55"/>
+      <c r="D119" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="F119" s="61" t="s">
+      <c r="F119" s="58" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B120" s="65" t="s">
+      <c r="B120" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C120" s="62" t="s">
+      <c r="C120" s="59" t="s">
         <v>253</v>
       </c>
-      <c r="D120" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E120" s="44" t="s">
+      <c r="D120" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F120" s="57" t="s">
+      <c r="F120" s="54" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B121" s="66"/>
-      <c r="C121" s="58"/>
-      <c r="D121" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="60" t="s">
+      <c r="B121" s="63"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="F121" s="61" t="s">
+      <c r="F121" s="58" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="C122" s="63" t="s">
+      <c r="C122" s="60" t="s">
         <v>254</v>
       </c>
-      <c r="D122" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E122" s="54" t="s">
+      <c r="D122" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="53" t="s">
+      <c r="F122" s="50" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B123" s="65" t="s">
+      <c r="B123" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="C123" s="62" t="s">
+      <c r="C123" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="D123" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E123" s="44" t="s">
+      <c r="D123" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="F123" s="54" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="185"/>
-      <c r="C124" s="189"/>
-      <c r="D124" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="44" t="s">
+      <c r="B124" s="181"/>
+      <c r="C124" s="196"/>
+      <c r="D124" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="F124" s="57" t="s">
+      <c r="F124" s="54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B125" s="190" t="s">
+    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B125" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="188" t="s">
+      <c r="C125" s="207" t="s">
         <v>478</v>
       </c>
-      <c r="D125" s="51" t="s">
+      <c r="D125" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E125" s="54" t="s">
+      <c r="E125" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="129" t="s">
+      <c r="F125" s="209" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="64"/>
-      <c r="B126" s="87" t="s">
+      <c r="B126" s="200" t="s">
+        <v>61</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="D126" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E126" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B127" s="197" t="s">
+        <v>62</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="61"/>
+      <c r="B128" s="84" t="s">
         <v>343</v>
       </c>
-      <c r="C126" s="97" t="s">
+      <c r="C128" s="94" t="s">
         <v>344</v>
       </c>
-      <c r="D126" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="40" t="s">
+      <c r="D128" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="F126" s="108" t="s">
+      <c r="F128" s="105" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="64"/>
-      <c r="B127" s="93"/>
-      <c r="C127" s="131"/>
-      <c r="D127" s="138"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="127" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="61"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="134"/>
+      <c r="E129" s="38"/>
+      <c r="F129" s="123" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="64"/>
-      <c r="B128" s="93"/>
-      <c r="C128" s="56"/>
-      <c r="D128" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="38" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="61"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="53"/>
+      <c r="D130" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="F128" s="127" t="s">
+      <c r="F130" s="123" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="64"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="133"/>
-      <c r="D129" s="139"/>
-      <c r="E129" s="39"/>
-      <c r="F129" s="128" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="61"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="198"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="124" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="64"/>
-      <c r="B130" s="92" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="61"/>
+      <c r="B132" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C130" s="132" t="s">
+      <c r="C132" s="128" t="s">
         <v>351</v>
       </c>
-      <c r="D130" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="40" t="s">
+      <c r="D132" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="F130" s="129" t="s">
+      <c r="F132" s="125" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="64"/>
-      <c r="B131" s="94" t="s">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="61"/>
+      <c r="B133" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="C131" s="134" t="s">
+      <c r="C133" s="130" t="s">
         <v>354</v>
       </c>
-      <c r="D131" s="95" t="s">
-        <v>32</v>
-      </c>
-      <c r="E131" s="191" t="s">
+      <c r="D133" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="184" t="s">
         <v>350</v>
       </c>
-      <c r="F131" s="130" t="s">
+      <c r="F133" s="126" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7514,68 +7633,68 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="172" t="s">
+      <c r="B2" s="168" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="173" t="s">
+      <c r="C2" s="169" t="s">
         <v>450</v>
       </c>
-      <c r="D2" s="174" t="s">
+      <c r="D2" s="170" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="171" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="171" t="s">
+      <c r="C3" s="167" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="179">
+      <c r="D3" s="175">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="172" t="s">
         <v>456</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="166" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="180">
+      <c r="D4" s="176">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="173" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="166" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="180">
+      <c r="D5" s="176">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="174" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="169" t="s">
+      <c r="C6" s="165" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="181">
+      <c r="D6" s="177">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="182" t="s">
+      <c r="B7" s="178" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="183" t="s">
+      <c r="C7" s="179" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="184"/>
+      <c r="D7" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7602,2373 +7721,2373 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="67" t="s">
         <v>241</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="G2" s="71" t="s">
+      <c r="G2" s="68" t="s">
         <v>231</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="69" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E3" s="67">
+      <c r="E3" s="64">
         <v>22050</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="65">
         <v>192000</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="65">
         <v>30</v>
       </c>
-      <c r="H3" s="69">
+      <c r="H3" s="66">
         <f>POWER(2,G3)</f>
         <v>1073741824</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="68" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="68" t="s">
         <v>242</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="68" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="69" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="75"/>
-      <c r="C6" s="73">
+      <c r="B6" s="72"/>
+      <c r="C6" s="70">
         <v>0</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="70">
         <f>POWER(2,(C6-60)/12)</f>
         <v>3.125E-2</v>
       </c>
-      <c r="E6" s="73">
+      <c r="E6" s="70">
         <f>D6*$E$3</f>
         <v>689.0625</v>
       </c>
-      <c r="F6" s="76" t="str">
+      <c r="F6" s="73" t="str">
         <f>"0x" &amp; DEC2HEX(MIN((E6/$F$3)*($H$3),$H$3-1))</f>
         <v>0x3ACCCC</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="75"/>
-      <c r="C7" s="73">
+      <c r="B7" s="72"/>
+      <c r="C7" s="70">
         <v>1</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="70">
         <f t="shared" ref="D7:D70" si="0">POWER(2,(C7-60)/12)</f>
         <v>3.3108221698727971E-2</v>
       </c>
-      <c r="E7" s="73">
+      <c r="E7" s="70">
         <f t="shared" ref="E7:E70" si="1">D7*$E$3</f>
         <v>730.03628845695175</v>
       </c>
-      <c r="F7" s="76" t="str">
+      <c r="F7" s="73" t="str">
         <f t="shared" ref="F7:F70" si="2">"0x" &amp; DEC2HEX(MIN((E7/$F$3)*($H$3),$H$3-1))</f>
         <v>0x3E4BE2</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="75"/>
-      <c r="C8" s="73">
+      <c r="B8" s="72"/>
+      <c r="C8" s="70">
         <v>2</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="70">
         <f t="shared" si="0"/>
         <v>3.5076939009667914E-2</v>
       </c>
-      <c r="E8" s="73">
+      <c r="E8" s="70">
         <f t="shared" si="1"/>
         <v>773.44650516317745</v>
       </c>
-      <c r="F8" s="76" t="str">
+      <c r="F8" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x420032</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="75"/>
-      <c r="C9" s="73">
+      <c r="B9" s="72"/>
+      <c r="C9" s="70">
         <v>3</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="70">
         <f t="shared" si="0"/>
         <v>3.7162722343835032E-2</v>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="70">
         <f t="shared" si="1"/>
         <v>819.4380276815624</v>
       </c>
-      <c r="F9" s="76" t="str">
+      <c r="F9" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x45ECE5</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="75"/>
-      <c r="C10" s="73">
+      <c r="B10" s="72"/>
+      <c r="C10" s="70">
         <v>4</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="70">
         <f t="shared" si="0"/>
         <v>3.937253280921478E-2</v>
       </c>
-      <c r="E10" s="73">
+      <c r="E10" s="70">
         <f t="shared" si="1"/>
         <v>868.16434844318587</v>
       </c>
-      <c r="F10" s="76" t="str">
+      <c r="F10" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x4A1556</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B11" s="75"/>
-      <c r="C11" s="73">
+      <c r="B11" s="72"/>
+      <c r="C11" s="70">
         <v>5</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="70">
         <f t="shared" si="0"/>
         <v>4.1713745442813588E-2</v>
       </c>
-      <c r="E11" s="73">
+      <c r="E11" s="70">
         <f t="shared" si="1"/>
         <v>919.78808701403966</v>
       </c>
-      <c r="F11" s="76" t="str">
+      <c r="F11" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x4E7D13</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B12" s="75"/>
-      <c r="C12" s="73">
+      <c r="B12" s="72"/>
+      <c r="C12" s="70">
         <v>6</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="70">
         <f t="shared" si="0"/>
         <v>4.4194173824159223E-2</v>
       </c>
-      <c r="E12" s="73">
+      <c r="E12" s="70">
         <f t="shared" si="1"/>
         <v>974.48153282271085</v>
       </c>
-      <c r="F12" s="76" t="str">
+      <c r="F12" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x5327DF</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="75"/>
-      <c r="C13" s="73">
+      <c r="B13" s="72"/>
+      <c r="C13" s="70">
         <v>7</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="70">
         <f t="shared" si="0"/>
         <v>4.6822096152396291E-2</v>
       </c>
-      <c r="E13" s="73">
+      <c r="E13" s="70">
         <f t="shared" si="1"/>
         <v>1032.4272201603383</v>
       </c>
-      <c r="F13" s="76" t="str">
+      <c r="F13" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x5819B7</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="75"/>
-      <c r="C14" s="73">
+      <c r="B14" s="72"/>
+      <c r="C14" s="70">
         <v>8</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="70">
         <f t="shared" si="0"/>
         <v>4.9606282874006251E-2</v>
       </c>
-      <c r="E14" s="73">
+      <c r="E14" s="70">
         <f t="shared" si="1"/>
         <v>1093.8185373718379</v>
       </c>
-      <c r="F14" s="76" t="str">
+      <c r="F14" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x5D56D4</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B15" s="75"/>
-      <c r="C15" s="73">
+      <c r="B15" s="72"/>
+      <c r="C15" s="70">
         <v>9</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="70">
         <f t="shared" si="0"/>
         <v>5.2556025953357163E-2</v>
       </c>
-      <c r="E15" s="73">
+      <c r="E15" s="70">
         <f t="shared" si="1"/>
         <v>1158.8603722715254</v>
       </c>
-      <c r="F15" s="76" t="str">
+      <c r="F15" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x62E3B0</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="75"/>
-      <c r="C16" s="73">
+      <c r="B16" s="72"/>
+      <c r="C16" s="70">
         <v>10</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="70">
         <f t="shared" si="0"/>
         <v>5.5681169883771191E-2</v>
       </c>
-      <c r="E16" s="73">
+      <c r="E16" s="70">
         <f t="shared" si="1"/>
         <v>1227.7697959371549</v>
       </c>
-      <c r="F16" s="76" t="str">
+      <c r="F16" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x68C50A</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="75"/>
-      <c r="C17" s="73">
+      <c r="B17" s="72"/>
+      <c r="C17" s="70">
         <v>11</v>
       </c>
-      <c r="D17" s="73">
+      <c r="D17" s="70">
         <f t="shared" si="0"/>
         <v>5.8992144542605866E-2</v>
       </c>
-      <c r="E17" s="73">
+      <c r="E17" s="70">
         <f t="shared" si="1"/>
         <v>1300.7767871644594</v>
       </c>
-      <c r="F17" s="76" t="str">
+      <c r="F17" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x6EFFE7</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="75"/>
-      <c r="C18" s="73">
+      <c r="B18" s="72"/>
+      <c r="C18" s="70">
         <v>12</v>
       </c>
-      <c r="D18" s="73">
+      <c r="D18" s="70">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="E18" s="73">
+      <c r="E18" s="70">
         <f t="shared" si="1"/>
         <v>1378.125</v>
       </c>
-      <c r="F18" s="76" t="str">
+      <c r="F18" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x759999</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="75"/>
-      <c r="C19" s="73">
+      <c r="B19" s="72"/>
+      <c r="C19" s="70">
         <v>13</v>
       </c>
-      <c r="D19" s="73">
+      <c r="D19" s="70">
         <f t="shared" si="0"/>
         <v>6.6216443397455971E-2</v>
       </c>
-      <c r="E19" s="73">
+      <c r="E19" s="70">
         <f t="shared" si="1"/>
         <v>1460.0725769139042</v>
       </c>
-      <c r="F19" s="76" t="str">
+      <c r="F19" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x7C97C5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="75"/>
-      <c r="C20" s="73">
+      <c r="B20" s="72"/>
+      <c r="C20" s="70">
         <v>14</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="70">
         <f t="shared" si="0"/>
         <v>7.01538780193358E-2</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="70">
         <f t="shared" si="1"/>
         <v>1546.8930103263544</v>
       </c>
-      <c r="F20" s="76" t="str">
+      <c r="F20" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x840064</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="75"/>
-      <c r="C21" s="73">
+      <c r="B21" s="72"/>
+      <c r="C21" s="70">
         <v>15</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="70">
         <f t="shared" si="0"/>
         <v>7.4325444687670064E-2</v>
       </c>
-      <c r="E21" s="73">
+      <c r="E21" s="70">
         <f t="shared" si="1"/>
         <v>1638.8760553631248</v>
       </c>
-      <c r="F21" s="76" t="str">
+      <c r="F21" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x8BD9CB</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="75"/>
-      <c r="C22" s="73">
+      <c r="B22" s="72"/>
+      <c r="C22" s="70">
         <v>16</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="70">
         <f t="shared" si="0"/>
         <v>7.8745065618429588E-2</v>
       </c>
-      <c r="E22" s="73">
+      <c r="E22" s="70">
         <f t="shared" si="1"/>
         <v>1736.3286968863724</v>
       </c>
-      <c r="F22" s="76" t="str">
+      <c r="F22" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x942AAD</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="75"/>
-      <c r="C23" s="73">
+      <c r="B23" s="72"/>
+      <c r="C23" s="70">
         <v>17</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="70">
         <f t="shared" si="0"/>
         <v>8.3427490885627148E-2</v>
       </c>
-      <c r="E23" s="73">
+      <c r="E23" s="70">
         <f t="shared" si="1"/>
         <v>1839.5761740280786</v>
       </c>
-      <c r="F23" s="76" t="str">
+      <c r="F23" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0x9CFA27</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="75"/>
-      <c r="C24" s="73">
+      <c r="B24" s="72"/>
+      <c r="C24" s="70">
         <v>18</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="70">
         <f t="shared" si="0"/>
         <v>8.8388347648318447E-2</v>
       </c>
-      <c r="E24" s="73">
+      <c r="E24" s="70">
         <f t="shared" si="1"/>
         <v>1948.9630656454217</v>
       </c>
-      <c r="F24" s="76" t="str">
+      <c r="F24" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0xA64FBF</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="75"/>
-      <c r="C25" s="73">
+      <c r="B25" s="72"/>
+      <c r="C25" s="70">
         <v>19</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="70">
         <f t="shared" si="0"/>
         <v>9.3644192304792623E-2</v>
       </c>
-      <c r="E25" s="73">
+      <c r="E25" s="70">
         <f t="shared" si="1"/>
         <v>2064.8544403206774</v>
       </c>
-      <c r="F25" s="76" t="str">
+      <c r="F25" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0xB0336E</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="75"/>
-      <c r="C26" s="73">
+      <c r="B26" s="72"/>
+      <c r="C26" s="70">
         <v>20</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="70">
         <f t="shared" si="0"/>
         <v>9.921256574801246E-2</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="70">
         <f t="shared" si="1"/>
         <v>2187.6370747436749</v>
       </c>
-      <c r="F26" s="76" t="str">
+      <c r="F26" s="73" t="str">
         <f t="shared" si="2"/>
         <v>0xBAADA9</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="78"/>
-      <c r="C27" s="74">
+      <c r="B27" s="75"/>
+      <c r="C27" s="71">
         <v>21</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="71">
         <f t="shared" si="0"/>
         <v>0.10511205190671434</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="71">
         <f t="shared" si="1"/>
         <v>2317.7207445430513</v>
       </c>
-      <c r="F27" s="79" t="str">
+      <c r="F27" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0xC5C761</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="78"/>
-      <c r="C28" s="74">
+      <c r="B28" s="75"/>
+      <c r="C28" s="71">
         <v>22</v>
       </c>
-      <c r="D28" s="74">
+      <c r="D28" s="71">
         <f t="shared" si="0"/>
         <v>0.11136233976754245</v>
       </c>
-      <c r="E28" s="74">
+      <c r="E28" s="71">
         <f t="shared" si="1"/>
         <v>2455.5395918743111</v>
       </c>
-      <c r="F28" s="79" t="str">
+      <c r="F28" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0xD18A14</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="78"/>
-      <c r="C29" s="74">
+      <c r="B29" s="75"/>
+      <c r="C29" s="71">
         <v>23</v>
       </c>
-      <c r="D29" s="74">
+      <c r="D29" s="71">
         <f t="shared" si="0"/>
         <v>0.11798428908521168</v>
       </c>
-      <c r="E29" s="74">
+      <c r="E29" s="71">
         <f t="shared" si="1"/>
         <v>2601.5535743289174</v>
       </c>
-      <c r="F29" s="79" t="str">
+      <c r="F29" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0xDDFFCE</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C30" s="74">
+      <c r="C30" s="71">
         <v>24</v>
       </c>
-      <c r="D30" s="74">
+      <c r="D30" s="71">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="E30" s="74">
+      <c r="E30" s="71">
         <f t="shared" si="1"/>
         <v>2756.25</v>
       </c>
-      <c r="F30" s="79" t="str">
+      <c r="F30" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0xEB3333</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="78"/>
-      <c r="C31" s="74">
+      <c r="B31" s="75"/>
+      <c r="C31" s="71">
         <v>25</v>
       </c>
-      <c r="D31" s="74">
+      <c r="D31" s="71">
         <f t="shared" si="0"/>
         <v>0.13243288679491194</v>
       </c>
-      <c r="E31" s="74">
+      <c r="E31" s="71">
         <f t="shared" si="1"/>
         <v>2920.1451538278084</v>
       </c>
-      <c r="F31" s="79" t="str">
+      <c r="F31" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0xF92F8B</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="78"/>
-      <c r="C32" s="74">
+      <c r="B32" s="75"/>
+      <c r="C32" s="71">
         <v>26</v>
       </c>
-      <c r="D32" s="74">
+      <c r="D32" s="71">
         <f t="shared" si="0"/>
         <v>0.14030775603867163</v>
       </c>
-      <c r="E32" s="74">
+      <c r="E32" s="71">
         <f t="shared" si="1"/>
         <v>3093.7860206527093</v>
       </c>
-      <c r="F32" s="79" t="str">
+      <c r="F32" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x10800C9</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="78"/>
-      <c r="C33" s="74">
+      <c r="B33" s="75"/>
+      <c r="C33" s="71">
         <v>27</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="71">
         <f t="shared" si="0"/>
         <v>0.14865088937534013</v>
       </c>
-      <c r="E33" s="74">
+      <c r="E33" s="71">
         <f t="shared" si="1"/>
         <v>3277.7521107262496</v>
       </c>
-      <c r="F33" s="79" t="str">
+      <c r="F33" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x117B396</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="78"/>
-      <c r="C34" s="74">
+      <c r="B34" s="75"/>
+      <c r="C34" s="71">
         <v>28</v>
       </c>
-      <c r="D34" s="74">
+      <c r="D34" s="71">
         <f t="shared" si="0"/>
         <v>0.15749013123685915</v>
       </c>
-      <c r="E34" s="74">
+      <c r="E34" s="71">
         <f t="shared" si="1"/>
         <v>3472.6573937727444</v>
       </c>
-      <c r="F34" s="79" t="str">
+      <c r="F34" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x128555B</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="78"/>
-      <c r="C35" s="74">
+      <c r="B35" s="75"/>
+      <c r="C35" s="71">
         <v>29</v>
       </c>
-      <c r="D35" s="74">
+      <c r="D35" s="71">
         <f t="shared" si="0"/>
         <v>0.16685498177125427</v>
       </c>
-      <c r="E35" s="74">
+      <c r="E35" s="71">
         <f t="shared" si="1"/>
         <v>3679.1523480561568</v>
       </c>
-      <c r="F35" s="79" t="str">
+      <c r="F35" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x139F44F</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="78"/>
-      <c r="C36" s="74">
+      <c r="B36" s="75"/>
+      <c r="C36" s="71">
         <v>30</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D36" s="71">
         <f t="shared" si="0"/>
         <v>0.17677669529663687</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E36" s="71">
         <f t="shared" si="1"/>
         <v>3897.9261312908429</v>
       </c>
-      <c r="F36" s="79" t="str">
+      <c r="F36" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x14C9F7E</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="78"/>
-      <c r="C37" s="74">
+      <c r="B37" s="75"/>
+      <c r="C37" s="71">
         <v>31</v>
       </c>
-      <c r="D37" s="74">
+      <c r="D37" s="71">
         <f t="shared" si="0"/>
         <v>0.18728838460958522</v>
       </c>
-      <c r="E37" s="74">
+      <c r="E37" s="71">
         <f t="shared" si="1"/>
         <v>4129.708880641354</v>
       </c>
-      <c r="F37" s="79" t="str">
+      <c r="F37" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x16066DD</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="78"/>
-      <c r="C38" s="74">
-        <v>32</v>
-      </c>
-      <c r="D38" s="74">
+      <c r="B38" s="75"/>
+      <c r="C38" s="71">
+        <v>32</v>
+      </c>
+      <c r="D38" s="71">
         <f t="shared" si="0"/>
         <v>0.19842513149602489</v>
       </c>
-      <c r="E38" s="74">
+      <c r="E38" s="71">
         <f t="shared" si="1"/>
         <v>4375.274149487349</v>
       </c>
-      <c r="F38" s="79" t="str">
+      <c r="F38" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x1755B52</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="78"/>
-      <c r="C39" s="74">
+      <c r="B39" s="75"/>
+      <c r="C39" s="71">
         <v>33</v>
       </c>
-      <c r="D39" s="74">
+      <c r="D39" s="71">
         <f t="shared" si="0"/>
         <v>0.21022410381342865</v>
       </c>
-      <c r="E39" s="74">
+      <c r="E39" s="71">
         <f t="shared" si="1"/>
         <v>4635.4414890861017</v>
       </c>
-      <c r="F39" s="79" t="str">
+      <c r="F39" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x18B8EC3</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="78"/>
-      <c r="C40" s="74">
+      <c r="B40" s="75"/>
+      <c r="C40" s="71">
         <v>34</v>
       </c>
-      <c r="D40" s="74">
+      <c r="D40" s="71">
         <f t="shared" si="0"/>
         <v>0.22272467953508487</v>
       </c>
-      <c r="E40" s="74">
+      <c r="E40" s="71">
         <f t="shared" si="1"/>
         <v>4911.0791837486213</v>
       </c>
-      <c r="F40" s="79" t="str">
+      <c r="F40" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x1A31429</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="78"/>
-      <c r="C41" s="74">
+      <c r="B41" s="75"/>
+      <c r="C41" s="71">
         <v>35</v>
       </c>
-      <c r="D41" s="74">
+      <c r="D41" s="71">
         <f t="shared" si="0"/>
         <v>0.23596857817042335</v>
       </c>
-      <c r="E41" s="74">
+      <c r="E41" s="71">
         <f t="shared" si="1"/>
         <v>5203.1071486578348</v>
       </c>
-      <c r="F41" s="79" t="str">
+      <c r="F41" s="76" t="str">
         <f t="shared" si="2"/>
         <v>0x1BBFF9C</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="81">
+      <c r="C42" s="78">
         <v>36</v>
       </c>
-      <c r="D42" s="81">
+      <c r="D42" s="78">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="78">
         <f t="shared" si="1"/>
         <v>5512.5</v>
       </c>
-      <c r="F42" s="82" t="str">
+      <c r="F42" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x1D66666</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81">
+      <c r="B43" s="77"/>
+      <c r="C43" s="78">
         <v>37</v>
       </c>
-      <c r="D43" s="81">
+      <c r="D43" s="78">
         <f t="shared" si="0"/>
         <v>0.26486577358982383</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="78">
         <f t="shared" si="1"/>
         <v>5840.2903076556158</v>
       </c>
-      <c r="F43" s="82" t="str">
+      <c r="F43" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x1F25F16</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81">
+      <c r="B44" s="77"/>
+      <c r="C44" s="78">
         <v>38</v>
       </c>
-      <c r="D44" s="81">
+      <c r="D44" s="78">
         <f t="shared" si="0"/>
         <v>0.28061551207734331</v>
       </c>
-      <c r="E44" s="81">
+      <c r="E44" s="78">
         <f t="shared" si="1"/>
         <v>6187.5720413054196</v>
       </c>
-      <c r="F44" s="82" t="str">
+      <c r="F44" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x2100192</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81">
+      <c r="B45" s="77"/>
+      <c r="C45" s="78">
         <v>39</v>
       </c>
-      <c r="D45" s="81">
+      <c r="D45" s="78">
         <f t="shared" si="0"/>
         <v>0.29730177875068026</v>
       </c>
-      <c r="E45" s="81">
+      <c r="E45" s="78">
         <f t="shared" si="1"/>
         <v>6555.5042214524992</v>
       </c>
-      <c r="F45" s="82" t="str">
+      <c r="F45" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x22F672C</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81">
+      <c r="B46" s="77"/>
+      <c r="C46" s="78">
         <v>40</v>
       </c>
-      <c r="D46" s="81">
+      <c r="D46" s="78">
         <f t="shared" si="0"/>
         <v>0.3149802624737183</v>
       </c>
-      <c r="E46" s="81">
+      <c r="E46" s="78">
         <f t="shared" si="1"/>
         <v>6945.3147875454888</v>
       </c>
-      <c r="F46" s="82" t="str">
+      <c r="F46" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x250AAB7</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81">
+      <c r="B47" s="77"/>
+      <c r="C47" s="78">
         <v>41</v>
       </c>
-      <c r="D47" s="81">
+      <c r="D47" s="78">
         <f t="shared" si="0"/>
         <v>0.33370996354250865</v>
       </c>
-      <c r="E47" s="81">
+      <c r="E47" s="78">
         <f t="shared" si="1"/>
         <v>7358.3046961123155</v>
       </c>
-      <c r="F47" s="82" t="str">
+      <c r="F47" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x273E89E</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81">
+      <c r="B48" s="77"/>
+      <c r="C48" s="78">
         <v>42</v>
       </c>
-      <c r="D48" s="81">
+      <c r="D48" s="78">
         <f t="shared" si="0"/>
         <v>0.35355339059327379</v>
       </c>
-      <c r="E48" s="81">
+      <c r="E48" s="78">
         <f t="shared" si="1"/>
         <v>7795.8522625816868</v>
       </c>
-      <c r="F48" s="82" t="str">
+      <c r="F48" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x2993EFD</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81">
+      <c r="B49" s="77"/>
+      <c r="C49" s="78">
         <v>43</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="78">
         <f t="shared" si="0"/>
         <v>0.37457676921917038</v>
       </c>
-      <c r="E49" s="81">
+      <c r="E49" s="78">
         <f t="shared" si="1"/>
         <v>8259.4177612827061</v>
       </c>
-      <c r="F49" s="82" t="str">
+      <c r="F49" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x2C0CDBB</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81">
+      <c r="B50" s="77"/>
+      <c r="C50" s="78">
         <v>44</v>
       </c>
-      <c r="D50" s="81">
+      <c r="D50" s="78">
         <f t="shared" si="0"/>
         <v>0.39685026299204995</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="78">
         <f t="shared" si="1"/>
         <v>8750.5482989747015</v>
       </c>
-      <c r="F50" s="82" t="str">
+      <c r="F50" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x2EAB6A4</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81">
+      <c r="B51" s="77"/>
+      <c r="C51" s="78">
         <v>45</v>
       </c>
-      <c r="D51" s="81">
+      <c r="D51" s="78">
         <f t="shared" si="0"/>
         <v>0.42044820762685731</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="78">
         <f t="shared" si="1"/>
         <v>9270.8829781722034</v>
       </c>
-      <c r="F51" s="82" t="str">
+      <c r="F51" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x3171D87</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81">
+      <c r="B52" s="77"/>
+      <c r="C52" s="78">
         <v>46</v>
       </c>
-      <c r="D52" s="81">
+      <c r="D52" s="78">
         <f t="shared" si="0"/>
         <v>0.44544935907016964</v>
       </c>
-      <c r="E52" s="81">
+      <c r="E52" s="78">
         <f t="shared" si="1"/>
         <v>9822.1583674972408</v>
       </c>
-      <c r="F52" s="82" t="str">
+      <c r="F52" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x3462852</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81">
+      <c r="B53" s="77"/>
+      <c r="C53" s="78">
         <v>47</v>
       </c>
-      <c r="D53" s="81">
+      <c r="D53" s="78">
         <f t="shared" si="0"/>
         <v>0.47193715634084682</v>
       </c>
-      <c r="E53" s="81">
+      <c r="E53" s="78">
         <f t="shared" si="1"/>
         <v>10406.214297315672</v>
       </c>
-      <c r="F53" s="82" t="str">
+      <c r="F53" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x377FF38</v>
       </c>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="80" t="s">
+      <c r="B54" s="77" t="s">
         <v>234</v>
       </c>
-      <c r="C54" s="81">
+      <c r="C54" s="78">
         <v>48</v>
       </c>
-      <c r="D54" s="81">
+      <c r="D54" s="78">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E54" s="81">
+      <c r="E54" s="78">
         <f t="shared" si="1"/>
         <v>11025</v>
       </c>
-      <c r="F54" s="82" t="str">
+      <c r="F54" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x3ACCCCC</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81">
+      <c r="B55" s="77"/>
+      <c r="C55" s="78">
         <v>49</v>
       </c>
-      <c r="D55" s="81">
+      <c r="D55" s="78">
         <f t="shared" si="0"/>
         <v>0.52973154717964765</v>
       </c>
-      <c r="E55" s="81">
+      <c r="E55" s="78">
         <f t="shared" si="1"/>
         <v>11680.580615311232</v>
       </c>
-      <c r="F55" s="82" t="str">
+      <c r="F55" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x3E4BE2D</v>
       </c>
     </row>
     <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81">
+      <c r="B56" s="77"/>
+      <c r="C56" s="78">
         <v>50</v>
       </c>
-      <c r="D56" s="81">
+      <c r="D56" s="78">
         <f t="shared" si="0"/>
         <v>0.56123102415468651</v>
       </c>
-      <c r="E56" s="81">
+      <c r="E56" s="78">
         <f t="shared" si="1"/>
         <v>12375.144082610837</v>
       </c>
-      <c r="F56" s="82" t="str">
+      <c r="F56" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x4200325</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81">
+      <c r="B57" s="77"/>
+      <c r="C57" s="78">
         <v>51</v>
       </c>
-      <c r="D57" s="81">
+      <c r="D57" s="78">
         <f t="shared" si="0"/>
         <v>0.59460355750136051</v>
       </c>
-      <c r="E57" s="81">
+      <c r="E57" s="78">
         <f t="shared" si="1"/>
         <v>13111.008442904998</v>
       </c>
-      <c r="F57" s="82" t="str">
+      <c r="F57" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x45ECE59</v>
       </c>
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81">
+      <c r="B58" s="77"/>
+      <c r="C58" s="78">
         <v>52</v>
       </c>
-      <c r="D58" s="81">
+      <c r="D58" s="78">
         <f t="shared" si="0"/>
         <v>0.6299605249474366</v>
       </c>
-      <c r="E58" s="81">
+      <c r="E58" s="78">
         <f t="shared" si="1"/>
         <v>13890.629575090978</v>
       </c>
-      <c r="F58" s="82" t="str">
+      <c r="F58" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x4A1556E</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81">
+      <c r="B59" s="77"/>
+      <c r="C59" s="78">
         <v>53</v>
       </c>
-      <c r="D59" s="81">
+      <c r="D59" s="78">
         <f t="shared" si="0"/>
         <v>0.66741992708501718</v>
       </c>
-      <c r="E59" s="81">
+      <c r="E59" s="78">
         <f t="shared" si="1"/>
         <v>14716.609392224629</v>
       </c>
-      <c r="F59" s="82" t="str">
+      <c r="F59" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x4E7D13C</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81">
+      <c r="B60" s="77"/>
+      <c r="C60" s="78">
         <v>54</v>
       </c>
-      <c r="D60" s="81">
+      <c r="D60" s="78">
         <f t="shared" si="0"/>
         <v>0.70710678118654746</v>
       </c>
-      <c r="E60" s="81">
+      <c r="E60" s="78">
         <f t="shared" si="1"/>
         <v>15591.704525163372</v>
       </c>
-      <c r="F60" s="82" t="str">
+      <c r="F60" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x5327DFB</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81">
+      <c r="B61" s="77"/>
+      <c r="C61" s="78">
         <v>55</v>
       </c>
-      <c r="D61" s="81">
+      <c r="D61" s="78">
         <f t="shared" si="0"/>
         <v>0.74915353843834076</v>
       </c>
-      <c r="E61" s="81">
+      <c r="E61" s="78">
         <f t="shared" si="1"/>
         <v>16518.835522565412</v>
       </c>
-      <c r="F61" s="82" t="str">
+      <c r="F61" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x5819B77</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81">
+      <c r="B62" s="77"/>
+      <c r="C62" s="78">
         <v>56</v>
       </c>
-      <c r="D62" s="81">
+      <c r="D62" s="78">
         <f t="shared" si="0"/>
         <v>0.79370052598409968</v>
       </c>
-      <c r="E62" s="81">
+      <c r="E62" s="78">
         <f t="shared" si="1"/>
         <v>17501.096597949399</v>
       </c>
-      <c r="F62" s="82" t="str">
+      <c r="F62" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x5D56D49</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81">
+      <c r="B63" s="77"/>
+      <c r="C63" s="78">
         <v>57</v>
       </c>
-      <c r="D63" s="81">
+      <c r="D63" s="78">
         <f t="shared" si="0"/>
         <v>0.84089641525371461</v>
       </c>
-      <c r="E63" s="81">
+      <c r="E63" s="78">
         <f t="shared" si="1"/>
         <v>18541.765956344407</v>
       </c>
-      <c r="F63" s="82" t="str">
+      <c r="F63" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x62E3B0E</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B64" s="80"/>
-      <c r="C64" s="81">
+      <c r="B64" s="77"/>
+      <c r="C64" s="78">
         <v>58</v>
       </c>
-      <c r="D64" s="81">
+      <c r="D64" s="78">
         <f t="shared" si="0"/>
         <v>0.89089871814033927</v>
       </c>
-      <c r="E64" s="81">
+      <c r="E64" s="78">
         <f t="shared" si="1"/>
         <v>19644.316734994482</v>
       </c>
-      <c r="F64" s="82" t="str">
+      <c r="F64" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x68C50A5</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81">
+      <c r="B65" s="77"/>
+      <c r="C65" s="78">
         <v>59</v>
       </c>
-      <c r="D65" s="81">
+      <c r="D65" s="78">
         <f t="shared" si="0"/>
         <v>0.94387431268169342</v>
       </c>
-      <c r="E65" s="81">
+      <c r="E65" s="78">
         <f t="shared" si="1"/>
         <v>20812.428594631339</v>
       </c>
-      <c r="F65" s="82" t="str">
+      <c r="F65" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x6EFFE70</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="80" t="s">
+      <c r="B66" s="77" t="s">
         <v>236</v>
       </c>
-      <c r="C66" s="81">
+      <c r="C66" s="78">
         <v>60</v>
       </c>
-      <c r="D66" s="81">
+      <c r="D66" s="78">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E66" s="81">
+      <c r="E66" s="78">
         <f t="shared" si="1"/>
         <v>22050</v>
       </c>
-      <c r="F66" s="82" t="str">
+      <c r="F66" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x7599999</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81">
+      <c r="B67" s="77"/>
+      <c r="C67" s="78">
         <v>61</v>
       </c>
-      <c r="D67" s="81">
+      <c r="D67" s="78">
         <f t="shared" si="0"/>
         <v>1.0594630943592953</v>
       </c>
-      <c r="E67" s="81">
+      <c r="E67" s="78">
         <f t="shared" si="1"/>
         <v>23361.161230622463</v>
       </c>
-      <c r="F67" s="82" t="str">
+      <c r="F67" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x7C97C5A</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81">
+      <c r="B68" s="77"/>
+      <c r="C68" s="78">
         <v>62</v>
       </c>
-      <c r="D68" s="81">
+      <c r="D68" s="78">
         <f t="shared" si="0"/>
         <v>1.122462048309373</v>
       </c>
-      <c r="E68" s="81">
+      <c r="E68" s="78">
         <f t="shared" si="1"/>
         <v>24750.288165221675</v>
       </c>
-      <c r="F68" s="82" t="str">
+      <c r="F68" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x840064B</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81">
+      <c r="B69" s="77"/>
+      <c r="C69" s="78">
         <v>63</v>
       </c>
-      <c r="D69" s="81">
+      <c r="D69" s="78">
         <f t="shared" si="0"/>
         <v>1.189207115002721</v>
       </c>
-      <c r="E69" s="81">
+      <c r="E69" s="78">
         <f t="shared" si="1"/>
         <v>26222.016885809997</v>
       </c>
-      <c r="F69" s="82" t="str">
+      <c r="F69" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x8BD9CB3</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81">
+      <c r="B70" s="77"/>
+      <c r="C70" s="78">
         <v>64</v>
       </c>
-      <c r="D70" s="81">
+      <c r="D70" s="78">
         <f t="shared" si="0"/>
         <v>1.2599210498948732</v>
       </c>
-      <c r="E70" s="81">
+      <c r="E70" s="78">
         <f t="shared" si="1"/>
         <v>27781.259150181955</v>
       </c>
-      <c r="F70" s="82" t="str">
+      <c r="F70" s="79" t="str">
         <f t="shared" si="2"/>
         <v>0x942AADD</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81">
+      <c r="B71" s="77"/>
+      <c r="C71" s="78">
         <v>65</v>
       </c>
-      <c r="D71" s="81">
+      <c r="D71" s="78">
         <f t="shared" ref="D71:D133" si="3">POWER(2,(C71-60)/12)</f>
         <v>1.3348398541700344</v>
       </c>
-      <c r="E71" s="81">
+      <c r="E71" s="78">
         <f t="shared" ref="E71:E133" si="4">D71*$E$3</f>
         <v>29433.218784449258</v>
       </c>
-      <c r="F71" s="82" t="str">
+      <c r="F71" s="79" t="str">
         <f t="shared" ref="F71:F133" si="5">"0x" &amp; DEC2HEX(MIN((E71/$F$3)*($H$3),$H$3-1))</f>
         <v>0x9CFA279</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="80"/>
-      <c r="C72" s="81">
+      <c r="B72" s="77"/>
+      <c r="C72" s="78">
         <v>66</v>
       </c>
-      <c r="D72" s="81">
+      <c r="D72" s="78">
         <f t="shared" si="3"/>
         <v>1.4142135623730951</v>
       </c>
-      <c r="E72" s="81">
+      <c r="E72" s="78">
         <f t="shared" si="4"/>
         <v>31183.409050326747</v>
       </c>
-      <c r="F72" s="82" t="str">
+      <c r="F72" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xA64FBF7</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="80"/>
-      <c r="C73" s="81">
+      <c r="B73" s="77"/>
+      <c r="C73" s="78">
         <v>67</v>
       </c>
-      <c r="D73" s="81">
+      <c r="D73" s="78">
         <f t="shared" si="3"/>
         <v>1.4983070768766815</v>
       </c>
-      <c r="E73" s="81">
+      <c r="E73" s="78">
         <f t="shared" si="4"/>
         <v>33037.671045130824</v>
       </c>
-      <c r="F73" s="82" t="str">
+      <c r="F73" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xB0336EF</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="80"/>
-      <c r="C74" s="81">
+      <c r="B74" s="77"/>
+      <c r="C74" s="78">
         <v>68</v>
       </c>
-      <c r="D74" s="81">
+      <c r="D74" s="78">
         <f t="shared" si="3"/>
         <v>1.5874010519681994</v>
       </c>
-      <c r="E74" s="81">
+      <c r="E74" s="78">
         <f t="shared" si="4"/>
         <v>35002.193195898799</v>
       </c>
-      <c r="F74" s="82" t="str">
+      <c r="F74" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xBAADA93</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81">
+      <c r="B75" s="77"/>
+      <c r="C75" s="78">
         <v>69</v>
       </c>
-      <c r="D75" s="81">
+      <c r="D75" s="78">
         <f t="shared" si="3"/>
         <v>1.681792830507429</v>
       </c>
-      <c r="E75" s="81">
+      <c r="E75" s="78">
         <f t="shared" si="4"/>
         <v>37083.531912688806</v>
       </c>
-      <c r="F75" s="82" t="str">
+      <c r="F75" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xC5C761D</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="80"/>
-      <c r="C76" s="81">
+      <c r="B76" s="77"/>
+      <c r="C76" s="78">
         <v>70</v>
       </c>
-      <c r="D76" s="81">
+      <c r="D76" s="78">
         <f t="shared" si="3"/>
         <v>1.7817974362806785</v>
       </c>
-      <c r="E76" s="81">
+      <c r="E76" s="78">
         <f t="shared" si="4"/>
         <v>39288.633469988963</v>
       </c>
-      <c r="F76" s="82" t="str">
+      <c r="F76" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xD18A14B</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="80"/>
-      <c r="C77" s="81">
+      <c r="B77" s="77"/>
+      <c r="C77" s="78">
         <v>71</v>
       </c>
-      <c r="D77" s="81">
+      <c r="D77" s="78">
         <f t="shared" si="3"/>
         <v>1.8877486253633868</v>
       </c>
-      <c r="E77" s="81">
+      <c r="E77" s="78">
         <f t="shared" si="4"/>
         <v>41624.857189262679</v>
       </c>
-      <c r="F77" s="82" t="str">
+      <c r="F77" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xDDFFCE1</v>
       </c>
     </row>
     <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="80" t="s">
+      <c r="B78" s="77" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="81">
+      <c r="C78" s="78">
         <v>72</v>
       </c>
-      <c r="D78" s="81">
+      <c r="D78" s="78">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="E78" s="81">
+      <c r="E78" s="78">
         <f t="shared" si="4"/>
         <v>44100</v>
       </c>
-      <c r="F78" s="82" t="str">
+      <c r="F78" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xEB33333</v>
       </c>
     </row>
     <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="80"/>
-      <c r="C79" s="81">
+      <c r="B79" s="77"/>
+      <c r="C79" s="78">
         <v>73</v>
       </c>
-      <c r="D79" s="81">
+      <c r="D79" s="78">
         <f t="shared" si="3"/>
         <v>2.1189261887185902</v>
       </c>
-      <c r="E79" s="81">
+      <c r="E79" s="78">
         <f t="shared" si="4"/>
         <v>46722.322461244912</v>
       </c>
-      <c r="F79" s="82" t="str">
+      <c r="F79" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0xF92F8B5</v>
       </c>
     </row>
     <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="80"/>
-      <c r="C80" s="81">
+      <c r="B80" s="77"/>
+      <c r="C80" s="78">
         <v>74</v>
       </c>
-      <c r="D80" s="81">
+      <c r="D80" s="78">
         <f t="shared" si="3"/>
         <v>2.244924096618746</v>
       </c>
-      <c r="E80" s="81">
+      <c r="E80" s="78">
         <f t="shared" si="4"/>
         <v>49500.576330443349</v>
       </c>
-      <c r="F80" s="82" t="str">
+      <c r="F80" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x10800C97</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="80"/>
-      <c r="C81" s="81">
+      <c r="B81" s="77"/>
+      <c r="C81" s="78">
         <v>75</v>
       </c>
-      <c r="D81" s="81">
+      <c r="D81" s="78">
         <f t="shared" si="3"/>
         <v>2.3784142300054421</v>
       </c>
-      <c r="E81" s="81">
+      <c r="E81" s="78">
         <f t="shared" si="4"/>
         <v>52444.033771619994</v>
       </c>
-      <c r="F81" s="82" t="str">
+      <c r="F81" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x117B3966</v>
       </c>
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B82" s="80"/>
-      <c r="C82" s="81">
+      <c r="B82" s="77"/>
+      <c r="C82" s="78">
         <v>76</v>
       </c>
-      <c r="D82" s="81">
+      <c r="D82" s="78">
         <f t="shared" si="3"/>
         <v>2.5198420997897459</v>
       </c>
-      <c r="E82" s="81">
+      <c r="E82" s="78">
         <f t="shared" si="4"/>
         <v>55562.518300363896</v>
       </c>
-      <c r="F82" s="82" t="str">
+      <c r="F82" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x128555BB</v>
       </c>
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B83" s="80"/>
-      <c r="C83" s="81">
+      <c r="B83" s="77"/>
+      <c r="C83" s="78">
         <v>77</v>
       </c>
-      <c r="D83" s="81">
+      <c r="D83" s="78">
         <f t="shared" si="3"/>
         <v>2.6696797083400687</v>
       </c>
-      <c r="E83" s="81">
+      <c r="E83" s="78">
         <f t="shared" si="4"/>
         <v>58866.437568898516</v>
       </c>
-      <c r="F83" s="82" t="str">
+      <c r="F83" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x139F44F3</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B84" s="80"/>
-      <c r="C84" s="81">
+      <c r="B84" s="77"/>
+      <c r="C84" s="78">
         <v>78</v>
       </c>
-      <c r="D84" s="81">
+      <c r="D84" s="78">
         <f t="shared" si="3"/>
         <v>2.8284271247461898</v>
       </c>
-      <c r="E84" s="81">
+      <c r="E84" s="78">
         <f t="shared" si="4"/>
         <v>62366.818100653487</v>
       </c>
-      <c r="F84" s="82" t="str">
+      <c r="F84" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x14C9F7EE</v>
       </c>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="80"/>
-      <c r="C85" s="81">
+      <c r="B85" s="77"/>
+      <c r="C85" s="78">
         <v>79</v>
       </c>
-      <c r="D85" s="81">
+      <c r="D85" s="78">
         <f t="shared" si="3"/>
         <v>2.9966141537533626</v>
       </c>
-      <c r="E85" s="81">
+      <c r="E85" s="78">
         <f t="shared" si="4"/>
         <v>66075.342090261649</v>
       </c>
-      <c r="F85" s="82" t="str">
+      <c r="F85" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x16066DDF</v>
       </c>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="80"/>
-      <c r="C86" s="81">
+      <c r="B86" s="77"/>
+      <c r="C86" s="78">
         <v>80</v>
       </c>
-      <c r="D86" s="81">
+      <c r="D86" s="78">
         <f t="shared" si="3"/>
         <v>3.1748021039363987</v>
       </c>
-      <c r="E86" s="81">
+      <c r="E86" s="78">
         <f t="shared" si="4"/>
         <v>70004.386391797598</v>
       </c>
-      <c r="F86" s="82" t="str">
+      <c r="F86" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x1755B527</v>
       </c>
     </row>
     <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="80"/>
-      <c r="C87" s="81">
+      <c r="B87" s="77"/>
+      <c r="C87" s="78">
         <v>81</v>
       </c>
-      <c r="D87" s="81">
+      <c r="D87" s="78">
         <f t="shared" si="3"/>
         <v>3.363585661014858</v>
       </c>
-      <c r="E87" s="81">
+      <c r="E87" s="78">
         <f t="shared" si="4"/>
         <v>74167.063825377612</v>
       </c>
-      <c r="F87" s="82" t="str">
+      <c r="F87" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x18B8EC3B</v>
       </c>
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="80"/>
-      <c r="C88" s="81">
+      <c r="B88" s="77"/>
+      <c r="C88" s="78">
         <v>82</v>
       </c>
-      <c r="D88" s="81">
+      <c r="D88" s="78">
         <f t="shared" si="3"/>
         <v>3.5635948725613567</v>
       </c>
-      <c r="E88" s="81">
+      <c r="E88" s="78">
         <f t="shared" si="4"/>
         <v>78577.266939977912</v>
       </c>
-      <c r="F88" s="82" t="str">
+      <c r="F88" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x1A314296</v>
       </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="80"/>
-      <c r="C89" s="81">
+      <c r="B89" s="77"/>
+      <c r="C89" s="78">
         <v>83</v>
       </c>
-      <c r="D89" s="81">
+      <c r="D89" s="78">
         <f t="shared" si="3"/>
         <v>3.7754972507267741</v>
       </c>
-      <c r="E89" s="81">
+      <c r="E89" s="78">
         <f t="shared" si="4"/>
         <v>83249.714378525372</v>
       </c>
-      <c r="F89" s="82" t="str">
+      <c r="F89" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x1BBFF9C2</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B90" s="80" t="s">
+      <c r="B90" s="77" t="s">
         <v>239</v>
       </c>
-      <c r="C90" s="81">
+      <c r="C90" s="78">
         <v>84</v>
       </c>
-      <c r="D90" s="81">
+      <c r="D90" s="78">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="E90" s="81">
+      <c r="E90" s="78">
         <f t="shared" si="4"/>
         <v>88200</v>
       </c>
-      <c r="F90" s="82" t="str">
+      <c r="F90" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x1D666666</v>
       </c>
     </row>
     <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="80"/>
-      <c r="C91" s="81">
+      <c r="B91" s="77"/>
+      <c r="C91" s="78">
         <v>85</v>
       </c>
-      <c r="D91" s="81">
+      <c r="D91" s="78">
         <f t="shared" si="3"/>
         <v>4.2378523774371812</v>
       </c>
-      <c r="E91" s="81">
+      <c r="E91" s="78">
         <f t="shared" si="4"/>
         <v>93444.644922489853</v>
       </c>
-      <c r="F91" s="82" t="str">
+      <c r="F91" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x1F25F16A</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="80"/>
-      <c r="C92" s="81">
+      <c r="B92" s="77"/>
+      <c r="C92" s="78">
         <v>86</v>
       </c>
-      <c r="D92" s="81">
+      <c r="D92" s="78">
         <f t="shared" si="3"/>
         <v>4.4898481932374912</v>
       </c>
-      <c r="E92" s="81">
+      <c r="E92" s="78">
         <f t="shared" si="4"/>
         <v>99001.152660886684</v>
       </c>
-      <c r="F92" s="82" t="str">
+      <c r="F92" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x2100192E</v>
       </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B93" s="80"/>
-      <c r="C93" s="81">
+      <c r="B93" s="77"/>
+      <c r="C93" s="78">
         <v>87</v>
       </c>
-      <c r="D93" s="81">
+      <c r="D93" s="78">
         <f t="shared" si="3"/>
         <v>4.7568284600108841</v>
       </c>
-      <c r="E93" s="81">
+      <c r="E93" s="78">
         <f t="shared" si="4"/>
         <v>104888.06754323999</v>
       </c>
-      <c r="F93" s="82" t="str">
+      <c r="F93" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x22F672CC</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="80"/>
-      <c r="C94" s="81">
+      <c r="B94" s="77"/>
+      <c r="C94" s="78">
         <v>88</v>
       </c>
-      <c r="D94" s="81">
+      <c r="D94" s="78">
         <f t="shared" si="3"/>
         <v>5.0396841995794937</v>
       </c>
-      <c r="E94" s="81">
+      <c r="E94" s="78">
         <f t="shared" si="4"/>
         <v>111125.03660072784</v>
       </c>
-      <c r="F94" s="82" t="str">
+      <c r="F94" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x250AAB77</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="80"/>
-      <c r="C95" s="81">
+      <c r="B95" s="77"/>
+      <c r="C95" s="78">
         <v>89</v>
       </c>
-      <c r="D95" s="81">
+      <c r="D95" s="78">
         <f t="shared" si="3"/>
         <v>5.3393594166801366</v>
       </c>
-      <c r="E95" s="81">
+      <c r="E95" s="78">
         <f t="shared" si="4"/>
         <v>117732.87513779702</v>
       </c>
-      <c r="F95" s="82" t="str">
+      <c r="F95" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x273E89E6</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="80"/>
-      <c r="C96" s="81">
+      <c r="B96" s="77"/>
+      <c r="C96" s="78">
         <v>90</v>
       </c>
-      <c r="D96" s="81">
+      <c r="D96" s="78">
         <f t="shared" si="3"/>
         <v>5.6568542494923806</v>
       </c>
-      <c r="E96" s="81">
+      <c r="E96" s="78">
         <f t="shared" si="4"/>
         <v>124733.63620130699</v>
       </c>
-      <c r="F96" s="82" t="str">
+      <c r="F96" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x2993EFDC</v>
       </c>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="80"/>
-      <c r="C97" s="81">
+      <c r="B97" s="77"/>
+      <c r="C97" s="78">
         <v>91</v>
       </c>
-      <c r="D97" s="81">
+      <c r="D97" s="78">
         <f t="shared" si="3"/>
         <v>5.993228307506727</v>
       </c>
-      <c r="E97" s="81">
+      <c r="E97" s="78">
         <f t="shared" si="4"/>
         <v>132150.68418052333</v>
       </c>
-      <c r="F97" s="82" t="str">
+      <c r="F97" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x2C0CDBBF</v>
       </c>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="80"/>
-      <c r="C98" s="81">
+      <c r="B98" s="77"/>
+      <c r="C98" s="78">
         <v>92</v>
       </c>
-      <c r="D98" s="81">
+      <c r="D98" s="78">
         <f t="shared" si="3"/>
         <v>6.3496042078727974</v>
       </c>
-      <c r="E98" s="81">
+      <c r="E98" s="78">
         <f t="shared" si="4"/>
         <v>140008.7727835952</v>
       </c>
-      <c r="F98" s="82" t="str">
+      <c r="F98" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x2EAB6A4F</v>
       </c>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="80"/>
-      <c r="C99" s="81">
+      <c r="B99" s="77"/>
+      <c r="C99" s="78">
         <v>93</v>
       </c>
-      <c r="D99" s="81">
+      <c r="D99" s="78">
         <f t="shared" si="3"/>
         <v>6.7271713220297169</v>
       </c>
-      <c r="E99" s="81">
+      <c r="E99" s="78">
         <f t="shared" si="4"/>
         <v>148334.12765075525</v>
       </c>
-      <c r="F99" s="82" t="str">
+      <c r="F99" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x3171D876</v>
       </c>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="80"/>
-      <c r="C100" s="81">
+      <c r="B100" s="77"/>
+      <c r="C100" s="78">
         <v>94</v>
       </c>
-      <c r="D100" s="81">
+      <c r="D100" s="78">
         <f t="shared" si="3"/>
         <v>7.1271897451227142</v>
       </c>
-      <c r="E100" s="81">
+      <c r="E100" s="78">
         <f t="shared" si="4"/>
         <v>157154.53387995585</v>
       </c>
-      <c r="F100" s="82" t="str">
+      <c r="F100" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x3462852D</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="80"/>
-      <c r="C101" s="81">
+      <c r="B101" s="77"/>
+      <c r="C101" s="78">
         <v>95</v>
       </c>
-      <c r="D101" s="81">
+      <c r="D101" s="78">
         <f t="shared" si="3"/>
         <v>7.5509945014535456</v>
       </c>
-      <c r="E101" s="81">
+      <c r="E101" s="78">
         <f t="shared" si="4"/>
         <v>166499.42875705069</v>
       </c>
-      <c r="F101" s="82" t="str">
+      <c r="F101" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x377FF385</v>
       </c>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="80" t="s">
+      <c r="B102" s="77" t="s">
         <v>238</v>
       </c>
-      <c r="C102" s="81">
+      <c r="C102" s="78">
         <v>96</v>
       </c>
-      <c r="D102" s="81">
+      <c r="D102" s="78">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="E102" s="81">
+      <c r="E102" s="78">
         <f t="shared" si="4"/>
         <v>176400</v>
       </c>
-      <c r="F102" s="82" t="str">
+      <c r="F102" s="79" t="str">
         <f t="shared" si="5"/>
         <v>0x3ACCCCCC</v>
       </c>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="78"/>
-      <c r="C103" s="74">
+      <c r="B103" s="75"/>
+      <c r="C103" s="71">
         <v>97</v>
       </c>
-      <c r="D103" s="74">
+      <c r="D103" s="71">
         <f t="shared" si="3"/>
         <v>8.4757047548743625</v>
       </c>
-      <c r="E103" s="74">
+      <c r="E103" s="71">
         <f t="shared" si="4"/>
         <v>186889.28984497971</v>
       </c>
-      <c r="F103" s="79" t="str">
+      <c r="F103" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3E4BE2D5</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="78"/>
-      <c r="C104" s="74">
+      <c r="B104" s="75"/>
+      <c r="C104" s="71">
         <v>98</v>
       </c>
-      <c r="D104" s="74">
+      <c r="D104" s="71">
         <f t="shared" si="3"/>
         <v>8.9796963864749806</v>
       </c>
-      <c r="E104" s="74">
+      <c r="E104" s="71">
         <f t="shared" si="4"/>
         <v>198002.30532177331</v>
       </c>
-      <c r="F104" s="79" t="str">
+      <c r="F104" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="78"/>
-      <c r="C105" s="74">
+      <c r="B105" s="75"/>
+      <c r="C105" s="71">
         <v>99</v>
       </c>
-      <c r="D105" s="74">
+      <c r="D105" s="71">
         <f t="shared" si="3"/>
         <v>9.5136569200217664</v>
       </c>
-      <c r="E105" s="74">
+      <c r="E105" s="71">
         <f t="shared" si="4"/>
         <v>209776.13508647995</v>
       </c>
-      <c r="F105" s="79" t="str">
+      <c r="F105" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="78"/>
-      <c r="C106" s="74">
+      <c r="B106" s="75"/>
+      <c r="C106" s="71">
         <v>100</v>
       </c>
-      <c r="D106" s="74">
+      <c r="D106" s="71">
         <f t="shared" si="3"/>
         <v>10.079368399158986</v>
       </c>
-      <c r="E106" s="74">
+      <c r="E106" s="71">
         <f t="shared" si="4"/>
         <v>222250.07320145564</v>
       </c>
-      <c r="F106" s="79" t="str">
+      <c r="F106" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="78"/>
-      <c r="C107" s="74">
+      <c r="B107" s="75"/>
+      <c r="C107" s="71">
         <v>101</v>
       </c>
-      <c r="D107" s="74">
+      <c r="D107" s="71">
         <f t="shared" si="3"/>
         <v>10.678718833360271</v>
       </c>
-      <c r="E107" s="74">
+      <c r="E107" s="71">
         <f t="shared" si="4"/>
         <v>235465.75027559398</v>
       </c>
-      <c r="F107" s="79" t="str">
+      <c r="F107" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B108" s="78"/>
-      <c r="C108" s="74">
+      <c r="B108" s="75"/>
+      <c r="C108" s="71">
         <v>102</v>
       </c>
-      <c r="D108" s="74">
+      <c r="D108" s="71">
         <f t="shared" si="3"/>
         <v>11.313708498984759</v>
       </c>
-      <c r="E108" s="74">
+      <c r="E108" s="71">
         <f t="shared" si="4"/>
         <v>249467.27240261395</v>
       </c>
-      <c r="F108" s="79" t="str">
+      <c r="F108" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B109" s="78"/>
-      <c r="C109" s="74">
+      <c r="B109" s="75"/>
+      <c r="C109" s="71">
         <v>103</v>
       </c>
-      <c r="D109" s="74">
+      <c r="D109" s="71">
         <f t="shared" si="3"/>
         <v>11.986456615013452</v>
       </c>
-      <c r="E109" s="74">
+      <c r="E109" s="71">
         <f t="shared" si="4"/>
         <v>264301.3683610466</v>
       </c>
-      <c r="F109" s="79" t="str">
+      <c r="F109" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B110" s="78"/>
-      <c r="C110" s="74">
+      <c r="B110" s="75"/>
+      <c r="C110" s="71">
         <v>104</v>
       </c>
-      <c r="D110" s="74">
+      <c r="D110" s="71">
         <f t="shared" si="3"/>
         <v>12.699208415745593</v>
       </c>
-      <c r="E110" s="74">
+      <c r="E110" s="71">
         <f t="shared" si="4"/>
         <v>280017.54556719033</v>
       </c>
-      <c r="F110" s="79" t="str">
+      <c r="F110" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="111" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B111" s="78"/>
-      <c r="C111" s="74">
+      <c r="B111" s="75"/>
+      <c r="C111" s="71">
         <v>105</v>
       </c>
-      <c r="D111" s="74">
+      <c r="D111" s="71">
         <f t="shared" si="3"/>
         <v>13.454342644059432</v>
       </c>
-      <c r="E111" s="74">
+      <c r="E111" s="71">
         <f t="shared" si="4"/>
         <v>296668.25530151045</v>
       </c>
-      <c r="F111" s="79" t="str">
+      <c r="F111" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B112" s="78"/>
-      <c r="C112" s="74">
+      <c r="B112" s="75"/>
+      <c r="C112" s="71">
         <v>106</v>
       </c>
-      <c r="D112" s="74">
+      <c r="D112" s="71">
         <f t="shared" si="3"/>
         <v>14.25437949024543</v>
       </c>
-      <c r="E112" s="74">
+      <c r="E112" s="71">
         <f t="shared" si="4"/>
         <v>314309.06775991176</v>
       </c>
-      <c r="F112" s="79" t="str">
+      <c r="F112" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="113" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B113" s="78"/>
-      <c r="C113" s="74">
+      <c r="B113" s="75"/>
+      <c r="C113" s="71">
         <v>107</v>
       </c>
-      <c r="D113" s="74">
+      <c r="D113" s="71">
         <f t="shared" si="3"/>
         <v>15.101989002907093</v>
       </c>
-      <c r="E113" s="74">
+      <c r="E113" s="71">
         <f t="shared" si="4"/>
         <v>332998.85751410137</v>
       </c>
-      <c r="F113" s="79" t="str">
+      <c r="F113" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="114" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B114" s="78" t="s">
+      <c r="B114" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="C114" s="74">
+      <c r="C114" s="71">
         <v>108</v>
       </c>
-      <c r="D114" s="74">
+      <c r="D114" s="71">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="E114" s="74">
+      <c r="E114" s="71">
         <f t="shared" si="4"/>
         <v>352800</v>
       </c>
-      <c r="F114" s="79" t="str">
+      <c r="F114" s="76" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="115" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B115" s="75"/>
-      <c r="C115" s="73">
+      <c r="B115" s="72"/>
+      <c r="C115" s="70">
         <v>109</v>
       </c>
-      <c r="D115" s="73">
+      <c r="D115" s="70">
         <f t="shared" si="3"/>
         <v>16.951409509748718</v>
       </c>
-      <c r="E115" s="73">
+      <c r="E115" s="70">
         <f t="shared" si="4"/>
         <v>373778.57968995924</v>
       </c>
-      <c r="F115" s="76" t="str">
+      <c r="F115" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="116" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B116" s="75"/>
-      <c r="C116" s="73">
+      <c r="B116" s="72"/>
+      <c r="C116" s="70">
         <v>110</v>
       </c>
-      <c r="D116" s="73">
+      <c r="D116" s="70">
         <f t="shared" si="3"/>
         <v>17.959392772949972</v>
       </c>
-      <c r="E116" s="73">
+      <c r="E116" s="70">
         <f t="shared" si="4"/>
         <v>396004.61064354685</v>
       </c>
-      <c r="F116" s="76" t="str">
+      <c r="F116" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="117" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B117" s="75"/>
-      <c r="C117" s="73">
+      <c r="B117" s="72"/>
+      <c r="C117" s="70">
         <v>111</v>
       </c>
-      <c r="D117" s="73">
+      <c r="D117" s="70">
         <f t="shared" si="3"/>
         <v>19.027313840043536</v>
       </c>
-      <c r="E117" s="73">
+      <c r="E117" s="70">
         <f t="shared" si="4"/>
         <v>419552.27017295995</v>
       </c>
-      <c r="F117" s="76" t="str">
+      <c r="F117" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="118" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B118" s="75"/>
-      <c r="C118" s="73">
+      <c r="B118" s="72"/>
+      <c r="C118" s="70">
         <v>112</v>
       </c>
-      <c r="D118" s="73">
+      <c r="D118" s="70">
         <f t="shared" si="3"/>
         <v>20.158736798317964</v>
       </c>
-      <c r="E118" s="73">
+      <c r="E118" s="70">
         <f t="shared" si="4"/>
         <v>444500.14640291111</v>
       </c>
-      <c r="F118" s="76" t="str">
+      <c r="F118" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="119" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B119" s="75"/>
-      <c r="C119" s="73">
+      <c r="B119" s="72"/>
+      <c r="C119" s="70">
         <v>113</v>
       </c>
-      <c r="D119" s="73">
+      <c r="D119" s="70">
         <f t="shared" si="3"/>
         <v>21.357437666720553</v>
       </c>
-      <c r="E119" s="73">
+      <c r="E119" s="70">
         <f t="shared" si="4"/>
         <v>470931.50055118819</v>
       </c>
-      <c r="F119" s="76" t="str">
+      <c r="F119" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="120" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B120" s="75"/>
-      <c r="C120" s="73">
+      <c r="B120" s="72"/>
+      <c r="C120" s="70">
         <v>114</v>
       </c>
-      <c r="D120" s="73">
+      <c r="D120" s="70">
         <f t="shared" si="3"/>
         <v>22.627416997969519</v>
       </c>
-      <c r="E120" s="73">
+      <c r="E120" s="70">
         <f t="shared" si="4"/>
         <v>498934.5448052279</v>
       </c>
-      <c r="F120" s="76" t="str">
+      <c r="F120" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B121" s="75"/>
-      <c r="C121" s="73">
+      <c r="B121" s="72"/>
+      <c r="C121" s="70">
         <v>115</v>
       </c>
-      <c r="D121" s="73">
+      <c r="D121" s="70">
         <f t="shared" si="3"/>
         <v>23.972913230026897</v>
       </c>
-      <c r="E121" s="73">
+      <c r="E121" s="70">
         <f t="shared" si="4"/>
         <v>528602.73672209308</v>
       </c>
-      <c r="F121" s="76" t="str">
+      <c r="F121" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="122" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B122" s="75"/>
-      <c r="C122" s="73">
+      <c r="B122" s="72"/>
+      <c r="C122" s="70">
         <v>116</v>
       </c>
-      <c r="D122" s="73">
+      <c r="D122" s="70">
         <f t="shared" si="3"/>
         <v>25.398416831491197</v>
       </c>
-      <c r="E122" s="73">
+      <c r="E122" s="70">
         <f t="shared" si="4"/>
         <v>560035.0911343809</v>
       </c>
-      <c r="F122" s="76" t="str">
+      <c r="F122" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="123" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B123" s="75"/>
-      <c r="C123" s="73">
+      <c r="B123" s="72"/>
+      <c r="C123" s="70">
         <v>117</v>
       </c>
-      <c r="D123" s="73">
+      <c r="D123" s="70">
         <f t="shared" si="3"/>
         <v>26.908685288118864</v>
       </c>
-      <c r="E123" s="73">
+      <c r="E123" s="70">
         <f t="shared" si="4"/>
         <v>593336.5106030209</v>
       </c>
-      <c r="F123" s="76" t="str">
+      <c r="F123" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="124" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="75"/>
-      <c r="C124" s="73">
+      <c r="B124" s="72"/>
+      <c r="C124" s="70">
         <v>118</v>
       </c>
-      <c r="D124" s="73">
+      <c r="D124" s="70">
         <f t="shared" si="3"/>
         <v>28.50875898049085</v>
       </c>
-      <c r="E124" s="73">
+      <c r="E124" s="70">
         <f t="shared" si="4"/>
         <v>628618.13551982329</v>
       </c>
-      <c r="F124" s="76" t="str">
+      <c r="F124" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="125" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B125" s="75"/>
-      <c r="C125" s="73">
+      <c r="B125" s="72"/>
+      <c r="C125" s="70">
         <v>119</v>
       </c>
-      <c r="D125" s="73">
+      <c r="D125" s="70">
         <f t="shared" si="3"/>
         <v>30.2039780058142</v>
       </c>
-      <c r="E125" s="73">
+      <c r="E125" s="70">
         <f t="shared" si="4"/>
         <v>665997.71502820309</v>
       </c>
-      <c r="F125" s="76" t="str">
+      <c r="F125" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="126" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B126" s="75"/>
-      <c r="C126" s="73">
+      <c r="B126" s="72"/>
+      <c r="C126" s="70">
         <v>120</v>
       </c>
-      <c r="D126" s="73">
+      <c r="D126" s="70">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="E126" s="73">
+      <c r="E126" s="70">
         <f t="shared" si="4"/>
         <v>705600</v>
       </c>
-      <c r="F126" s="76" t="str">
+      <c r="F126" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="127" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B127" s="75"/>
-      <c r="C127" s="73">
+      <c r="B127" s="72"/>
+      <c r="C127" s="70">
         <v>121</v>
       </c>
-      <c r="D127" s="73">
+      <c r="D127" s="70">
         <f t="shared" si="3"/>
         <v>33.902819019497436</v>
       </c>
-      <c r="E127" s="73">
+      <c r="E127" s="70">
         <f t="shared" si="4"/>
         <v>747557.15937991848</v>
       </c>
-      <c r="F127" s="76" t="str">
+      <c r="F127" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="128" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B128" s="75"/>
-      <c r="C128" s="73">
+      <c r="B128" s="72"/>
+      <c r="C128" s="70">
         <v>122</v>
       </c>
-      <c r="D128" s="73">
+      <c r="D128" s="70">
         <f t="shared" si="3"/>
         <v>35.918785545899944</v>
       </c>
-      <c r="E128" s="73">
+      <c r="E128" s="70">
         <f t="shared" si="4"/>
         <v>792009.22128709371</v>
       </c>
-      <c r="F128" s="76" t="str">
+      <c r="F128" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="129" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B129" s="75"/>
-      <c r="C129" s="73">
+      <c r="B129" s="72"/>
+      <c r="C129" s="70">
         <v>123</v>
       </c>
-      <c r="D129" s="73">
+      <c r="D129" s="70">
         <f t="shared" si="3"/>
         <v>38.054627680087073</v>
       </c>
-      <c r="E129" s="73">
+      <c r="E129" s="70">
         <f t="shared" si="4"/>
         <v>839104.5403459199</v>
       </c>
-      <c r="F129" s="76" t="str">
+      <c r="F129" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="130" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B130" s="75"/>
-      <c r="C130" s="73">
+      <c r="B130" s="72"/>
+      <c r="C130" s="70">
         <v>124</v>
       </c>
-      <c r="D130" s="73">
+      <c r="D130" s="70">
         <f t="shared" si="3"/>
         <v>40.317473596635928</v>
       </c>
-      <c r="E130" s="73">
+      <c r="E130" s="70">
         <f t="shared" si="4"/>
         <v>889000.29280582222</v>
       </c>
-      <c r="F130" s="76" t="str">
+      <c r="F130" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="131" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B131" s="75"/>
-      <c r="C131" s="73">
+      <c r="B131" s="72"/>
+      <c r="C131" s="70">
         <v>125</v>
       </c>
-      <c r="D131" s="73">
+      <c r="D131" s="70">
         <f t="shared" si="3"/>
         <v>42.714875333441093</v>
       </c>
-      <c r="E131" s="73">
+      <c r="E131" s="70">
         <f t="shared" si="4"/>
         <v>941863.00110237615</v>
       </c>
-      <c r="F131" s="76" t="str">
+      <c r="F131" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="132" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B132" s="75"/>
-      <c r="C132" s="73">
+      <c r="B132" s="72"/>
+      <c r="C132" s="70">
         <v>126</v>
       </c>
-      <c r="D132" s="73">
+      <c r="D132" s="70">
         <f t="shared" si="3"/>
         <v>45.254833995939045</v>
       </c>
-      <c r="E132" s="73">
+      <c r="E132" s="70">
         <f t="shared" si="4"/>
         <v>997869.08961045591</v>
       </c>
-      <c r="F132" s="76" t="str">
+      <c r="F132" s="73" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
     </row>
     <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B133" s="77"/>
-      <c r="C133" s="68">
+      <c r="B133" s="74"/>
+      <c r="C133" s="65">
         <v>127</v>
       </c>
-      <c r="D133" s="68">
+      <c r="D133" s="65">
         <f t="shared" si="3"/>
         <v>47.945826460053794</v>
       </c>
-      <c r="E133" s="68">
+      <c r="E133" s="65">
         <f t="shared" si="4"/>
         <v>1057205.4734441862</v>
       </c>
-      <c r="F133" s="69" t="str">
+      <c r="F133" s="66" t="str">
         <f t="shared" si="5"/>
         <v>0x3FFFFFFF</v>
       </c>
@@ -9992,565 +10111,565 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="64"/>
-      <c r="B2" s="148" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="144" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="155">
+      <c r="C2" s="151">
         <v>0</v>
       </c>
-      <c r="D2" s="149">
+      <c r="D2" s="145">
         <v>1</v>
       </c>
-      <c r="E2" s="149">
+      <c r="E2" s="145">
         <v>2</v>
       </c>
-      <c r="F2" s="155">
+      <c r="F2" s="151">
         <v>3</v>
       </c>
-      <c r="G2" s="149">
+      <c r="G2" s="145">
         <v>4</v>
       </c>
-      <c r="H2" s="149">
+      <c r="H2" s="145">
         <v>5</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="151" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="150" t="s">
+      <c r="K2" s="146" t="s">
         <v>406</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" s="64"/>
-      <c r="B3" s="145" t="s">
+      <c r="A3" s="61"/>
+      <c r="B3" s="141" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="C3" s="142" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="146" t="s">
+      <c r="D3" s="142" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="142" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="147" t="s">
+      <c r="F3" s="143" t="s">
         <v>397</v>
       </c>
-      <c r="G3" s="147" t="s">
+      <c r="G3" s="143" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="143" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="151" t="s">
+      <c r="I3" s="147" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="147" t="s">
         <v>396</v>
       </c>
-      <c r="K3" s="152" t="s">
+      <c r="K3" s="148" t="s">
         <v>395</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="64"/>
-      <c r="B4" s="143" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="139" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="137" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="137" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="137" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="138" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="142" t="s">
+      <c r="G4" s="138" t="s">
         <v>396</v>
       </c>
-      <c r="H4" s="142" t="s">
+      <c r="H4" s="138" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="153" t="s">
+      <c r="I4" s="149" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="153" t="s">
+      <c r="J4" s="149" t="s">
         <v>396</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="K4" s="150" t="s">
         <v>397</v>
       </c>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="64"/>
-      <c r="B5" s="144" t="s">
+      <c r="A5" s="61"/>
+      <c r="B5" s="140" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="191" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="199" t="s">
+      <c r="D5" s="191"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="192" t="s">
         <v>398</v>
       </c>
-      <c r="G5" s="199"/>
-      <c r="H5" s="199"/>
-      <c r="I5" s="200" t="s">
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="193" t="s">
         <v>403</v>
       </c>
-      <c r="J5" s="200"/>
-      <c r="K5" s="201"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="194"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="64"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A7" s="64"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A8" s="64"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A9" s="64"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A10" s="64"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A12" s="64"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A16" s="64"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="64"/>
-      <c r="J18" s="64"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A19" s="64"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A20" s="64"/>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A23" s="64"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="64"/>
-      <c r="J23" s="64"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A24" s="64"/>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A26" s="64"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-      <c r="M26" s="64"/>
-      <c r="N26" s="64"/>
-      <c r="O26" s="64"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="64"/>
-      <c r="M27" s="64"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="64"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A29" s="64"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="64"/>
-      <c r="I29" s="64"/>
-      <c r="J29" s="64"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="64"/>
-      <c r="M29" s="64"/>
-      <c r="N29" s="64"/>
-      <c r="O29" s="64"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10578,160 +10697,160 @@
   <sheetData>
     <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="119" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="120" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="115" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="120" t="s">
+      <c r="C3" s="116" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="116" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="120" t="s">
+      <c r="C5" s="116" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="119" t="s">
+      <c r="B6" s="115" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="116" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="116" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="119" t="s">
+      <c r="B8" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="120" t="s">
+      <c r="C8" s="116" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="115" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="116" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="115" t="s">
         <v>360</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="116" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="116"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="119"/>
-      <c r="C12" s="120"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="116"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="116"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="116"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="119"/>
-      <c r="C15" s="120"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="116"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="119"/>
-      <c r="C16" s="120"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="116"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="116"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="119"/>
-      <c r="C18" s="120"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="116"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="119"/>
-      <c r="C19" s="120"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="116"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="116"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="116"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="119"/>
-      <c r="C22" s="120"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="116"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="116"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="119"/>
-      <c r="C24" s="120"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="116"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="116"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="116"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="119"/>
-      <c r="C27" s="120"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="116"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="119"/>
-      <c r="C28" s="120"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="116"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="116"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="116"/>
     </row>
     <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="121"/>
-      <c r="C31" s="122"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="118"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS-pub\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100E5EF3-8487-4E44-9B45-08825F390C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA6706-11FD-49FC-B1E4-F7108EBBC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="2" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="46620" yWindow="2290" windowWidth="24690" windowHeight="14600" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="488">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1496,6 +1496,18 @@
   </si>
   <si>
     <t>Left channel global volume</t>
+  </si>
+  <si>
+    <t>0x74</t>
+  </si>
+  <si>
+    <t>Externel RESET Control</t>
+  </si>
+  <si>
+    <t>0 = DAC / MP3 no RESET</t>
+  </si>
+  <si>
+    <t>1 = DAC / MP3 assert RESET</t>
   </si>
 </sst>
 </file>
@@ -2246,7 +2258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2476,10 +2488,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2606,6 +2614,27 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2636,29 +2665,11 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2976,10 +2987,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H150"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3004,13 +3015,13 @@
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61"/>
-      <c r="B2" s="185" t="s">
+      <c r="B2" s="196" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="198"/>
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
     </row>
@@ -3036,10 +3047,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="61"/>
-      <c r="B4" s="152" t="s">
+      <c r="B4" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="206" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -3056,8 +3067,8 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="61"/>
-      <c r="B5" s="152"/>
-      <c r="C5" s="121"/>
+      <c r="B5" s="150"/>
+      <c r="C5" s="206"/>
       <c r="D5" s="45" t="s">
         <v>32</v>
       </c>
@@ -3072,8 +3083,8 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="61"/>
-      <c r="B6" s="152"/>
-      <c r="C6" s="121"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="206"/>
       <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
@@ -3088,7 +3099,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="61"/>
-      <c r="B7" s="152"/>
+      <c r="B7" s="150"/>
       <c r="C7" s="94"/>
       <c r="D7" s="45" t="s">
         <v>32</v>
@@ -3104,8 +3115,8 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="61"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="121"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="206"/>
       <c r="D8" s="45" t="s">
         <v>32</v>
       </c>
@@ -3120,8 +3131,8 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="61"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="121"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="206"/>
       <c r="D9" s="45" t="s">
         <v>32</v>
       </c>
@@ -3136,8 +3147,8 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="61"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="121"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="206"/>
       <c r="D10" s="45" t="s">
         <v>32</v>
       </c>
@@ -3152,8 +3163,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="61"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="121"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="206"/>
       <c r="D11" s="45" t="s">
         <v>32</v>
       </c>
@@ -3168,8 +3179,8 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="61"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="121"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="206"/>
       <c r="D12" s="45" t="s">
         <v>34</v>
       </c>
@@ -3184,8 +3195,8 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="61"/>
-      <c r="B13" s="152"/>
-      <c r="C13" s="121"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="206"/>
       <c r="D13" s="56"/>
       <c r="E13" s="39"/>
       <c r="F13" s="103" t="s">
@@ -3196,7 +3207,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="61"/>
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="151" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="95" t="s">
@@ -3216,8 +3227,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="61"/>
-      <c r="B15" s="152"/>
-      <c r="C15" s="121"/>
+      <c r="B15" s="150"/>
+      <c r="C15" s="206"/>
       <c r="D15" s="45" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3243,8 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="61"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="121"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="206"/>
       <c r="D16" s="45" t="s">
         <v>32</v>
       </c>
@@ -3248,8 +3259,8 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="61"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="121"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="206"/>
       <c r="D17" s="45" t="s">
         <v>32</v>
       </c>
@@ -3264,8 +3275,8 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="61"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="121"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="206"/>
       <c r="D18" s="45" t="s">
         <v>32</v>
       </c>
@@ -3280,8 +3291,8 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="61"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="121"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="206"/>
       <c r="D19" s="45" t="s">
         <v>32</v>
       </c>
@@ -3296,8 +3307,8 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="61"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="121"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="206"/>
       <c r="D20" s="45" t="s">
         <v>32</v>
       </c>
@@ -3312,8 +3323,8 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="61"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="121"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="206"/>
       <c r="D21" s="45" t="s">
         <v>32</v>
       </c>
@@ -3328,8 +3339,8 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="61"/>
-      <c r="B22" s="152"/>
-      <c r="C22" s="121"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="206"/>
       <c r="D22" s="45" t="s">
         <v>34</v>
       </c>
@@ -3344,7 +3355,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="61"/>
-      <c r="B23" s="154"/>
+      <c r="B23" s="152"/>
       <c r="C23" s="96"/>
       <c r="D23" s="56"/>
       <c r="E23" s="39"/>
@@ -3356,7 +3367,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="61"/>
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="151" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="95" t="s">
@@ -3376,8 +3387,8 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="61"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="121"/>
+      <c r="B25" s="150"/>
+      <c r="C25" s="206"/>
       <c r="D25" s="45"/>
       <c r="E25" s="38"/>
       <c r="F25" s="101" t="s">
@@ -3388,8 +3399,8 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="61"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="206"/>
       <c r="D26" s="45"/>
       <c r="E26" s="38"/>
       <c r="F26" s="101" t="s">
@@ -3400,8 +3411,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="61"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="121"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="206"/>
       <c r="D27" s="45"/>
       <c r="E27" s="38"/>
       <c r="F27" s="101" t="s">
@@ -3412,8 +3423,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="61"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="121"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="206"/>
       <c r="D28" s="45"/>
       <c r="E28" s="38"/>
       <c r="F28" s="101" t="s">
@@ -3424,8 +3435,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="61"/>
-      <c r="B29" s="152"/>
-      <c r="C29" s="121"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="206"/>
       <c r="D29" s="45"/>
       <c r="E29" s="38"/>
       <c r="F29" s="101" t="s">
@@ -3436,7 +3447,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="61"/>
-      <c r="B30" s="152"/>
+      <c r="B30" s="150"/>
       <c r="C30" s="94"/>
       <c r="D30" s="45" t="s">
         <v>32</v>
@@ -3452,8 +3463,8 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="61"/>
-      <c r="B31" s="152"/>
-      <c r="C31" s="121"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="206"/>
       <c r="D31" s="45" t="s">
         <v>32</v>
       </c>
@@ -3467,8 +3478,8 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="61"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="121"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="206"/>
       <c r="D32" s="45"/>
       <c r="E32" s="38"/>
       <c r="F32" s="111" t="s">
@@ -3478,8 +3489,8 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="61"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="121"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="206"/>
       <c r="D33" s="45" t="s">
         <v>32</v>
       </c>
@@ -3493,8 +3504,8 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="61"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="121"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="206"/>
       <c r="D34" s="56"/>
       <c r="E34" s="38"/>
       <c r="F34" s="105" t="s">
@@ -3504,7 +3515,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="61"/>
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="151" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="95" t="s">
@@ -3524,8 +3535,8 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="61"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="121"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="206"/>
       <c r="D36" s="45"/>
       <c r="E36" s="38"/>
       <c r="F36" s="101" t="s">
@@ -3536,8 +3547,8 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="61"/>
-      <c r="B37" s="152"/>
-      <c r="C37" s="121"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="206"/>
       <c r="D37" s="45"/>
       <c r="E37" s="38"/>
       <c r="F37" s="101" t="s">
@@ -3548,8 +3559,8 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="61"/>
-      <c r="B38" s="152"/>
-      <c r="C38" s="121"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="206"/>
       <c r="D38" s="45"/>
       <c r="E38" s="38"/>
       <c r="F38" s="101" t="s">
@@ -3560,8 +3571,8 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="61"/>
-      <c r="B39" s="152"/>
-      <c r="C39" s="121"/>
+      <c r="B39" s="150"/>
+      <c r="C39" s="206"/>
       <c r="D39" s="45"/>
       <c r="E39" s="38"/>
       <c r="F39" s="101" t="s">
@@ -3572,8 +3583,8 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="61"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="121"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="206"/>
       <c r="D40" s="45"/>
       <c r="E40" s="38"/>
       <c r="F40" s="101" t="s">
@@ -3584,8 +3595,8 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="61"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="121"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="206"/>
       <c r="D41" s="45"/>
       <c r="E41" s="38"/>
       <c r="F41" s="101" t="s">
@@ -3596,8 +3607,8 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="61"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="121"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="206"/>
       <c r="D42" s="45"/>
       <c r="E42" s="38"/>
       <c r="F42" s="101" t="s">
@@ -3608,8 +3619,8 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="61"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="121"/>
+      <c r="B43" s="150"/>
+      <c r="C43" s="206"/>
       <c r="D43" s="45"/>
       <c r="E43" s="38"/>
       <c r="F43" s="101" t="s">
@@ -3620,8 +3631,8 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="61"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="121"/>
+      <c r="B44" s="150"/>
+      <c r="C44" s="206"/>
       <c r="D44" s="45" t="s">
         <v>32</v>
       </c>
@@ -3636,8 +3647,8 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="61"/>
-      <c r="B45" s="152"/>
-      <c r="C45" s="121"/>
+      <c r="B45" s="150"/>
+      <c r="C45" s="206"/>
       <c r="D45" s="45"/>
       <c r="E45" s="38"/>
       <c r="F45" s="101" t="s">
@@ -3648,8 +3659,8 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="61"/>
-      <c r="B46" s="152"/>
-      <c r="C46" s="121"/>
+      <c r="B46" s="150"/>
+      <c r="C46" s="206"/>
       <c r="D46" s="45" t="s">
         <v>32</v>
       </c>
@@ -3664,7 +3675,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="61"/>
-      <c r="B47" s="154"/>
+      <c r="B47" s="152"/>
       <c r="C47" s="96"/>
       <c r="D47" s="56"/>
       <c r="E47" s="39"/>
@@ -3676,7 +3687,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="61"/>
-      <c r="B48" s="155" t="s">
+      <c r="B48" s="153" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="97" t="s">
@@ -3696,7 +3707,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="61"/>
-      <c r="B49" s="155" t="s">
+      <c r="B49" s="153" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="97" t="s">
@@ -3716,7 +3727,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="61"/>
-      <c r="B50" s="155" t="s">
+      <c r="B50" s="153" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="97" t="s">
@@ -3736,7 +3747,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="61"/>
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="153" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="97" t="s">
@@ -3756,7 +3767,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="61"/>
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="153" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="107" t="s">
@@ -3776,7 +3787,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="61"/>
-      <c r="B53" s="155" t="s">
+      <c r="B53" s="153" t="s">
         <v>188</v>
       </c>
       <c r="C53" s="107" t="s">
@@ -3928,7 +3939,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="61"/>
-      <c r="B61" s="155" t="s">
+      <c r="B61" s="153" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -3948,7 +3959,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="61"/>
-      <c r="B62" s="155" t="s">
+      <c r="B62" s="153" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="98" t="s">
@@ -3968,7 +3979,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="61"/>
-      <c r="B63" s="155" t="s">
+      <c r="B63" s="153" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="98" t="s">
@@ -3988,7 +3999,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="61"/>
-      <c r="B64" s="155" t="s">
+      <c r="B64" s="153" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="98" t="s">
@@ -4008,7 +4019,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="61"/>
-      <c r="B65" s="155" t="s">
+      <c r="B65" s="153" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="98" t="s">
@@ -4028,7 +4039,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="61"/>
-      <c r="B66" s="155" t="s">
+      <c r="B66" s="153" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="98" t="s">
@@ -4048,7 +4059,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="61"/>
-      <c r="B67" s="155" t="s">
+      <c r="B67" s="153" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="98" t="s">
@@ -4068,7 +4079,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="61"/>
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="153" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="98" t="s">
@@ -4088,7 +4099,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="61"/>
-      <c r="B69" s="155" t="s">
+      <c r="B69" s="153" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="98" t="s">
@@ -4108,7 +4119,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="61"/>
-      <c r="B70" s="155" t="s">
+      <c r="B70" s="153" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="98" t="s">
@@ -4128,7 +4139,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="61"/>
-      <c r="B71" s="155" t="s">
+      <c r="B71" s="153" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="98" t="s">
@@ -4148,7 +4159,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="61"/>
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="153" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="98" t="s">
@@ -4168,7 +4179,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="61"/>
-      <c r="B73" s="153" t="s">
+      <c r="B73" s="151" t="s">
         <v>417</v>
       </c>
       <c r="C73" s="99" t="s">
@@ -4188,7 +4199,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="61"/>
-      <c r="B74" s="152"/>
+      <c r="B74" s="150"/>
       <c r="C74" s="94"/>
       <c r="D74" s="45"/>
       <c r="E74" s="38"/>
@@ -4200,7 +4211,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="61"/>
-      <c r="B75" s="152"/>
+      <c r="B75" s="150"/>
       <c r="C75" s="94"/>
       <c r="D75" s="45"/>
       <c r="E75" s="38" t="s">
@@ -4214,7 +4225,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="61"/>
-      <c r="B76" s="156"/>
+      <c r="B76" s="154"/>
       <c r="C76" s="94"/>
       <c r="D76" s="45"/>
       <c r="E76" s="39"/>
@@ -4226,7 +4237,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="61"/>
-      <c r="B77" s="157" t="s">
+      <c r="B77" s="155" t="s">
         <v>419</v>
       </c>
       <c r="C77" s="99" t="s">
@@ -4246,7 +4257,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="61"/>
-      <c r="B78" s="157" t="s">
+      <c r="B78" s="155" t="s">
         <v>421</v>
       </c>
       <c r="C78" s="99" t="s">
@@ -4266,7 +4277,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="61"/>
-      <c r="B79" s="157" t="s">
+      <c r="B79" s="155" t="s">
         <v>424</v>
       </c>
       <c r="C79" s="99" t="s">
@@ -4493,7 +4504,7 @@
       <c r="D91" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="136" t="s">
+      <c r="E91" s="134" t="s">
         <v>197</v>
       </c>
       <c r="F91" s="109" t="s">
@@ -4516,7 +4527,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="61"/>
-      <c r="B93" s="156" t="s">
+      <c r="B93" s="154" t="s">
         <v>465</v>
       </c>
       <c r="C93" s="94" t="s">
@@ -4536,7 +4547,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="61"/>
-      <c r="B94" s="156"/>
+      <c r="B94" s="154"/>
       <c r="C94" s="94"/>
       <c r="D94" s="45"/>
       <c r="E94" s="93"/>
@@ -4548,7 +4559,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="61"/>
-      <c r="B95" s="154"/>
+      <c r="B95" s="152"/>
       <c r="C95" s="94"/>
       <c r="D95" s="45"/>
       <c r="E95" s="39"/>
@@ -4560,7 +4571,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="61"/>
-      <c r="B96" s="156" t="s">
+      <c r="B96" s="154" t="s">
         <v>473</v>
       </c>
       <c r="C96" s="99" t="s">
@@ -4580,7 +4591,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="61"/>
-      <c r="B97" s="156"/>
+      <c r="B97" s="154"/>
       <c r="C97" s="94"/>
       <c r="D97" s="45"/>
       <c r="E97" s="93" t="s">
@@ -4594,11 +4605,11 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="61"/>
-      <c r="B98" s="154"/>
-      <c r="C98" s="100"/>
+      <c r="B98" s="150"/>
+      <c r="C98" s="94"/>
       <c r="D98" s="45"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="110" t="s">
+      <c r="E98" s="38"/>
+      <c r="F98" s="111" t="s">
         <v>472</v>
       </c>
       <c r="G98" s="61"/>
@@ -4606,11 +4617,11 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="61"/>
-      <c r="B99" s="89" t="s">
-        <v>275</v>
+      <c r="B99" s="155" t="s">
+        <v>484</v>
       </c>
       <c r="C99" s="99" t="s">
-        <v>276</v>
+        <v>485</v>
       </c>
       <c r="D99" s="44" t="s">
         <v>32</v>
@@ -4619,35 +4630,39 @@
         <v>186</v>
       </c>
       <c r="F99" s="109" t="s">
-        <v>293</v>
+        <v>486</v>
       </c>
       <c r="G99" s="61"/>
       <c r="H99" s="61"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="61"/>
-      <c r="B100" s="84"/>
-      <c r="C100" s="94"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="105" t="s">
-        <v>294</v>
+      <c r="B100" s="180"/>
+      <c r="C100" s="100"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="110" t="s">
+        <v>487</v>
       </c>
       <c r="G100" s="61"/>
       <c r="H100" s="61"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="61"/>
-      <c r="B101" s="84"/>
-      <c r="C101" s="94"/>
-      <c r="D101" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="F101" s="111" t="s">
-        <v>296</v>
+      <c r="B101" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="D101" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" s="109" t="s">
+        <v>293</v>
       </c>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
@@ -4658,20 +4673,24 @@
       <c r="C102" s="94"/>
       <c r="D102" s="45"/>
       <c r="E102" s="38"/>
-      <c r="F102" s="111" t="s">
-        <v>297</v>
+      <c r="F102" s="105" t="s">
+        <v>294</v>
       </c>
       <c r="G102" s="61"/>
       <c r="H102" s="61"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="61"/>
-      <c r="B103" s="90"/>
+      <c r="B103" s="84"/>
       <c r="C103" s="94"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="38"/>
+      <c r="D103" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E103" s="38" t="s">
+        <v>295</v>
+      </c>
       <c r="F103" s="111" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
@@ -4681,25 +4700,21 @@
       <c r="B104" s="84"/>
       <c r="C104" s="94"/>
       <c r="D104" s="45"/>
-      <c r="E104" s="93"/>
-      <c r="F104" s="105" t="s">
-        <v>299</v>
+      <c r="E104" s="38"/>
+      <c r="F104" s="111" t="s">
+        <v>297</v>
       </c>
       <c r="G104" s="61"/>
       <c r="H104" s="61"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="61"/>
-      <c r="B105" s="84"/>
+      <c r="B105" s="90"/>
       <c r="C105" s="94"/>
-      <c r="D105" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E105" s="38" t="s">
-        <v>224</v>
-      </c>
+      <c r="D105" s="45"/>
+      <c r="E105" s="38"/>
       <c r="F105" s="111" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
@@ -4709,9 +4724,9 @@
       <c r="B106" s="84"/>
       <c r="C106" s="94"/>
       <c r="D106" s="45"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="111" t="s">
-        <v>304</v>
+      <c r="E106" s="93"/>
+      <c r="F106" s="105" t="s">
+        <v>299</v>
       </c>
       <c r="G106" s="61"/>
       <c r="H106" s="61"/>
@@ -4724,66 +4739,70 @@
         <v>32</v>
       </c>
       <c r="E107" s="38" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="F107" s="111" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="61"/>
-      <c r="B108" s="90"/>
+      <c r="B108" s="84"/>
       <c r="C108" s="94"/>
-      <c r="D108" s="56"/>
+      <c r="D108" s="45"/>
       <c r="E108" s="38"/>
-      <c r="F108" s="105" t="s">
-        <v>302</v>
+      <c r="F108" s="111" t="s">
+        <v>304</v>
       </c>
       <c r="G108" s="61"/>
       <c r="H108" s="61"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="61"/>
-      <c r="B109" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="C109" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="D109" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F109" s="104" t="s">
-        <v>81</v>
+      <c r="B109" s="84"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="F109" s="111" t="s">
+        <v>301</v>
       </c>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="61"/>
-      <c r="B110" s="84"/>
+      <c r="B110" s="90"/>
       <c r="C110" s="94"/>
-      <c r="D110" s="45"/>
+      <c r="D110" s="56"/>
       <c r="E110" s="38"/>
-      <c r="F110" s="101" t="s">
-        <v>82</v>
+      <c r="F110" s="105" t="s">
+        <v>302</v>
       </c>
       <c r="G110" s="61"/>
       <c r="H110" s="61"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="61"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="101" t="s">
-        <v>83</v>
+      <c r="B111" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D111" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F111" s="104" t="s">
+        <v>81</v>
       </c>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
@@ -4795,31 +4814,31 @@
       <c r="D112" s="45"/>
       <c r="E112" s="38"/>
       <c r="F112" s="101" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G112" s="61"/>
       <c r="H112" s="61"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="61"/>
-      <c r="B113" s="84"/>
+      <c r="B113" s="90"/>
       <c r="C113" s="94"/>
       <c r="D113" s="45"/>
       <c r="E113" s="38"/>
       <c r="F113" s="101" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="61"/>
-      <c r="B114" s="90"/>
+      <c r="B114" s="84"/>
       <c r="C114" s="94"/>
       <c r="D114" s="45"/>
       <c r="E114" s="38"/>
       <c r="F114" s="101" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G114" s="61"/>
       <c r="H114" s="61"/>
@@ -4831,19 +4850,19 @@
       <c r="D115" s="45"/>
       <c r="E115" s="38"/>
       <c r="F115" s="101" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="61"/>
-      <c r="B116" s="84"/>
+      <c r="B116" s="90"/>
       <c r="C116" s="94"/>
       <c r="D116" s="45"/>
       <c r="E116" s="38"/>
       <c r="F116" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G116" s="61"/>
       <c r="H116" s="61"/>
@@ -4855,7 +4874,7 @@
       <c r="D117" s="45"/>
       <c r="E117" s="38"/>
       <c r="F117" s="101" t="s">
-        <v>477</v>
+        <v>87</v>
       </c>
       <c r="G117" s="61"/>
       <c r="H117" s="61"/>
@@ -4867,7 +4886,7 @@
       <c r="D118" s="45"/>
       <c r="E118" s="38"/>
       <c r="F118" s="101" t="s">
-        <v>476</v>
+        <v>88</v>
       </c>
       <c r="G118" s="61"/>
       <c r="H118" s="61"/>
@@ -4876,14 +4895,10 @@
       <c r="A119" s="61"/>
       <c r="B119" s="84"/>
       <c r="C119" s="94"/>
-      <c r="D119" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E119" s="38" t="s">
-        <v>287</v>
-      </c>
+      <c r="D119" s="45"/>
+      <c r="E119" s="38"/>
       <c r="F119" s="101" t="s">
-        <v>288</v>
+        <v>477</v>
       </c>
       <c r="G119" s="61"/>
       <c r="H119" s="61"/>
@@ -4895,7 +4910,7 @@
       <c r="D120" s="45"/>
       <c r="E120" s="38"/>
       <c r="F120" s="101" t="s">
-        <v>289</v>
+        <v>476</v>
       </c>
       <c r="G120" s="61"/>
       <c r="H120" s="61"/>
@@ -4904,10 +4919,14 @@
       <c r="A121" s="61"/>
       <c r="B121" s="84"/>
       <c r="C121" s="94"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="38"/>
+      <c r="D121" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" s="38" t="s">
+        <v>287</v>
+      </c>
       <c r="F121" s="101" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G121" s="61"/>
       <c r="H121" s="61"/>
@@ -4919,19 +4938,19 @@
       <c r="D122" s="45"/>
       <c r="E122" s="38"/>
       <c r="F122" s="101" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G122" s="61"/>
       <c r="H122" s="61"/>
     </row>
-    <row r="123" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="61"/>
       <c r="B123" s="84"/>
       <c r="C123" s="94"/>
       <c r="D123" s="45"/>
       <c r="E123" s="38"/>
       <c r="F123" s="101" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G123" s="61"/>
       <c r="H123" s="61"/>
@@ -4940,86 +4959,70 @@
       <c r="A124" s="61"/>
       <c r="B124" s="84"/>
       <c r="C124" s="94"/>
-      <c r="D124" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="38">
-        <v>15</v>
-      </c>
-      <c r="F124" s="105" t="s">
-        <v>285</v>
+      <c r="D124" s="45"/>
+      <c r="E124" s="38"/>
+      <c r="F124" s="101" t="s">
+        <v>291</v>
       </c>
       <c r="G124" s="61"/>
       <c r="H124" s="61"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="61"/>
-      <c r="B125" s="90"/>
+      <c r="B125" s="84"/>
       <c r="C125" s="94"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="106" t="s">
-        <v>286</v>
+      <c r="D125" s="45"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="101" t="s">
+        <v>292</v>
       </c>
       <c r="G125" s="61"/>
       <c r="H125" s="61"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="61"/>
-      <c r="B126" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="C126" s="95" t="s">
-        <v>312</v>
-      </c>
+      <c r="B126" s="84"/>
+      <c r="C126" s="94"/>
       <c r="D126" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="106" t="s">
-        <v>314</v>
+      <c r="E126" s="38">
+        <v>15</v>
+      </c>
+      <c r="F126" s="105" t="s">
+        <v>285</v>
       </c>
       <c r="G126" s="61"/>
       <c r="H126" s="61"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="61"/>
-      <c r="B127" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="C127" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="D127" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" s="39" t="s">
-        <v>27</v>
-      </c>
+      <c r="B127" s="90"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="56"/>
+      <c r="E127" s="39"/>
       <c r="F127" s="106" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="G127" s="61"/>
       <c r="H127" s="61"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="61"/>
-      <c r="B128" s="88" t="s">
-        <v>318</v>
-      </c>
-      <c r="C128" s="97" t="s">
-        <v>305</v>
-      </c>
-      <c r="D128" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E128" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="F128" s="107" t="s">
-        <v>309</v>
+      <c r="B128" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C128" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D128" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E128" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128" s="106" t="s">
+        <v>314</v>
       </c>
       <c r="G128" s="61"/>
       <c r="H128" s="61"/>
@@ -5027,19 +5030,19 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="61"/>
       <c r="B129" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="C129" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="D129" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E129" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" s="107" t="s">
-        <v>310</v>
+        <v>317</v>
+      </c>
+      <c r="C129" s="95" t="s">
+        <v>313</v>
+      </c>
+      <c r="D129" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129" s="106" t="s">
+        <v>315</v>
       </c>
       <c r="G129" s="61"/>
       <c r="H129" s="61"/>
@@ -5047,19 +5050,19 @@
     <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="61"/>
       <c r="B130" s="88" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C130" s="97" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F130" s="107" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="G130" s="61"/>
       <c r="H130" s="61"/>
@@ -5067,167 +5070,179 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="61"/>
       <c r="B131" s="88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C131" s="97" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D131" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F131" s="107" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G131" s="61"/>
       <c r="H131" s="61"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="61"/>
-      <c r="B132" s="157" t="s">
-        <v>68</v>
-      </c>
-      <c r="C132" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="D132" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="40">
-        <v>0</v>
-      </c>
-      <c r="F132" s="112" t="s">
-        <v>70</v>
+      <c r="B132" s="88" t="s">
+        <v>320</v>
+      </c>
+      <c r="C132" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D132" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132" s="107" t="s">
+        <v>325</v>
       </c>
       <c r="G132" s="61"/>
       <c r="H132" s="61"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="61"/>
-      <c r="B133" s="156"/>
-      <c r="C133" s="94"/>
-      <c r="D133" s="45"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="105" t="s">
-        <v>71</v>
+      <c r="B133" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C133" s="97" t="s">
+        <v>307</v>
+      </c>
+      <c r="D133" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E133" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133" s="107" t="s">
+        <v>311</v>
       </c>
       <c r="G133" s="61"/>
       <c r="H133" s="61"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="61"/>
-      <c r="B134" s="156"/>
-      <c r="C134" s="94"/>
-      <c r="D134" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="38">
-        <v>1</v>
-      </c>
-      <c r="F134" s="105" t="s">
-        <v>72</v>
+      <c r="B134" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="C134" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D134" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="40">
+        <v>0</v>
+      </c>
+      <c r="F134" s="112" t="s">
+        <v>70</v>
       </c>
       <c r="G134" s="61"/>
       <c r="H134" s="61"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="61"/>
-      <c r="B135" s="182"/>
-      <c r="C135" s="100"/>
-      <c r="D135" s="56"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="106" t="s">
-        <v>73</v>
+      <c r="B135" s="154"/>
+      <c r="C135" s="94"/>
+      <c r="D135" s="45"/>
+      <c r="E135" s="38"/>
+      <c r="F135" s="105" t="s">
+        <v>71</v>
       </c>
       <c r="G135" s="61"/>
       <c r="H135" s="61"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="61"/>
-      <c r="B136" s="157" t="s">
-        <v>74</v>
-      </c>
-      <c r="C136" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="D136" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" s="108" t="s">
-        <v>76</v>
+      <c r="B136" s="154"/>
+      <c r="C136" s="94"/>
+      <c r="D136" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="38">
+        <v>1</v>
+      </c>
+      <c r="F136" s="105" t="s">
+        <v>72</v>
       </c>
       <c r="G136" s="61"/>
       <c r="H136" s="61"/>
     </row>
-    <row r="137" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="61"/>
-      <c r="B137" s="183" t="s">
-        <v>444</v>
-      </c>
-      <c r="C137" s="161" t="s">
-        <v>463</v>
-      </c>
-      <c r="D137" s="162" t="s">
-        <v>33</v>
-      </c>
-      <c r="E137" s="163" t="s">
-        <v>27</v>
-      </c>
-      <c r="F137" s="164" t="s">
-        <v>445</v>
+      <c r="B137" s="180"/>
+      <c r="C137" s="100"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="106" t="s">
+        <v>73</v>
       </c>
       <c r="G137" s="61"/>
       <c r="H137" s="61"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="61"/>
-      <c r="B138" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C138" s="121" t="s">
-        <v>344</v>
-      </c>
-      <c r="D138" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="122" t="s">
-        <v>186</v>
-      </c>
-      <c r="F138" s="105" t="s">
-        <v>461</v>
+      <c r="B138" s="155" t="s">
+        <v>74</v>
+      </c>
+      <c r="C138" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D138" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="108" t="s">
+        <v>76</v>
       </c>
       <c r="G138" s="61"/>
       <c r="H138" s="61"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="61"/>
-      <c r="B139" s="90"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="134"/>
-      <c r="E139" s="122"/>
-      <c r="F139" s="123" t="s">
-        <v>462</v>
+      <c r="B139" s="181" t="s">
+        <v>444</v>
+      </c>
+      <c r="C139" s="159" t="s">
+        <v>463</v>
+      </c>
+      <c r="D139" s="160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="161" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139" s="162" t="s">
+        <v>445</v>
       </c>
       <c r="G139" s="61"/>
       <c r="H139" s="61"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="61"/>
-      <c r="B140" s="90"/>
-      <c r="C140" s="53"/>
+      <c r="B140" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="C140" s="206" t="s">
+        <v>344</v>
+      </c>
       <c r="D140" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E140" s="122" t="s">
-        <v>197</v>
-      </c>
-      <c r="F140" s="123" t="s">
-        <v>347</v>
+      <c r="E140" s="207" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140" s="105" t="s">
+        <v>461</v>
       </c>
       <c r="G140" s="61"/>
       <c r="H140" s="61"/>
@@ -5235,72 +5250,80 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="61"/>
       <c r="B141" s="90"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="135"/>
-      <c r="E141" s="131"/>
-      <c r="F141" s="124" t="s">
-        <v>348</v>
+      <c r="C141" s="125"/>
+      <c r="D141" s="132"/>
+      <c r="E141" s="207"/>
+      <c r="F141" s="121" t="s">
+        <v>462</v>
       </c>
       <c r="G141" s="61"/>
       <c r="H141" s="61"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="61"/>
-      <c r="B142" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="C142" s="128" t="s">
-        <v>351</v>
-      </c>
-      <c r="D142" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="132" t="s">
-        <v>350</v>
-      </c>
-      <c r="F142" s="125" t="s">
-        <v>352</v>
+      <c r="B142" s="90"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="207" t="s">
+        <v>197</v>
+      </c>
+      <c r="F142" s="121" t="s">
+        <v>347</v>
       </c>
       <c r="G142" s="61"/>
       <c r="H142" s="61"/>
     </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="61"/>
-      <c r="B143" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="C143" s="130" t="s">
-        <v>354</v>
-      </c>
-      <c r="D143" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E143" s="133" t="s">
-        <v>350</v>
-      </c>
-      <c r="F143" s="126" t="s">
-        <v>355</v>
+      <c r="B143" s="90"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="208"/>
+      <c r="E143" s="129"/>
+      <c r="F143" s="122" t="s">
+        <v>348</v>
       </c>
       <c r="G143" s="61"/>
       <c r="H143" s="61"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="61"/>
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
+      <c r="B144" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="C144" s="126" t="s">
+        <v>351</v>
+      </c>
+      <c r="D144" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E144" s="130" t="s">
+        <v>350</v>
+      </c>
+      <c r="F144" s="123" t="s">
+        <v>352</v>
+      </c>
       <c r="G144" s="61"/>
       <c r="H144" s="61"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A145" s="61"/>
-      <c r="B145" s="85"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
+      <c r="B145" s="91" t="s">
+        <v>353</v>
+      </c>
+      <c r="C145" s="128" t="s">
+        <v>354</v>
+      </c>
+      <c r="D145" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="131" t="s">
+        <v>350</v>
+      </c>
+      <c r="F145" s="124" t="s">
+        <v>355</v>
+      </c>
       <c r="G145" s="61"/>
       <c r="H145" s="61"/>
     </row>
@@ -5336,18 +5359,38 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="61"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-      <c r="F149" s="1"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="61"/>
+      <c r="H149" s="61"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
+      <c r="A150" s="61"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="61"/>
+      <c r="H150" s="61"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A151" s="61"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5379,13 +5422,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -5681,7 +5724,7 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="158" t="s">
+      <c r="B24" s="156" t="s">
         <v>37</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -5698,7 +5741,7 @@
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="158" t="s">
+      <c r="B25" s="156" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -5715,7 +5758,7 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="158" t="s">
+      <c r="B26" s="156" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -5732,7 +5775,7 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="158" t="s">
+      <c r="B27" s="156" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -5749,7 +5792,7 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="158" t="s">
+      <c r="B28" s="156" t="s">
         <v>50</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -5766,7 +5809,7 @@
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="159" t="s">
+      <c r="B29" s="157" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -5783,7 +5826,7 @@
       </c>
     </row>
     <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="160"/>
+      <c r="B30" s="158"/>
       <c r="C30" s="26"/>
       <c r="D30" s="27"/>
       <c r="E30" s="28"/>
@@ -5803,7 +5846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD7B95-A2AF-46FE-AB85-2A0D672A14B1}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K105" sqref="K105"/>
     </sheetView>
   </sheetViews>
@@ -5819,13 +5862,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="190"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="201"/>
     </row>
     <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
@@ -7034,30 +7077,30 @@
       <c r="E93" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="199" t="s">
+      <c r="F93" s="185" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="201" t="s">
+      <c r="B94" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="202" t="s">
+      <c r="C94" s="188" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="203" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="204">
+      <c r="D94" s="189" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="190">
         <v>0</v>
       </c>
-      <c r="F94" s="205" t="s">
+      <c r="F94" s="191" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B95" s="113"/>
-      <c r="C95" s="195"/>
+      <c r="C95" s="61"/>
       <c r="D95" s="45"/>
       <c r="E95" s="43"/>
       <c r="F95" s="46" t="s">
@@ -7066,7 +7109,7 @@
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B96" s="113"/>
-      <c r="C96" s="195"/>
+      <c r="C96" s="61"/>
       <c r="D96" s="45" t="s">
         <v>32</v>
       </c>
@@ -7079,7 +7122,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B97" s="113"/>
-      <c r="C97" s="195"/>
+      <c r="C97" s="61"/>
       <c r="D97" s="45"/>
       <c r="E97" s="43"/>
       <c r="F97" s="46" t="s">
@@ -7088,7 +7131,7 @@
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B98" s="113"/>
-      <c r="C98" s="195"/>
+      <c r="C98" s="61"/>
       <c r="D98" s="45" t="s">
         <v>32</v>
       </c>
@@ -7101,7 +7144,7 @@
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B99" s="113"/>
-      <c r="C99" s="195"/>
+      <c r="C99" s="61"/>
       <c r="D99" s="45"/>
       <c r="E99" s="43"/>
       <c r="F99" s="46" t="s">
@@ -7110,7 +7153,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B100" s="113"/>
-      <c r="C100" s="195"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="45"/>
       <c r="E100" s="43" t="s">
         <v>224</v>
@@ -7121,7 +7164,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B101" s="113"/>
-      <c r="C101" s="195"/>
+      <c r="C101" s="61"/>
       <c r="D101" s="45"/>
       <c r="E101" s="43"/>
       <c r="F101" s="46" t="s">
@@ -7130,7 +7173,7 @@
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B102" s="113"/>
-      <c r="C102" s="195"/>
+      <c r="C102" s="61"/>
       <c r="D102" s="45"/>
       <c r="E102" s="43" t="s">
         <v>243</v>
@@ -7141,7 +7184,7 @@
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B103" s="113"/>
-      <c r="C103" s="195"/>
+      <c r="C103" s="61"/>
       <c r="D103" s="45"/>
       <c r="E103" s="43"/>
       <c r="F103" s="46" t="s">
@@ -7150,7 +7193,7 @@
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B104" s="113"/>
-      <c r="C104" s="195"/>
+      <c r="C104" s="61"/>
       <c r="D104" s="45"/>
       <c r="E104" s="43" t="s">
         <v>246</v>
@@ -7161,7 +7204,7 @@
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B105" s="113"/>
-      <c r="C105" s="195"/>
+      <c r="C105" s="61"/>
       <c r="D105" s="45"/>
       <c r="E105" s="43"/>
       <c r="F105" s="46" t="s">
@@ -7170,7 +7213,7 @@
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B106" s="113"/>
-      <c r="C106" s="195"/>
+      <c r="C106" s="61"/>
       <c r="D106" s="45" t="s">
         <v>32</v>
       </c>
@@ -7183,7 +7226,7 @@
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B107" s="114"/>
-      <c r="C107" s="195"/>
+      <c r="C107" s="61"/>
       <c r="D107" s="45"/>
       <c r="E107" s="43"/>
       <c r="F107" s="46" t="s">
@@ -7455,8 +7498,8 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="181"/>
-      <c r="C124" s="196"/>
+      <c r="B124" s="179"/>
+      <c r="C124" s="183"/>
       <c r="D124" s="45" t="s">
         <v>32</v>
       </c>
@@ -7468,24 +7511,24 @@
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="206" t="s">
+      <c r="B125" s="192" t="s">
         <v>67</v>
       </c>
-      <c r="C125" s="207" t="s">
+      <c r="C125" s="193" t="s">
         <v>478</v>
       </c>
       <c r="D125" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="E125" s="208" t="s">
+      <c r="E125" s="194" t="s">
         <v>22</v>
       </c>
-      <c r="F125" s="209" t="s">
+      <c r="F125" s="195" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B126" s="200" t="s">
+      <c r="B126" s="186" t="s">
         <v>61</v>
       </c>
       <c r="C126" s="4" t="s">
@@ -7502,7 +7545,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B127" s="197" t="s">
+      <c r="B127" s="184" t="s">
         <v>62</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -7539,10 +7582,10 @@
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="61"/>
       <c r="B129" s="90"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="134"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="132"/>
       <c r="E129" s="38"/>
-      <c r="F129" s="123" t="s">
+      <c r="F129" s="121" t="s">
         <v>346</v>
       </c>
     </row>
@@ -7556,17 +7599,17 @@
       <c r="E130" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="F130" s="123" t="s">
+      <c r="F130" s="121" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="61"/>
       <c r="B131" s="90"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="198"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="133"/>
       <c r="E131" s="39"/>
-      <c r="F131" s="124" t="s">
+      <c r="F131" s="122" t="s">
         <v>348</v>
       </c>
     </row>
@@ -7575,7 +7618,7 @@
       <c r="B132" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C132" s="128" t="s">
+      <c r="C132" s="126" t="s">
         <v>351</v>
       </c>
       <c r="D132" s="44" t="s">
@@ -7584,7 +7627,7 @@
       <c r="E132" s="40" t="s">
         <v>350</v>
       </c>
-      <c r="F132" s="125" t="s">
+      <c r="F132" s="123" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7593,16 +7636,16 @@
       <c r="B133" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="C133" s="130" t="s">
+      <c r="C133" s="128" t="s">
         <v>354</v>
       </c>
       <c r="D133" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="E133" s="184" t="s">
+      <c r="E133" s="182" t="s">
         <v>350</v>
       </c>
-      <c r="F133" s="126" t="s">
+      <c r="F133" s="124" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7633,68 +7676,68 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="166" t="s">
         <v>446</v>
       </c>
-      <c r="C2" s="169" t="s">
+      <c r="C2" s="167" t="s">
         <v>450</v>
       </c>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="168" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="169" t="s">
         <v>455</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="165" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="175">
+      <c r="D3" s="173">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="170" t="s">
         <v>456</v>
       </c>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="164" t="s">
         <v>449</v>
       </c>
-      <c r="D4" s="176">
+      <c r="D4" s="174">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="171" t="s">
         <v>458</v>
       </c>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="164" t="s">
         <v>451</v>
       </c>
-      <c r="D5" s="176">
+      <c r="D5" s="174">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="172" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="163" t="s">
         <v>452</v>
       </c>
-      <c r="D6" s="177">
+      <c r="D6" s="175">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="176" t="s">
         <v>454</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="177" t="s">
         <v>453</v>
       </c>
-      <c r="D7" s="180"/>
+      <c r="D7" s="178"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10129,34 +10172,34 @@
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="61"/>
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="142" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="151">
+      <c r="C2" s="149">
         <v>0</v>
       </c>
-      <c r="D2" s="145">
+      <c r="D2" s="143">
         <v>1</v>
       </c>
-      <c r="E2" s="145">
+      <c r="E2" s="143">
         <v>2</v>
       </c>
-      <c r="F2" s="151">
+      <c r="F2" s="149">
         <v>3</v>
       </c>
-      <c r="G2" s="145">
+      <c r="G2" s="143">
         <v>4</v>
       </c>
-      <c r="H2" s="145">
+      <c r="H2" s="143">
         <v>5</v>
       </c>
-      <c r="I2" s="151" t="s">
+      <c r="I2" s="149" t="s">
         <v>404</v>
       </c>
-      <c r="J2" s="145" t="s">
+      <c r="J2" s="143" t="s">
         <v>405</v>
       </c>
-      <c r="K2" s="146" t="s">
+      <c r="K2" s="144" t="s">
         <v>406</v>
       </c>
       <c r="L2" s="61"/>
@@ -10166,34 +10209,34 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="61"/>
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="139" t="s">
         <v>399</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="140" t="s">
         <v>397</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="140" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="142" t="s">
+      <c r="E3" s="140" t="s">
         <v>395</v>
       </c>
-      <c r="F3" s="143" t="s">
+      <c r="F3" s="141" t="s">
         <v>397</v>
       </c>
-      <c r="G3" s="143" t="s">
+      <c r="G3" s="141" t="s">
         <v>396</v>
       </c>
-      <c r="H3" s="143" t="s">
+      <c r="H3" s="141" t="s">
         <v>395</v>
       </c>
-      <c r="I3" s="147" t="s">
+      <c r="I3" s="145" t="s">
         <v>397</v>
       </c>
-      <c r="J3" s="147" t="s">
+      <c r="J3" s="145" t="s">
         <v>396</v>
       </c>
-      <c r="K3" s="148" t="s">
+      <c r="K3" s="146" t="s">
         <v>395</v>
       </c>
       <c r="L3" s="61"/>
@@ -10203,34 +10246,34 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="61"/>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="137" t="s">
         <v>400</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="135" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="135" t="s">
         <v>396</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="135" t="s">
         <v>397</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="136" t="s">
         <v>395</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="136" t="s">
         <v>396</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="136" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="147" t="s">
         <v>395</v>
       </c>
-      <c r="J4" s="149" t="s">
+      <c r="J4" s="147" t="s">
         <v>396</v>
       </c>
-      <c r="K4" s="150" t="s">
+      <c r="K4" s="148" t="s">
         <v>397</v>
       </c>
       <c r="L4" s="61"/>
@@ -10240,24 +10283,24 @@
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="61"/>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="138" t="s">
         <v>401</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="202" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="192" t="s">
+      <c r="D5" s="202"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="203" t="s">
         <v>398</v>
       </c>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="193" t="s">
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="204" t="s">
         <v>403</v>
       </c>
-      <c r="J5" s="193"/>
-      <c r="K5" s="194"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="205"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61"/>
       <c r="N5" s="61"/>

--- a/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
+++ b/Documentation/AmiGUS/AmiGUS_Register_Map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS-pub\Documentation\AmiGUS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achte\OneDrive\Dokumente\GitHub\AmiGUS\AmiGUS\Documentation\AmiGUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EA6706-11FD-49FC-B1E4-F7108EBBC2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BF70F4-BB6B-450A-8D69-F335779D5EC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46620" yWindow="2290" windowWidth="24690" windowHeight="14600" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{25B183AC-6DDA-4ECE-8C4C-D106BCA74C97}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Register" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="512">
   <si>
     <t>Address Offset</t>
   </si>
@@ -1071,6 +1071,30 @@
     <t>Voice N End Pointer (Bits 15-1)</t>
   </si>
   <si>
+    <t>0xa0</t>
+  </si>
+  <si>
+    <t>Headphone Enhance CTRL</t>
+  </si>
+  <si>
+    <t>1 = Enable Headphone Enhance</t>
+  </si>
+  <si>
+    <t>Delay value</t>
+  </si>
+  <si>
+    <t>9-7</t>
+  </si>
+  <si>
+    <t>Echo volume shift</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1 = Invert echo phase</t>
+  </si>
+  <si>
     <t>0xf0</t>
   </si>
   <si>
@@ -1126,6 +1150,78 @@
   </si>
   <si>
     <t>Change ADC clk to 48MHz, look at TDM mode</t>
+  </si>
+  <si>
+    <t>0xa8</t>
+  </si>
+  <si>
+    <t>Chorus Effect CTRL</t>
+  </si>
+  <si>
+    <t>Chorus Effect LFO Rate</t>
+  </si>
+  <si>
+    <t>Chorus Effect LFO Scale Left</t>
+  </si>
+  <si>
+    <t>Chorus Effect LFO Scale Right</t>
+  </si>
+  <si>
+    <t>Chorus Effect Offset Left</t>
+  </si>
+  <si>
+    <t>Chorus Effect Offset Right</t>
+  </si>
+  <si>
+    <t>Chorus Effect Mix Chorus</t>
+  </si>
+  <si>
+    <t>Chorus Effect Mix Original</t>
+  </si>
+  <si>
+    <t>0xaa</t>
+  </si>
+  <si>
+    <t>0xac</t>
+  </si>
+  <si>
+    <t>0xae</t>
+  </si>
+  <si>
+    <t>0xb0</t>
+  </si>
+  <si>
+    <t>0xb2</t>
+  </si>
+  <si>
+    <t>0xb4</t>
+  </si>
+  <si>
+    <t>0xb6</t>
+  </si>
+  <si>
+    <t>1 = Enable Chorus Effect</t>
+  </si>
+  <si>
+    <t>Chorus LFO Speed</t>
+  </si>
+  <si>
+    <t>Chorus LFO Scale Left</t>
+  </si>
+  <si>
+    <t>Chorus LFO Scale Right</t>
+  </si>
+  <si>
+    <t>Chorus Delay Offset Left</t>
+  </si>
+  <si>
+    <t>Chorus Delay Offset Right</t>
+  </si>
+  <si>
+    <t>Chorus Mix Volume</t>
+  </si>
+  <si>
+    <t>Original Mix Volume</t>
   </si>
   <si>
     <t>0x50</t>
@@ -1474,47 +1570,23 @@
     <t>Category code sent to receiver</t>
   </si>
   <si>
-    <t>1001 = 96000 Hz</t>
-  </si>
-  <si>
-    <t>1000 = 64000 Hz</t>
-  </si>
-  <si>
-    <t>Voice N Envelope RESET</t>
-  </si>
-  <si>
-    <t>Reset envelope generator</t>
-  </si>
-  <si>
-    <t>Global Volume Left</t>
-  </si>
-  <si>
-    <t>Global Volume Right</t>
-  </si>
-  <si>
-    <t>Right channel global volume</t>
-  </si>
-  <si>
-    <t>Left channel global volume</t>
-  </si>
-  <si>
-    <t>0x74</t>
-  </si>
-  <si>
-    <t>Externel RESET Control</t>
-  </si>
-  <si>
-    <t>0 = DAC / MP3 no RESET</t>
-  </si>
-  <si>
-    <t>1 = DAC / MP3 assert RESET</t>
+    <t>0 = VS1063 Ready</t>
+  </si>
+  <si>
+    <t>1 = VS1063 Busy</t>
+  </si>
+  <si>
+    <t>SPI Write Data Word</t>
+  </si>
+  <si>
+    <t>SPI Read Data Word</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1543,6 +1615,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
     </font>
@@ -1621,7 +1699,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2105,6 +2183,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -2171,78 +2260,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -2258,7 +2275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2304,7 +2321,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2313,10 +2329,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2348,11 +2360,18 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2480,6 +2499,7 @@
     <xf numFmtId="49" fontId="1" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -2488,26 +2508,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2517,7 +2541,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2555,7 +2579,6 @@
     <xf numFmtId="49" fontId="1" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2607,34 +2630,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2662,14 +2696,13 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2987,23 +3020,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149:F154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="12.23046875" customWidth="1"/>
-    <col min="3" max="3" width="31.69140625" customWidth="1"/>
-    <col min="4" max="4" width="4.07421875" customWidth="1"/>
-    <col min="5" max="5" width="5.23046875" customWidth="1"/>
-    <col min="6" max="6" width="29.53515625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.7265625" customWidth="1"/>
+    <col min="4" max="4" width="4.08984375" customWidth="1"/>
+    <col min="5" max="5" width="5.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -3013,19 +3046,19 @@
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="198"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="207"/>
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="61"/>
       <c r="B3" s="80" t="s">
         <v>0</v>
@@ -3045,18 +3078,18 @@
       <c r="G3" s="61"/>
       <c r="H3" s="61"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="61"/>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="206" t="s">
+      <c r="C4" s="122" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="35">
         <v>0</v>
       </c>
       <c r="F4" s="101" t="s">
@@ -3065,14 +3098,14 @@
       <c r="G4" s="61"/>
       <c r="H4" s="61"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="61"/>
-      <c r="B5" s="150"/>
-      <c r="C5" s="206"/>
+      <c r="B5" s="153"/>
+      <c r="C5" s="122"/>
       <c r="D5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
       <c r="F5" s="101" t="s">
@@ -3081,14 +3114,14 @@
       <c r="G5" s="61"/>
       <c r="H5" s="61"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="61"/>
-      <c r="B6" s="150"/>
-      <c r="C6" s="206"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="122"/>
       <c r="D6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <v>2</v>
       </c>
       <c r="F6" s="101" t="s">
@@ -3097,14 +3130,14 @@
       <c r="G6" s="61"/>
       <c r="H6" s="61"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="61"/>
-      <c r="B7" s="150"/>
+      <c r="B7" s="153"/>
       <c r="C7" s="94"/>
       <c r="D7" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>3</v>
       </c>
       <c r="F7" s="102" t="s">
@@ -3113,14 +3146,14 @@
       <c r="G7" s="61"/>
       <c r="H7" s="61"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
-      <c r="B8" s="150"/>
-      <c r="C8" s="206"/>
+      <c r="B8" s="153"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>4</v>
       </c>
       <c r="F8" s="101" t="s">
@@ -3129,14 +3162,14 @@
       <c r="G8" s="61"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="61"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="206"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="101" t="s">
@@ -3145,14 +3178,14 @@
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="61"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="206"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="122"/>
       <c r="D10" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>6</v>
       </c>
       <c r="F10" s="101" t="s">
@@ -3161,30 +3194,30 @@
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="61"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="206"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="122"/>
       <c r="D11" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="35" t="s">
         <v>246</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="61"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="206"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="122"/>
       <c r="D12" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>15</v>
       </c>
       <c r="F12" s="101" t="s">
@@ -3193,30 +3226,30 @@
       <c r="G12" s="61"/>
       <c r="H12" s="61"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="61"/>
-      <c r="B13" s="150"/>
-      <c r="C13" s="206"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="122"/>
       <c r="D13" s="56"/>
-      <c r="E13" s="39"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="103" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="61"/>
       <c r="H13" s="61"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="61"/>
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="154" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="40">
+      <c r="D14" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="37">
         <v>0</v>
       </c>
       <c r="F14" s="104" t="s">
@@ -3225,14 +3258,14 @@
       <c r="G14" s="61"/>
       <c r="H14" s="61"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="61"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="206"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="122"/>
       <c r="D15" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="35">
         <v>1</v>
       </c>
       <c r="F15" s="101" t="s">
@@ -3241,14 +3274,14 @@
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="61"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="206"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="35">
         <v>2</v>
       </c>
       <c r="F16" s="101" t="s">
@@ -3257,14 +3290,14 @@
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="61"/>
-      <c r="B17" s="150"/>
-      <c r="C17" s="206"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="122"/>
       <c r="D17" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="35">
         <v>3</v>
       </c>
       <c r="F17" s="101" t="s">
@@ -3273,14 +3306,14 @@
       <c r="G17" s="61"/>
       <c r="H17" s="61"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="61"/>
-      <c r="B18" s="150"/>
-      <c r="C18" s="206"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="122"/>
       <c r="D18" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="35">
         <v>4</v>
       </c>
       <c r="F18" s="101" t="s">
@@ -3289,14 +3322,14 @@
       <c r="G18" s="61"/>
       <c r="H18" s="61"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="61"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="206"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="122"/>
       <c r="D19" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>5</v>
       </c>
       <c r="F19" s="101" t="s">
@@ -3305,14 +3338,14 @@
       <c r="G19" s="61"/>
       <c r="H19" s="61"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="61"/>
-      <c r="B20" s="150"/>
-      <c r="C20" s="206"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="122"/>
       <c r="D20" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="35">
         <v>6</v>
       </c>
       <c r="F20" s="101" t="s">
@@ -3321,30 +3354,30 @@
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="61"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="206"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="122"/>
       <c r="D21" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="38" t="s">
+      <c r="E21" s="35" t="s">
         <v>246</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="61"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="206"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="35">
         <v>15</v>
       </c>
       <c r="F22" s="101" t="s">
@@ -3353,106 +3386,106 @@
       <c r="G22" s="61"/>
       <c r="H22" s="61"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="61"/>
-      <c r="B23" s="152"/>
+      <c r="B23" s="155"/>
       <c r="C23" s="96"/>
       <c r="D23" s="56"/>
-      <c r="E23" s="39"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="103" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="61"/>
       <c r="H23" s="61"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="61"/>
-      <c r="B24" s="151" t="s">
+      <c r="B24" s="154" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="95" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>388</v>
+      <c r="D24" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>420</v>
       </c>
       <c r="F24" s="104" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="G24" s="61"/>
       <c r="H24" s="61"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="61"/>
-      <c r="B25" s="150"/>
-      <c r="C25" s="206"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="38"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="101" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="G25" s="61"/>
       <c r="H25" s="61"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="61"/>
-      <c r="B26" s="150"/>
-      <c r="C26" s="206"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="122"/>
       <c r="D26" s="45"/>
-      <c r="E26" s="38"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="101" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
       <c r="G26" s="61"/>
       <c r="H26" s="61"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="61"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="206"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="122"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="38"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="101" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="G27" s="61"/>
       <c r="H27" s="61"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="61"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="206"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="45"/>
-      <c r="E28" s="38"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="101" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="61"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="206"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="45"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="35"/>
       <c r="F29" s="101" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="61"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="153"/>
       <c r="C30" s="94"/>
       <c r="D30" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="35" t="s">
         <v>224</v>
       </c>
       <c r="F30" s="102" t="s">
@@ -3461,14 +3494,14 @@
       <c r="G30" s="61"/>
       <c r="H30" s="61"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="61"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="206"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="122"/>
       <c r="D31" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="35" t="s">
         <v>300</v>
       </c>
       <c r="F31" s="111" t="s">
@@ -3476,25 +3509,25 @@
       </c>
       <c r="H31" s="61"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="61"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="206"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="45"/>
-      <c r="E32" s="38"/>
+      <c r="E32" s="35"/>
       <c r="F32" s="111" t="s">
         <v>304</v>
       </c>
       <c r="H32" s="61"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="61"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="206"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="122"/>
       <c r="D33" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="35" t="s">
         <v>243</v>
       </c>
       <c r="F33" s="111" t="s">
@@ -3502,29 +3535,29 @@
       </c>
       <c r="H33" s="61"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="61"/>
-      <c r="B34" s="150"/>
-      <c r="C34" s="206"/>
+      <c r="B34" s="153"/>
+      <c r="C34" s="122"/>
       <c r="D34" s="56"/>
-      <c r="E34" s="38"/>
+      <c r="E34" s="35"/>
       <c r="F34" s="105" t="s">
         <v>302</v>
       </c>
       <c r="H34" s="61"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="61"/>
-      <c r="B35" s="151" t="s">
+      <c r="B35" s="154" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="D35" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E35" s="40" t="s">
+      <c r="D35" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="37" t="s">
         <v>80</v>
       </c>
       <c r="F35" s="104" t="s">
@@ -3533,110 +3566,110 @@
       <c r="G35" s="61"/>
       <c r="H35" s="61"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="61"/>
-      <c r="B36" s="150"/>
-      <c r="C36" s="206"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="122"/>
       <c r="D36" s="45"/>
-      <c r="E36" s="38"/>
+      <c r="E36" s="35"/>
       <c r="F36" s="101" t="s">
         <v>82</v>
       </c>
       <c r="G36" s="61"/>
       <c r="H36" s="61"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="61"/>
-      <c r="B37" s="150"/>
-      <c r="C37" s="206"/>
+      <c r="B37" s="153"/>
+      <c r="C37" s="122"/>
       <c r="D37" s="45"/>
-      <c r="E37" s="38"/>
+      <c r="E37" s="35"/>
       <c r="F37" s="101" t="s">
         <v>83</v>
       </c>
       <c r="G37" s="61"/>
       <c r="H37" s="61"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="61"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="206"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="122"/>
       <c r="D38" s="45"/>
-      <c r="E38" s="38"/>
+      <c r="E38" s="35"/>
       <c r="F38" s="101" t="s">
         <v>84</v>
       </c>
       <c r="G38" s="61"/>
       <c r="H38" s="61"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="61"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="206"/>
+      <c r="B39" s="153"/>
+      <c r="C39" s="122"/>
       <c r="D39" s="45"/>
-      <c r="E39" s="38"/>
+      <c r="E39" s="35"/>
       <c r="F39" s="101" t="s">
         <v>85</v>
       </c>
       <c r="G39" s="61"/>
       <c r="H39" s="61"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="61"/>
-      <c r="B40" s="150"/>
-      <c r="C40" s="206"/>
+      <c r="B40" s="153"/>
+      <c r="C40" s="122"/>
       <c r="D40" s="45"/>
-      <c r="E40" s="38"/>
+      <c r="E40" s="35"/>
       <c r="F40" s="101" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="61"/>
       <c r="H40" s="61"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="61"/>
-      <c r="B41" s="150"/>
-      <c r="C41" s="206"/>
+      <c r="B41" s="153"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="45"/>
-      <c r="E41" s="38"/>
+      <c r="E41" s="35"/>
       <c r="F41" s="101" t="s">
         <v>87</v>
       </c>
       <c r="G41" s="61"/>
       <c r="H41" s="61"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="61"/>
-      <c r="B42" s="150"/>
-      <c r="C42" s="206"/>
+      <c r="B42" s="153"/>
+      <c r="C42" s="122"/>
       <c r="D42" s="45"/>
-      <c r="E42" s="38"/>
+      <c r="E42" s="35"/>
       <c r="F42" s="101" t="s">
         <v>88</v>
       </c>
       <c r="G42" s="61"/>
       <c r="H42" s="61"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="61"/>
-      <c r="B43" s="150"/>
-      <c r="C43" s="206"/>
+      <c r="B43" s="153"/>
+      <c r="C43" s="122"/>
       <c r="D43" s="45"/>
-      <c r="E43" s="38"/>
+      <c r="E43" s="35"/>
       <c r="F43" s="101" t="s">
         <v>89</v>
       </c>
       <c r="G43" s="61"/>
       <c r="H43" s="61"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="61"/>
-      <c r="B44" s="150"/>
-      <c r="C44" s="206"/>
+      <c r="B44" s="153"/>
+      <c r="C44" s="122"/>
       <c r="D44" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="35">
         <v>14</v>
       </c>
       <c r="F44" s="101" t="s">
@@ -3645,26 +3678,26 @@
       <c r="G44" s="61"/>
       <c r="H44" s="61"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="61"/>
-      <c r="B45" s="150"/>
-      <c r="C45" s="206"/>
+      <c r="B45" s="153"/>
+      <c r="C45" s="122"/>
       <c r="D45" s="45"/>
-      <c r="E45" s="38"/>
+      <c r="E45" s="35"/>
       <c r="F45" s="101" t="s">
         <v>91</v>
       </c>
       <c r="G45" s="61"/>
       <c r="H45" s="61"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="61"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="206"/>
+      <c r="B46" s="153"/>
+      <c r="C46" s="122"/>
       <c r="D46" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <v>15</v>
       </c>
       <c r="F46" s="105" t="s">
@@ -3673,21 +3706,21 @@
       <c r="G46" s="61"/>
       <c r="H46" s="61"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="61"/>
-      <c r="B47" s="152"/>
+      <c r="B47" s="155"/>
       <c r="C47" s="96"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="39"/>
+      <c r="E47" s="36"/>
       <c r="F47" s="106" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="61"/>
       <c r="H47" s="61"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="61"/>
-      <c r="B48" s="153" t="s">
+      <c r="B48" s="156" t="s">
         <v>21</v>
       </c>
       <c r="C48" s="97" t="s">
@@ -3696,7 +3729,7 @@
       <c r="D48" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="107" t="s">
@@ -3705,9 +3738,9 @@
       <c r="G48" s="61"/>
       <c r="H48" s="61"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="61"/>
-      <c r="B49" s="153" t="s">
+      <c r="B49" s="156" t="s">
         <v>24</v>
       </c>
       <c r="C49" s="97" t="s">
@@ -3716,7 +3749,7 @@
       <c r="D49" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="39" t="s">
         <v>25</v>
       </c>
       <c r="F49" s="107" t="s">
@@ -3725,9 +3758,9 @@
       <c r="G49" s="61"/>
       <c r="H49" s="61"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="61"/>
-      <c r="B50" s="153" t="s">
+      <c r="B50" s="156" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="97" t="s">
@@ -3736,7 +3769,7 @@
       <c r="D50" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F50" s="107" t="s">
@@ -3745,9 +3778,9 @@
       <c r="G50" s="61"/>
       <c r="H50" s="61"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="61"/>
-      <c r="B51" s="153" t="s">
+      <c r="B51" s="156" t="s">
         <v>31</v>
       </c>
       <c r="C51" s="97" t="s">
@@ -3756,7 +3789,7 @@
       <c r="D51" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F51" s="107" t="s">
@@ -3765,47 +3798,47 @@
       <c r="G51" s="61"/>
       <c r="H51" s="61"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="61"/>
-      <c r="B52" s="153" t="s">
+      <c r="B52" s="156" t="s">
         <v>182</v>
       </c>
       <c r="C52" s="107" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="D52" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="G52" s="61"/>
       <c r="H52" s="61"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="61"/>
-      <c r="B53" s="153" t="s">
+      <c r="B53" s="156" t="s">
         <v>188</v>
       </c>
       <c r="C53" s="107" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="D53" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F53" s="107" t="s">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="G53" s="61"/>
       <c r="H53" s="61"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="61"/>
       <c r="B54" s="88" t="s">
         <v>37</v>
@@ -3816,7 +3849,7 @@
       <c r="D54" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="42" t="s">
+      <c r="E54" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F54" s="108" t="s">
@@ -3825,7 +3858,7 @@
       <c r="G54" s="61"/>
       <c r="H54" s="61"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="61"/>
       <c r="B55" s="88" t="s">
         <v>40</v>
@@ -3836,7 +3869,7 @@
       <c r="D55" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E55" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F55" s="108" t="s">
@@ -3845,7 +3878,7 @@
       <c r="G55" s="61"/>
       <c r="H55" s="61"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="61"/>
       <c r="B56" s="88" t="s">
         <v>43</v>
@@ -3856,7 +3889,7 @@
       <c r="D56" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="108" t="s">
@@ -3865,7 +3898,7 @@
       <c r="G56" s="61"/>
       <c r="H56" s="61"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="61"/>
       <c r="B57" s="88" t="s">
         <v>51</v>
@@ -3876,7 +3909,7 @@
       <c r="D57" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E57" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F57" s="108" t="s">
@@ -3885,7 +3918,7 @@
       <c r="G57" s="61"/>
       <c r="H57" s="61"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="61"/>
       <c r="B58" s="88" t="s">
         <v>50</v>
@@ -3896,7 +3929,7 @@
       <c r="D58" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="39" t="s">
         <v>41</v>
       </c>
       <c r="F58" s="108" t="s">
@@ -3905,18 +3938,18 @@
       <c r="G58" s="61"/>
       <c r="H58" s="61"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="61"/>
       <c r="B59" s="86" t="s">
         <v>77</v>
       </c>
       <c r="C59" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="D59" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="D59" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>15</v>
       </c>
       <c r="F59" s="109" t="s">
@@ -3925,21 +3958,21 @@
       <c r="G59" s="61"/>
       <c r="H59" s="61"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="61"/>
       <c r="B60" s="87"/>
       <c r="C60" s="100"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="39"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="110" t="s">
         <v>79</v>
       </c>
       <c r="G60" s="61"/>
       <c r="H60" s="61"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="61"/>
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="156" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="98" t="s">
@@ -3948,18 +3981,18 @@
       <c r="D61" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="42" t="s">
+      <c r="E61" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="G61" s="61"/>
       <c r="H61" s="61"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="61"/>
-      <c r="B62" s="153" t="s">
+      <c r="B62" s="156" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="98" t="s">
@@ -3968,1429 +4001,1612 @@
       <c r="D62" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="42" t="s">
+      <c r="E62" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F62" s="108" t="s">
-        <v>431</v>
+        <v>463</v>
       </c>
       <c r="G62" s="61"/>
       <c r="H62" s="61"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="61"/>
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="156" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="42" t="s">
+      <c r="E63" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F63" s="108" t="s">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="G63" s="61"/>
       <c r="H63" s="61"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="61"/>
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="156" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="42" t="s">
+      <c r="E64" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="108" t="s">
-        <v>433</v>
+        <v>465</v>
       </c>
       <c r="G64" s="61"/>
       <c r="H64" s="61"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="61"/>
-      <c r="B65" s="153" t="s">
+      <c r="B65" s="156" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="42" t="s">
+      <c r="E65" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F65" s="108" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="G65" s="61"/>
       <c r="H65" s="61"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="61"/>
-      <c r="B66" s="153" t="s">
+      <c r="B66" s="156" t="s">
         <v>65</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>411</v>
+        <v>443</v>
       </c>
       <c r="D66" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E66" s="42" t="s">
+      <c r="E66" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F66" s="108" t="s">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="G66" s="61"/>
       <c r="H66" s="61"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="61"/>
-      <c r="B67" s="153" t="s">
+      <c r="B67" s="156" t="s">
         <v>66</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="D67" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E67" s="42" t="s">
+      <c r="E67" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F67" s="108" t="s">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="G67" s="61"/>
       <c r="H67" s="61"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="61"/>
-      <c r="B68" s="153" t="s">
+      <c r="B68" s="156" t="s">
         <v>67</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>413</v>
+        <v>445</v>
       </c>
       <c r="D68" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="42" t="s">
+      <c r="E68" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F68" s="108" t="s">
-        <v>437</v>
+        <v>469</v>
       </c>
       <c r="G68" s="61"/>
       <c r="H68" s="61"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="61"/>
-      <c r="B69" s="153" t="s">
+      <c r="B69" s="156" t="s">
         <v>61</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="42" t="s">
+      <c r="E69" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F69" s="108" t="s">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="G69" s="61"/>
       <c r="H69" s="61"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="61"/>
-      <c r="B70" s="153" t="s">
+      <c r="B70" s="156" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="D70" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="42" t="s">
+      <c r="E70" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F70" s="108" t="s">
-        <v>439</v>
+        <v>471</v>
       </c>
       <c r="G70" s="61"/>
       <c r="H70" s="61"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="61"/>
-      <c r="B71" s="153" t="s">
+      <c r="B71" s="156" t="s">
         <v>63</v>
       </c>
       <c r="C71" s="98" t="s">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="D71" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="42" t="s">
+      <c r="E71" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F71" s="108" t="s">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="G71" s="61"/>
       <c r="H71" s="61"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="61"/>
-      <c r="B72" s="153" t="s">
+      <c r="B72" s="156" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>415</v>
+        <v>447</v>
       </c>
       <c r="D72" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E72" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F72" s="108" t="s">
-        <v>441</v>
+        <v>473</v>
       </c>
       <c r="G72" s="61"/>
       <c r="H72" s="61"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="61"/>
-      <c r="B73" s="151" t="s">
-        <v>417</v>
+      <c r="B73" s="154" t="s">
+        <v>449</v>
       </c>
       <c r="C73" s="99" t="s">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="40" t="s">
+      <c r="E73" s="37" t="s">
         <v>186</v>
       </c>
       <c r="F73" s="112" t="s">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="G73" s="61"/>
       <c r="H73" s="61"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="61"/>
-      <c r="B74" s="150"/>
+      <c r="B74" s="153"/>
       <c r="C74" s="94"/>
       <c r="D74" s="45"/>
-      <c r="E74" s="38"/>
+      <c r="E74" s="35"/>
       <c r="F74" s="111" t="s">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="G74" s="61"/>
       <c r="H74" s="61"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="61"/>
-      <c r="B75" s="150"/>
+      <c r="B75" s="153"/>
       <c r="C75" s="94"/>
       <c r="D75" s="45"/>
-      <c r="E75" s="38" t="s">
-        <v>398</v>
+      <c r="E75" s="35" t="s">
+        <v>430</v>
       </c>
       <c r="F75" s="111" t="s">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="G75" s="61"/>
       <c r="H75" s="61"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="61"/>
-      <c r="B76" s="154"/>
+      <c r="B76" s="157"/>
       <c r="C76" s="94"/>
       <c r="D76" s="45"/>
-      <c r="E76" s="39"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="105" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="G76" s="61"/>
       <c r="H76" s="61"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="61"/>
-      <c r="B77" s="155" t="s">
-        <v>419</v>
+      <c r="B77" s="158" t="s">
+        <v>451</v>
       </c>
       <c r="C77" s="99" t="s">
-        <v>423</v>
+        <v>455</v>
       </c>
       <c r="D77" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="40" t="s">
+      <c r="E77" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F77" s="112" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="G77" s="61"/>
       <c r="H77" s="61"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="61"/>
-      <c r="B78" s="155" t="s">
-        <v>421</v>
+      <c r="B78" s="158" t="s">
+        <v>453</v>
       </c>
       <c r="C78" s="99" t="s">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="D78" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E78" s="40" t="s">
+      <c r="E78" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F78" s="112" t="s">
-        <v>443</v>
+        <v>475</v>
       </c>
       <c r="G78" s="61"/>
       <c r="H78" s="61"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="61"/>
-      <c r="B79" s="155" t="s">
-        <v>424</v>
+      <c r="B79" s="158" t="s">
+        <v>456</v>
       </c>
       <c r="C79" s="99" t="s">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="D79" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F79" s="112" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="G79" s="61"/>
       <c r="H79" s="61"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="61"/>
       <c r="B80" s="89" t="s">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="C80" s="99" t="s">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="D80" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F80" s="112"/>
       <c r="G80" s="61"/>
       <c r="H80" s="61"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="61"/>
       <c r="B81" s="89" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C81" s="99" t="s">
-        <v>373</v>
-      </c>
-      <c r="D81" s="44" t="s">
+        <v>405</v>
+      </c>
+      <c r="D81" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F81" s="108"/>
       <c r="G81" s="61"/>
       <c r="H81" s="61"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="61"/>
       <c r="B82" s="89" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
       <c r="C82" s="99" t="s">
-        <v>364</v>
-      </c>
-      <c r="D82" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="D82" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F82" s="112"/>
       <c r="G82" s="61"/>
       <c r="H82" s="61"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="61"/>
       <c r="B83" s="89" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C83" s="99" t="s">
-        <v>365</v>
-      </c>
-      <c r="D83" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="D83" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F83" s="112"/>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="61"/>
       <c r="B84" s="89" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
       <c r="C84" s="99" t="s">
-        <v>366</v>
-      </c>
-      <c r="D84" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="D84" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F84" s="112"/>
       <c r="G84" s="61"/>
       <c r="H84" s="61"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="61"/>
       <c r="B85" s="89" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="C85" s="99" t="s">
-        <v>367</v>
-      </c>
-      <c r="D85" s="44" t="s">
+        <v>399</v>
+      </c>
+      <c r="D85" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="37" t="s">
         <v>197</v>
       </c>
       <c r="F85" s="112"/>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="61"/>
       <c r="B86" s="89" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
       <c r="C86" s="99" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
       <c r="D86" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F86" s="112"/>
       <c r="G86" s="61"/>
       <c r="H86" s="61"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="61"/>
       <c r="B87" s="89" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="C87" s="99" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="D87" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="37" t="s">
         <v>27</v>
       </c>
       <c r="F87" s="112"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="61"/>
       <c r="B88" s="89" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
       <c r="C88" s="99" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="D88" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="40" t="s">
+      <c r="E88" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F88" s="112"/>
       <c r="G88" s="61"/>
       <c r="H88" s="61"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="61"/>
       <c r="B89" s="89" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="C89" s="99" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
       <c r="D89" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="40" t="s">
+      <c r="E89" s="37" t="s">
         <v>22</v>
       </c>
       <c r="F89" s="112"/>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="61"/>
       <c r="B90" s="88" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="D90" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F90" s="108"/>
       <c r="G90" s="61"/>
       <c r="H90" s="61"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="61"/>
       <c r="B91" s="90" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C91" s="99" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="D91" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="E91" s="134" t="s">
+      <c r="E91" s="137" t="s">
         <v>197</v>
       </c>
       <c r="F91" s="109" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="61"/>
       <c r="B92" s="87"/>
       <c r="C92" s="100"/>
       <c r="D92" s="45"/>
-      <c r="E92" s="39"/>
+      <c r="E92" s="36"/>
       <c r="F92" s="110" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="G92" s="61"/>
       <c r="H92" s="61"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="61"/>
-      <c r="B93" s="154" t="s">
-        <v>465</v>
+      <c r="B93" s="157" t="s">
+        <v>497</v>
       </c>
       <c r="C93" s="94" t="s">
-        <v>464</v>
-      </c>
-      <c r="D93" s="44" t="s">
+        <v>496</v>
+      </c>
+      <c r="D93" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E93" s="93" t="s">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="F93" s="111" t="s">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="61"/>
-      <c r="B94" s="154"/>
+      <c r="B94" s="157"/>
       <c r="C94" s="94"/>
       <c r="D94" s="45"/>
       <c r="E94" s="93"/>
       <c r="F94" s="111" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="G94" s="61"/>
       <c r="H94" s="61"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="61"/>
-      <c r="B95" s="152"/>
+      <c r="B95" s="155"/>
       <c r="C95" s="94"/>
       <c r="D95" s="45"/>
-      <c r="E95" s="39"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="111" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="61"/>
-      <c r="B96" s="154" t="s">
-        <v>473</v>
+      <c r="B96" s="157" t="s">
+        <v>505</v>
       </c>
       <c r="C96" s="99" t="s">
-        <v>474</v>
-      </c>
-      <c r="D96" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="D96" s="43" t="s">
         <v>32</v>
       </c>
       <c r="E96" s="93" t="s">
         <v>41</v>
       </c>
       <c r="F96" s="109" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="G96" s="61"/>
       <c r="H96" s="61"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="61"/>
-      <c r="B97" s="154"/>
+      <c r="B97" s="157"/>
       <c r="C97" s="94"/>
       <c r="D97" s="45"/>
       <c r="E97" s="93" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="F97" s="111" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="61"/>
-      <c r="B98" s="150"/>
-      <c r="C98" s="94"/>
+      <c r="B98" s="155"/>
+      <c r="C98" s="100"/>
       <c r="D98" s="45"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="111" t="s">
-        <v>472</v>
+      <c r="E98" s="36"/>
+      <c r="F98" s="110" t="s">
+        <v>504</v>
       </c>
       <c r="G98" s="61"/>
       <c r="H98" s="61"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="61"/>
-      <c r="B99" s="155" t="s">
-        <v>484</v>
+      <c r="B99" s="89" t="s">
+        <v>275</v>
       </c>
       <c r="C99" s="99" t="s">
-        <v>485</v>
-      </c>
-      <c r="D99" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D99" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E99" s="37" t="s">
         <v>186</v>
       </c>
       <c r="F99" s="109" t="s">
-        <v>486</v>
+        <v>293</v>
       </c>
       <c r="G99" s="61"/>
       <c r="H99" s="61"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="61"/>
-      <c r="B100" s="180"/>
-      <c r="C100" s="100"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="110" t="s">
-        <v>487</v>
+      <c r="B100" s="84"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="35"/>
+      <c r="F100" s="105" t="s">
+        <v>294</v>
       </c>
       <c r="G100" s="61"/>
       <c r="H100" s="61"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="61"/>
-      <c r="B101" s="89" t="s">
-        <v>275</v>
-      </c>
-      <c r="C101" s="99" t="s">
-        <v>276</v>
-      </c>
-      <c r="D101" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="F101" s="109" t="s">
-        <v>293</v>
+      <c r="B101" s="84"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E101" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="F101" s="111" t="s">
+        <v>296</v>
       </c>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="61"/>
       <c r="B102" s="84"/>
       <c r="C102" s="94"/>
       <c r="D102" s="45"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="105" t="s">
-        <v>294</v>
+      <c r="E102" s="35"/>
+      <c r="F102" s="111" t="s">
+        <v>297</v>
       </c>
       <c r="G102" s="61"/>
       <c r="H102" s="61"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="61"/>
-      <c r="B103" s="84"/>
+      <c r="B103" s="90"/>
       <c r="C103" s="94"/>
-      <c r="D103" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E103" s="38" t="s">
-        <v>295</v>
-      </c>
+      <c r="D103" s="45"/>
+      <c r="E103" s="35"/>
       <c r="F103" s="111" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="61"/>
       <c r="B104" s="84"/>
       <c r="C104" s="94"/>
       <c r="D104" s="45"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="111" t="s">
-        <v>297</v>
+      <c r="E104" s="93"/>
+      <c r="F104" s="105" t="s">
+        <v>299</v>
       </c>
       <c r="G104" s="61"/>
       <c r="H104" s="61"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="61"/>
-      <c r="B105" s="90"/>
+      <c r="B105" s="84"/>
       <c r="C105" s="94"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="38"/>
+      <c r="D105" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E105" s="35" t="s">
+        <v>224</v>
+      </c>
       <c r="F105" s="111" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="61"/>
       <c r="B106" s="84"/>
       <c r="C106" s="94"/>
       <c r="D106" s="45"/>
-      <c r="E106" s="93"/>
-      <c r="F106" s="105" t="s">
-        <v>299</v>
+      <c r="E106" s="35"/>
+      <c r="F106" s="111" t="s">
+        <v>304</v>
       </c>
       <c r="G106" s="61"/>
       <c r="H106" s="61"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="61"/>
       <c r="B107" s="84"/>
       <c r="C107" s="94"/>
       <c r="D107" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E107" s="38" t="s">
-        <v>224</v>
+      <c r="E107" s="35" t="s">
+        <v>300</v>
       </c>
       <c r="F107" s="111" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="61"/>
-      <c r="B108" s="84"/>
+      <c r="B108" s="90"/>
       <c r="C108" s="94"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="111" t="s">
-        <v>304</v>
+      <c r="D108" s="56"/>
+      <c r="E108" s="35"/>
+      <c r="F108" s="105" t="s">
+        <v>302</v>
       </c>
       <c r="G108" s="61"/>
       <c r="H108" s="61"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="61"/>
-      <c r="B109" s="84"/>
-      <c r="C109" s="94"/>
-      <c r="D109" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="F109" s="111" t="s">
-        <v>301</v>
+      <c r="B109" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C109" s="99" t="s">
+        <v>277</v>
+      </c>
+      <c r="D109" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E109" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="F109" s="104" t="s">
+        <v>81</v>
       </c>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="61"/>
-      <c r="B110" s="90"/>
+      <c r="B110" s="84"/>
       <c r="C110" s="94"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="105" t="s">
-        <v>302</v>
+      <c r="D110" s="45"/>
+      <c r="E110" s="35"/>
+      <c r="F110" s="101" t="s">
+        <v>82</v>
       </c>
       <c r="G110" s="61"/>
       <c r="H110" s="61"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="61"/>
-      <c r="B111" s="86" t="s">
-        <v>284</v>
-      </c>
-      <c r="C111" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="D111" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="F111" s="104" t="s">
-        <v>81</v>
+      <c r="B111" s="90"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="101" t="s">
+        <v>83</v>
       </c>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="61"/>
       <c r="B112" s="84"/>
       <c r="C112" s="94"/>
       <c r="D112" s="45"/>
-      <c r="E112" s="38"/>
+      <c r="E112" s="35"/>
       <c r="F112" s="101" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G112" s="61"/>
       <c r="H112" s="61"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="61"/>
-      <c r="B113" s="90"/>
+      <c r="B113" s="84"/>
       <c r="C113" s="94"/>
       <c r="D113" s="45"/>
-      <c r="E113" s="38"/>
+      <c r="E113" s="35"/>
       <c r="F113" s="101" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="61"/>
-      <c r="B114" s="84"/>
+      <c r="B114" s="90"/>
       <c r="C114" s="94"/>
       <c r="D114" s="45"/>
-      <c r="E114" s="38"/>
+      <c r="E114" s="35"/>
       <c r="F114" s="101" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G114" s="61"/>
       <c r="H114" s="61"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="61"/>
       <c r="B115" s="84"/>
       <c r="C115" s="94"/>
       <c r="D115" s="45"/>
-      <c r="E115" s="38"/>
+      <c r="E115" s="35"/>
       <c r="F115" s="101" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="61"/>
-      <c r="B116" s="90"/>
+      <c r="B116" s="84"/>
       <c r="C116" s="94"/>
       <c r="D116" s="45"/>
-      <c r="E116" s="38"/>
+      <c r="E116" s="35"/>
       <c r="F116" s="101" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G116" s="61"/>
       <c r="H116" s="61"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="61"/>
       <c r="B117" s="84"/>
       <c r="C117" s="94"/>
       <c r="D117" s="45"/>
-      <c r="E117" s="38"/>
+      <c r="E117" s="35"/>
       <c r="F117" s="101" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G117" s="61"/>
       <c r="H117" s="61"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="61"/>
       <c r="B118" s="84"/>
       <c r="C118" s="94"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="38"/>
+      <c r="D118" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="35" t="s">
+        <v>287</v>
+      </c>
       <c r="F118" s="101" t="s">
-        <v>88</v>
+        <v>288</v>
       </c>
       <c r="G118" s="61"/>
       <c r="H118" s="61"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="61"/>
       <c r="B119" s="84"/>
       <c r="C119" s="94"/>
       <c r="D119" s="45"/>
-      <c r="E119" s="38"/>
+      <c r="E119" s="35"/>
       <c r="F119" s="101" t="s">
-        <v>477</v>
+        <v>289</v>
       </c>
       <c r="G119" s="61"/>
       <c r="H119" s="61"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="61"/>
       <c r="B120" s="84"/>
       <c r="C120" s="94"/>
       <c r="D120" s="45"/>
-      <c r="E120" s="38"/>
+      <c r="E120" s="35"/>
       <c r="F120" s="101" t="s">
-        <v>476</v>
+        <v>290</v>
       </c>
       <c r="G120" s="61"/>
       <c r="H120" s="61"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="61"/>
       <c r="B121" s="84"/>
       <c r="C121" s="94"/>
-      <c r="D121" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="38" t="s">
-        <v>287</v>
-      </c>
+      <c r="D121" s="45"/>
+      <c r="E121" s="35"/>
       <c r="F121" s="101" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="G121" s="61"/>
       <c r="H121" s="61"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="61"/>
       <c r="B122" s="84"/>
       <c r="C122" s="94"/>
       <c r="D122" s="45"/>
-      <c r="E122" s="38"/>
+      <c r="E122" s="35"/>
       <c r="F122" s="101" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G122" s="61"/>
       <c r="H122" s="61"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="61"/>
       <c r="B123" s="84"/>
       <c r="C123" s="94"/>
-      <c r="D123" s="45"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="101" t="s">
-        <v>290</v>
+      <c r="D123" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E123" s="35">
+        <v>15</v>
+      </c>
+      <c r="F123" s="105" t="s">
+        <v>285</v>
       </c>
       <c r="G123" s="61"/>
       <c r="H123" s="61"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="61"/>
-      <c r="B124" s="84"/>
+      <c r="B124" s="90"/>
       <c r="C124" s="94"/>
-      <c r="D124" s="45"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="101" t="s">
-        <v>291</v>
+      <c r="D124" s="56"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="106" t="s">
+        <v>286</v>
       </c>
       <c r="G124" s="61"/>
       <c r="H124" s="61"/>
     </row>
-    <row r="125" spans="1:8" ht="14.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="61"/>
-      <c r="B125" s="84"/>
-      <c r="C125" s="94"/>
-      <c r="D125" s="45"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="101" t="s">
-        <v>292</v>
+      <c r="B125" s="86" t="s">
+        <v>316</v>
+      </c>
+      <c r="C125" s="95" t="s">
+        <v>312</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" s="106" t="s">
+        <v>314</v>
       </c>
       <c r="G125" s="61"/>
       <c r="H125" s="61"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="61"/>
-      <c r="B126" s="84"/>
-      <c r="C126" s="94"/>
+      <c r="B126" s="88" t="s">
+        <v>317</v>
+      </c>
+      <c r="C126" s="95" t="s">
+        <v>313</v>
+      </c>
       <c r="D126" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E126" s="38">
-        <v>15</v>
-      </c>
-      <c r="F126" s="105" t="s">
-        <v>285</v>
+      <c r="E126" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126" s="106" t="s">
+        <v>315</v>
       </c>
       <c r="G126" s="61"/>
       <c r="H126" s="61"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="61"/>
-      <c r="B127" s="90"/>
-      <c r="C127" s="94"/>
-      <c r="D127" s="56"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="106" t="s">
-        <v>286</v>
+      <c r="B127" s="88" t="s">
+        <v>318</v>
+      </c>
+      <c r="C127" s="97" t="s">
+        <v>305</v>
+      </c>
+      <c r="D127" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="E127" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="107" t="s">
+        <v>309</v>
       </c>
       <c r="G127" s="61"/>
       <c r="H127" s="61"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="61"/>
-      <c r="B128" s="86" t="s">
-        <v>316</v>
-      </c>
-      <c r="C128" s="95" t="s">
-        <v>312</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>32</v>
+      <c r="B128" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="C128" s="97" t="s">
+        <v>306</v>
+      </c>
+      <c r="D128" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="E128" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128" s="106" t="s">
-        <v>314</v>
+        <v>25</v>
+      </c>
+      <c r="F128" s="107" t="s">
+        <v>310</v>
       </c>
       <c r="G128" s="61"/>
       <c r="H128" s="61"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="61"/>
       <c r="B129" s="88" t="s">
-        <v>317</v>
-      </c>
-      <c r="C129" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="D129" s="45" t="s">
-        <v>32</v>
+        <v>320</v>
+      </c>
+      <c r="C129" s="97" t="s">
+        <v>308</v>
+      </c>
+      <c r="D129" s="48" t="s">
+        <v>33</v>
       </c>
       <c r="E129" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="F129" s="106" t="s">
-        <v>315</v>
+      <c r="F129" s="107" t="s">
+        <v>325</v>
       </c>
       <c r="G129" s="61"/>
       <c r="H129" s="61"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="61"/>
       <c r="B130" s="88" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C130" s="97" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D130" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="E130" s="42" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="E130" s="39" t="s">
+        <v>27</v>
       </c>
       <c r="F130" s="107" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G130" s="61"/>
       <c r="H130" s="61"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="61"/>
-      <c r="B131" s="88" t="s">
-        <v>319</v>
-      </c>
-      <c r="C131" s="97" t="s">
-        <v>306</v>
-      </c>
-      <c r="D131" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E131" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" s="107" t="s">
-        <v>310</v>
+      <c r="B131" s="190" t="s">
+        <v>343</v>
+      </c>
+      <c r="C131" s="191" t="s">
+        <v>344</v>
+      </c>
+      <c r="D131" s="192" t="s">
+        <v>32</v>
+      </c>
+      <c r="E131" s="193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" s="194" t="s">
+        <v>346</v>
       </c>
       <c r="G131" s="61"/>
       <c r="H131" s="61"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="61"/>
-      <c r="B132" s="88" t="s">
-        <v>320</v>
-      </c>
-      <c r="C132" s="97" t="s">
-        <v>308</v>
-      </c>
-      <c r="D132" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E132" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F132" s="107" t="s">
-        <v>325</v>
+      <c r="B132" s="195"/>
+      <c r="C132" s="196"/>
+      <c r="D132" s="197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E132" s="198" t="s">
+        <v>347</v>
+      </c>
+      <c r="F132" s="199" t="s">
+        <v>348</v>
       </c>
       <c r="G132" s="61"/>
       <c r="H132" s="61"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="61"/>
-      <c r="B133" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="C133" s="97" t="s">
-        <v>307</v>
-      </c>
-      <c r="D133" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E133" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F133" s="107" t="s">
-        <v>311</v>
+      <c r="B133" s="195"/>
+      <c r="C133" s="200"/>
+      <c r="D133" s="197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E133" s="198" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" s="199" t="s">
+        <v>350</v>
       </c>
       <c r="G133" s="61"/>
       <c r="H133" s="61"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="61"/>
-      <c r="B134" s="155" t="s">
-        <v>68</v>
-      </c>
-      <c r="C134" s="99" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="40">
-        <v>0</v>
-      </c>
-      <c r="F134" s="112" t="s">
-        <v>70</v>
+      <c r="B134" s="195"/>
+      <c r="C134" s="200"/>
+      <c r="D134" s="197" t="s">
+        <v>32</v>
+      </c>
+      <c r="E134" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="F134" s="201" t="s">
+        <v>345</v>
       </c>
       <c r="G134" s="61"/>
       <c r="H134" s="61"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="61"/>
-      <c r="B135" s="154"/>
-      <c r="C135" s="94"/>
-      <c r="D135" s="45"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="105" t="s">
-        <v>71</v>
+      <c r="B135" s="185" t="s">
+        <v>370</v>
+      </c>
+      <c r="C135" s="186" t="s">
+        <v>371</v>
+      </c>
+      <c r="D135" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E135" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="F135" s="189" t="s">
+        <v>386</v>
       </c>
       <c r="G135" s="61"/>
       <c r="H135" s="61"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="61"/>
-      <c r="B136" s="154"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="38">
-        <v>1</v>
-      </c>
-      <c r="F136" s="105" t="s">
-        <v>72</v>
+      <c r="B136" s="185" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" s="186" t="s">
+        <v>372</v>
+      </c>
+      <c r="D136" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E136" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" s="189" t="s">
+        <v>387</v>
       </c>
       <c r="G136" s="61"/>
       <c r="H136" s="61"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="61"/>
-      <c r="B137" s="180"/>
-      <c r="C137" s="100"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="106" t="s">
-        <v>73</v>
+      <c r="B137" s="185" t="s">
+        <v>380</v>
+      </c>
+      <c r="C137" s="186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D137" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E137" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="F137" s="189" t="s">
+        <v>390</v>
       </c>
       <c r="G137" s="61"/>
       <c r="H137" s="61"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="61"/>
-      <c r="B138" s="155" t="s">
-        <v>74</v>
-      </c>
-      <c r="C138" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="D138" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E138" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="108" t="s">
-        <v>76</v>
+      <c r="B138" s="185" t="s">
+        <v>381</v>
+      </c>
+      <c r="C138" s="186" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E138" s="188" t="s">
+        <v>185</v>
+      </c>
+      <c r="F138" s="189" t="s">
+        <v>391</v>
       </c>
       <c r="G138" s="61"/>
       <c r="H138" s="61"/>
     </row>
-    <row r="139" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="61"/>
-      <c r="B139" s="181" t="s">
-        <v>444</v>
-      </c>
-      <c r="C139" s="159" t="s">
-        <v>463</v>
-      </c>
-      <c r="D139" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="E139" s="161" t="s">
+      <c r="B139" s="185" t="s">
+        <v>382</v>
+      </c>
+      <c r="C139" s="186" t="s">
+        <v>373</v>
+      </c>
+      <c r="D139" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="188" t="s">
         <v>27</v>
       </c>
-      <c r="F139" s="162" t="s">
-        <v>445</v>
+      <c r="F139" s="189" t="s">
+        <v>388</v>
       </c>
       <c r="G139" s="61"/>
       <c r="H139" s="61"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="61"/>
-      <c r="B140" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C140" s="206" t="s">
-        <v>344</v>
-      </c>
-      <c r="D140" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E140" s="207" t="s">
-        <v>186</v>
-      </c>
-      <c r="F140" s="105" t="s">
-        <v>461</v>
+      <c r="B140" s="185" t="s">
+        <v>383</v>
+      </c>
+      <c r="C140" s="186" t="s">
+        <v>374</v>
+      </c>
+      <c r="D140" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E140" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140" s="189" t="s">
+        <v>389</v>
       </c>
       <c r="G140" s="61"/>
       <c r="H140" s="61"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="61"/>
-      <c r="B141" s="90"/>
-      <c r="C141" s="125"/>
-      <c r="D141" s="132"/>
-      <c r="E141" s="207"/>
-      <c r="F141" s="121" t="s">
-        <v>462</v>
+      <c r="B141" s="185" t="s">
+        <v>384</v>
+      </c>
+      <c r="C141" s="186" t="s">
+        <v>377</v>
+      </c>
+      <c r="D141" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E141" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141" s="189" t="s">
+        <v>392</v>
       </c>
       <c r="G141" s="61"/>
       <c r="H141" s="61"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="61"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E142" s="207" t="s">
-        <v>197</v>
-      </c>
-      <c r="F142" s="121" t="s">
-        <v>347</v>
+      <c r="B142" s="185" t="s">
+        <v>385</v>
+      </c>
+      <c r="C142" s="186" t="s">
+        <v>378</v>
+      </c>
+      <c r="D142" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="E142" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142" s="189" t="s">
+        <v>393</v>
       </c>
       <c r="G142" s="61"/>
       <c r="H142" s="61"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="61"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="208"/>
-      <c r="E143" s="129"/>
-      <c r="F143" s="122" t="s">
-        <v>348</v>
+      <c r="B143" s="158" t="s">
+        <v>68</v>
+      </c>
+      <c r="C143" s="99" t="s">
+        <v>69</v>
+      </c>
+      <c r="D143" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E143" s="37">
+        <v>0</v>
+      </c>
+      <c r="F143" s="112" t="s">
+        <v>70</v>
       </c>
       <c r="G143" s="61"/>
       <c r="H143" s="61"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="61"/>
-      <c r="B144" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="C144" s="126" t="s">
-        <v>351</v>
-      </c>
-      <c r="D144" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E144" s="130" t="s">
-        <v>350</v>
-      </c>
-      <c r="F144" s="123" t="s">
-        <v>352</v>
+      <c r="B144" s="157"/>
+      <c r="C144" s="94"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="35"/>
+      <c r="F144" s="105" t="s">
+        <v>71</v>
       </c>
       <c r="G144" s="61"/>
       <c r="H144" s="61"/>
     </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="61"/>
-      <c r="B145" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="C145" s="128" t="s">
-        <v>354</v>
-      </c>
-      <c r="D145" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E145" s="131" t="s">
-        <v>350</v>
-      </c>
-      <c r="F145" s="124" t="s">
-        <v>355</v>
+      <c r="B145" s="157"/>
+      <c r="C145" s="94"/>
+      <c r="D145" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E145" s="35">
+        <v>1</v>
+      </c>
+      <c r="F145" s="105" t="s">
+        <v>72</v>
       </c>
       <c r="G145" s="61"/>
       <c r="H145" s="61"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="61"/>
-      <c r="B146" s="85"/>
-      <c r="C146" s="85"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
+      <c r="B146" s="183"/>
+      <c r="C146" s="100"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="106" t="s">
+        <v>73</v>
+      </c>
       <c r="G146" s="61"/>
       <c r="H146" s="61"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="61"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
+      <c r="B147" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="C147" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D147" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147" s="108" t="s">
+        <v>76</v>
+      </c>
       <c r="G147" s="61"/>
       <c r="H147" s="61"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="61"/>
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
+      <c r="B148" s="184" t="s">
+        <v>476</v>
+      </c>
+      <c r="C148" s="161" t="s">
+        <v>495</v>
+      </c>
+      <c r="D148" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="163" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148" s="164" t="s">
+        <v>477</v>
+      </c>
       <c r="G148" s="61"/>
       <c r="H148" s="61"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="61"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
+      <c r="B149" s="84" t="s">
+        <v>351</v>
+      </c>
+      <c r="C149" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="D149" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E149" s="123" t="s">
+        <v>186</v>
+      </c>
+      <c r="F149" s="105" t="s">
+        <v>493</v>
+      </c>
       <c r="G149" s="61"/>
       <c r="H149" s="61"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="61"/>
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="128"/>
+      <c r="D150" s="135"/>
+      <c r="E150" s="123"/>
+      <c r="F150" s="124" t="s">
+        <v>494</v>
+      </c>
       <c r="G150" s="61"/>
       <c r="H150" s="61"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="61"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="F151" s="1"/>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-      <c r="F152" s="1"/>
+      <c r="B151" s="90"/>
+      <c r="C151" s="53"/>
+      <c r="D151" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="F151" s="124" t="s">
+        <v>355</v>
+      </c>
+      <c r="G151" s="61"/>
+      <c r="H151" s="61"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152" s="61"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="130"/>
+      <c r="D152" s="136"/>
+      <c r="E152" s="132"/>
+      <c r="F152" s="125" t="s">
+        <v>356</v>
+      </c>
+      <c r="G152" s="61"/>
+      <c r="H152" s="61"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153" s="61"/>
+      <c r="B153" s="89" t="s">
+        <v>357</v>
+      </c>
+      <c r="C153" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D153" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E153" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="F153" s="126" t="s">
+        <v>360</v>
+      </c>
+      <c r="G153" s="61"/>
+      <c r="H153" s="61"/>
+    </row>
+    <row r="154" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A154" s="61"/>
+      <c r="B154" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="C154" s="131" t="s">
+        <v>362</v>
+      </c>
+      <c r="D154" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E154" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="F154" s="127" t="s">
+        <v>363</v>
+      </c>
+      <c r="G154" s="61"/>
+      <c r="H154" s="61"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155" s="61"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="61"/>
+      <c r="H155" s="61"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156" s="61"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="61"/>
+      <c r="H156" s="61"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157" s="61"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="61"/>
+      <c r="H157" s="61"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158" s="61"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="61"/>
+      <c r="H158" s="61"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159" s="61"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="61"/>
+      <c r="H159" s="61"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5404,51 +5620,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30255A4-CEA7-476F-818D-6F4076F30F02}">
-  <dimension ref="B1:F30"/>
+  <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.921875" customWidth="1"/>
-    <col min="2" max="2" width="13.07421875" customWidth="1"/>
-    <col min="3" max="3" width="21.84375" customWidth="1"/>
-    <col min="4" max="4" width="6.53515625" customWidth="1"/>
-    <col min="5" max="5" width="5.15234375" customWidth="1"/>
-    <col min="6" max="6" width="33.4609375" customWidth="1"/>
+    <col min="1" max="1" width="3.90625" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" customWidth="1"/>
+    <col min="6" max="6" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="208" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5464,8 +5680,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
         <v>32</v>
@@ -5477,8 +5693,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
         <v>32</v>
@@ -5490,8 +5706,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
         <v>32</v>
@@ -5503,8 +5719,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
         <v>32</v>
@@ -5516,322 +5732,450 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>15</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="16" t="s">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="23"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="23" t="s">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="24"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="23"/>
       <c r="C16" s="3"/>
       <c r="D16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="23"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="23"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="E16" s="10">
-        <v>15</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E18" s="10">
         <v>15</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="24"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="10">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="30"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="16" t="s">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="27"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="22" t="s">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="22" t="s">
-        <v>101</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="156" t="s">
-        <v>37</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="156" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="21" t="s">
+        <v>101</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="156" t="s">
-        <v>43</v>
+        <v>27</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="159" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="156" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="159" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>45</v>
+        <v>510</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="159" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F28" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="159" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="156" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="C30" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="157" t="s">
+      <c r="E30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D29" s="8" t="s">
+      <c r="C31" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E31" s="10">
+        <v>14</v>
+      </c>
+      <c r="F31" s="203" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="202"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="204"/>
+      <c r="F32" s="203" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="202"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="10">
         <v>15</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F33" s="203" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="158"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="202"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="215" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="105" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="90"/>
+      <c r="C36" s="128"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="123"/>
+      <c r="F36" s="54" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="90"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="F37" s="54" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="90"/>
+      <c r="C38" s="130"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="125" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="89" t="s">
+        <v>357</v>
+      </c>
+      <c r="C39" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>358</v>
+      </c>
+      <c r="F39" s="126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="131" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="216" t="s">
+        <v>358</v>
+      </c>
+      <c r="F40" s="127" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -5844,51 +6188,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CD7B95-A2AF-46FE-AB85-2A0D672A14B1}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K105" sqref="K105"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F55" sqref="B55:F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="13.23046875" customWidth="1"/>
-    <col min="3" max="3" width="24.07421875" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.23046875" customWidth="1"/>
-    <col min="6" max="6" width="29.23046875" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="24.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.26953125" customWidth="1"/>
+    <col min="6" max="6" width="29.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="199" t="s">
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="208" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="201"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="33" t="s">
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="209"/>
+      <c r="F2" s="210"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="24" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -5897,154 +6241,154 @@
       <c r="D4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>186</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="24"/>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="23"/>
       <c r="C5" s="3"/>
       <c r="D5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="35">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="24"/>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="23"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="35">
         <v>2</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="24"/>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
       <c r="C7" s="3"/>
       <c r="D7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="35">
         <v>3</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="24"/>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="23"/>
       <c r="C8" s="3"/>
       <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="35">
         <v>4</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="24"/>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
       <c r="C9" s="3"/>
       <c r="D9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="24"/>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="23"/>
       <c r="C10" s="3"/>
       <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="35">
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="24"/>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="23"/>
       <c r="C11" s="3"/>
       <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="35">
         <v>7</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="24"/>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="23"/>
       <c r="C12" s="3"/>
       <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="35">
         <v>8</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="24"/>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="23"/>
       <c r="C13" s="3"/>
       <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="35" t="s">
         <v>246</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="24"/>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="23"/>
       <c r="C14" s="3"/>
       <c r="D14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="35">
         <v>15</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="24"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="23"/>
       <c r="C15" s="3"/>
       <c r="D15" s="7"/>
-      <c r="E15" s="39"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -6053,128 +6397,128 @@
       <c r="D16" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="37">
         <v>0</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="24"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="23"/>
       <c r="C17" s="3"/>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="35">
         <v>1</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="24"/>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="23"/>
       <c r="C18" s="3"/>
       <c r="D18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="35">
         <v>2</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B19" s="24"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="23"/>
       <c r="C19" s="3"/>
       <c r="D19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="35">
         <v>3</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B20" s="24"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="23"/>
       <c r="C20" s="3"/>
       <c r="D20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="35">
         <v>4</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="24"/>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="23"/>
       <c r="C21" s="3"/>
       <c r="D21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="35">
         <v>5</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="24"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="23"/>
       <c r="C22" s="3"/>
       <c r="D22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="35">
         <v>6</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B23" s="24"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="23"/>
       <c r="C23" s="3"/>
       <c r="D23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="35">
         <v>7</v>
       </c>
       <c r="F23" s="15" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B24" s="24"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="23"/>
       <c r="C24" s="3"/>
       <c r="D24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="35">
         <v>15</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B25" s="24"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="23"/>
       <c r="C25" s="3"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="39"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B26" s="23" t="s">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -6183,128 +6527,128 @@
       <c r="D26" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="40">
+      <c r="E26" s="37">
         <v>0</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B27" s="24"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="23"/>
       <c r="C27" s="3"/>
       <c r="D27" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="35">
         <v>1</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B28" s="24"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="23"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="35">
         <v>2</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B29" s="24"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="23"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>3</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B30" s="24"/>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="23"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="35">
         <v>4</v>
       </c>
       <c r="F30" s="14" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B31" s="24"/>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="23"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="35">
         <v>5</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B32" s="24"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="23"/>
       <c r="C32" s="3"/>
       <c r="D32" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="35">
         <v>6</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B33" s="24"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="23"/>
       <c r="C33" s="3"/>
       <c r="D33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="35">
         <v>7</v>
       </c>
       <c r="F33" s="15" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B34" s="24"/>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="23"/>
       <c r="C34" s="3"/>
       <c r="D34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="35">
         <v>15</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B35" s="24"/>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="23"/>
       <c r="C35" s="3"/>
       <c r="D35" s="7"/>
-      <c r="E35" s="39"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B36" s="23" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -6313,128 +6657,128 @@
       <c r="D36" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="37">
         <v>0</v>
       </c>
       <c r="F36" s="17" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B37" s="24"/>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="23"/>
       <c r="C37" s="3"/>
       <c r="D37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="35">
         <v>1</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B38" s="24"/>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="23"/>
       <c r="C38" s="3"/>
       <c r="D38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="35">
         <v>2</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B39" s="24"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="23"/>
       <c r="C39" s="3"/>
       <c r="D39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="35">
         <v>3</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B40" s="24"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="23"/>
       <c r="C40" s="3"/>
       <c r="D40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="35">
         <v>4</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B41" s="24"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="23"/>
       <c r="C41" s="3"/>
       <c r="D41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="35">
         <v>5</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B42" s="24"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="23"/>
       <c r="C42" s="3"/>
       <c r="D42" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="35">
         <v>6</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B43" s="24"/>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="23"/>
       <c r="C43" s="3"/>
       <c r="D43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="35">
         <v>7</v>
       </c>
       <c r="F43" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B44" s="24"/>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="23"/>
       <c r="C44" s="3"/>
       <c r="D44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="35">
         <v>15</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="36"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="37" t="s">
+    <row r="45" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="33"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B46" s="24" t="s">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -6443,154 +6787,154 @@
       <c r="D46" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="35">
         <v>0</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B47" s="24"/>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="23"/>
       <c r="C47" s="3"/>
       <c r="D47" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="35">
         <v>1</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B48" s="24"/>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="23"/>
       <c r="C48" s="3"/>
       <c r="D48" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="35">
         <v>2</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B49" s="24"/>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="23"/>
       <c r="C49" s="3"/>
       <c r="D49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="35">
         <v>3</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B50" s="24"/>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="23"/>
       <c r="C50" s="3"/>
       <c r="D50" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="35">
         <v>4</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B51" s="24"/>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="23"/>
       <c r="C51" s="3"/>
       <c r="D51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="35">
         <v>5</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B52" s="24"/>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="23"/>
       <c r="C52" s="3"/>
       <c r="D52" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="35">
         <v>6</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B53" s="24"/>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="23"/>
       <c r="C53" s="3"/>
       <c r="D53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="35">
         <v>7</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B54" s="24"/>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="23"/>
       <c r="C54" s="3"/>
       <c r="D54" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="35">
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B55" s="24"/>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="23"/>
       <c r="C55" s="3"/>
       <c r="D55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E55" s="38" t="s">
+      <c r="E55" s="35" t="s">
         <v>246</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B56" s="24"/>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="23"/>
       <c r="C56" s="3"/>
       <c r="D56" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E56" s="38">
+      <c r="E56" s="35">
         <v>15</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B57" s="24"/>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="23"/>
       <c r="C57" s="3"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="39"/>
+      <c r="E57" s="36"/>
       <c r="F57" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B58" s="23" t="s">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C58" s="2" t="s">
@@ -6599,128 +6943,128 @@
       <c r="D58" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="37">
         <v>0</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B59" s="24"/>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="23"/>
       <c r="C59" s="3"/>
       <c r="D59" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="35">
         <v>1</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B60" s="24"/>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="23"/>
       <c r="C60" s="3"/>
       <c r="D60" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E60" s="38">
+      <c r="E60" s="35">
         <v>2</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B61" s="24"/>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="23"/>
       <c r="C61" s="3"/>
       <c r="D61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="35">
         <v>3</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B62" s="24"/>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="23"/>
       <c r="C62" s="3"/>
       <c r="D62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="35">
         <v>4</v>
       </c>
       <c r="F62" s="14" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B63" s="24"/>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="23"/>
       <c r="C63" s="3"/>
       <c r="D63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="35">
         <v>5</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B64" s="24"/>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="23"/>
       <c r="C64" s="3"/>
       <c r="D64" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="35">
         <v>6</v>
       </c>
       <c r="F64" s="14" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B65" s="24"/>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="23"/>
       <c r="C65" s="3"/>
       <c r="D65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E65" s="38">
+      <c r="E65" s="35">
         <v>7</v>
       </c>
       <c r="F65" s="15" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B66" s="24"/>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="23"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="35">
         <v>15</v>
       </c>
       <c r="F66" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B67" s="24"/>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="23"/>
       <c r="C67" s="3"/>
       <c r="D67" s="7"/>
-      <c r="E67" s="39"/>
+      <c r="E67" s="36"/>
       <c r="F67" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B68" s="23" t="s">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="22" t="s">
         <v>177</v>
       </c>
       <c r="C68" s="2" t="s">
@@ -6729,128 +7073,128 @@
       <c r="D68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="37">
         <v>0</v>
       </c>
       <c r="F68" s="17" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B69" s="24"/>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="23"/>
       <c r="C69" s="3"/>
       <c r="D69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E69" s="38">
+      <c r="E69" s="35">
         <v>1</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B70" s="24"/>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="23"/>
       <c r="C70" s="3"/>
       <c r="D70" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E70" s="38">
+      <c r="E70" s="35">
         <v>2</v>
       </c>
       <c r="F70" s="14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B71" s="24"/>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="23"/>
       <c r="C71" s="3"/>
       <c r="D71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E71" s="38">
+      <c r="E71" s="35">
         <v>3</v>
       </c>
       <c r="F71" s="14" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B72" s="24"/>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="23"/>
       <c r="C72" s="3"/>
       <c r="D72" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E72" s="38">
+      <c r="E72" s="35">
         <v>4</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B73" s="24"/>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="23"/>
       <c r="C73" s="3"/>
       <c r="D73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E73" s="38">
+      <c r="E73" s="35">
         <v>5</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B74" s="24"/>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="23"/>
       <c r="C74" s="3"/>
       <c r="D74" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="38">
+      <c r="E74" s="35">
         <v>6</v>
       </c>
       <c r="F74" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B75" s="24"/>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="23"/>
       <c r="C75" s="3"/>
       <c r="D75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="35">
         <v>7</v>
       </c>
       <c r="F75" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B76" s="24"/>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="23"/>
       <c r="C76" s="3"/>
       <c r="D76" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="38">
+      <c r="E76" s="35">
         <v>15</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B77" s="24"/>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="23"/>
       <c r="C77" s="3"/>
       <c r="D77" s="7"/>
-      <c r="E77" s="39"/>
+      <c r="E77" s="36"/>
       <c r="F77" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B78" s="23" t="s">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
@@ -6859,128 +7203,128 @@
       <c r="D78" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="37">
         <v>0</v>
       </c>
       <c r="F78" s="17" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B79" s="24"/>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="23"/>
       <c r="C79" s="3"/>
       <c r="D79" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="38">
+      <c r="E79" s="35">
         <v>1</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B80" s="24"/>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="23"/>
       <c r="C80" s="3"/>
       <c r="D80" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="38">
+      <c r="E80" s="35">
         <v>2</v>
       </c>
       <c r="F80" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B81" s="24"/>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="23"/>
       <c r="C81" s="3"/>
       <c r="D81" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E81" s="38">
+      <c r="E81" s="35">
         <v>3</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B82" s="24"/>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="23"/>
       <c r="C82" s="3"/>
       <c r="D82" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="35">
         <v>4</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B83" s="24"/>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="23"/>
       <c r="C83" s="3"/>
       <c r="D83" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E83" s="38">
+      <c r="E83" s="35">
         <v>5</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B84" s="24"/>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="23"/>
       <c r="C84" s="3"/>
       <c r="D84" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E84" s="38">
+      <c r="E84" s="35">
         <v>6</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B85" s="24"/>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="23"/>
       <c r="C85" s="3"/>
       <c r="D85" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="35">
         <v>7</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B86" s="24"/>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="23"/>
       <c r="C86" s="3"/>
       <c r="D86" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="35">
         <v>15</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B87" s="25"/>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="24"/>
       <c r="C87" s="4"/>
       <c r="D87" s="7"/>
-      <c r="E87" s="39"/>
+      <c r="E87" s="36"/>
       <c r="F87" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B88" s="25" t="s">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="24" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="4" t="s">
@@ -6989,15 +7333,15 @@
       <c r="D88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="39" t="s">
+      <c r="E88" s="36" t="s">
         <v>27</v>
       </c>
       <c r="F88" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B89" s="22" t="s">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="21" t="s">
         <v>182</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -7006,15 +7350,15 @@
       <c r="D89" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="42" t="s">
+      <c r="E89" s="39" t="s">
         <v>27</v>
       </c>
       <c r="F89" s="19" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B90" s="22" t="s">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="21" t="s">
         <v>188</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -7023,15 +7367,15 @@
       <c r="D90" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="E90" s="39" t="s">
         <v>185</v>
       </c>
       <c r="F90" s="19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B91" s="22" t="s">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="21" t="s">
         <v>189</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -7040,15 +7384,15 @@
       <c r="D91" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="42" t="s">
+      <c r="E91" s="39" t="s">
         <v>187</v>
       </c>
       <c r="F91" s="19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B92" s="22" t="s">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -7057,183 +7401,183 @@
       <c r="D92" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E92" s="42" t="s">
+      <c r="E92" s="39" t="s">
         <v>22</v>
       </c>
       <c r="F92" s="19" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="93" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B93" s="23" t="s">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E93" s="40" t="s">
+      <c r="E93" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="F93" s="185" t="s">
+      <c r="F93" s="19" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B94" s="187" t="s">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="C94" s="188" t="s">
+      <c r="C94" s="113" t="s">
         <v>196</v>
       </c>
-      <c r="D94" s="189" t="s">
-        <v>32</v>
-      </c>
-      <c r="E94" s="190">
+      <c r="D94" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E94" s="40">
         <v>0</v>
       </c>
-      <c r="F94" s="191" t="s">
+      <c r="F94" s="44" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B95" s="113"/>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="114"/>
       <c r="C95" s="61"/>
       <c r="D95" s="45"/>
-      <c r="E95" s="43"/>
+      <c r="E95" s="41"/>
       <c r="F95" s="46" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B96" s="113"/>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="114"/>
       <c r="C96" s="61"/>
       <c r="D96" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="43">
+      <c r="E96" s="41">
         <v>1</v>
       </c>
       <c r="F96" s="46" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B97" s="113"/>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="114"/>
       <c r="C97" s="61"/>
       <c r="D97" s="45"/>
-      <c r="E97" s="43"/>
+      <c r="E97" s="41"/>
       <c r="F97" s="46" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B98" s="113"/>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="114"/>
       <c r="C98" s="61"/>
       <c r="D98" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E98" s="43">
+      <c r="E98" s="41">
         <v>2</v>
       </c>
       <c r="F98" s="46" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B99" s="113"/>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="114"/>
       <c r="C99" s="61"/>
       <c r="D99" s="45"/>
-      <c r="E99" s="43"/>
+      <c r="E99" s="41"/>
       <c r="F99" s="46" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B100" s="113"/>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="114"/>
       <c r="C100" s="61"/>
       <c r="D100" s="45"/>
-      <c r="E100" s="43" t="s">
+      <c r="E100" s="41" t="s">
         <v>224</v>
       </c>
       <c r="F100" s="46" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B101" s="113"/>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="114"/>
       <c r="C101" s="61"/>
       <c r="D101" s="45"/>
-      <c r="E101" s="43"/>
+      <c r="E101" s="41"/>
       <c r="F101" s="46" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B102" s="113"/>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B102" s="114"/>
       <c r="C102" s="61"/>
       <c r="D102" s="45"/>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="41" t="s">
         <v>243</v>
       </c>
       <c r="F102" s="46" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B103" s="113"/>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B103" s="114"/>
       <c r="C103" s="61"/>
       <c r="D103" s="45"/>
-      <c r="E103" s="43"/>
+      <c r="E103" s="41"/>
       <c r="F103" s="46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B104" s="113"/>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B104" s="114"/>
       <c r="C104" s="61"/>
       <c r="D104" s="45"/>
-      <c r="E104" s="43" t="s">
+      <c r="E104" s="41" t="s">
         <v>246</v>
       </c>
       <c r="F104" s="46" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B105" s="113"/>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B105" s="114"/>
       <c r="C105" s="61"/>
       <c r="D105" s="45"/>
-      <c r="E105" s="43"/>
+      <c r="E105" s="41"/>
       <c r="F105" s="46" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B106" s="113"/>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B106" s="114"/>
       <c r="C106" s="61"/>
       <c r="D106" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E106" s="43" t="s">
+      <c r="E106" s="41" t="s">
         <v>197</v>
       </c>
       <c r="F106" s="46" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B107" s="114"/>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B107" s="115"/>
       <c r="C107" s="61"/>
       <c r="D107" s="45"/>
-      <c r="E107" s="43"/>
+      <c r="E107" s="41"/>
       <c r="F107" s="46" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="49" t="s">
         <v>40</v>
       </c>
@@ -7250,7 +7594,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="49" t="s">
         <v>43</v>
       </c>
@@ -7267,7 +7611,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="49" t="s">
         <v>51</v>
       </c>
@@ -7284,7 +7628,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="49" t="s">
         <v>50</v>
       </c>
@@ -7301,7 +7645,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="49" t="s">
         <v>77</v>
       </c>
@@ -7318,7 +7662,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B113" s="49" t="s">
         <v>219</v>
       </c>
@@ -7335,7 +7679,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B114" s="49" t="s">
         <v>220</v>
       </c>
@@ -7352,7 +7696,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B115" s="49" t="s">
         <v>56</v>
       </c>
@@ -7369,7 +7713,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B116" s="49" t="s">
         <v>57</v>
       </c>
@@ -7386,7 +7730,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B117" s="49" t="s">
         <v>58</v>
       </c>
@@ -7403,7 +7747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B118" s="62" t="s">
         <v>59</v>
       </c>
@@ -7413,14 +7757,14 @@
       <c r="D118" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="43" t="s">
+      <c r="E118" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F118" s="54" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B119" s="63"/>
       <c r="C119" s="55"/>
       <c r="D119" s="56" t="s">
@@ -7433,7 +7777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B120" s="62" t="s">
         <v>60</v>
       </c>
@@ -7443,14 +7787,14 @@
       <c r="D120" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E120" s="43" t="s">
+      <c r="E120" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F120" s="54" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B121" s="63"/>
       <c r="C121" s="55"/>
       <c r="D121" s="56" t="s">
@@ -7463,7 +7807,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B122" s="49" t="s">
         <v>65</v>
       </c>
@@ -7480,7 +7824,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B123" s="62" t="s">
         <v>66</v>
       </c>
@@ -7490,163 +7834,112 @@
       <c r="D123" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="E123" s="43" t="s">
+      <c r="E123" s="41" t="s">
         <v>25</v>
       </c>
       <c r="F123" s="54" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B124" s="179"/>
-      <c r="C124" s="183"/>
-      <c r="D124" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E124" s="43" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B124" s="181"/>
+      <c r="C124" s="182"/>
+      <c r="D124" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E124" s="41" t="s">
         <v>250</v>
       </c>
       <c r="F124" s="54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B125" s="192" t="s">
-        <v>67</v>
-      </c>
-      <c r="C125" s="193" t="s">
-        <v>478</v>
-      </c>
-      <c r="D125" s="92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E125" s="194" t="s">
-        <v>22</v>
-      </c>
-      <c r="F125" s="195" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B126" s="186" t="s">
-        <v>61</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="D126" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="E126" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126" s="58" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B127" s="184" t="s">
-        <v>62</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D127" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E127" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127" s="50" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="61"/>
+      <c r="B125" s="86" t="s">
+        <v>351</v>
+      </c>
+      <c r="C125" s="99" t="s">
+        <v>352</v>
+      </c>
+      <c r="D125" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E125" s="137" t="s">
+        <v>186</v>
+      </c>
+      <c r="F125" s="112" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="61"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="135"/>
+      <c r="E126" s="123"/>
+      <c r="F126" s="124" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="61"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="53"/>
+      <c r="D127" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E127" s="123" t="s">
+        <v>197</v>
+      </c>
+      <c r="F127" s="124" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="61"/>
-      <c r="B128" s="84" t="s">
-        <v>343</v>
-      </c>
-      <c r="C128" s="94" t="s">
-        <v>344</v>
-      </c>
-      <c r="D128" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E128" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="F128" s="105" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B128" s="90"/>
+      <c r="C128" s="130"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="132"/>
+      <c r="F128" s="125" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="61"/>
-      <c r="B129" s="90"/>
-      <c r="C129" s="125"/>
-      <c r="D129" s="132"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="121" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B129" s="89" t="s">
+        <v>357</v>
+      </c>
+      <c r="C129" s="129" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E129" s="133" t="s">
+        <v>358</v>
+      </c>
+      <c r="F129" s="126" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="61"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="F130" s="121" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="61"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="133"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="122" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="61"/>
-      <c r="B132" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="C132" s="126" t="s">
-        <v>351</v>
-      </c>
-      <c r="D132" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E132" s="40" t="s">
-        <v>350</v>
-      </c>
-      <c r="F132" s="123" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="61"/>
-      <c r="B133" s="91" t="s">
-        <v>353</v>
-      </c>
-      <c r="C133" s="128" t="s">
-        <v>354</v>
-      </c>
-      <c r="D133" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="182" t="s">
-        <v>350</v>
-      </c>
-      <c r="F133" s="124" t="s">
-        <v>355</v>
+      <c r="B130" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="C130" s="131" t="s">
+        <v>362</v>
+      </c>
+      <c r="D130" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E130" s="134" t="s">
+        <v>358</v>
+      </c>
+      <c r="F130" s="127" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -7666,78 +7959,78 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.921875" customWidth="1"/>
-    <col min="2" max="2" width="33.61328125" customWidth="1"/>
-    <col min="3" max="3" width="12.69140625" customWidth="1"/>
-    <col min="4" max="4" width="6.61328125" customWidth="1"/>
+    <col min="1" max="1" width="2.90625" customWidth="1"/>
+    <col min="2" max="2" width="33.6328125" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="6.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="166" t="s">
-        <v>446</v>
-      </c>
-      <c r="C2" s="167" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" s="168" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="169" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="165" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="173">
+    <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="168" t="s">
+        <v>478</v>
+      </c>
+      <c r="C2" s="169" t="s">
+        <v>482</v>
+      </c>
+      <c r="D2" s="170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="171" t="s">
+        <v>487</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" s="175">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="170" t="s">
-        <v>456</v>
-      </c>
-      <c r="C4" s="164" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="174">
+    <row r="4" spans="2:4" ht="46" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="172" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="166" t="s">
+        <v>481</v>
+      </c>
+      <c r="D4" s="176">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="171" t="s">
-        <v>458</v>
-      </c>
-      <c r="C5" s="164" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="174">
+    <row r="5" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="173" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" s="166" t="s">
+        <v>483</v>
+      </c>
+      <c r="D5" s="176">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="56.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="172" t="s">
-        <v>457</v>
-      </c>
-      <c r="C6" s="163" t="s">
-        <v>452</v>
-      </c>
-      <c r="D6" s="175">
+    <row r="6" spans="2:4" ht="56" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="174" t="s">
+        <v>489</v>
+      </c>
+      <c r="C6" s="165" t="s">
+        <v>484</v>
+      </c>
+      <c r="D6" s="177">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="176" t="s">
-        <v>454</v>
-      </c>
-      <c r="C7" s="177" t="s">
-        <v>453</v>
-      </c>
-      <c r="D7" s="178"/>
+    <row r="7" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="178" t="s">
+        <v>486</v>
+      </c>
+      <c r="C7" s="179" t="s">
+        <v>485</v>
+      </c>
+      <c r="D7" s="180"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7752,18 +8045,18 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="5.921875" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" customWidth="1"/>
-    <col min="5" max="5" width="13.61328125" customWidth="1"/>
-    <col min="6" max="6" width="13.69140625" customWidth="1"/>
-    <col min="7" max="7" width="6.921875" customWidth="1"/>
-    <col min="8" max="8" width="16.23046875" customWidth="1"/>
+    <col min="2" max="2" width="5.90625" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="6.90625" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E2" s="67" t="s">
         <v>241</v>
       </c>
@@ -7777,7 +8070,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="64">
         <v>22050</v>
       </c>
@@ -7792,13 +8085,13 @@
         <v>1073741824</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E4" s="52"/>
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="67" t="s">
         <v>261</v>
       </c>
@@ -7815,7 +8108,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="72"/>
       <c r="C6" s="70">
         <v>0</v>
@@ -7833,7 +8126,7 @@
         <v>0x3ACCCC</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="72"/>
       <c r="C7" s="70">
         <v>1</v>
@@ -7851,7 +8144,7 @@
         <v>0x3E4BE2</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="72"/>
       <c r="C8" s="70">
         <v>2</v>
@@ -7869,7 +8162,7 @@
         <v>0x420032</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="72"/>
       <c r="C9" s="70">
         <v>3</v>
@@ -7887,7 +8180,7 @@
         <v>0x45ECE5</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="72"/>
       <c r="C10" s="70">
         <v>4</v>
@@ -7905,7 +8198,7 @@
         <v>0x4A1556</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="72"/>
       <c r="C11" s="70">
         <v>5</v>
@@ -7923,7 +8216,7 @@
         <v>0x4E7D13</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="72"/>
       <c r="C12" s="70">
         <v>6</v>
@@ -7941,7 +8234,7 @@
         <v>0x5327DF</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="72"/>
       <c r="C13" s="70">
         <v>7</v>
@@ -7959,7 +8252,7 @@
         <v>0x5819B7</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="72"/>
       <c r="C14" s="70">
         <v>8</v>
@@ -7977,7 +8270,7 @@
         <v>0x5D56D4</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="72"/>
       <c r="C15" s="70">
         <v>9</v>
@@ -7995,7 +8288,7 @@
         <v>0x62E3B0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="72"/>
       <c r="C16" s="70">
         <v>10</v>
@@ -8013,7 +8306,7 @@
         <v>0x68C50A</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="72"/>
       <c r="C17" s="70">
         <v>11</v>
@@ -8031,7 +8324,7 @@
         <v>0x6EFFE7</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="72"/>
       <c r="C18" s="70">
         <v>12</v>
@@ -8049,7 +8342,7 @@
         <v>0x759999</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="72"/>
       <c r="C19" s="70">
         <v>13</v>
@@ -8067,7 +8360,7 @@
         <v>0x7C97C5</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="72"/>
       <c r="C20" s="70">
         <v>14</v>
@@ -8085,7 +8378,7 @@
         <v>0x840064</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="72"/>
       <c r="C21" s="70">
         <v>15</v>
@@ -8103,7 +8396,7 @@
         <v>0x8BD9CB</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="72"/>
       <c r="C22" s="70">
         <v>16</v>
@@ -8121,7 +8414,7 @@
         <v>0x942AAD</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="72"/>
       <c r="C23" s="70">
         <v>17</v>
@@ -8139,7 +8432,7 @@
         <v>0x9CFA27</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="72"/>
       <c r="C24" s="70">
         <v>18</v>
@@ -8157,7 +8450,7 @@
         <v>0xA64FBF</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="72"/>
       <c r="C25" s="70">
         <v>19</v>
@@ -8175,7 +8468,7 @@
         <v>0xB0336E</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="72"/>
       <c r="C26" s="70">
         <v>20</v>
@@ -8193,7 +8486,7 @@
         <v>0xBAADA9</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="75"/>
       <c r="C27" s="71">
         <v>21</v>
@@ -8211,7 +8504,7 @@
         <v>0xC5C761</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="75"/>
       <c r="C28" s="71">
         <v>22</v>
@@ -8229,7 +8522,7 @@
         <v>0xD18A14</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" s="75"/>
       <c r="C29" s="71">
         <v>23</v>
@@ -8247,7 +8540,7 @@
         <v>0xDDFFCE</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B30" s="75" t="s">
         <v>233</v>
       </c>
@@ -8267,7 +8560,7 @@
         <v>0xEB3333</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" s="75"/>
       <c r="C31" s="71">
         <v>25</v>
@@ -8285,7 +8578,7 @@
         <v>0xF92F8B</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B32" s="75"/>
       <c r="C32" s="71">
         <v>26</v>
@@ -8303,7 +8596,7 @@
         <v>0x10800C9</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" s="75"/>
       <c r="C33" s="71">
         <v>27</v>
@@ -8321,7 +8614,7 @@
         <v>0x117B396</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B34" s="75"/>
       <c r="C34" s="71">
         <v>28</v>
@@ -8339,7 +8632,7 @@
         <v>0x128555B</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B35" s="75"/>
       <c r="C35" s="71">
         <v>29</v>
@@ -8357,7 +8650,7 @@
         <v>0x139F44F</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B36" s="75"/>
       <c r="C36" s="71">
         <v>30</v>
@@ -8375,7 +8668,7 @@
         <v>0x14C9F7E</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B37" s="75"/>
       <c r="C37" s="71">
         <v>31</v>
@@ -8393,7 +8686,7 @@
         <v>0x16066DD</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B38" s="75"/>
       <c r="C38" s="71">
         <v>32</v>
@@ -8411,7 +8704,7 @@
         <v>0x1755B52</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B39" s="75"/>
       <c r="C39" s="71">
         <v>33</v>
@@ -8429,7 +8722,7 @@
         <v>0x18B8EC3</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B40" s="75"/>
       <c r="C40" s="71">
         <v>34</v>
@@ -8447,7 +8740,7 @@
         <v>0x1A31429</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B41" s="75"/>
       <c r="C41" s="71">
         <v>35</v>
@@ -8465,7 +8758,7 @@
         <v>0x1BBFF9C</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B42" s="77" t="s">
         <v>235</v>
       </c>
@@ -8485,7 +8778,7 @@
         <v>0x1D66666</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B43" s="77"/>
       <c r="C43" s="78">
         <v>37</v>
@@ -8503,7 +8796,7 @@
         <v>0x1F25F16</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B44" s="77"/>
       <c r="C44" s="78">
         <v>38</v>
@@ -8521,7 +8814,7 @@
         <v>0x2100192</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B45" s="77"/>
       <c r="C45" s="78">
         <v>39</v>
@@ -8539,7 +8832,7 @@
         <v>0x22F672C</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B46" s="77"/>
       <c r="C46" s="78">
         <v>40</v>
@@ -8557,7 +8850,7 @@
         <v>0x250AAB7</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B47" s="77"/>
       <c r="C47" s="78">
         <v>41</v>
@@ -8575,7 +8868,7 @@
         <v>0x273E89E</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B48" s="77"/>
       <c r="C48" s="78">
         <v>42</v>
@@ -8593,7 +8886,7 @@
         <v>0x2993EFD</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B49" s="77"/>
       <c r="C49" s="78">
         <v>43</v>
@@ -8611,7 +8904,7 @@
         <v>0x2C0CDBB</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B50" s="77"/>
       <c r="C50" s="78">
         <v>44</v>
@@ -8629,7 +8922,7 @@
         <v>0x2EAB6A4</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B51" s="77"/>
       <c r="C51" s="78">
         <v>45</v>
@@ -8647,7 +8940,7 @@
         <v>0x3171D87</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B52" s="77"/>
       <c r="C52" s="78">
         <v>46</v>
@@ -8665,7 +8958,7 @@
         <v>0x3462852</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B53" s="77"/>
       <c r="C53" s="78">
         <v>47</v>
@@ -8683,7 +8976,7 @@
         <v>0x377FF38</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B54" s="77" t="s">
         <v>234</v>
       </c>
@@ -8703,7 +8996,7 @@
         <v>0x3ACCCCC</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B55" s="77"/>
       <c r="C55" s="78">
         <v>49</v>
@@ -8721,7 +9014,7 @@
         <v>0x3E4BE2D</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B56" s="77"/>
       <c r="C56" s="78">
         <v>50</v>
@@ -8739,7 +9032,7 @@
         <v>0x4200325</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B57" s="77"/>
       <c r="C57" s="78">
         <v>51</v>
@@ -8757,7 +9050,7 @@
         <v>0x45ECE59</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B58" s="77"/>
       <c r="C58" s="78">
         <v>52</v>
@@ -8775,7 +9068,7 @@
         <v>0x4A1556E</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B59" s="77"/>
       <c r="C59" s="78">
         <v>53</v>
@@ -8793,7 +9086,7 @@
         <v>0x4E7D13C</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B60" s="77"/>
       <c r="C60" s="78">
         <v>54</v>
@@ -8811,7 +9104,7 @@
         <v>0x5327DFB</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B61" s="77"/>
       <c r="C61" s="78">
         <v>55</v>
@@ -8829,7 +9122,7 @@
         <v>0x5819B77</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" s="77"/>
       <c r="C62" s="78">
         <v>56</v>
@@ -8847,7 +9140,7 @@
         <v>0x5D56D49</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B63" s="77"/>
       <c r="C63" s="78">
         <v>57</v>
@@ -8865,7 +9158,7 @@
         <v>0x62E3B0E</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B64" s="77"/>
       <c r="C64" s="78">
         <v>58</v>
@@ -8883,7 +9176,7 @@
         <v>0x68C50A5</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B65" s="77"/>
       <c r="C65" s="78">
         <v>59</v>
@@ -8901,7 +9194,7 @@
         <v>0x6EFFE70</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B66" s="77" t="s">
         <v>236</v>
       </c>
@@ -8921,7 +9214,7 @@
         <v>0x7599999</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B67" s="77"/>
       <c r="C67" s="78">
         <v>61</v>
@@ -8939,7 +9232,7 @@
         <v>0x7C97C5A</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B68" s="77"/>
       <c r="C68" s="78">
         <v>62</v>
@@ -8957,7 +9250,7 @@
         <v>0x840064B</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B69" s="77"/>
       <c r="C69" s="78">
         <v>63</v>
@@ -8975,7 +9268,7 @@
         <v>0x8BD9CB3</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B70" s="77"/>
       <c r="C70" s="78">
         <v>64</v>
@@ -8993,7 +9286,7 @@
         <v>0x942AADD</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B71" s="77"/>
       <c r="C71" s="78">
         <v>65</v>
@@ -9011,7 +9304,7 @@
         <v>0x9CFA279</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B72" s="77"/>
       <c r="C72" s="78">
         <v>66</v>
@@ -9029,7 +9322,7 @@
         <v>0xA64FBF7</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B73" s="77"/>
       <c r="C73" s="78">
         <v>67</v>
@@ -9047,7 +9340,7 @@
         <v>0xB0336EF</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B74" s="77"/>
       <c r="C74" s="78">
         <v>68</v>
@@ -9065,7 +9358,7 @@
         <v>0xBAADA93</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B75" s="77"/>
       <c r="C75" s="78">
         <v>69</v>
@@ -9083,7 +9376,7 @@
         <v>0xC5C761D</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B76" s="77"/>
       <c r="C76" s="78">
         <v>70</v>
@@ -9101,7 +9394,7 @@
         <v>0xD18A14B</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B77" s="77"/>
       <c r="C77" s="78">
         <v>71</v>
@@ -9119,7 +9412,7 @@
         <v>0xDDFFCE1</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B78" s="77" t="s">
         <v>237</v>
       </c>
@@ -9139,7 +9432,7 @@
         <v>0xEB33333</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B79" s="77"/>
       <c r="C79" s="78">
         <v>73</v>
@@ -9157,7 +9450,7 @@
         <v>0xF92F8B5</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B80" s="77"/>
       <c r="C80" s="78">
         <v>74</v>
@@ -9175,7 +9468,7 @@
         <v>0x10800C97</v>
       </c>
     </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B81" s="77"/>
       <c r="C81" s="78">
         <v>75</v>
@@ -9193,7 +9486,7 @@
         <v>0x117B3966</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B82" s="77"/>
       <c r="C82" s="78">
         <v>76</v>
@@ -9211,7 +9504,7 @@
         <v>0x128555BB</v>
       </c>
     </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B83" s="77"/>
       <c r="C83" s="78">
         <v>77</v>
@@ -9229,7 +9522,7 @@
         <v>0x139F44F3</v>
       </c>
     </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B84" s="77"/>
       <c r="C84" s="78">
         <v>78</v>
@@ -9247,7 +9540,7 @@
         <v>0x14C9F7EE</v>
       </c>
     </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B85" s="77"/>
       <c r="C85" s="78">
         <v>79</v>
@@ -9265,7 +9558,7 @@
         <v>0x16066DDF</v>
       </c>
     </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B86" s="77"/>
       <c r="C86" s="78">
         <v>80</v>
@@ -9283,7 +9576,7 @@
         <v>0x1755B527</v>
       </c>
     </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B87" s="77"/>
       <c r="C87" s="78">
         <v>81</v>
@@ -9301,7 +9594,7 @@
         <v>0x18B8EC3B</v>
       </c>
     </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B88" s="77"/>
       <c r="C88" s="78">
         <v>82</v>
@@ -9319,7 +9612,7 @@
         <v>0x1A314296</v>
       </c>
     </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B89" s="77"/>
       <c r="C89" s="78">
         <v>83</v>
@@ -9337,7 +9630,7 @@
         <v>0x1BBFF9C2</v>
       </c>
     </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B90" s="77" t="s">
         <v>239</v>
       </c>
@@ -9357,7 +9650,7 @@
         <v>0x1D666666</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B91" s="77"/>
       <c r="C91" s="78">
         <v>85</v>
@@ -9375,7 +9668,7 @@
         <v>0x1F25F16A</v>
       </c>
     </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B92" s="77"/>
       <c r="C92" s="78">
         <v>86</v>
@@ -9393,7 +9686,7 @@
         <v>0x2100192E</v>
       </c>
     </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B93" s="77"/>
       <c r="C93" s="78">
         <v>87</v>
@@ -9411,7 +9704,7 @@
         <v>0x22F672CC</v>
       </c>
     </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B94" s="77"/>
       <c r="C94" s="78">
         <v>88</v>
@@ -9429,7 +9722,7 @@
         <v>0x250AAB77</v>
       </c>
     </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B95" s="77"/>
       <c r="C95" s="78">
         <v>89</v>
@@ -9447,7 +9740,7 @@
         <v>0x273E89E6</v>
       </c>
     </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B96" s="77"/>
       <c r="C96" s="78">
         <v>90</v>
@@ -9465,7 +9758,7 @@
         <v>0x2993EFDC</v>
       </c>
     </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B97" s="77"/>
       <c r="C97" s="78">
         <v>91</v>
@@ -9483,7 +9776,7 @@
         <v>0x2C0CDBBF</v>
       </c>
     </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B98" s="77"/>
       <c r="C98" s="78">
         <v>92</v>
@@ -9501,7 +9794,7 @@
         <v>0x2EAB6A4F</v>
       </c>
     </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B99" s="77"/>
       <c r="C99" s="78">
         <v>93</v>
@@ -9519,7 +9812,7 @@
         <v>0x3171D876</v>
       </c>
     </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B100" s="77"/>
       <c r="C100" s="78">
         <v>94</v>
@@ -9537,7 +9830,7 @@
         <v>0x3462852D</v>
       </c>
     </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B101" s="77"/>
       <c r="C101" s="78">
         <v>95</v>
@@ -9555,7 +9848,7 @@
         <v>0x377FF385</v>
       </c>
     </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B102" s="77" t="s">
         <v>238</v>
       </c>
@@ -9575,7 +9868,7 @@
         <v>0x3ACCCCCC</v>
       </c>
     </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B103" s="75"/>
       <c r="C103" s="71">
         <v>97</v>
@@ -9593,7 +9886,7 @@
         <v>0x3E4BE2D5</v>
       </c>
     </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B104" s="75"/>
       <c r="C104" s="71">
         <v>98</v>
@@ -9611,7 +9904,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B105" s="75"/>
       <c r="C105" s="71">
         <v>99</v>
@@ -9629,7 +9922,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B106" s="75"/>
       <c r="C106" s="71">
         <v>100</v>
@@ -9647,7 +9940,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B107" s="75"/>
       <c r="C107" s="71">
         <v>101</v>
@@ -9665,7 +9958,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B108" s="75"/>
       <c r="C108" s="71">
         <v>102</v>
@@ -9683,7 +9976,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B109" s="75"/>
       <c r="C109" s="71">
         <v>103</v>
@@ -9701,7 +9994,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B110" s="75"/>
       <c r="C110" s="71">
         <v>104</v>
@@ -9719,7 +10012,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B111" s="75"/>
       <c r="C111" s="71">
         <v>105</v>
@@ -9737,7 +10030,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B112" s="75"/>
       <c r="C112" s="71">
         <v>106</v>
@@ -9755,7 +10048,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B113" s="75"/>
       <c r="C113" s="71">
         <v>107</v>
@@ -9773,7 +10066,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B114" s="75" t="s">
         <v>240</v>
       </c>
@@ -9793,7 +10086,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B115" s="72"/>
       <c r="C115" s="70">
         <v>109</v>
@@ -9811,7 +10104,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B116" s="72"/>
       <c r="C116" s="70">
         <v>110</v>
@@ -9829,7 +10122,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B117" s="72"/>
       <c r="C117" s="70">
         <v>111</v>
@@ -9847,7 +10140,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B118" s="72"/>
       <c r="C118" s="70">
         <v>112</v>
@@ -9865,7 +10158,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B119" s="72"/>
       <c r="C119" s="70">
         <v>113</v>
@@ -9883,7 +10176,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B120" s="72"/>
       <c r="C120" s="70">
         <v>114</v>
@@ -9901,7 +10194,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B121" s="72"/>
       <c r="C121" s="70">
         <v>115</v>
@@ -9919,7 +10212,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B122" s="72"/>
       <c r="C122" s="70">
         <v>116</v>
@@ -9937,7 +10230,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B123" s="72"/>
       <c r="C123" s="70">
         <v>117</v>
@@ -9955,7 +10248,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B124" s="72"/>
       <c r="C124" s="70">
         <v>118</v>
@@ -9973,7 +10266,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B125" s="72"/>
       <c r="C125" s="70">
         <v>119</v>
@@ -9991,7 +10284,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B126" s="72"/>
       <c r="C126" s="70">
         <v>120</v>
@@ -10009,7 +10302,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B127" s="72"/>
       <c r="C127" s="70">
         <v>121</v>
@@ -10027,7 +10320,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="128" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B128" s="72"/>
       <c r="C128" s="70">
         <v>122</v>
@@ -10045,7 +10338,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B129" s="72"/>
       <c r="C129" s="70">
         <v>123</v>
@@ -10063,7 +10356,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B130" s="72"/>
       <c r="C130" s="70">
         <v>124</v>
@@ -10081,7 +10374,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B131" s="72"/>
       <c r="C131" s="70">
         <v>125</v>
@@ -10099,7 +10392,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B132" s="72"/>
       <c r="C132" s="70">
         <v>126</v>
@@ -10117,7 +10410,7 @@
         <v>0x3FFFFFFF</v>
       </c>
     </row>
-    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B133" s="74"/>
       <c r="C133" s="65">
         <v>127</v>
@@ -10148,12 +10441,12 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="61"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -10170,143 +10463,143 @@
       <c r="N1" s="61"/>
       <c r="O1" s="61"/>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61"/>
-      <c r="B2" s="142" t="s">
-        <v>402</v>
-      </c>
-      <c r="C2" s="149">
+      <c r="B2" s="145" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="152">
         <v>0</v>
       </c>
-      <c r="D2" s="143">
+      <c r="D2" s="146">
         <v>1</v>
       </c>
-      <c r="E2" s="143">
+      <c r="E2" s="146">
         <v>2</v>
       </c>
-      <c r="F2" s="149">
+      <c r="F2" s="152">
         <v>3</v>
       </c>
-      <c r="G2" s="143">
+      <c r="G2" s="146">
         <v>4</v>
       </c>
-      <c r="H2" s="143">
+      <c r="H2" s="146">
         <v>5</v>
       </c>
-      <c r="I2" s="149" t="s">
-        <v>404</v>
-      </c>
-      <c r="J2" s="143" t="s">
-        <v>405</v>
-      </c>
-      <c r="K2" s="144" t="s">
-        <v>406</v>
+      <c r="I2" s="152" t="s">
+        <v>436</v>
+      </c>
+      <c r="J2" s="146" t="s">
+        <v>437</v>
+      </c>
+      <c r="K2" s="147" t="s">
+        <v>438</v>
       </c>
       <c r="L2" s="61"/>
       <c r="M2" s="61"/>
       <c r="N2" s="61"/>
       <c r="O2" s="61"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="61"/>
-      <c r="B3" s="139" t="s">
-        <v>399</v>
-      </c>
-      <c r="C3" s="140" t="s">
-        <v>397</v>
-      </c>
-      <c r="D3" s="140" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" s="140" t="s">
-        <v>395</v>
-      </c>
-      <c r="F3" s="141" t="s">
-        <v>397</v>
-      </c>
-      <c r="G3" s="141" t="s">
-        <v>396</v>
-      </c>
-      <c r="H3" s="141" t="s">
-        <v>395</v>
-      </c>
-      <c r="I3" s="145" t="s">
-        <v>397</v>
-      </c>
-      <c r="J3" s="145" t="s">
-        <v>396</v>
-      </c>
-      <c r="K3" s="146" t="s">
-        <v>395</v>
+      <c r="B3" s="142" t="s">
+        <v>431</v>
+      </c>
+      <c r="C3" s="143" t="s">
+        <v>429</v>
+      </c>
+      <c r="D3" s="143" t="s">
+        <v>428</v>
+      </c>
+      <c r="E3" s="143" t="s">
+        <v>427</v>
+      </c>
+      <c r="F3" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="G3" s="144" t="s">
+        <v>428</v>
+      </c>
+      <c r="H3" s="144" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="148" t="s">
+        <v>429</v>
+      </c>
+      <c r="J3" s="148" t="s">
+        <v>428</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>427</v>
       </c>
       <c r="L3" s="61"/>
       <c r="M3" s="61"/>
       <c r="N3" s="61"/>
       <c r="O3" s="61"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="61"/>
-      <c r="B4" s="137" t="s">
-        <v>400</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>395</v>
-      </c>
-      <c r="D4" s="135" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="135" t="s">
-        <v>397</v>
-      </c>
-      <c r="F4" s="136" t="s">
-        <v>395</v>
-      </c>
-      <c r="G4" s="136" t="s">
-        <v>396</v>
-      </c>
-      <c r="H4" s="136" t="s">
-        <v>397</v>
-      </c>
-      <c r="I4" s="147" t="s">
-        <v>395</v>
-      </c>
-      <c r="J4" s="147" t="s">
-        <v>396</v>
-      </c>
-      <c r="K4" s="148" t="s">
-        <v>397</v>
+      <c r="B4" s="140" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="F4" s="139" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="139" t="s">
+        <v>428</v>
+      </c>
+      <c r="H4" s="139" t="s">
+        <v>429</v>
+      </c>
+      <c r="I4" s="150" t="s">
+        <v>427</v>
+      </c>
+      <c r="J4" s="150" t="s">
+        <v>428</v>
+      </c>
+      <c r="K4" s="151" t="s">
+        <v>429</v>
       </c>
       <c r="L4" s="61"/>
       <c r="M4" s="61"/>
       <c r="N4" s="61"/>
       <c r="O4" s="61"/>
     </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="61"/>
-      <c r="B5" s="138" t="s">
-        <v>401</v>
-      </c>
-      <c r="C5" s="202" t="s">
+      <c r="B5" s="141" t="s">
+        <v>433</v>
+      </c>
+      <c r="C5" s="211" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="203" t="s">
-        <v>398</v>
-      </c>
-      <c r="G5" s="203"/>
-      <c r="H5" s="203"/>
-      <c r="I5" s="204" t="s">
-        <v>403</v>
-      </c>
-      <c r="J5" s="204"/>
-      <c r="K5" s="205"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="212" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="212"/>
+      <c r="H5" s="212"/>
+      <c r="I5" s="213" t="s">
+        <v>435</v>
+      </c>
+      <c r="J5" s="213"/>
+      <c r="K5" s="214"/>
       <c r="L5" s="61"/>
       <c r="M5" s="61"/>
       <c r="N5" s="61"/>
       <c r="O5" s="61"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="61"/>
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
@@ -10323,7 +10616,7 @@
       <c r="N6" s="61"/>
       <c r="O6" s="61"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="61"/>
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
@@ -10340,7 +10633,7 @@
       <c r="N7" s="61"/>
       <c r="O7" s="61"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="61"/>
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
@@ -10357,7 +10650,7 @@
       <c r="N8" s="61"/>
       <c r="O8" s="61"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="61"/>
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
@@ -10374,7 +10667,7 @@
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="61"/>
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
@@ -10391,7 +10684,7 @@
       <c r="N10" s="61"/>
       <c r="O10" s="61"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="61"/>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -10408,7 +10701,7 @@
       <c r="N11" s="61"/>
       <c r="O11" s="61"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="61"/>
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
@@ -10425,7 +10718,7 @@
       <c r="N12" s="61"/>
       <c r="O12" s="61"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="61"/>
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
@@ -10442,7 +10735,7 @@
       <c r="N13" s="61"/>
       <c r="O13" s="61"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="61"/>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -10459,7 +10752,7 @@
       <c r="N14" s="61"/>
       <c r="O14" s="61"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="61"/>
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
@@ -10476,7 +10769,7 @@
       <c r="N15" s="61"/>
       <c r="O15" s="61"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="61"/>
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
@@ -10493,7 +10786,7 @@
       <c r="N16" s="61"/>
       <c r="O16" s="61"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="61"/>
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
@@ -10510,7 +10803,7 @@
       <c r="N17" s="61"/>
       <c r="O17" s="61"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="61"/>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -10527,7 +10820,7 @@
       <c r="N18" s="61"/>
       <c r="O18" s="61"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="61"/>
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
@@ -10544,7 +10837,7 @@
       <c r="N19" s="61"/>
       <c r="O19" s="61"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="61"/>
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
@@ -10561,7 +10854,7 @@
       <c r="N20" s="61"/>
       <c r="O20" s="61"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="61"/>
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
@@ -10578,7 +10871,7 @@
       <c r="N21" s="61"/>
       <c r="O21" s="61"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="61"/>
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
@@ -10595,7 +10888,7 @@
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="61"/>
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
@@ -10612,7 +10905,7 @@
       <c r="N23" s="61"/>
       <c r="O23" s="61"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="61"/>
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
@@ -10629,7 +10922,7 @@
       <c r="N24" s="61"/>
       <c r="O24" s="61"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="61"/>
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
@@ -10646,7 +10939,7 @@
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="61"/>
       <c r="B26" s="61"/>
       <c r="C26" s="61"/>
@@ -10663,7 +10956,7 @@
       <c r="N26" s="61"/>
       <c r="O26" s="61"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="61"/>
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
@@ -10680,7 +10973,7 @@
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="61"/>
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
@@ -10697,7 +10990,7 @@
       <c r="N28" s="61"/>
       <c r="O28" s="61"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="61"/>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -10732,168 +11025,168 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.53515625" customWidth="1"/>
-    <col min="3" max="3" width="65.61328125" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="65.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="119" t="s">
+    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="121" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="115" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="116" t="s">
         <v>331</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="117" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C4" s="117" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B5" s="115" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="117" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" s="115" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="116" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="116" t="s">
+      <c r="C6" s="117" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="115" t="s">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="117" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" s="115" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="116" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" s="115" t="s">
+      <c r="C8" s="117" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="116" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="116" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B10" s="115" t="s">
-        <v>360</v>
-      </c>
-      <c r="C10" s="116" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-    </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
+      <c r="C9" s="117" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="116" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="117" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+    </row>
+    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="118"/>
+      <c r="C31" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
